--- a/기사데이터/토스/엑셀파일/news(토스, 2022.02.16~2022.02.28).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.02.16~2022.02.28).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2956,2506 +2956,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>금감원장, 글로벌 최고위급 인사 면담…우크라사태 등 공조 강화</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013013054?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>해외 출장서 ECB 총재 등 만나…"최고위급 핫라인 구축 협의"크리스틴 라가르드 ECB 총재와 정은보 금감원장[금감원 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 정은보 금융감독원장이 글로벌 경제·금융 최고위급 인사들과 만나 우크라이나 사태 등 글로벌 금융 불안에 대응하기 위한 국제 공조 방안을 논의했다.    25일 금융감독원에 따르면 정 원장은 이달 16∼24일 해외 출장에서 크리스틴 라가르드 유럽중앙은행(ECB) 총재 등 글로벌 금융시장의 불확실성 증대 가능성에 대한 인식을 공유했다.    특히 우크라이나 사태가 금융시장 불안과 실물경제 악화로 급속하게 전이될 상황에 대비해 '최고위급 핫라인(Hot-line)'을 구축해 글로벌 공조 체계를 강화하는 방안에 대해 협의했다.    최고위급 수장들은 한국 경제가 코로나19 위기 극복 과정에서 다른 주요국에 비해 견고한 펀더멘털을 유지하고 있으며, 위기관리 측면에서도 충분한 능력을 갖추고 있다고 평가했다.    특히 국제신용평가사인 무디스의 롭 파우버 회장은 한국의 거시·미시 건전성 조치, 신속한 팬데믹 대응 등을 높이 평가하며 향후 시장 불확실성에 효과적으로 대응할 수 있을 것이라고 예상했다.    파우버 회장은 "팬데믹 대응 과정에서 한국의 부채비율 증가는 여타 선진국 대비 상대적으로 양호한 수준"이라며 "올해 예정된 신용등급 평가에서도 한국 경제의 안정적 운용에 대해 종합적으로 평가할 예정"이라고 말했다.    샘 우즈 영국 건전성감독청장은 코로나19 이후 실시된 한국의 취약계층에 대한 금융규제 유연화 조치를 영국에서 벤치마킹하고 싶다는 의사를 표명하는 등 한국의 거시건전성 감독 대응을 높이 평가한 것으로 전해졌다.    정 원장은 크리스틴 라가르드 유럽중앙은행(ECB) 총재와 만나 유로존의 통화정책 결정시 주요 고려사항 및 통화정책 전환 관련 접근방식을 공유하고, 금감원과 긴밀한 협력관계를 지속하는 데 합의했다.정은보 금감원장과 앤드루 베일리 BOE 총재[금감원 제공. 재판매 및 DB 금지]    앤드루 베일리 잉글랜드은행(BOE) 총재와도 거시·금융환경 불확실성에 대비해 기관 간 협력할 방안을 논의했다.    또 토스튼 포에취 독일 금융감독청(BAFIN) 부청장은 정 원장에 헤리티지 펀드와 관련한 정보제공 협조 요청에 최대한 협조할 것을 약속했다.    한편 정 원장은 미국·영국·독일에 진출한 한국 금융회사의 관계자들과 간담회를 개최하고, 기관별 애로사항을 현지 감독 당국에 전달하는 등 해외 진출 금융회사에 대한 지원 방안을 모색했다.    금감원은 "글로벌 금융시장 충격 대응을 위한 국제공조 체계를 더욱 공고히 하는 한편, 감독 당국 간 인력교류도 더욱 확대할 예정"이라고 밝혔다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[사설]핀테크협회장, 소명의식 가져야</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002999384?sid=110</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지차기 핀테크산업협회장으로 이근주 한국간편결제진흥원장이 당선됐다. 민간 기업 최고경영자(CEO) 출신이 아닌 인물이 당선된 건 이번이 최초다. 업계에서 거는 기대가 어느 때보다 크다.이근주 협회장은 기업은행에 몸담았던 시절에 국내 디지털금융을 이끈 1세대로 불린다. 모바일뱅킹 전환을 주도하고, 현재 소비자가 가장 많이 활용하고 있는 오픈뱅킹 설계를 한 주역이기도 하다. 이후 핀테크산업협회 사무국장으로 있으면서 한국 핀테크 시장을 한 단계 성장시킨 현장형 인물로 불린다. 간편결제진흥원장까지 거치면서 한국 핀테크의 A부터 Z까지 함께하고 있는 사람으로 평가받는다. 그렇기에 더욱더 책임감과 소명의식을 가져야 한다.민간 CEO가 아닌 인물이 핀테크산업협회장으로 탄생한 것도 주목할 대목이다. 사욕보다는 업계를 위해서 뛸 수 있는 진정성이 필요한 시기다.한국 핀테크 시장은 태풍의 한가운데 있다. 올해가 그렇다. 마이데이터를 시작으로 후불결제, 블록체인 기반 서비스 개화 등 협회가 짊어지고 가야 할 과제가 산적해 있다.또 핀테크산업협회 출범 때 함께 회원사로 참여한 기업이 하나둘 유니콘으로 성장하고 있다. 토스, 카카오페이, 페이코 등 한국 대표 핀테크 유니콘 기업의 성장축을 받치고 그 뒤를 이끌 또 다른 유니콘 배출에 기여해야 한다.그러기 위해서는 아직도 상존해 있는 여러 풀뿌리 규제를 거두는데 협회가 주도적으로 나서야한다. 민·관을 잇고, 더 많은 경험과 전문성을 담은 정책 입안에 목소리를 내야 한다.이런 면에서 이 협회장은 적임자라고 보는 시각이 다수다. 그동안 디지털금융 현장에서 얻은 경험과 뚝심은 최고의 무기이자 그의 강점이다. 한국 핀테크 산업 발전에 주춧돌을 놓는 협회장이 되길 기대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>사장보다 높은 연봉, 코딩 전사 양성…“DT 개발자 확보하라”</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000795109?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[이코노미조선]  팬데믹 이후 심화 ‘개발자 쇼티지’ 新인재 전쟁 촉발 코로나19 팬데믹(pandemic·감염병 대유행) 이후 정보통신기술(ICT) 기업뿐 아니라 패션·뷰티·자동차 등 전통 업종의 디지털 전환이 가속화되면서 개발자 쇼티지(Developer Shortge) 현상이 전세계적으로 일고 있다. 소프트웨어 개발자 수요가 폭발적으로 급증했지만, 개발자 공급이 수요를 따라가지 못하고 있어서다. 개발자를 육성하는 코딩 학원 열풍이 불고, 자체 부트캠프(bootcamp·신병훈련소)를 통한 기업들의 선교육 후채용이 증가하고, 개발자를 위한 연봉이나 스톡옵션 같은 우대 조치 릴레이가 확대된 배경이다. 개발자 부족은 국가별 격차, 대기업과 중소기업⋅스타트업 간 격차, 기존 IT업체와 비IT업체와의 격차 확대로도 심화되고 있다. ‘이코노미조선’이 글로벌 이슈인 개발자 쇼티지의 배경과 기업들의 대응 방안을 짚어본 이유다. [편집자주]일러스트=이코노미조선 디자인팀.        “유능한 개발자, 연봉 최대 10억엔(약 100억원)에 모십니다.” 글로벌 패션 브랜드 ‘유니클로’를 운영하는 일본 패스트리테일링의 야나이 다다시 회장은 올해 1월, 디지털 인재 확보를 위해 경력직 개발직군 채용 직원의 연봉 상한액을 자신의 연봉(4억엔⋅약 40억원)보다 2.5배 많은 금액으로 올리겠다고 선언했다. 세계 최대 스포츠웨어 업체 나이키는 2021년 12월 가상 패션전문 NFT(Non Fungible Token·대체 불가 토큰) 스튜디오인 ‘RTFKT’를 인수했다.국내에서는 게임 빅3인 넥슨이 지난해 2월 개발자 초임 연봉 5000만원 시대를 열면서 게임 업계는 물론 다른 ICT(정보통신) 업계로 연봉 인상 릴레이를 확산시키는 방아쇠 역할을 했다.전 세계적으로 ICT 기업은 물론 패션⋅스포츠 등 전통업종 기업들까지 능력 있는 개발자 확보 전쟁에 뛰어들고 있음을 보여주는 사례들이다. 소프트웨어(SW) 개발자로 대표되는 개발자 확보 전쟁에는 코로나19 팬데믹(pandemic·감염병 대유행) 이후 디지털 전환(DT)이 빨라지면서 SW 엔지니어 부족이 심화된 개발자 쇼티지(Developer Shortge) 현상이 있다. 미국 노동부에 따르면 글로벌 SW 개발 인력 부족 규모가 2020년 12월 말 4000만 명에서 2030년 8520만 명으로 두 배 이상 늘어날 것으로 전망된다.국내에서도 한국소프트웨어정책연구소에 따르면 인공지능(AI) 클라우드 빅데이터 등에서의 개발자 부족 규모가 2020년 4967명에서 2022년 세 배가 넘는 1만4514명으로 확대될 것으로 예상된다. 국내 컴퓨터 프로그래밍 관련업 종사자가 2010년 4만4518명에서 2020년 10만7612명으로 10년 만에 2.4배로 늘었지만 부족 규모도 덩달아 커지고 있는 것이다. 개발자 부족은 국가별 격차, 대기업과 중소기업⋅스타트업 간 격차, 기존 IT 업체와 비IT 업체와 격차 확대로 심화되는 양상이다. 개발자 쇼티지는 업종 경계는 물론 국경도 없는 신(新)인재 전쟁을 격화시킨다. ‘이코노미조선’이 개발자 쇼티지를 진단하고, 기업들의 대응 방향을 모색한 이유다.디지털 전환이 불러온 개발자 수요 급증개발자 쇼티지 배경에는 수요 급증이 있다. 인공지능(AI) 응용 확산 등 4차 산업혁명 여건이 조성되는 가운데 ICT뿐 아니라 전통 업종들도 디지털 전환에 속도를 내고 있어서다. 야나이 회장이 “유니클로의 미래 경쟁자는 스페인 패션 업체인 자라(ZARA)가 아니라 ‘가파(GAFA, 구글·애플·페이스북(현 메타)·아마존)’가 될 것”이라고 한 것은 디지털 전환에 대한 강한 의지를 보여준다. 세계 최대 농기계 업체인 존디어가 올 1월 세계 최대 정보기술⋅가전 박람회 CES 2022에서 완전 자율주행 트랙터를 선보인 것도 디지털 전환과 무관치 않다. 글로벌 뷰티업계 1위 로레알은 2018년 3월 가상현실(VR) 기술 기업인 모디페이스를 인수한 이후 3D 가상 메이크업 같은 맞춤형 디지털 서비스를 제공할 수 있었고, 팬데믹 시기 매장 방문을 꺼리는 고객들로부터 호평을 받았다.자료=이코노미조선 정리        기업들은 개발자 확보를 위해 기술기업 인수는 물론 연봉이나 스톡옵션(주식매수선택권), 보너스 등을 경쟁적으로 높여 제시하고 있다. 경력 있는 개발자는 억대 연봉을 받고 이직하는 경우가 많아졌다. 카카오커머스는 2021년 3월 채용공고를 통해 신입 개발자들에게 1억원 상당의 스톡옵션을 약속했다. 토스는 2021년 입사 1주년을 맞은 경력직 개발자들에게 각각 1억원 상당의 스톡옵션을 제공했다. 삼성전자가 2021년 12월 전무 직급을 모두 없애고, 부사장과 직급을 통합한 것도 글로벌 빅테크로부터 러브콜을 받는 유능한 개발자의 이탈을 막기 위한 인사 우대 포석이라는 분석도 있다.무료로 진행하는 선교육 후핀셋식 채용 방식을 채택하는 기업들도 늘고 있다. 포스코ICT는 2021년 12월부터 ‘청년 IT 전문가 아카데미’라는 6개월 교육 프로그램을 개설, 교육 수료생을 대상으로 신입사원을 채용하기로 했다. 우아한형제들은 2019년 5월 개설한 개발자 양성 교육프로그램인 ‘우아한테크코스’ 웹 백엔드 과정을 통해 작년까지 146명의 수료생을 배출했고, 이 중 총 62명의 개발자를 신규 채용했다. 무료로 일반인을 대상으로 개발자 교육을 먼저 실시하고, 원하는 인재를 나중에 선발하는 방식이라는 점이 공통점이다. 정보기술(IT) 분야 커리어 컨설팅 기업 커리어컵(CareerCup)의 게일 라크만 맥도웰 CEO는 “기업이 필요로 하는 역량을 갖춘 개발자가 많지 않은 이른바 미스매치 현상이 전 세계적으로 일고 있다”며 “기본적으로 기업 스스로 개발 인력 양성에 나서야 한다는 건 분명하다”고 했다.개발자 생태계를 두껍게 하기 위해 기업들이 순수하게 사회공헌 차원에서 교육프로그램을 운영하는 사례도 적지 않다. 삼성이 2017년부터 운영 중인 무료 개발자 양성 프로그램인 ‘삼성청년SW아카데미(SSAFY)’가 대표적이다. 삼성은 입학생 전원에게 매달 100만원을 지급하고, 1년간 실무자 중심 SW 교육을 제공한다. 현재까지 약 2700명의 수료생이 배출돼 삼성전자를 포함해 카카오, 네이버, LG CNS, 현대모비스 등 643개 기업에 취업했다.SW 교육 의무화, 중심대학 지정 나섰지만정부도 공교육을 통한 개발자 공급 역량 확충에 노력하고 있으나 역부족이라는 지적이 나온다. 과학기술정보통신부는 2015년부터 SW중심대학을 지정해 지원해오고 있으며 2021년 기준 해당 41개 대학 관련 학과 입학정원이 8217명으로 6년 새 8배 수준으로 늘었다.하지만 초·중·고교에서 한국의 SW·AI 교육 의무 시간은 총 51시간에 그쳐 영국 374시간, 중국 212시간에 비해 크게 부족하다. 컴퓨터 프로그램을 짜는 코딩과 신병훈련소를 뜻하는 부트캠프(boot camp)를 합친 민간 ‘코딩 부트캠프’가 성행하는 배경이다. 업계에서는 서울 강남 일대 등에 있는 코딩 학원 10여 곳의 연간 수강생이 1만 명을 넘을 것으로 추산한다. 4개월 수강료가 1300만원에 달하는 코딩 학원에 취준생부터 퇴직자까지 신청자가 몰리고 있다.자료=디랩        초등학생 대상 조기 코딩 교육도 인기다. 코딩 교육 스타트업 코드스테이츠와 엘리스는 2021년 매출이 각각 전년 대비 475%, 270% 급증한 95억원, 110억원을 기록했다. 코딩 교육 업체 디랩에 따르면 2019년 1500억원에 달했던 국내 코딩 교육 시장은 2030년 1조5000억원에 이를 전망이다.개발자 쇼티지를 극복하기 위해선 인재 수요자인 기업과 공급자인 대학의 협업은 물론 규제완화도 시급하다는 목소리가 많다. 이찬 서울대 산업인력개발학 교수는 “빠르게 변하는 산업 현장의 기술 수준에 맞춘 개발자 양성 교육이 현행 대학 커리큘럼상 불가능하다”며 “SW 관련학과를 나와도 기업이 재교육해야 하고, 단순한 학부 정원 확대로는 양질의 기초 개발자 숫자가 늘기는 어려운 딜레마적 상황”이라고 지적했다.plus pointInterview 이진석 정보통신기획평가원 수석연구원“AI 개발자 육성 정부·대학 노력만으로는 역부족…민간 투자 중요”심민관 기자이진석 정보통신기획평가원 수석연구원. /이진석        “AI대학원은 석·박사급 고급 인력 배출이 목표이지만, 연간 정부 지원금 200억원만으로는 역부족이다. 기업 등 민간 투자가 늘어야 한다.”이진석 정보통신기획평가원 수석연구원은 2월 9일 ‘이코노미조선’과 인터뷰에서 이같이 밝혔다. 과학기술정보통신부 산하기관인 정보통신기획평가원은 국내 AI대학원 설립 및 운영 등에 대한 정책 지원을 수행하며 AI대학원 관련 사업을 전담하는 곳이다. 이 수석연구원은 “전국 10개 AI대학원 한 곳당 연간 20억원의 정부 지원금이 투입되고 있지만 교수진 확보와 정원 확대를 위해선 민간 투자 확대가 절실하다”고 했다. 그는 “2019년 고려대, 카이스트 등 5개 대학을 시작으로 AI대학원을 출범한 직후 한 학교당 교수 수는 평균 10명이었지만, 2년여 만에 평균 15명으로 늘었다”며 “앞으로 좋은 교수진을 충분히 더 확보해야 정원을 더 늘릴 수 있는데 정부 지원금과 대학 자체 재정만으로는 한계가 있다”고 했다.이 수석연구원은 AI대학원이 개발자 쇼티지 해결의 실마리가 될 것이라고 기대했다. 그는 “현재까지 입학생 수는 988명으로 이 중 90% 이상이 석·박사 통합과정 또는 박사과정으로 아직 졸업생을 많이 배출하진 못했지만, 2~3년 뒤부터 AI대학원 졸업생들이 본격적으로 취업을 시작할 것”이라고 했다.김보영 인턴기자, 서상희 디자이너김보영 인턴기자, 서상희 디자이너 -더 많은 기사는 이코노미조선에서 볼 수 있습니다.&lt;관련기사&gt;[개발자 쇼티지] ①팬데믹 이후 심화 ‘개발자 쇼티지’ 新인재 전쟁 촉발[개발자 쇼티지] ②[Infographic] 글로벌 SW 개발자 쇼티지 Part 2. 디지털 인재 확보 나선 기업들[개발자 쇼티지] ③[Interview] 손부한 세일즈포스코리아 대표[개발자 쇼티지] ④모린 로너간 아마존웹서비스 교육&amp;자격증 부문 부사장[개발자 쇼티지] ⑤[Interview] 송재하 우아한형제들 CTO[개발자 쇼티지] ⑥[Interview] 권순선 구글 머신러닝 개발자 생태계 프로그램 리드[개발자 쇼티지] ⑦[Interview] IT 커리어 컨설팅 전문가 게일 라크만 맥도웰 커리어컵 창업자 겸 CEO[개발자 쇼티지] ⑧[Interview] 이찬 서울대 산업인력개발학 교수</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>年 10% 금리 청년희망적금 돌풍…조기 소진 가능성 있어 서둘러야</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003673633?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>닷새만에 50만명 몰려청년희망적금 신청자격을 조회하는 '미리보기' 서비스가 지난 9일부터 11개 은행 앱에서 시작된 가운데, 닷새만에 신청 건수가 50만건을 돌파할 정도로 청년들이 몰리며 여러 은행에서 결과 확인이 지연되고 있다. 사진은 KB국민은행이 고객에게 보낸 양해 문자. 										21일 출시를 앞둔 ‘청년희망적금’의 인기가 뜨겁다. 만 19~34세만 가입 자격이 있는데, 연 10% 안팎 고금리 효과를 기대할 수 있기 때문이다.17일 은행권에 따르면, 가입 가능 여부를 확인할 수 있는 ‘미리 보기’ 신청 건수가 지난 9일 서비스를 개시한 지 닷새 만에 50만건을 돌파했다. 이처럼 몰리다 보니 2~3일 정도 걸렸던 결과 조회가 1주일 가까이 지연되는 사태까지 벌어지고 있다. 국세청 등의 소득 자료를 조회하는 서민금융진흥원 전산망에 과부화가 걸렸기 때문이다. 지난 16일 부랴부랴 전산망을 추가로 확보해 처리 속도를 2배로 끌어올렸지만 이날 오후까지도 일부 은행에서는 정체가 풀리지 않았다.금융 당국도 놀란 인기몰이							청년희망적금은 지난해 기준 총급여 3600만원(종합소득 금액 2600만원) 이하인 만 19~34세가 가입할 수 있는 2년 만기 적금이다. 월 납입액은 최대 50만원이다. 정부 장려금(최대 36만원)과 비과세 혜택을 합치면 최고 10.49%대 적금에 가입하는 것과 같다.금리가 파격적으로 높지만, 납입 한도가 적다 보니 2년 만기시 받는 이자는 최대 111만원(원금 1200만원)이다. 그래서 처음 정책을 발표했을 때 “실질 이자도 얼마 안 되는데 정부가 너무 생색낸다”는 비판이 나왔는데 막상 출시를 앞두고 청년층의 폭발적 호응을 얻고 있다. 유튜브는 물론 재테크 블로그, SNS(소셜네트워킹서비스), 취업 준비생 커뮤니티 등이 관련 게시물로 들썩이고 있다. “가입 안 하면 손해”라는 분위기가 번지고 있다.서민금융진흥원에서는 조기 마감을 예상하고 있다. 가입 시한은 올해 말까지지만, 올해 배정된 사업 예산 456억원이 소진되면 선착순 마감된다. 올해 들어가는 정부 저축 장려금(1인당 최대 12만원)을 기준으로 단순 계산하면 38만여 명 정도가 가입할 수 있을 것으로 추정된다. 은행 관계자는 “조기 마감 조짐이 보이는 만큼, 출시 첫 주 출생 연도별 5부제 때 일찍 가입해두는 것이 안전하다”고 말했다. 은행권 가입자 유치 경쟁도 치열							은행들도 가입자 유치 경쟁에 나섰다. 일부 은행은 청년희망적금 ‘미리 보기’를 신청한 뒤 정식으로 적금에 가입하면 추첨을 통해 고가 경품을 주는 행사를 하고 있다. 국민은행은 100만원대 태블릿 PC나 스마트TV, 스마트워치, 명품 지갑 등을 경품으로 걸었다. 우리은행은 이벤트 응모자 중 5명을 뽑아 현금 50만원을, 1000명에게는 스타벅스 쿠폰을 지급한다. 신한은행은 선착순 1만명에게 스타벅스 쿠폰을 준다. 한 은행 관계자는 “인터넷 전문 은행 때문에 20대와 30대 신규 고객을 유치하기가 어려워졌는데, 청년희망적금은 좋은 기회가 될 수 있어 역마진을 감수하더라도 적극적으로 나서고 있다”고 말했다.우대 금리를 뒤늦게 높이는 은행도 늘고 있다. 청년희망적금을 다루는 은행 11곳(KB국민·신한·하나·우리·NH농협·기업·부산·대구·광주·전북·제주은행) 가운데 국민은행의 우대 금리가 1.0%포인트로 최고라는 소식이 지난 9일 알려진 뒤 신한은행과 NH농협은행이 각각 0.7%포인트와 0.5%포인트였던 우대 금리를 1.0%포인트로 끌어올렸다. 인터넷 은행은 모두 불참							카카오·케이·토스뱅크 등 인터넷 은행 3곳은 청년희망적금을 취급하지 않는다. 서민금융진흥원과 전산 연계, 병역 우대 혜택을 주기 위한 증명 서류 확인, 적금 중도 해지 시 관리 등에 필요한 전산 개발 부담을 이유로 참여를 포기한 것으로 알려졌다. 한 인터넷 은행 관계자는 “청년희망적금과 관련해 필요한 서비스를 100% 모바일로 구현하는 데 들어가는 부담이 커서 참여하지 못했다”고 말했다. 금융권에서는 20~30대가 많이 이용하는 인터넷 은행이 청년층 지원을 위해 정부가 지원하는 정책 상품을 취급하지 않는 것에 대해 비판이 나온다. 금융 당국 관계자는 “청년층 고객이 많은 인터넷 은행들이 청년희망적금을 외면한 것은 씁쓸하다”고 말했다. 한 시중은행 관계자는 “인터넷 은행은 매번 전산 개발 부담을 이유로 들며 정부 정책에 참여하지 않는 경향이 있다. 이번에도 별 마진이 남지 않으니 불참한 것 같다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.02.19.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>개인사업자 대출 경고음 커지는데…인뱅은 앞다퉈 시장진출</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003611377?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>핵심요약개인사업자 대출 증가율 가계대출 앞질러만기연장·상환유예 곧 종료 예정…부실 우려↑인뱅 대출 상품 속속 출시…대출 급증 가능성서울의 한 은행에 붙은 대출 안내 현수막. 연합뉴스코로나19 사태 이후 자영업자를 주 대상으로 하는 개인사업자 대출 증가율이 가계대출 증가율을 앞지른 것으로 나타났다. 사회적거리두기 등으로 수입이 줄어들어 빚에 의존하는 자영업자가 많아졌을 뿐만 아니라 개인사업자 대출을 주택 구입 용도 등으로 유용한 것도 한 원인으로 지목되고 있다. 이런 가운데 오는 3월 자영업자 등에 대한 대출 만기 연장과 원리금 상환 유예 등 금융지원이 끝날 가능성이 높아 개인사업자 대출을 중심으로 경고음이 커지고 있지만, 각 인터넷전문은행들이 사업확장의 일환으로 앞다퉈 개인사업자 대출 시장에 뛰어들고 있어 부실 가능성을 더 키울 수 있다는 우려가 나오고 있다.개인사업자 대출 증가율 가계대출 앞질러한국은행이 매달 발표하는 금융시장 동향에 따르면 예금은행(은행신탁 포함)의 지난 1월말 기준 개인사업자 대출 잔액은 425.1조원으로 코로나19 사태 이전인 2020년 1월말(340.1조원) 대비 85조원 늘어난 것으로 집계됐다. 같은 기간 가계대출은 892조원에서 1060.2조원으로 168.2조원 늘어났다. 규모만 따져보면 가계대출 증가폭이 더 컸지만 증가율을 비교해보면 같은 기간 가계대출 증가율은 16% 였던 반면, 개입사업자 대출 증가율은 20%에 달했다.이 기간 부동산 가격이 폭등하며 가계대출 증가율이 사상 최대치를 기록한 상황을 감안해 보면 개인사업자 대출 증가율이 이를 앞지른 것은 이례적인 일이다. 국민의힘 강민국 의원이 금융감독원으로부터 제출받은 국민·신한·하나·우리·씨티·SC제일은행 등 6개 시중은행의 개인사업자 대출 현황도 마찬가지다. 6개 시중은행의 개인사업자 대출 잔액은 2019년 말 210.6조원에서 2021년말 259.3조원으로 48.7조원, 19% 가량 증가했다. 이에 대해 강 의원은 "개인사업자대출이 매년 증가하고 있다는 것은 그만큼 개인사업자들이 대출에 의존해 사업을 운영하고 있을 개연성이 높다는 것이기에 그만큼 경기가 어렵다는 것을 입증한다"고 지적했다.만기연장·상환유예 곧 종료 예정…부실 우려↑ 문제는 개인사업자 대출이 가파르게 증가하고 있는 반면 이들의 상환 능력은 갈수록 악화되고 있다는 데 있다. 금융위원회 집계에 따르면 지난해 10월말 기준 시중은행과 정책금융기관, 제2금융권 등 전 금융권의 대출 만기연장·상환유예 지원 건수는 약 106만건(중복·복수 지원 포함), 규모는 261.2조원에 이르는 것으로 나타났다. 구체적으로 대출 만기연장 지원 건수는 95.5만건이고 규모는 247.4조원으로 집계됐다. 원금상환 유예는 각각 8.6만건, 13.6조원이고, 이자상환 유예는 각각 1.7만건, 2301억원이다. 지난해 1월말 기준 만기연장·상환유예 지원 건수는 44.2만건에 규모는 130.4조원이었다. 불과 9개월 만에 지원 건수와 규모가 모두 2배 이상 증가하는 등 대출 상환 능력이 떨어지는 자영업자나 중소기업이 기하급수적으로 늘고 있는 상황이다. 여기다 이런 생계형 개인사업자 대출 뿐만 아니라 주택구입 등 다른 곳으로 대출금을 전용하는 사례도 만만치 않을 것으로 추정된다. 금감원의 '국내 시중은행 개인사업자대출 용도 외 유용현황'에 따르면 지난 2018년부터 지난해까지 4년간 용도 외 유용으로 적발된 건수는 총 166건으로 금액은 422억이다. 은행 자체 점검 결과로 실제 유용 사례는 이보다 훨씬 많을 것으로 추정된다.연합뉴스영업실적이 악화돼 대출을 늘리든, 대출을 다른 용도로 사용하든 코로나19로 인한 서민경제 악화와 긴축에 따른 자산가격 하락 등과 맞물리며 모두 부실 위험이 높아질 수 있다. 때문에 개인사업자 대출 증가세를 억제해야 하는 시점이지만 최근들어 인터넷전문은행들이 개인사업자 대출 시장에 앞다퉈 뛰어들고 있어 이에 대한 우려가 적지않다.인뱅 개인사업자 대출 상품 출시…대출 급증 가능성토스뱅크는 지난 14일 인터넷 전문은행 중 최초로 개인사업자 대출을 내놨다. 케이뱅크도 올해 1분기 중 '개인사업자 운전자금 대출' 상품을 내놓을 예정이며, 카카오뱅크도 하반기 중으로 '개인사업자 SOHO(소호)대출'을 출시할 계획이다. 토스뱅크는 대출 신청부터 실행까지 100% 비대면, 무보증·무담보로 진행할 예정이며 나머지 인터넷은행 역시 비대면 대출이 기본이 될 것으로 예상돼 기존 은행에 비해 손쉽게 대출이 가능할 것으로 보인다. 이들 인터넷은행의 개인사업자 대출 시장 진출은 이미 예견된 수순이지만, 현재 개인사업자 대출이 급증하고 부실우려가 커지는 시점이라는 점이 문제다. 한 시중은행 관계자는 "인터넷은행이 뛰어들며 기존 개인사업자 대출 시장을 나눠먹는 효과도 있겠지만 비대면, 무보증·무담보를 내세워 공격적으로 영업에 나서면 개인사업자 대출 규모가 더 커질 가능성이 높다"고 설명했다. 금융당국은 영업환경이 악화돼 대출 수요가 생긴 자영업자 등의 대출을 막을 수는 없다는 점에서 일단은 개인사업자 대출이 다른 곳으로 유용되는 것은 막겠다는 입장이다.금감원은 지난 14일 발표한 업무계획을 통해 올해부터 가계 대출과 개인사업자 대출을 LTI(차주의 소득 대비 대출총액 비율)로 통합 관리해 실행 용도에 맞게 대출금이 쓰이는지 점검할 방침이다. 김미영 금감원 기획·경영 담당 부원장보는 "앞으로는 개인사업자대출의 각종 리스크 요인과 LTI 운영사례를 점검해 종합적인 개선방안을 강구할 것"이라고 설명했다. 다만, 인터넷은행까지 가세하며 개인사업자 대출이 급증할 가능성이 큰 만큼 이에 대한 대응 방안이 필요할 것으로 보인다. 한 금융당국 관계자는 "아직 최종 결론은 나지 않았지만 3월에 대출지원이 종료되면 개인사업자 대출 부실 문제가 수면에 떠오를 것"이라며 "인터넷은행이 개인사업자 대출에 뛰어드는 것을 막을 수는 없지만 철저한 리스크 관리가 필요할 것"이라고 말했다. 앞서, 고승범 금융위원장은 지난 14일 금융시장점검회의를 통해 '지금까지 경험 못한 경제‧금융여건의 변화가능성'을 언급하며 "금융권은 단기적 이익 추구에 매몰되어 직면한 리스크를 간과하거나 과소평가하는 우(愚)를 범하지 않기를 재차 당부한다"며 이례적으로 강한 어조로 금융사에 대해 경고의 메시지를 보냈다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : nocutnews@cbs.co.kr카카오톡 : @노컷뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>핀테크에 돈 몰린다…글로벌 투자 사상 최대</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004664787?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>케이뱅크·토스, 유치액 상위 올라사진=케이뱅크 제공지난해 세계 핀테크 투자 건수가 사상 최대치를 기록했다.17일 KPMG가 펴낸 '2021 핀테크 동향 보고서'에 따르면 지난해 글로벌 핀테크 투자 건수는 5684건으로 집계됐다. 1년 전(3764건)보다 51% 늘어난 것으로 역대 최대치다.투자 금액은 2101억 달러(약 251조 원)로 전년(1249억 달러) 대비 68% 늘었다. 가장 많은 돈이 몰린 분야는 지급결제로 517억 달러를 끌어모았다. 블록체인과 가상자산(302억 달러), 사이버 보안(48억 달러), 자산관리(16억 달러) 분야에 투자된 금액은 사상 최대를 기록했다.핀테크에 대한 벤처캐피털(VC) 투자는 2020년 462억 달러에서 2021년 1149억 달러로 두 배 이상 증가하면서 2018년 최고치(532억 달러)를 넘어섰다.KPMG 측은 보고서에서 "한국의 케이뱅크와 토스는 아시아·태평양 지역에서 각각 11억 달러, 4억1000만 달러 투자금을 모으며 투자 유치 순위에서 상위를 기록했다"고 전했다.조재박 삼정KPMG 핀테크 리더(전무)는 "코로나19 상황에서도 핀테크에 대한 투자 열기가 뜨거웠다"며 "향후 금융과 비금융의 합종연횡, 슈퍼 앱으로 진화를 위한 인수합병(M&amp;A), 블록체인 기술에 대한 기대감 등에 따라 글로벌 핀테크 투자가 지속될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[포스트IPO]엔비티, 실적은 좋아졌는 데</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005048067?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>지난해 매출액 87% 증가 영업이익 흑자전환상장 당시 예상치 대비 매출 150억 초과 달성보호 예수 기간 풀리면서 주요 임원 보유 주식 매도 엔비티가 상장한 지 1년여가 지났다. 실적은 좋아졌고 주가는 공모가를 밑돌고 있다. 신규 사업을 추진하는 과정에서 잡음이 발생했고 임원 가운데 일부가 보호예수 기간이 풀리자마자 차익실현에 나선 것도 영향을 준 것으로 보인다.22일 금융감독원에 따르면 엔비티는 지난해 매출액 828억원, 영업이익 33억원을 기록했다. 매출액은 87.0% 늘었고 영업이익은 흑자 전환했다. 순이익은 20억원으로 전년 대비 4.5% 감소했다.엔비티는 포인트 플랫폼 사업자로 캐시슬라이드(B2C), 애디슨 오퍼월(B2B) 등을 통해 광고주-매체-소비자를 포인트로 이어주는 사업을 하고 있다. B2B 제휴 포인트 네트워크 애디슨 오퍼월은 2018년 선보인 서비스로 네이버 웹툰과 시리즈, 네이버페이, 문피아 등 매체에서 포인트 충전소 등을 운영하고 있다. 애디슨 오퍼월은 이용자에게 혜택 경험을, 제휴 매체사에 추가 수익을 제공한다. 이용자가 오퍼월을 통해서 앱을 설치하거나 상품을 구매했을 때 실시간으로 보상을 제공한다. 적립한 포인트는 제휴 매체사 내에서 유료 콘텐츠를 결제하거나 상품을 구매하는 데 사용한다. 애디슨 오퍼월을 적용한 대표적 사례로는 네이버웹툰, 네이버시리즈의 무료 쿠키 충전소인 '쿠키오븐'과 네이버페이의 '포인트 혜택' 등이 있다. 이외에도 토스, 카카오 T, 헬로우봇, 라프텔, 문피아, 북팔 등 다양한 분야의 제휴 플랫폼을 확보하고 있다.미래에셋증권은 보고서를 통해 "국내 포인트 시장규모는 20조원으로 연 10% 이상 성장하는 것으로 추정한다"며 "애플리케이션(앱) 시장이 성숙기에 진입하면서 락인효과를 강화하는 오퍼월이 주목받을 것"이라고 분석했다.이어 "국내 1위 오퍼월 플랫폼인 애디슨 오퍼월을 운영하는 엔비티가 시장 성장의 최대 수혜를 볼 것"이라며 "오퍼월 업종 특성상 초기 네트워크를 구축하고 나면 수익성이 좋아질 것"이라고 덧붙였다.엔비티는 지난해 초 상장 당시 제시한 추정 손익계산서를 보면 지난해 매출액 678억원, 영업이익 43억원을 달성할 것으로 예상했다. 실제 실적과 비교하면 매출액은 150억원 초과 달성했지만 영업이익은 예상치를 밑돌았다.엔비티 주가는 공모가 1만9000원을 소폭 밑돌고 있다. 지난해 1월21일 상장 첫날 공모가 대비 100% 오른 3만8000원으로 거래를 시작해 장중 한때 4만9000원까지 오르기도 했다. 이후 주가는 지난해 10월 1만6200원까지 내렸다. 이후로 가상 부동산 거래 플랫폼 '세컨서울'에 대한 기대와 함께 3만6600원까지 회복했다. 올해 들어 시장 변동성이 커지고 차익실현을 위한 매도 물량이 나오면서 주가는 다시 뒷걸음질 쳤고 공모가 아래로 내려왔다.곽근봉 이사와 박광연 이사가 지난달 1월25일 시간외 매매를 통해 보유 지분 59만1400주를 모두 매도했다는 소식도 전해졌다. 2012년 박수근 엔비티 대표가 창업할 당시 함께 했던 곽 이사와 박 이사는 각각 지분 7.11%(59만1400주)를 보유했다. 최대주주 및 특수관계인 보유 주식은 코스닥시장 상장규정에 따라 상장일로부터 1년간 매각이 제한된다. 엔비티는 '세컨서울' 베타 서비스 운영을 중단하고 핵심 개발팀을 투입해 정식 서비스를 준비하고 있다. 세컨서울은 실제 서울지역을 수만 개의 타일로 나눈 뒤 소유할 수 있게 만든 메타버스 부동산 플랫폼이다. 플랫폼 오픈 이후에 NFT 형태의 서울 토지를 거래할 수 있다. 소비자 플랫폼 서비스를 시작하면 소비자가 서울 안에서 어떤 것을 소비했는지 정보를 제공하고 보상으로 세컨서울 자체화폐를 받을 수 있다. 소상공인 플랫폼은 타게팅 광고 플랫폼으로 활용할 수 있다. 이상헌 하이투자증권 연구원은 "세컨서울 프로젝트는 가상의 서울을 메타버스로 구현한 것이 아닌 실제 서울에 살아가는 서울 시민과 소상공인이 연결된 플랫폼을 목표로 하고 있다"며 "집객효과 등 메타버스 플랫폼으로서 성장성 등이 가시화될 것"이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>JT저축은행, 총자산 2조원 돌파…출범 7년 만에 총 자산 6배↑</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001954331?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>“디지털 서비스 및 리스크 관리 역량 강화”JT저축은행이 출범 7년 만에 총 자산 2조원을 돌파했다. 사진은 경기도 성남시에 위치한 JT저축은행 본사.[JT저축은행 제공][헤럴드경제=이태형 기자]JT저축은행이 2015년 출범 이후 총 자산 규모가 약 6배 늘어나며 총자산이 2조원을 돌파했다.JT저축은행은 지난 2015년 SC저축은행 인수 시(2015년 1월) 약 3369억원이던 총 자산 규모가 지난 1월말 기준 약 2조1500억원으로 증가하며 출범 7년 만에 6배의 성장세를 기록했다고 22일 밝혔다.JT저축은행의 꾸준한 성장의 배경에는 고객 신뢰감을 얻은 것이 주효했다는 게 회사측의 설명이다.고객 신뢰의 바로미터 역할을 하는 수신 상품 잔액은 출범 당시 2725억 원이었으나 올해 1월말 기준 1조9122억원 규모로 증가해 약 7배 가량 성장했다.ISA(개인종합자산관리계좌), 퇴직연금 등 다양한 금융상품을 제공하는 한편, 특정 조건이 없어 여유자금을 탄력적으로 운영하는 파킹통장인 ‘JT점프업 저축예금’을 통해 수신액을 늘렸다.균형 잡힌 여신 포트폴리오도 성장세의 한 몫을 차지하고 있다.JT저축은행은 과거 SC저축은행 인수 당시 햇살론과 일반신용대출 등 일부 가계대출에 편중된 사업 구조를 바로 잡기 위해 다양한 중금리 상품을 출시하고, 지난 2016년에는 기업금융팀을 신설하는 등 사업 구조 조정에 집중해 1월말 기준 기업과 가계대출의 비중은 5.5대 4.5를 보이고 있다.특히 JT저축은행은 법정상한금리 인하 전 업계 최초로 개인신용 신규 대출 금리를 연 20% 이하로 운용하면서 업계의 금리 인하를 유도했고, 1월 기준 개인신용 대출 평균 금리 연 13%대로 운용하고 있다.여·수신의 균형적 성장과 함께 최근에는 탄력적인 조직개편을 통해 디지털 역량 강화를 추진하고 있다.혁신플랫폼사업팀을 신설해 토스, 카카오페이, 핀크, 시럽, 마이뱅크 등 혁신 금융사와의 제휴를 확대하고, 자동 심사 기능을 탑재한 모바일 즉시 대출 서비스를 제공 중이다.이와 함께 데이터마이닝팀을 신설해 내부 고객 데이터를 분석해 더 많은 고객에게 보다 안전한 금융 서비스를 제공하는 역량도 강화해가고 있다.최성욱 JT저축은행 대표는 “출범 후 꾸준한 성장의 배경에는 경영 전략의 변화 뿐 아니라 고객의 성원이 함께 있었기에 가능했다”며 “디지털 서비스의 편의성이 나날이 중요해지는 이때 서비스 개선 뿐 아니라 대내외적 리스크 관리 역량을 더욱 강화해 지속 가능한 성장을 이어갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>'두나무' 투자한 한화투자증권, 토스뱅크 지분도 확대</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005152358?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[이데일리 김인경 기자] 한화투자증권이 토스뱅크의 유상증자에 참여해 지분을 확대하기로 결정했다. 두나무 투자에 이어 연일 디지털 투자를 확대하는 모습이다.한화투자증권은 토스뱅크의 유상증자에 참여해 주식 600만주를 취득하기로 결정했다고 공시했다. 취득금액은 300억원이며 이는 자기자본대비 2.4%에 해당하는 규모이다. 취득 후 한화투자증권의 지분율은 8.86%에서 10.0%로 확대된다. 취득예정일자는 오는 24일이다.앞서 한화투자증권은 지난 2019년 3월 247억5000만원을 투자하며 토스뱅크 컨소시엄(토스혁신준비법)에 주요주주로 참여한 바 있다. 이를 통해 금융상품 개발, 인터넷전문은행과 연계한 다양한 혁신사업모델 구축 등을 추진한다는 계획이었다. 이어 지난해 10월에도 300억원을 들여 토스뱅크의 보통주 450만주와 전환주 150만주를 매입했다. 한화투자증권은 “토스뱅크와의 제휴, 상품·서비스 개발 등 협업을 통한 동반성장을 적극 추진하는 한편, 기업가치를 증대하고 재무적 이익을 추구해 나갈 것”이라고 말했다.한편 한화투자증권은 지난해 1분기 퀄컴으로부터 두나무의 지분을 취득하는 등 ‘디지털 투자’에 방점을 찍고 있다. 지난해 3분기 한화투자증권의 보고서에 따르면 한화투자증권은 두나무 지분 6.14%(206만9450주)를 보유하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>JT저축은행, 총자산 2조원 돌파…출범 7년만에 6배 성장</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002504304?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>JT저축은행은 출범 7년 만에 총자산 규모가 지난달 말 기준 2조1500억 원을 기록했다고 22일 밝혔다. 이는 JT저축은행이 SC저축은행을 인수해 출범했던 2015년 1월 당시 총자산(3369억 원)의 약 6배에 달한다.이런 성장에는 예금 등 수신 금액이 증가한 영향이 컸다. JT저축은행의 총수신 금액은 잔액 기준으로 출범 당시 2725억 원에서 지난달 말 기준 1조9122억 원으로 7배가량으로 늘었다. JT저축은행은 과거 SC저축은행 인수 당시 햇살론과 일반신용대출 등 일부 가계대출에 편중된 사업 구조를 바로 잡기 위해 다양한 노력을 기울였다.가계대출 상품 경쟁력을 올리기 위해 중금리 상품을 출시했고 2016년에는 기업금융팀을 신설하는 등 사업 구조 조정에 집중해 지난달 말 기준으로 기업과 가계대출의 비중은 5.5대 4.5로 조정됐다. 특히 JT저축은행은 법정 상한금리를 인하하기 전에 업계 최초로 개인신용 신규 대출 금리를 연 20% 이하로 운용하면서 업계의 금리 인하를 유도했다. 1월 기준 개인신용 대출 평균 금리를 연 13%대로 운용하고 있다. 여수신 균형적 성장과 더불어 최근에는 조직개편을 통해 디지털 역량을 강화하고 있다. JT저축은행은 혁신플랫폼사업팀을 신설해 토스, 카카오페이, 핀크, 시럽, 마이뱅크 등 혁신 기업들과의 제휴를 확대하고 있다. 이를 통해 자동 심사 기능을 탑재한 모바일 즉시 대출 서비스를 제공한다. 데이터마이닝팀도 신설, 내부 고객 데이터 분석을 통해 더 많은 고객에게 더 안전한 금융 서비스를 제공하는 역량도 강화하고 있다.최성욱 JT저축은행 대표는 “디지털 서비스의 편의성이 나날이 중요해지는 이때 서비스 개선뿐 아니라 대내외적 리스크 관리 역량을 더욱 강화해 지속 가능한 성장을 하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[인터넷은행 5년⑤]세계 인터넷은행 희비 가른 차별화…해답은 'IT금융'</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005051257?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>수수료·금리만 내세운 美2014년까지 14곳 사라져SNS 홍보·ATM기 대여 등차별화 공략 기업 승승장구업력 짧은 유망사 지원 공략IT로 해외시장 진출해야카카오뱅크가 ‘메기’로 화려한 데뷔에 성공하면서 국내 은행들을 긴장하게 만들었지만 5년이 지난 만큼 향후 시즌2를 보여줄 때라는 지적이 나온다. 초기 흥행에는 성공했지만 장기적으로 자산규모나 여·수신 규모에서 큰 차이가 나는 시중은행들과 경쟁에서 살아남기 위해서는 차별화 전략이 필수적이다.차별화 실패해 소멸한 인터넷은행들28일 관련업계에 따르면 해외에선 인터넷전문은행들이 우리나라보다 20년 앞선 1990년대 중반부터 등장하기 시작했지만 차별화에 실패하면서 퇴출 수순을 밟았다. 대표적인 경우가 세계 최초 인터넷은행이라고 불리는 미국의 시큐리티 퍼스트 네트워크 뱅크(Security First Network Bank)다. 1995년 설립된 이 은행은 낮은 수수료와 높은 예적금금리로 승부수를 던졌다. 하지만 수익 모델 구축에서 기존의 전통적인 은행들과 차별점을 만들어내지 못하고 ‘예대 업무’를 주요 서비스로 영위하다가 캐나다 RBC은행에 합병되면서 소멸의 길을 걸었다. 비슷한 시기 출범한 넷뱅크(Net Bank)도 상황은 비슷했다. 은행권 평균금리를 뛰어넘는 금리경쟁력으로 승부를 걸었지만 주택담보대출에 국한된 단순한 사업구조가 문제였다. 넷뱅크는 경기침체로 인한 대출부실화로 부도를 맞았다. 가격경쟁력이나 사업다각화 실패가 위기의 주요 원인이 됐다. 자본시장연구원 보고서에 따르면 미국은 2014년까지 14곳의 인터넷 전문 은행이 부도·피인수·자진 폐업으로 퇴출됐는데, 이들의 공통점은 기존 은행과 차별적인 고객 기반을 보유하지 못한 곳들이었다. 국내 인터넷은행들이 교훈으로 삼아야 할 사례다.반면 차별화로 성공한 해외 인터넷은행들도 있다. 독일 피도르(Fidor)은행의 경우 트위터, 페이스북, 유튜브 등 사회관계망서비스(SNS)를 활용한 전략을 펼쳤다. SNS를 통한 계좌 개설을 제공하고, 페이스북 ‘좋아요’ 클릭 수가 일정 수준에 도달하면 0.1%씩 예금 금리를 높이는 방식을 선보여 인기를 끌었다. 피도르 은행은 일반 은행 업무 외에도 P2P대출, 크라우드 펀딩, 주식, 귀금속 거래 등 다양한 서비스를 선보였다. 중국 알리바바가 운영하는 마이뱅크는 상인과 농민들을 대상으로 중금리대출을 공급하면서 금융 사각지대를 공략했다. 특히 알리바바 내에서 사업을 하는 소상공인을 대상으로 대출 상품을 판매하는 전략을 구사했다. 중국 최대 IT기업 텐센트가 설립한 위뱅크의 경우 메신저 ‘위챗’을 농촌 지역에 위치한 은행이나 소도시 은행과 연결했고, 위챗을 통해 은행은 소규모 대출, 현금대출 등 개인을 위한 소액 신용 대출 서비스에 나섰다. 중국의 기존 은행들에게 부족한 개인과 중소기업, 특히 영세 중소기업을 위한  서비스를 내세우면서 2억명이 넘는 고객을 확보했다.일본의 인터넷은행들은 출범 초기부터 금융과 다양한 산업이 연계된 형태로 출발해 각자 특색있는 사업모델로 자산 성장 및 수익기반을 다져왔다. 여·수신 중심의 이자수익 외에도 다양한 비이자수익을 확보할 방안을 마련했다는 것이다. 편의점 ‘세븐일레븐’을 보유한 세븐앤드아이홀딩스의 계열사인 세븐은행은 편의점을 활용한 사업구조가 강점이다. 세븐일레븐에 비치한 ATM 기기 대여, 예금 인출 등에 대한 수수료 수익이 영업이익의 90% 이상을 차지하는 수준이다. 하지만 국내 시장은 수수료와 같은 사업을 벌이기가 여의치 않은 환경이다. 이순호 한국금융연구원 은행보험연구실장은 "미국은 개인 수표도 많이 쓰는 데다 은행들이 ATM 수수료, 계좌유지 서비스 수수료 등 다양한 수수료 수익도 올리고 있다"며 "국내 시중은행들도 시도했다 철회한 경우도 있을 정도로 수수료에 대한 국내 금융 소비자들의 시선이 싸늘하다"고 설명했다.기술 기반 ‘IT금융’이 답카카오뱅크, 케이뱅크, 토스뱅크 등 국내 인터넷은행들이 향후 진출할 다음 단계는 기업금융 시장으로 예상된다. 이 시장에선 막대한 자산 규모와 그간의 업력으로 쌓은 네트워크 등을 갖춘 시중은행과 더욱 치열한 경쟁이 벌어질 것으로 보인다. 때문에 소매금융 시장에서보다 더 차별화가 절실할 수 있다.정유신 서강대 기술경영대학원장은 기술 기반의 ‘IT금융’이 해답이 될 수 있다고 강조했다. 사업구조가 탄탄하고 성장성이 있지만 시중은행이 대출 근거자료로 활용할 업력과 실적 등 ‘숫자’가 부족한 기술 중심 중소·벤처 기업들을 집중 공략해야 한다는 것이다. 이미 기술신용대출이라는 상품이 있지만 이마저도 부동산 담보 비중이 없지 않아 초기 단계 벤처나 스타트업들은 이용하기 어려운 실정이다. 정 원장은 "업력이 짧은 유망 기업들의 성장성과 사업구조, 기술력 등은 무형자산이기 때문에 시중은행이 담보를 설정하기 쉽지 않지만 인터넷은행들은 자신들부터 IT를 기반으로 성장해 유니콘으로 등극했고 각종 빅데이터를 분석할 기술적 역량도 갖췄다"며 "다소 리스크를 안더라도 이 영역을 선제적으로 개척한다면 인터넷은행과 중소벤처기업 모두에게 득이될 것"이라고 강조했다.이 같은 사업모델은 해외 시장 진출에도 큰 도움이 될 것으로 내다봤다. 윤호영 카카오뱅크 대표는 이달 초 온라인 기자간담회를 통해 올해부터 해외 진출을 추진한다고 공표했다. 토스는 베트남국제은행(VIB)과 제휴해 현지 신용카드와 소액단기대출 서비스도 출시했다. 정 원장은 "외부에서 한국의 금융은 인정하지 않아도 한국의 IT는 인정하는 만큼 ‘IT금융’으로 해외 시장에 진출해야 한다"며 "우리나라 인터넷은행들이 만든 표준 모델이 동남아시아 등의 지역으로 수출해 세계 표준이 된다면 그게 한국이 금융강국으로 등극할 수 있는 길"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>예금자 보호 한도 상향 논의 급물살, 은행들 “수신 경쟁·예보료 부담 늘 것”</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000795974?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>지난 2001년 설정된 이후 20년간 5000만원에 묶여 있는 예금자 보호 한도 상향 논의가 커지면서, 은행권도 촉각을 세우고 있다. 업계의 수신상품 경쟁을 유도하는 효과도 생길 것이란 전망이 있는 한편, 은행들이 지불해야 하는 비용 부담이 가중될 수 있다는 점에서 우려도 있다.예금보험제도란 금융사가 영업정지나 파산으로 예금자에게 예금을 돌려줄 수 없는 경우, 예금보험공사가 금융사를 대신해 보호한도 내 금액을 지급하는 제도다. 예금자보호법에 따라 현재 1인당 보호한도 금액은 보호금융상품의 원금과 이자를 합한 5000만원까지다.25일 금융권에 따르면 최근 예금자 보호 한도를 상향 조정 논의가 이어지고 있다. 앞서 정치권에서는 현행 5000만원에서 1억원으로 올려야 한다는 목소리가 나왔다. 김태현 예금보험공사 사장도 올해 신년사를 통해 예금보험제도 전반을 종합적으로 검토해, 예금보호한도, 보험료율, 목표기금 수준 등을 개선하겠다고 했다.금융당국도 예금자 보험 한도 상향 조정 필요성에 무게를 싣고 있다. 고승범 금융위원장은 지난 23일 열린 예금보험제도 개선을 위한 전문가, 금융권 간담회에서 “한도 금액을 확대할 필요가 있다”면서 “금융산업과 환경의 변화에 맞춰 예금보험제도도 재점검하고 개선해 나가야 한다”고 말했다.고승범 금융위원장이 23일 서울 중구 예금보험공사에서 열린 예금보험제도 개선을 위한 전문가·금융권 간담회에서 발언하고 있다. 고 위원장은 이날 "예금보험제도도 금융산업과 환경의 변화에 맞춰 재점검하고 개선해 나가야 한다"고 말했다. /금융위원회 제공  “은행권 수신상품 경쟁 효과”        예금자 보호 한도를 상향하면 은행업계의 수신상품 경쟁을 유도할 수 있다는 의견도 나왔다. 업계에서는 현재 ‘5000만원 한도’가 시중 은행의 고객 이탈 방어선으로 작용하고 있다는 시각이 있다.한 시중 은행 관계자는 “카카오뱅크와 토스뱅크 등 인터넷은행, 저축은행 등이 이자율이 높은 파킹통장이나 고금리 특판 상품을 내놔도 주요 은행들이 고객 이탈을 우려하지 않은 주 원인이 예금자 보호 한도”라고 말했다.그는 “고객들이 한도에 맞춰 은행 돈 일부(5000만원)만 타행 예적금 통장으로 옮기기 때문에 현금 및 고객 유출을 크게 우려하지 않는다”면서 “이런 현실을 감안하면, 예금자 보호 한도 상향이 업계 간 수신 상품 경쟁을 유도하는 데 영향을 줄 수 있다고 본다”고 말했다.실제 최근 은행 예금 금리가 상승세를 보이면서 높은 금리를 앞세운 수신 상품에 대한 관심이 커지면서 예금자 보호 한도인 5000만원씩 여러 은행 상품에 분산해 가입하는 경우도 늘고 있다.또 다른 은행업계 관계자는 “예금자 보호 한도 상향이 주요 은행보다 금리가 높은 예적금 상품을 출시하고 있는 인터넷전문은행과 저축은행들에게는 고객 및 현금 유입의 ‘기회’로 작용할 수 있다고 본다”고 말했다.한편, KB·신한·하나·우리·농협 등 5대 은행의 1월 말 정기예금 잔액은 666조8000억원으로 전월 말(654조9000억원)대비 1조8000억원 늘었다. “예보료 부담 가중 우려”        반면 우려도 크다. 예금 보호 한도가 크게 늘 경우, 금융회사들이 지불해야 하는 예금보험료 부담이 더 커질 수 있다. 예금보험료(예보료)는 금융사들이 고객 예금을 보호하기 위해 매년 납부하는 보험료다. 특히 상대적으로 예보료율이 높아 부담이 큰 저축은행의 불만이 커질 수 있다.시중 은행 관계자는 “예금보호 한도 확대에 따라 예금보험공사기금 목표치를 상향하면서 은행을 비롯한 금융사들이 연간 내는 예보료 부담은 더 커질 수 있다”고 말했다.그동안 저축은행 등 금융권에서 예보료 부담 완화를 요구해왔다. 현재 예보료율 상한은 0.5%지만 업권별로 한도를 달리 정하는 시행령에 따라, 은행 0.08%, 증권·보험 0.15%, 저축은행 0.4%다. 이는 지난 2011년 ‘저축은행 부실’ 사태가 반영된 것이다. 당초 예보는 2026년 저축은행 특별계정을 종료하고, 2027년에는 공적자금 상환기금을 청산할 계획이었다. 이 경우 예보료 부담을 완화할 수 있다는 기대가 있는데, 예금 보호 한도 상향이 오히려 예보료율 완화에는 걸림돌이 될 수 있다는 게 업계의 시각이다.저축은행업계 한 관계자는 “은행보다 5배 높은 예보료율을 적용하고 있다 보니 예금 금리 경쟁에서 불리한 측면이 있다”면서 “업권별로 차등을 둔 예보료율을 조정하지 않은 상태에서 예금자보호한도와 목표 기금을 늘리면 저축은행의 수익성에 악영향을 끼칠 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[신선한 경제] "졸업증명서, 스마트폰으로 발급하세요"</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001178650?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[뉴스투데이]주요 대기업의 상반기 채용이 시작되면서 졸업증명서와 같은 대학 증명 서류가 필요한 분들 많을 텐데요. 모바일로도 쉽게 발급받을 수 있습니다. 오늘부터 모바일 전자증명서 발급 대상이 기존 20개 대학에서 367개 대학으로 확대됩니다. 해당 대학에 다니는 재학생과 졸업생은 대학이나 주민센터에 방문하지 않아도, 성적증명서나 졸업증명서, 재학증명서 등 대학 증명 서류 20종을 스마트폰으로 발급받을 수 있는데요. 먼저, 모바일 전자증명서로 떼려면 정부24나 페이코, 토스 앱 등을 스마트폰에 내려받아 '정부 전자문서지갑' 이용을 신청하시고요. '웹민원센터'나 '서트피아' 등 인터넷 증명 발급 사이트에서 원하는 서류를 신청한 다음, 수령 방법으로 '정부 전자문서지갑'을 선택하면 손쉽게 발급이 가능합니다. 지금까지 신선한 경제였습니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>토스뱅크, '입사 1주년' 임직원 17명에게 스톡옵션 34만주 부여</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012997944?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>토스뱅크[연합뉴스 자료사진]    (서울=연합뉴스) 김유아 기자 = 인터넷 전문은행 토스뱅크가 18일 임시주주총회를 열고 입사 1주년을 맞이한 사내 임직원 17명에게 '주식매수선택권'(스톡옵션) 총 34만주를 부여하기로 했다고 밝혔다.     배분되는 주식은 기명식 보통주다. 신주발행 형태이며, 행사가는 액면가 기준 1주당 5천원이다.    부여 기준일은 이달 28일로, 대상 임직원은 이로부터 2년 뒤인 2024년 2월 28일부터 5년간 권리를 행사할 수 있다.    그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 운영했다. 지난해 7월과 11월 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여한 바 있다.    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>국민 콜택시 ‘카카오T’ 내 차 대신 ‘쏘카’ 퀵커머스 ‘메쉬’ ‘바로고’ 전기·수소배 ‘빈센’</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073490?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[K스타트업 업계 지도] (3) 모빌리티“‘사람 이동’에서 ‘공간 이동’으로 모빌리티 산업을 확장하겠다.”류긍선 카카오모빌리티 최고경영자(CEO)가 지난 2월 10일 열린 모빌리티 기술 콘퍼런스 ‘넥스트 모빌리티: 네모(NEMO) 2022’에서 한 말이다. 상점에 가기 위해 사람이 택시를 부르는 것이 아닌, 소형 버스 크기의 모듈화된 차량 안에 상점을 꾸미고 자율주행으로 운행한다는 청사진이다.이동, 물류, 운송을 아우르는 모빌리티 산업이 디지털화되며 대대적인 전환기를 맞고 있다. 자전거부터 공유킥보드, 버스, 택시, 기차, 비행기까지 모든 대중교통의 데이터와 결제 시스템을 통합하는 ‘MaaS(Mobility as a Service·서비스형 모빌리티)’가 대표 사례다. 물류 업계에서는 소비자 접점인 라스트 마일은 물론, 생산자와 유통업자 간 이동도 디지털 전환으로 최적화하는 ‘퍼스트·미들 마일(first·middle mile)’ 기술이 각광받는다. ‘하늘을 나는 드론 택시’ UAM, 진공 튜브 안에서 초고속으로 이동하는 ‘하이퍼루프’ 등 꿈의 이동 수단도 하나둘 가시화되고 있다.국내 모빌리티 산업 혁신을 주도하는 주요 스타트업은 어떤 곳이 있을까. 테크 콘퍼런스 ‘넥스트 모빌리티: 네모 2022’에서 선보인 미래 자율주행차 콘셉트 모델 ‘LG 옴니팟’. (박형기 기자)  ▶여객(콜택시) ▷카카오T 점유율 90%…‘국민 콜택시’ 현재 국내에서 디지털 전환이 가장 활성화된 모빌리티 분야는 콜택시, 카셰어링 등 여객 분야다. 스마트폰 앱에서 버튼 몇 번만 누르면 택시 호출은 물론, 예상 요금과 도착 시간, 최적 이동 경로, 기사 평점까지 한눈에 볼 수 있다.업계 1위는 단연 카카오모빌리티다. 카카오T가 누적 가입자 약 3000만명, 누적 등록 기사 약 25만명, 가맹택시(카카오T 블루) 약 3만대로 90% 넘는 시장점유율을 자랑한다. SK텔레콤의 티맵택시와 우버가 합작한 ‘우티(UT)’, 토스에 인수된 ‘타다’가 뒤를 쫓고 있다. 우티는 추가 운임 걱정이 없는 ‘사전확정요금제’, 타다는 5년 무사고 경력의 전문 기사가 운행하는 5인용 대형 승합차 ‘타다 넥스트’를 무기로 내세운다.중소업체 간 물밑 경쟁도 치열하다. 카니발 등 대형 승합택시 전문 ‘아이엠(I.M)택시(운영사 진모빌리티)’와 예약 서비스로 차별화한 ‘마카롱택시(KST모빌리티)’ ‘합승’ 서비스에 특화한 ‘반반택시(코나투스)’, 청각장애인이 운전하는 ‘고요한택시(코액터스)’, 승차 거부 없는 착한 택시를 표방하는 ‘온다택시(티머니)’ 등이 있다.이들 중 일부는 택시 회사를 잇따라 인수하며 직영택시 확장에 힘을 쏟고 있다. 일례로 진모빌리티는 지난 1월 서울 송파구, 마포구에 있는 각 100대가량 규모의 택시 회사 두 곳을 인수하며 10여개 법인, 1000여개 택시 면허를 보유하게 됐다. 직영택시만 놓고 보면 카카오모빌리티와 비슷한 규모다. 최근 기업가치 약 2300억원을 인정받으며 800억원 규모의 시리즈A 투자 유치에 성공했다. 코나투스는 ICT 규제 샌드박스의 모빌리티 분야 1호 스타트업이다. 출발지 간 거리 1㎞ 이하인 승객 중 이동 구간이 70% 이상 겹치는 승객들을 자동 매칭해 30~50% 요금 할인 혜택을 제공한다. 승객은 택시 수요가 많은 밤 시간대에 승차난을 해소하고, 기사는 추가 수익을 창출할 수 있어 상생 모델로 주목받는다. 지난해 7월 기준 전년 동기 대비 호출 수가 1200% 증가하는 등 성장세를 보이고 있다. 자율주행 기술 스타트업 ‘라이드플럭스(위)’와 빈센의 수소전기보트 ‘하이드로제니아(아래)’. (쏘카, 빈센 제공)  ▶차량 공유·중고차 ▷신차 대신 실속 있게…‘쏘카’ 상장 시동 자동차 시장에도 ‘가성비’ 바람이 거세다. 새 차를 뽑는 대신 렌터카나 중고차를 찾는 소비자가 늘어나는 모습이 역력하다. 코로나19 팬데믹에 따른 자동차 반도체 수급난이 장기화되면서 신차 가격이 올랐고 신차 출고는 계속 지연되고 있기 때문이다. 신차 대신 차량 공유·중고차 관련 스타트업이 주목받는 이유다. 차량 공유 업계 1위 ‘쏘카’는 시장점유율 60%를 자랑한다. 일 단위로 계약을 맺는 기존 렌터카와 달리 10분 단위로 이용 시간을 정할 수 있는 것이 특장점. 현재 쏘카 가입자 수는 약 750만명에 달한다. 국내 운전면허 보유자가 3000만명 정도임을 감안하면 전체 운전자 4명 중 1명이 고객인 셈. 누적 투자 유치액은 약 3040억원으로 모빌리티 업계에서 최초로 유니콘 반열에 등극했다. 올해 상반기 상장을 노리고 있다. 추정 기업가치는 2조~3조원 수준이다. 쏘카 외에도 독특한 차량 공유 서비스를 제공하는 스타트업이 여럿이다.‘제이카’는 국내 유일 ‘친환경차 전문 카셰어링 플랫폼’을 표방한다. ‘넥쏘’ ‘투싼IX FCEV’ 등 수소전기차를 비롯해 ‘아이오닉5’ ‘EV6’ 등 현대차·기아의 모든 전기차 모델 차량을 렌트할 수 있다. 현재 서울과 광주, 창원 등지에서 200여대의 차량으로 서비스를 운영 중이다. 한국타이어 사내벤처에서 출발한 스타트업 ‘타운즈’가 운영하는 ‘타운카’는 아파트 이웃 간 P2P 차량 공유 서비스를 제공한다. 유휴 시간이 많은 차량을 이웃과 공유해 소유주와 대여자 모두 ‘윈윈’할 수 있는 구조를 설계했다. 소유주는 자주 사용하지 않는 차량을 공유해 수익을 얻고, 차량이 필요한 이웃은 저렴한 비용으로 차를 빌릴 수 있다. 단지 내 주차 공간 부족 현상도 다소간 해소될 수 있다는 장점도 있다. 지난해 10월 경기도 하남시에서 본격적으로 서비스를 시작했다.렌터카 시장에서는 ‘팀오투’가 운영하는 ‘카모아’의 약진이 눈에 띈다. 카모아는 서로 다른 렌터카 업체 가격을 비교하고, 예약, 차량 배달 서비스까지 원스톱으로 제공한다. 지난해 말 기준 전국 56개 지역 547개 렌터카 업체와 제휴를 맺어 이용 가능한 차량만 4만2000여대에 달한다. 지난해 누적 거래대금은 약 580억원으로 전년 대비 2배 이상 늘었다.중고차 거래 분야에서는 ‘온라인 내차팔기 서비스’를 주력으로 하는 ‘헤이딜러’는 누적 거래액 5조원을 넘어섰다. 누적 거래액 1조원을 달성한 2019년 7월부터 채 2년도 안 돼 5배나 성장했다. 헤이딜러는 이용자가 여러 딜러에게 본인의 차량을 소개하고, 각 딜러가 판매자에게 가격을 제안해 거래가 이뤄지는 C2B의 형태로 운영된다. 최근에는 헤이딜러 소속 전문평가사가 차량 진단부터 탁송까지 거래 전 과정을 고객 대신 해주는 비대면 판매 서비스 ‘헤이딜러 제로(zero)’를 선보이며 중고차 거래 생태계를 더욱 넓혀가는 중이다.중고차도 구독경제 시대다. ‘더트라이브’가 2019년 중고차 정기구독 서비스 ‘트라이브’를 선보였다. 매달 구독료만 내면 1년 단위로 목돈 들일 필요 없이 중고차를 바꿔 타고 다닐 수 있다. 국산차 외에도 벤츠, BMW, 심지어 페라리나 롤스로이스 같은 고성능 수입차도 구독 가능하다. 가장 큰 경쟁력은 역시 가성비다. 예를 들어 벤츠 e220d 4matic 2019년식(주행 거리 5㎞)은 12개월 기준 월 100만원이면 탈 수 있다. A급 중고차를 기준으로 할 경우 5000만원 넘게 줘야 구입할 수 있는 모델이다. 전민수 더트라이브 대표는 “인공지능(AI)을 활용해 중고차의 감가상각을 예측하고 가장 적정한 월 구독료를 맞추는 방식이다. 6개월 이상만 이용하면 위약금 없이 해지할 수 있기 때문에 저렴한 가격으로 다양한 차량을 경험하고 싶은 이들 사이에서 인기가 많다”고 설명했다. ▶물류 ▷배달서 퀵커머스로…‘메쉬’ ‘바로고’ 코로나19 사태로 비대면 쇼핑이 뉴노멀이 되며 퀵커머스 스타트업도 약진하고 있다. ‘메쉬코리아(서비스명 부릉)’ ‘바로고’ ‘생각대로(로지올)’ ‘만나코퍼레이션(만나플러스)’ 등이 격전을 벌이는 중이다. 음식 배달대행을 주업으로 성장한 이들은 이제 새벽 배송, 공산품 배송으로 사업 영역을 확장하며 종합 물류 기업으로 성장하고 있다.메쉬코리아는 기업 고객 수 350곳 이상, 상점 6만7000여곳 이상, 배송기사 7만6000명(등록 기준) 이상을 보유했다. 이륜차(오토바이) 중심인 경쟁사와 달리 사륜 트럭도 500여대 운영하며 종합 물류 기업으로 성장하고 있다. 수도권에 풀필먼트센터(FC) 3곳, 강남에 도심형물류센터 MFC 3곳을 포함해 전국에 450여 물류 거점을 운영 중이다. 최근에는 일평균 새벽 배송 물동량이 1만건을 넘어서는 등 새벽 배송 사업을 공격적으로 확장하고 있다. 이를 위해 연내 부릉&amp;오아시스마켓 합작 퀵커머스 플랫폼 ‘V마트’, 식자재 플랫폼 ‘부릉마켓’ 등을 선보인다는 계획이다.바로고는 배달대행 외에도 전기 이륜차 공유 플랫폼을 운영하는 자회사 ‘무빙’과 공유주방 ‘도시주방’을 함께 운영하며 틈새시장을 노리고 있다. 생각대로는 퀵서비스 전문기업인 모회사 ‘인성데이타’의 공유망을 활용해 퀵커머스에 집중한다는 계획이다.단, 퀵커머스의 단점은 비용 상승을 야기한다는 것. 물류 속도와 접근성, 편의성을 높여주는 대신, 임대료가 비싼 도심 내 물류센터를 운영하고 ‘단건 배달’ 등 라이더 투입을 크게 늘려 물류비 인상의 원인이 된다. 이에 산업 후방에서는 물류비를 낮추기 위한 풀필먼트(fulfillment·물류 일괄 대행) 스타트업이 주목받는다. 방법은 창고 유휴 공간 활용 최적화를 통해서다.일례로 ‘콜로세움코퍼레이션’은 전국의 중소형 창고주와 연계, 물류센터로 활용함으로써 창고 운영 자동화와 공실률 최소화에 기여한다. 1인·중소형 온라인 셀러들에게 업계 최저 수준(건당 2700원~) 택배 처리비로 물품 보관부터 출고 요청, 송장 전송, 재고 현황, 입출고 내역, 반품 처리까지 실시간으로 제공한다. ‘블루웨일컴퍼니’는 상점 유휴 공간을 소규모 물류센터로 활용하는 ‘럭스테이’ 플랫폼을 운영한다. 여러 지역 창고를 거치며 동선 비효율이 발생하던 기존 방식 대신, 동네 곳곳의 상점 유휴 공간에 거점이 되는 소형 물류센터를 구축했다. 이용자는 최적의 경로로 빠른 배송 서비스를 받을 수 있고, 상점주는 유휴 공간 활용을 통한 추가 수익과 매장 홍보 효과를 누릴 수 있다. 출시 1년 만에 3000여개 상점이 럭스테이에 유휴 공간을 등록했다. 지난 1월 프리 시리즈A 투자를 유치했다.   ▶자율주행 ▷라이드플럭스·씨드로닉스 ‘주목’ 스마트 모빌리티의 끝판왕은 ‘자율주행’이다. 육상은 물론, 해상에서도 각종 모빌리티의 자율주행 기술 개발이 한창이다.2018년 설립한 ‘라이드플럭스’는 완전자율주행에 필요한 소프트웨어를 개발하고 있다. 2020년 5월부터 쏘카와 함께 제주공항과 쏘카스테이션 제주를 왕복 운행하는 자율주행셔틀 서비스를 운영 중이다. 향후 제주 전역 주요 도로, 세종시 등으로 운영 지역을 확대할 예정이다.‘씨드로닉스’는 인공지능(AI) 기반의 자율운항 시스템과 스마트항만(접안 보조) 시스템을 개발 중이다. 차가 안전한 주차를 위해 차 안에서도 사방을 볼 수 있는 ‘어라운드뷰 시스템’을 갖추고 있듯, 선박에도 그런 시스템을 도입하려는 것. 해양수산부에서 신기술 인증을 획득하고 울산항만공사, SK텔레콤과 5G 기반 스마트항만 구축 시범사업 MOU를 체결하는 등 성과를 내고 있다. ▶친환경 모빌리티 ▷전기차 ‘소프트베리’ 전기배 ‘빈센’ ‘소프트베리’는 전기차 충전 정보 앱 ‘EV Infra’를 운영한다. 전국 전기차 충전소 위치와 상태 실시간 확인은 물론, 충전 요금 결제도 원스톱으로 할 수 있다. 올 상반기 내 환경부 시스템 연동이 완료되면 국내 급속 충전기의 80%를 단일 앱으로 충전하고 균일가로 결제할 수 있는 국내 유일 EV 충전 앱이 될 전망이다(현재 커버율은 38%). 지난해 월평균 이용자 수(MAU)는 6만명으로 전체 전기차 이용자(약 20만명)의 30%에 달한다. 누적 회원 수와 다운로드 수는 각각 10만명, 30만건 수준. 지난해 SK, 현대차 등 5개사로부터 80억원 규모 시리즈A 투자 유치에 성공했다.‘스타코프’는 전기차 충전기 ‘차지콘’으로 전기차 대중화에 앞장서고 있다. 차지콘은 급속 충전에 비해 충전 시간이 느린 완속 충전기지만, 가정에서 쓰는 일반 220V 콘센트로 전기차 충전이 가능한 것이 차별화된 강점이다. 전기차 전용 주차구역을 따로 설정할 필요가 없어 주민들 간 주차 분쟁을 줄일 수 있다는 평가다.‘빈센’은 수소·전기 선박 스타트업이다. “테슬라가 전기차로 자동차 시장 판도를 바꿨듯, 선박도 대변혁의 시기를 맞았다”는 것이 이칠환 빈센 대표의 인식이다. 국제 환경 규제가 높아지며 배터리와 수소를 활용한 친환경 선박 시장이 새롭게 대두되고 있다는 것. 이에 빈센은 화석연료와 엔진 대신, 전기와 모터로 움직이는 전기배, 수소배 개발에 몰두하고 있다. 지난해 10월 영암 공장을 준공하고 친환경 소형 선박 건조와 국내 최초 수소연료전지모듈 양산에 본격 나섰다. 올해는 4300㎡(1300평) 부지에 R&amp;D 센터를 건립, 선박용 0.5㎿급 수소연료전지모듈 개발과 실증에 들어갈 예정이다. 미국 샌프란시스코 금문교 인근에서 우버와 연계한 수상택시 플랫폼도 논의 중이다. 올 2분기에 수상택시를 선보인다는 계획이다. 인터뷰 | 박명규 바로고 사업총괄 부대표 퀵커머스 시장 ‘포화’…신사업·합종연횡 ‘필수’  Q. 최근 퀵커머스 경쟁이 갈수록 치열해지는 모습이다. A 코로나19 사태 이후 음식뿐 아니라 모든 물품에 있어 비대면 배달 수요가 급증하면서 오토바이 라이더 기반 ‘근거리 물류’ 시장이 급격히 커졌다. 시장은 커졌지만 사실상 ‘포화 상태’다. 바로고를 비롯해 이미 수많은 업체가 경쟁을 펼치고 있어 수익을 내기가 녹록지 않다. 근거리 물류와 관련된 신사업, 또는 다른 물류 업체와 합종연횡 등 새로운 고민이 필요한 시점이다.   Q. 퀵커머스 경쟁에서 승리하려면 어떤 노력이 필요할까.   A 근거리 물류에서 무엇보다 중요한 것은 촘촘한 인프라 구축이다. 바로고는 2021년 기준 1200개 허브(지사)에서 3만명의 라이더를 운영하고 있어 이미 충분한 인프라를 갖췄다. 일단 인프라를 갖추면 신사업으로 확장도 용이하다. 바로고는 현재 10분 내 퀵커머스 서비스 ‘텐고’, 라이더 바이크를 친환경 전기 이륜차로 보급하는 사업을 추진 중인 ‘무빙’, 초근거리 주문에 집중한 공유주방 ‘도시주방’ 등 여러 분야 신사업을 활발히 진행 중이다. Q. 근거리 물류 시장은 앞으로 어떤 형태로 진화해갈까. A 먼저, 제품군의 확장이다. 기존 배달 음식, 생필품을 넘어 구입하기 위해 몇 시간 줄을 서야 하는 인기 제품으로까지 영역이 넓어질 것이다. 수요를 예측해 소규모 물류 거점인 ‘다크스토어’에 제품을 구비해놓으면 충분히 가능한 시스템이다. 전기바이크 등 친환경 모빌리티 수요도 커질 전망이다. 지속 가능한 가치에 부합할 뿐 아니라 오토바이보다 가격과 유지비 면에서 저렴하기 때문에 최근 높아진 라이더 비용을 해결할 수 있는 열쇠가 될 수도 있다. [본 기사는 매경이코노미 제2147호 (2022.02.23~2022.03.01일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>DGB대구은행, 무방문 전세자금대출 서비스…최저 3.44%</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011031877?sid=102</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>DGB대구은행, 무방문 전세자금대출 서비스 *재판매 및 DB 금지[대구=뉴시스] 박준 기자 = DGB대구은행은 28일부터 간편한 가입을 통해 한 번에 담보대출을 비교해 주는 플랫폼 뱅크몰에서 모바일 무방문 전세자금대출 서비스를 실시한다.DGB대구은행은 특판 1000억원을 선착순 판매하며 선착순 한도 내 대출 가능 고객을 대상으로 등급무관 최저금리 3.44%(지난 24일 기준)가 적용될 예정이다.뱅크몰은 빅테크 기술을 통해 신용대출의 금리와 한도 비교를 해주는 기술을 활용, 담보대출 비교 서비스를 실시하는 플랫폼으로 DGB대구은행은 무방문 전세자금대출 서비스 입점을 통해 다양한 고객 편의 제고에 힘쓴다는 목표다. DGB대구은행 관계자는 "담보대출은 고객별 혹은 지역별 다양한 변수와 조건들에 따라서 한도가 다양하게 나오는 만큼 이러한 부분까지 계산돼 고객들에게 상품을 추천할 수 있어야 한다"고 설명했다.또 "금융소비자보호법 시행으로 온라인 대출중개업자는 플랫폼에 이해상충방지 알고리즘을 탑재해야 하는데 뱅크몰은 코스콤을 통해 인증을 획득하면서 사업에 대한 자격을 모두 갖춘 플랫폼이다"고 부연했다.DGB대구은행 무방문 전세자금 대출은 SGI서울보증보험과 연계해 최대 5억원까지 전세자금에 필요한 대출을 은행 방문 없이 본인명의 휴대폰만 있으면 비대면 서류제출을 활용, 손쉽게 받아 볼 수 있는 비대면 전용 전세자금대출이다. 자격요건만 갖추면 신용등급별 차등금리 적용이 아닌 일괄적용이 가능하다. 이용을 원하는 고객들은 뱅크몰 심사결과 화면에서 선호하는 금융기관 클릭 시 비대면으로 필요서류 자동 제출 및 공동인증서(구 공인인증서)만으로 IM뱅크(DGB대구은행)의 무방문전세자금 대출을 가입할 수 있다.  현재 뱅크몰의 비교대출 서비스에는 1금융권은 SC제일은행을 비롯해 2금융권은 SBI저축은행 포함 5개 은행, 그 외 캐피탈, 보험사 4개 기관 등 총 10곳의 금융사가 입점돼 있으며 이후 추가될 계획이다. 이숭인 IMBANK본부장은 "DGB대구은행의 무방문 전세 자금 대출은 2019년 IM뱅크 출시 이후 꾸준히 사랑을 받아오고 있는 DGB대구은행의 경쟁력 있는 상품으로 뱅크몰 플랫폼 입점을 통해 보다 많은 고객이 편리하게 이용할 수 있을 것"이라며 "플랫폼 전국화 목표를 위해 토스, 카카오페이, 핀크 등 적극적 제휴를 실시하고 있는 DGB대구은행의 IM뱅크 신규 대출의 70% 이상이 대구·경북 외 전국권에서 이뤄지는 바 올해도 편의성을 강화한 비대면 대출과 참신한 수신 상품, 혁신적인 서비스로 보답하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>1만원인데 영국인들 줄서 먹는다…‘한국식 토스트집’의 정체</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003673703?sid=103</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>영국 런던 킹스크로스역 인근에 차려진 한국식 길거리 토스트 가게가 문전성시를 이루고 있다./유튜브 '영국남자'										영국 런던의 중심부 킹스크로스역 인근에 생긴 한국식 ‘길거리 토스트’집이 현지인들에게 인기를 끌고 있다. 유튜브 채널 영국남자가 차린 가게다. 영국남자 측은 이 토스트집에 대해 “우리만의 한국 음식 대사관을 차린 외교사절단 같은 느낌”이라고 자평했다.영국남자를 운영하는 유튜버 조쉬와 올리는 지난 16일 유튜브 채널에 올린 영상을 통해 “지난해 런던에서 한국식 토스트를 소개하기 시작하면서 런던 시내 한복판에 길거리 토스트집을 차리고 계속 운영을 해왔다”며 이 같이 말했다.앞서 영국남자 측은 런던에서 한국식 토스트 팝업스토어를 열고 영국 현지인들에게 한국의 ‘길거리 토스트’를 선보였다. 현지인들이 한국식 토스트를 좋아하자 영국남자 측은 런던에서 토스트를 판매하기로 했고, 킹스크로스역 인근에서 간이 판매점을 열게 됐다. 킹스크로스역은 런던의 교통 요충지로 유동인구가 많은 지역이다. 또 소설 해리포터에서 마법학교 호그와트를 갈 수 있는 9와 4분의3 승강장이 위치한 역으로 등장해 관광객들에게도 인기 있는 장소다./유튜브 '영국남자'										영국인들이 연 ‘한국식 토스트집’은 현지인들에게 인기가 좋았다. 킹스크로스역 인근을 오가던 현지인들은 구운 식빵에 계란과 양배추가 들어간 한국식 길거리 토스트를 먹기 위해 길게 줄을 서서 기다렸다.영국남자 측은 토스트집을 열게 된 이유에 대해 “지난 8년 간 영국 문화와 한국 문화를 연결하는 게 목표였다”며 “영상으로 해오던 일을 현실에서, 그것도 런던 중심에서 할 수 있는 기회를 거절할 수 없었다”고 말했다.지나가다 우연히 토스트집을 찾았다는 현지 노인은 “한국식 길거리 토스트를 들어본 적이 없었다. 산책하다 봤는데 한 번도 안 먹어봐서 먹어보고 싶었다”고 말했다.영국에 거주하는 교민들 사이에서도 좋은 반응이 이어졌다. 한 한국인 고객은 “단짠(단맛과 짠맛)의 조합이 딱 한국느낌”이라며 “저희 빼고는 거의 다 현지인들이더라. 잘 먹히고 있는 것 같다”고 평가했다.유튜버 '영국남자' 조쉬와 국가비 부부(왼쪽)가 런던에서 운영 중인 한국식 토스트 가게 메뉴판./인스타그램										조쉬의 아내인 셰프 출신 유튜버 국가비도 직접 토스트를 만들며 일을 돕고 나섰다. 국가비는 18일(한국시각) 자신의 인스타그램을 통해 토스트집 앞에 손님들이 길게 줄을 선 모습이 담긴 사진과 토스트집 메뉴판을 공개하기도 했다. 메뉴판에 따르면 ‘한국식 길거리 토스트’는 6.5파운드(약1만500원)에 판매 중이다. 김치가 들어간 ‘김치 치즈 토스트’ 메뉴도 눈길을 끈다. 김치와 모짜렐라 치즈를 넣은 이 메뉴는 국가비가 직접 개발한 것으로 알려졌다.한편 2015년 결혼한 영국남자 조쉬와 국가비 부부는 2020년 10월 국가비의 치료 목적으로 영국에서 한국으로 입국했다가 자가격리 수칙 위반과 탈세 의혹, 건강보험료 논란 등에 휩싸여 잠시 유튜브 운영을 중단했다. 이후 두 사람은 6개월 만에 여러 논란에 해명하고 유튜브 활동을 재개했다.당시 국가비는 자가격리 수칙 위반으로 기소유예 판결을 받은 점을 사과했고, 건강보험료를 내지 않고 혜택을 받았다는 의혹에 대해선 “건강보험료를 내고 있다고 착각했다. 죄송하다”고 했다. 탈세 의혹을 부인한 조쉬는 국가비의 자가격리 지침 위반에 대해 사과하고 “최선을 담은 콘텐츠를 여러분께 전달 드리는데 마음과 노력을 다하겠다”며 복귀를 선언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[마켓인] 지난해 글로벌 핀테크 투자 건수 '사상 최대'</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005148909?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>삼정KPMG, 2021 핀테크 동향 보고서 발간지난해 글로벌 핀테크 투자 5684건…전년比 51%↑[이데일리 김연지 기자] 지난해 전 세계에서 거래된 핀테크 투자 건수가 사상 최대치를 기록한 것으로 나타났다. 블록체인과 가상자산에 대한 관심이 커지고, 임베디드 금융 솔루션 수요 확대 등으로 나타난 현상이다.(자료=KPMG)글로벌 회계·컨설팅 기업 KPMG는 17일 ‘2021 핀테크 동향 보고서(Pulse of Fintech H2’21)’를 발간하고 이같이 밝혔다. 보고서에 따르면 지난해 글로벌 핀테크 투자 건수는 5684건으로 집계됐다. 이는 지난 2020년(3764건) 대비 51% 증가한 규모다. 투자액은 2101억 달러로 전년(1249억 달러) 대비 68% 늘었다.투자액이 가장 많이 쏠린 분야는 지급결제(517억 달러)로 집계됐다. B2B 후불결제(BNPL), 임베디드 뱅킹 및 오픈 뱅킹 제휴 솔루션과 같은 분야에 관심이 늘었다는 설명이다. 블록체인 및 가상자산(302억 달러), 사이버보안(48억 달러), 자산관리(16억 달러) 분야는 사상 최대 투자액을 기록했다. 특히 블록체인 및 가상자산 기술에 대한 투자액은 2020년 55억 달러에서 449% 급증했다. 같은 기간 투자 건수는 927건에서 1,332건으로 43% 증가했다. 보고서는 “금융 시스템에서 가상자산의 잠재적 역할과 이를 활용한 기술에 대한 인식이 높아지고 있음을 의미한다”고 분석했다.핀테크 M&amp;A 거래액은 2020년 758억 달러에서 2021년 831억 달러로 늘었다. 핀테크 분야 크로스보더 M&amp;A 거래액은 362억 달러로, 전년 대비 3배 이상 증가한 것으로 나타났다. 사모펀드(PE)의 핀테크 투자액은 2018년 최고 규모였던 52억 달러에서 2021년 122억 달러로 두 배 이상 증가했다.벤처캐피털(VC) 투자도 지난 2020년 462억 달러에서 2021년 1149억 달러로, 전년 대비 두 배 이상 증가했다. 엔젤 및 시드, 초기단계, 후기단계 등 모든 거래 단계에서 VC 투자 규모가 크게 증가한 것으로 집계됐다.지역별로는 미주 지역의 총 핀테크 투자가 지난 2020년 835억 달러에서 2021년 1053억 달러로 증가했다. 유럽 또한 2021년 774억 달러로 지속적인 증가세를 보였다. 아시아태평양 지역은 2020년 147억 달러에서 2021년 275억 달러로 큰 폭의 성장세를 기록했다. 특히 인도(72억 달러)와 한국(30억 달러)은 지난 한 해 모두 사상 최대 핀테크 투자액을 갱신했고, 싱가포르(40억 달러)와 호주(26억 달러) 투자도 강세를 보였다.투자자들은 핀테크 산업 전반에 대한 규제를 강화한 중국 투자를 축소하고, 인도와 싱가포르 등 아시아태평양의 다른 핀테크 허브로 눈길을 돌린 것으로 나타났다. 지난해 아시아태평양 지역의 상위 10대 핀테크 투자 건 중 한 건만 중국에서 진행했고, 그 외 건은 인도와 한국, 싱가포르, 일본, 호주에서 이루어졌다. 특히 한국의 케이뱅크(11억 달러)와 데카콘으로 성장 가능성이 높은 토스(4.1억 달러)는 아시아태평양 상위 핀테크 투자 중 각각 2위와 5위를 기록했다.  조재박 삼정KPMG 핀테크 리더 겸 전무는 “코로나19 팬데믹 상황에서도 핀테크 투자 건수가 사상 최대를 기록할 만큼 열기가 뜨거웠다”며 “지급결제가 여전히 투자를 주도하는 가운데 블록체인과 자산관리, 사이버보안에 대한 관심이 급증했다”고 말했다. 이어 “향후 고객 경험 및 서비스 제고를 위한 금융과 비금융의 합종연횡, 슈퍼앱으로 진화를 위한 지급결제 및 플랫폼 업체 M&amp;A, 블록체인 기술 활용 및 향후 역할에 대한 재조명, 자산관리 혁신에 대한 수요 증대 등에 따라 글로벌 핀테크 투자가 지속될 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>금융사 메타버스 성공하려면? "금융 중심 관점 바꿔야"</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002119630?sid=004</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>노기태 핏펀즈 대표, 메타버스를 먼저 놓고 금융 등 산업 서비스 녹여야[디지털데일리 박세아 기자] 메타버스와 게임은 불가분의 관계다. 마이크로소프트가 천문학적 비용을 들여 게임사인 액티비전블리자드를 인수한 이유 중 하나도 게임사가 가지고 있는 역량이 메타버스 생태계에 있어 반드시 필요한 기술, 서비스이기 때문이다.국내에서도 게임역량을 바탕으로 메타버스 시장에 뛰어든 스타트업이 있어 주목된다. 핏펀즈(Fitfuns)가 바로 주인공이다. 2020년 10월 설립된 2년이 채 안된 업력에도 불구하고 신한금융, 코빗 등 금융 및 가상자산 업계에 메타버스 플랫폼을 공급하기도 했다. 핏펀즈는 2020년 10월 설립됐다. 최근 증시에 상장한 B2C 핀테크 기업 핑거도 핏펀즈에 10억원 규모의 전략적 투자를 단행한 바 있다. 국내 최초 메타버스 기반 가상자산 플랫폼 코빗타운도 핏펀즈의 작품이다.핏펀즈는 최근 메타버스 플랫폼 기술 기업으로 금융권에 이름을 비추며, IT금융에서 한단계 더 진보된 메타버스 금융 시대를 열기위해 첫 발을 떼고 있다.  25일 노기태 핏펀즈 대표는 "유명 게임 개발자 출신들이 우리가 제일 잘하는 것이 무엇일까 고민하다 게임적 요소가 가미된 가상세계에서 산업과 산업을 연결하는 하나의 허브를 만들고 싶었다"며 "우선 게임과 가장 결이 비슷하면서도 게임과 연결됐을 때 시너지 효과가 크게 날 수 있는 금융 부문을 주요 시장으로 점찍었다"고 밝혔다.노 대표는 "그동안 금융사가 고객의 마음을 끌기 위해 금융에 게임적 요소를 가져오려고 시도했지만, 대부분 실패했다. 이유는 게임의 본질적 요소인 '즐거움'을 고려하지 않고, 아이템과 외형만 차용해왔기 때문"이라고 운을 뗐다.    결국 전통 금융사가 직관적인 유저인터페이스(UI) 등에 기반한 편리함을 큰 무기로 하는 토스나, 카카오뱅크, 네이버와 같은 핀테크 기업에 맞서 고객이 즐거운 금융이 될 수 있도록 패러다임을 전환해야 한다는 데 공감대가 형성되고 있다는 설명이다. 노 대표는 이를 위해서 금융이라는 큰 틀 안에 게임적 요소를 혼합 시키는 것이 아닌, 게임적 요소를 지닌 가상공간에서 금융 활동을 한다는 사고의 전환이 필요하다고 강조했다.    쉽게 말해, '재밌어서 가상공간에 들어와서 게임도 하고, 다른 유저와 커뮤니케이션을 하는 동안 금융활동도 함께 한다'는 개념이다.   특히 미래 큰 고객이 될 MZ세대(1980-2000년초 출생)를 겨냥한 메타버스 공간 조성에 금융권이 서서히 관심을 보이고 있는 것으로 보인다. 신한은행은 금융권 중에서도 자체 메타버스 공간을 조성하는 선두주자다. 핏펀즈는 신한은행의 메타버스 공간 조성을 위한 업무협약을 체결하고, 기술 개발에 한창이다. 3월 중순에 나올 베타서비스에는, 메타버스 공간에 커뮤니티나 미니게임 등의 요소를 집어넣었다.    노 대표에 따르면 이후 추가 베타서비스와 함께 최종적으로 빠르면 9월쯤 조금 더 기능이 추가된 정식 서비스를 받을 수 있을 전망이다. 서비스에는 짧은 시간 콘텐츠를 즐기다 보면 게임에서 주어지는 보상의 금융사 포인트 전환 등이 포함될 것으로 보인다.   메타버스라는 이름을 붙인 스타트업이 유독 많이 보이지만, 핏펀즈는 기술적으로 3D 기술을 활용한 웹서비스와 게임을 활용한다는 점을 최우선 강점으로 꼽고있다. 메타버스 세계에 금융을 끌어들이기 위해 전문인력 등을 배치해 서비스 이해도를 높이고 있다.   그는 궁극적으로는 사회적 소외 계층에 도움이 되는 서비스를 포함하는 게 목표다. 오프라인 점포가 없어지는 추세 속 산간이나 농촌지역 노인들도 가상세계에서 금융활동을 충분히 가능하도록 하는 단계까지 꿈꾸고 있다. 또 수어를 할 수 있는 아바타를 포함시키는 등 서비스도 준비중이다.    노 대표는 "흥미 요소가 있는 메타버스 금융 플랫폼에서 개인의 금융 수준을 자연스럽게 높일 수도 있고, IT서비스를 받기 힘든 소외계층도 누구나 평등하고 쉽게 이용할 수 있기를 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>[KPMG 보고서] 글로벌 핀테크 투자 건수 사상 최대… 전년比 51% 증가</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002267377?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>KPMG '2021 핀테크 동향 보고서(Pulse of Fintech H2’21)' 발간 지난해 글로벌 핀테크 투자 건수 5684건, 투자액 2101억 달러KPMG "올해 '핀테크' 투자 강세 이어질 것" ◆…(제공 : 삼정KPMG)블록체인과 가상자산에 대한 관심 증대, 임베디드 금융 솔루션에 대한 수요 확대 등으로 작년 전세계에서 거래된 핀테크 투자 건수가 사상 최대치를 기록한 것으로 나타났다.   세계적인 회계·컨설팅 기업 KPMG(회장 빌 토마스)가 17일 발간한 보고서(Pulse of Fintech H2'21)에 따르면, 지난해 글로벌 핀테크 투자 건수는 5684건으로 전년 3764건 대비 51% 증가했다. 투자액은 2101억 달러로 전년(1249억 달러) 대비 68% 늘었다.   지난해 핀테크 투자액이 가장 많이 쏠린 분야는 지급결제로 517억 달러가 집중됐다. B2B 후불결제(BNPL, Buy Now Pay Later), 임베디드 뱅킹 및 오픈 뱅킹 제휴 솔루션과 같은 분야에 관심이 늘면서 전세계적으로 지급결제 분야는 가장 많은 투자금을 유치했다.   블록체인 및 가상자산(302억 달러), 사이버보안(48억 달러), 자산관리(16억 달러) 분야는 사상 최대 투자액을 돌파했다. 특히 블록체인 및 가상자산 기술에 대한 투자액은 2020년 55억 달러에서 무려 449% 급증했다. 같은 기간 투자 건수는 927건에서 1332건으로 43% 증가했다. 보고서는 "금융 시스템에서 가상자산의 잠재적 역할과 이를 활용한 기술에 대한 인식이 높아지고 있음을 의미한다"고 전했다.   핀테크 M&amp;A 거래액은 2020년 758억 달러에서 2021년 831억 달러로 늘었고, 핀테크 분야 크로스보더 M&amp;A 거래액은 362억 달러로 전년 대비 3배 이상 증가했다. 사모펀드(PE)의 핀테크 투자액은 2018년 최고 규모였던 52억 달러에서 2021년 122억 달러로 두 배 이상 증가했다.   핀테크에 대한 벤처캐피털(VC) 투자도 2020년 462억 달러에서 2021년 1149억 달러로 전년 대비 두 배 이상 증가하며 2018년 최고치(532억 달러)를 넘어섰다. 엔젤 및 시드, 초기단계, 후기단계 등 모든 거래 단계에서 VC 투자 규모가 크게 증가한 것으로 집계됐다.   지역별로는 미주 지역의 총 핀테크 투자는 2020년 835억 달러에서 2021년 1053억 달러로 증가했고, 유럽 또한 2021년 774억 달러로 지속적인 증가세를 보였다. 아시아태평양 지역은 2020년 147억 달러에서 2021년 275억 달러로 큰 폭의 성장세를 기록했다.  인도(72억 달러)와 한국(30억 달러)은 지난 한 해 동안 모두 사상 최대 핀테크 투자액을 갱신했으며, 싱가포르(40억 달러)와 호주(26억 달러)에 대한 투자도 강세를 보였다.   지난해 중국은 가상자산 채굴 및 거래 금지, 빅테크 규제 등 핀테크 산업 전반에 대한 규제 강화 기조로 일부 투자자들은 중국 투자를 축소하면서 인도와 싱가포르 등 아시아태평양의 다른 핀테크 허브로 눈길을 돌렸다.   지난해 아시아태평양 지역의 상위 10대 핀테크 투자 건 중 단 한 건만 중국에서 진행했고, 그 외 건들은 인도, 한국, 싱가포르, 일본, 호주에서 이루어졌다. 특히, 한국의 케이뱅크(11억 달러)와 데카콘으로 성장 가능성이 높은 토스(4.1억 달러)는 아시아태평양 상위 핀테크 투자 중 각각 2위와 5위를 기록했다.    삼정KPMG 핀테크 리더 조재박 전무는 "코로나19 팬데믹 상황속에서도 핀테크 투자 건수가 사상 최대를 기록할 만큼 열기가 뜨거웠으며, 지급결제가 여전히 투자를 주도하는 가운데, 블록체인, 자산관리, 사이버보안에 대한 관심이 급증했다"고 전했다.   이어 조 전무는 "향후 고객 경험 및 서비스 제고를 위한 금융과 비금융의 합종연횡, 슈퍼앱으로 진화를 위한 지급결제 및 플랫폼 업체 M&amp;A, 블록체인 기술 활용 및 향후 역할에 대한 재조명, 자산관리 혁신에 대한 수요 증대 등에 따라 글로벌 핀테크 투자가 지속될 것"이라고 강조했다.    ◆…(제공 : 삼정KPMG)</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>중진공, 청년창업사관학교 11기 졸업…1044명 양성</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005154738?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>지난해 매출 2658억원, 고용 3548명 등 성과 창출김학도 중소벤처기업진흥공단이사장이 25일 열린 11기 청년창업사관학교 졸업식에서 발언하고 있다.(사진=중진공 제공)[이데일리 이후섭 기자] 중소벤처기업진흥공단은 25일 서울청년창업사관학교에서 11기 청년창업사관학교 졸업식을 개최했다고 밝혔다. 졸업식은 코로나19 확산 예방을 위해 현장 참여 인원을 최소화하고 온·오프라인으로 동시 진행했다.중진공이 운영하는 청년창업사관학교는 유망 아이템과 혁신 기술을 보유한 우수 창업자를 발굴해 최대 1억원의 사업화 자금과 교육·코칭, 사무공간, 시제품제작 등을 일괄 지원한다.이날 11기 청년 창업기업 대표 1044명이 졸업했다. 창업 3년 이내 초기단계 기업인 이들은 코로나19로 어려웠던 대내외 환경 속에서도 지난해 12월까지 매출 2658억원, 고용 3548명, 투자유치 228억원 등의 성과를 창출했다.지난 2011년 개교한 이래로 이날 졸업한 11기를 포함해 총 5842명의 창업자가 청년창업사관학교를 거쳐갔고, 유니콘기업도 2곳이 탄생했다. 지난 2018년에는 토스를 서비스하는 비바리퍼블리카(이승건 대표, 2기)가, 지난해에는 직방(안성우 대표, 1기)이 유니콘기업으로 이름을 올렸다. 또 지난 1월에는 개교 이래 최초로 2기 졸업기업 오토앤(최찬욱 대표)이 코스닥시장에 상장하기도 했다.이날 졸업식에서는 △우수졸업기업 표창 수여 △선배기업 응원 메시지 △스타트업 피칭 페스타 왕중왕전 △온라인 전시관 등이 진행됐다.우수졸업기업 표창에는 자가 두피측정 및 탈모예측 솔루션을 제공하는 콘스탄트의 정근식 대표 등 14명이 중소벤처기업부 장관상을, 빅데이터 기반 플랜트 자재 O2O 중개거래 플랫폼을 운영하는 마켓오브메테리얼의 조윤기 대표 등 12명이 중진공 이사장상을 수상했다.또 지역별 예선과 본선을 거쳐 스타트업 피칭 페스타 왕중왕전에 오른 세종씨아이, 제이엔디코스메틱, 콜로세움코퍼레이션, 스프링온워드, 바다품애 등 5개 업체가 투자자를 대상으로 IR발표를 진행했다.김학도 중진공 이사장은 “이번 11기 졸업기업은 개교 이후 가장 높았던 경쟁률을 뚫고 합격할 정도로 사업성과 기술성을 인정받았다”며 “중진공은 창업기업이 청년창업사관학교를 디딤돌 삼아 유니콘기업으로 성장하고, 창업 생태계를 선도해나갈 수 있도록 적극 지원하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.02.24.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[조간브리핑] 고신용자도 대출 금리 4% 넘어서…본격적 ‘고금리 부담’ 시작</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000276593?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 모닝벨 '조간 브리핑' - 장연재조간브리핑입니다.◇ 커지는 우크라 리스크…원유 수입 5위 한국 "문제는 에너지"중앙일보 기사입니다.러시아와 우크라이나 충돌 위기가 고조되자 정부 움직임도 바빠졌습니다. 러시아, 우크라이나가 한국 교역에서 차지하는 비중은 각각 2.8%, 0.05%로 미미합니다. 그래서 당장 영향은 적지만 사태가 장기화하면 우리나라가 세계 5위 원유 수입국인 만큼 충격을 피할 수 없을 것으로 보입니다.미국·사우디아라비아와 함께 3대 산유국으로 꼽히는 러시아 대상 경제 제재가 본격화하면 에너지 수급에 비상이 걸릴 수 있는데요. 다른 지역 가스·원유로 수요가 몰리고, 사태 확산에 따른 불확실성까지 겹치며 국제유가가 더 치솟을 것으로 전망되기 때문입니다. 정부는 국제유가 상승세가 3월에도 지속될 경우 4월 말 끝날 예정이었던 유류세 및 액화천연가스(LNG) 할당관세 인하 조치 연장이 불가피하다고 밝혔습니다. ◇ 신용 좋은 사람도, 대출금리 4%로 올랐다조선일보 기사입니다.고신용자들에게 적용되는 신용대출 금리가 4%를 넘어서면서 본격적인 고금리 부담이 닥칠 것으로 보입니다. 6개 시중은행에서 올해 1월 신용등급 1~2등급의 고신용자들이 받은 신용대출 평균 금리는 연 4.01%였습니다. 토스뱅크의 고신용자 대상 평균 금리는 4.19%, 케이뱅크는 4.5% 그리고 지방 은행들도 4.29%로 올렸습니다. 문제는 금리 상승세가 당분간 지속될 가능성이 크다는 건데요. 그러다 보니 24일(오늘) 열리는 한국은행 금융통화위원회에 "영혼까지 끌어모아 대출받는" 이른바 영끌족의 관심이 집중되고 있습니다. 금통위는 이미 지난해 11월과 올해 1월 잇달아 기준금리를 0.25%포인트씩 올렸는데요. 이달에는 일단 기준금리를 현 수준(1.25%)에서 동결할 것이라는 관측이 우세합니다. ◇ 쿠팡맨 6만5000여명…대형마트 3社 고용 제쳤다한국경제 기사입니다.쿠팡의 직원 수가 지난해 처음으로 대형마트 3사(이마트 롯데마트 홈플러스)를 뛰어넘었습니다. 유통업계에 따르면 1월 말 국민연금 가입자 기준으로 쿠팡 직원은 6만 5138명으로 이마트(3만70명) 홈플러스(2만156명) 롯데마트(1만1636명) 직원을 합친 6만1862명을 능가했습니다. 쿠팡 직원이 지난 1년 새 31% 증가한 반면 유통 3사의 인력은 감소 추세입니다. 쿠팡은 공격적인 투자로 물류, 배송 분야 혁신을 꾀하고 있는 반면, 유통기업들은 규제 등으로 발이 묶인 데다 e커머스업체의 진격에 고전하고 있기 때문입니다. 게다가 올해는 유통 3사의 매출마저 쿠팡에 역전될 것으로 보이는데요. 쿠팡의 지난해 매출은 전년 대비 53% 증가한 약 22조 원으로 추정돼 롯데마트, 홈플러스와 격차를 벌린 데 이어 이마트까지 단숨에 제쳤습니다. ◇ 외식 대표메뉴 값 매주 공개…뛰는 물가 잡힐까한겨레 기사입니다.정부가 외식 물가 안정화를 위해 매주 주요 외식 프랜차이즈의 대표메뉴 가격을 조사해 공개하기로 했습니다. 농림축산식품부 조사에 따르면 62개 프랜차이즈 브랜드 중 16개가 한 달 전보다 가격을 올린 것으로 나타났습니다. 품목별로는 떡볶이가 메뉴별로 5.4~28.7%, 피자 3.2~20.2% 인상했습니다. 정부는 주요 외식 가격 공표가 물가 대책의 일환이라고 하지만 뛰는 물가를 잡을 수 있는 지를 아직 미지수인데요. 이런 가운데 프랜차이즈 업계의 반발도 커지고 있는데요. 한국프랜차이즈산업협회 측은 “원부자재 가격이 올라 불가피하게 제품 가격을 조정하는 상황인데 프랜차이즈가 이득을 취하는 행위로 왜곡돼 비칠 수 있다”고 지적했습니다. 프랜차이즈 가맹점주 사이에서는 “프랜차이즈뿐 아니라 자영업자인 가맹점주도 피해를 받을 수 있다”는 우려도 나옵니다. ◇ 고기 없는데 고기라 부를 수 있을까…대체육, 너의 이름은?경향신문 기사입니다.고기가 없는데 고기라고 부를 수 있을까요? 대체육 시장이 급성장하면서 축산업계와의 갈등이 고조되고 있습니다. 대체육은 동물 세포를 인공 배양하거나 식물성 원료를 이용한 대체 단백질 식품인데요.축산업계가 ‘진짜 고기’가 들어가지 않은 만큼 ‘육(肉)’ ‘고기’ ‘미트(Meat)’ 등의 용어를 사용해선 안 된다고 주장하고 축산코너의 판매 금지를 촉구하고 나섰습니다. 대체육의 탄소 저감과 안전성에 대해서도 구체적인 검증이 필요하다고 밝혔는데요. 식약처 관계자는“모니터링을 통해 시장을 점검하고, 대체육에 대한 명칭과 정의, 별도 유형 신설 마련을 검토하고 있다”고 밝혔습니다. 축단협에서 시작된 대체육을 둘러싼 사회적 논쟁은 앞으로도 커질 전망입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>모바일 성적·졸업 증명서 도내 16개大 서비스 확대</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/087/0000882434?sid=100</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>행정안전부는 그동안 전국 20개 대학을 대상으로 실시해 온 증명서 모바일 서비스 대상을 367개 대학으로 대폭 확대한다고 15일 밝혔다.강원도 내에서는 그동안 강원대에서만 가능하던 것이 강원도립대, 강릉원주대, 춘천교대 등 국립대와 가톨릭관동대와 강릉영동대, 강원관광대, 경동대 등 사립대학 13곳에서도 추가로 가능하게 됐다.이들 대학의 재학생과 졸업생도 직접 대학이나 주민센터를 방문하지 않고 성적증명, 졸업증명, 재학증명, 휴학증명 등 20종의 증명서를 모바일로 손쉽게 발급받을 수 있게 됐다.모바일 전자증명서를 발급받으려면 정부24 앱이나 페이코, 토스 등의 앱을 스마트폰에 내려받아 설치한 뒤 ‘정부 전자문서지갑' 이용을 신청해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>“1000억 실탄 채웠다…4월부터 美 NFT 진출”</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005150500?sid=105</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>블록체인 기업 '람다256' 박재현 대표 인터뷰설립 2년여 만에 하이브, YG엔터 등 잇단 투자브레이브걸스 NFT 제작, 美 기업과 NFT 본격화"올해 유니콘 목표"[이데일리 최훈길 기자] “1055억원의 투자 실탄을 채웠습니다. 공격적인 해외 마케팅을 할 겁니다. 4월 오픈 기대하세요.”박재현 람다256 대표의 목소리에 자신감이 묻어났다. 람다256은 국내 최대 규모 가상자산거래소인 업비트를 운영하는 두나무 소속의 블록체인 기술 자회사다. 컨소시엄 기반 블록체인 서비스 플랫폼 ‘루니버스’를 운영 중이다. 방탄소년단(BTS) 소속사 하이브(352820)를 비롯해 YG엔터테인먼트(122870), NH투자증권(005940), 우리기술투자(041190), 한화시스템(272210), 종근당(185750) 홀링스, SBI인베스트먼트(019550), 농협은행, 두나무, 야놀자, 대림, 신한벤처투자, KB인베스트먼트, VTI파트너스 유한회사 등이 투자했다. 박 대표는 최근 서울 강남구 사옥에서 이데일리와 만나 “투자사들과의 네트워크를 통해 올해는 비전을 넘어 ‘매출 결과물’을 만들 것”이라고 예고했다.  박재현 람다256 대표는 포항공대에서 전산 분야를 전공하고, 삼성전자에서 삼성페이 등을 개발한 IT 전문가다. 람다256은 표준우주모형 람다CDM(lambda CDM)에서 우주 미지의 에너지를 상징하는 ‘람다(그리스어 Λ)’와 해시 알고리즘 ‘SHA-256’에서 착안한 명칭이다. 블록체인의 강력한 힘과 256비트의 무한한 가능성을 상징한다. △포항공대 석사(객체지향 데이터베이스) △현대전자 선임연구원 △현대정보기술 책임연구원 △에이젠텍 대표이사 △와이즈프리 대표이사 △씽크프리 CTO(상무) △삼성전자 무선사업부 상무이사 △SK텔레콤 전무이사 △람다256 대표(2019년 3월~) (사진=방인권 기자)1순위 공략 대상은 미국 대체불가능토큰(NFT) 시장이다. 람다256은 외국 기업들과 협력해 미국에 NFT 마켓플레이스 ‘사이펄리’를 4월 오픈할 예정이다. 박 대표는 “좋은 지식재산권(IP)을 가진 글로벌 브랜드 기업들과 협업 중”이라며 “이들 기업을 통해 NFT를 만들고 팬들과 접점을 만들려고 한다. 싱가포르, 일본, 인도네시아 진출도 논의 중”이라고 전했다. 예를 들어 스포츠, 연예, 미술 등 팬덤이 있는 분야의 기업과 NFT를 만들어내는 프로젝트다. 그는 “람다256은 자체 스튜디오가 있어 NFT를 기획부터 시작해 제작할 수 있는 강점이 있다”고 했다. 람다256은 최근 지난해 역주행 인기를 얻은 걸그룹 브레이브걸스 사진, 9살 천재 화가로 유명한 레오나르도(Leonardo)의 작품 등을 자체 스튜디오를 통해 NFT로 제작했다. 특히 박 대표는 이 같은 사업이 ‘제2의 밀크 프로젝트’로 성공을 거둘 것으로 봤다. 2019년 람다256은 자사 메인넷 위에서 돌아가는 혁신 서비스 밀크(MiL.k)를 지원했다. 밀크는 여행·여가 마일리지 포인트를 통합 관리하는 서비스이자 코인이다.박 대표는 “제2의 밀크 프로젝트로 여행·레저를 넘어 헬스, 패션, 펫(pet·반려동물) 분야까지 진출할 것”이라며 “생활밀착형 분야에 블록체인 기술을 연계하는 혁신으로 사회를 보다 좋게 만들어 보고 싶다”고 말했다. 그는 “대선 후보들이 NFT를 만드는 등 우호적인 입장이어서 차기정부에서는 많은 변화가 있을 것”이라고 기대했다. 람다256을 유니콘 기업(기업가치 1조원 이상인 비상장기업)으로 성장시키는 게 올해 박 대표의 목표다. 지난해 유니콘 기업은 비바리퍼블리카(토스), 두나무, 빗썸코리아, 컬리, 직방, 야놀자, 당근마켓 등 18곳이다. 박 대표는 “람다256이 매년 3~5배 성장하고 있어, 올해 열심히 하면 유니콘 가치로 갈 수 있을 것”이라고 했다. 박 대표는 “무엇보다도 사람이 중요하다”며 “누가 들어와도 회사를 나갈 땐 골드, 다이아몬드가 되도록 사람에 투자할 것”이라고 강조했다. 이를 위해 블록체인 기술을 배우는 직원에게 연간 500만 원 교육비 지원, 제주도 같은 휴양지에서 1~3개월 일하는 워케이션 등 직원 복지에도 공을 쏟고 있다. 그는 “함께 골드, 다이아몬드가 되도록 나부터 재밌게 일하고 치열하게 배울 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"커피값으로 삼성전자 주주된다" 금융위, 혁신금융서비스 25건 지정</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005045558?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>오는 9월부터 국내 주식의 소수점 거래가 가능해진다.금융위원회는 16일 정례회의를 통해 혁신금융서비스 25건을 신규 지정했다고 밝혔다. 이에 따라 현재까지 지정된 금융위 혁신금융서비스는 총 210건으로 늘었다.국내주식 소수점 거래 서비스는 신탁제도를 활용해 온주를 여러 개의 수익증권으로 분할 발행하는 방식으로 국내 주식을 소수단위로 거래할 수 있는 서비스다. 주당 7만4000원대인 삼성전자를 0.1주로 쪼개 7400원대에 사거나 1만원 어치만 살 수 있게 된다. 증권사가 투자자의 소수단위 주식 주문을 취합하고 부족분을 채워서 온주로 만든 후 자기 명의로 한국거래소에 호가를 제출한다. 거래가 체결돼 취득한 주식을 예탁결제원에 신탁하게 된다.관련 금융기관은 한국예탁결제원, 교보증권, 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, KB증권, KTB투자증권, 키움증권, 토스증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등이다.소수점 거래가 가능해지면 투자자는 종목당 최소 투자금액의 인하로 주식투자 접근성이 확대되고 소규모 투자금으로 위험관리와 수익다변화를 위한 다양한 포트폴리오를 효율적으로 구성하는 것이 가능할 것으로 기대된다.다만 예탁결제원은 신탁재산과 고유재산 간의 거래가 불가능하고 각 증권사는 일반 국내주식 거래와 소수단위 거래의 차이점에 대해 투자자가 명확히 인지할 수 있도록 위험고지 체계를 구축해야 한다. 각 증권사는 소수단위 거래를 중개하는 과정에서 자기재산으로 취득하게 되는 주식을 종목별로 5주 이내로 하며 의결권 행사도 금지된다.금융위 관계자는 "오는 9월부터 각 증권사별 전산구축 일정 등에 따라 순차적으로 국내 주식 소수점 거래 서비스가 출시될 예정"이라고 말했다.이밖에 ▲은행 내점 고객 대상 실명확인 서비스(중소기업은행) ▲안면인식기술 활용 비대면 계좌개설 서비스(KB증권·한화투자증권) ▲원클릭 예·적금 분산예치 서비스(씨비파이낸셜솔루션) ▲근로자 5인 미만 사업장 단체보험 서비스(삼성생명) ▲기업성 보험 온라인 간편가입 서비스 (현대해상화재보험) ▲렌탈 중개 플랫폼을 통한 렌탈 프로세싱 대행 서비스(신한카드) ▲소액 후불 결제 서비스 (네이버파이낸셜) 등 8건의 혁신금융서비스의 지정 기간도 각각 2년씩 연장됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>자체 CSS 활용 중금리대출 늘린 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002721515?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>케이뱅크, 대출승인 18% 증가토스, 매출 많은 소상공인대상카뱅, 유관기관 연계 보증상품인터넷전문은행들이 CSS 고도화 작업에 박차를 가하고 있다. &lt;각사&gt;    인터넷전문은행들이 자체 신용평가모델(CSS)고도화로 중저신용자·신파일러 대출자를 끌어모으고 있다. 개인사업자대출·주택담보대출 출시 효과도 더해져 이용자수는 더욱 늘어날 전망이다.21일 금융권에 따르면 최근 인터넷은행들은 자체 CSS 고도화를 통해 올해 목표치로 제시한 중·저신용자 중금리 대출 취급 비중을 확대해나간다는 전략이다. 관건은 통신·쇼핑·금융거래 등 이력을 얼마나 적절하게 반영하는지다. 인뱅들은 각 제휴사를 통해 정보를 수집하고 이를 분석해 CSS를 고도화한다.케이뱅크는 이날 새로운 CSS, 고객군별 특성을 반영한 중저신용·씬파일러 각각의 '맞춤형 특화모형'을 새로 구축했다고 밝혔다. 소득 수준, 대출 이력 등 금융정보를 토대로 중저신용과 씬파일러 고객의 신용도 특징을 다각적으로 분석했다.여기에 통신과 쇼핑 정보를 관련법에 따라 특정 개인을 알아볼 수 없도록 가명 처리해 금융정보와 결합했다. 통신은 스마트폰 요금제, 할부금, 요금 납부이력 등 서비스 이용 관련 데이터를 대안정보로 활용했다. 쇼핑 정보 역시 백화점·마트 등에서 패션·여가활동·외식·생활용품 등에 대한 구매 및 이용 패턴을 추가했다.케이뱅크가 시행한 시뮬레이션 결과 신규 CSS의 중저신용 고객군 대출 승인율이 기존 모형 대비 약 18.3% 증가했다. 금융거래 정보가 상대적으로 부족한 씬파일러 고객군은 승인율이 약 31.5% 상승하는 것으로 나타났다. 또 기존 고객 중에서도 새 CSS로 신용평가를 받아 한도와 금리가 개선된 고객이 10% 이상 늘었다고 케이뱅크는 설명했다.토스뱅크도 최근 개인사업자 대출 출시와 함께 자체 CSS 모형을 적용한다. 소상공인 맞춤형으로, 매출 규모가 크고 수입이 정기적일수록 금리와 한도를 우대받는다.카카오뱅크는 주택담보대출 출시에 이어 CSS 활용 신용대출 및 유관기관 연계 보증부 상품을 출시할 계획이다. 정교화 작업을 위해 카카오페이, 카카오모빌리티 등 카카오 계열사와 데이터 협력을 진행 중이다.업계 관계자는 "(인뱅들이) 20개 이상의 제휴사와 손잡고 CSS 고도화에 몰입한다"며 "지속적인 데이터 시뮬레이션을 통해 유의미한 정보를 확보하는 작업이 반복된다. 대부분 상품에 적용될 것"이라고 했다. 일각에서 제기된 부실 우려에 대해선 "데이터 분석가들이 오랜 시간 치열한 숫자 싸움 끝에 만들어진 거라 전문성은 보장된다"고 말했다.시중은행들도 CSS 관련 고도화 작업에 속도를 내고 있다. 국민은행은 올해 역점사업으로 CSS 개발을 꼽았다. 이재근 신임 국민은행장은 "가계대출 성장 제한은 우량 고객들에게 영향을 미치고, 7등급 이하 저우량 고객에겐 그 한도가 열려 있다"며 "CSS를 정교화해 7·8등급 고객도 발굴할 수 있느냐가 앞으로 은행 간 성과 차별화 요소가 될 것"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1주년 임직원 대상 스톡옵션 부여</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000059960?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>서울 강남구 토스뱅크 본사의 모습. 사진=연합뉴스인터넷전문은행 토스뱅크가 입사 1주년을 맞이한 사내 임직원을 대상으로 주식매수선택권(스톡옵션)을 부여한다.토스뱅크는 18일 임시주주총회를 열고 임직원 17명에게 스톡옥션 총 34만주를 부여하기로 결정했다고 밝혔다. 주식의 종류는 기명식 보통주다. 신주발행의 형태로 부여되며, 행사가는 액면가 기준 주당 5000원이다.부여일은 오는 28일이며, 대상 임직원은 부여일로부터 2년 뒤인 2024년 2월28일부터 5년간 이를 행사할 수 있다.그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입해 왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다. 토스뱅크는 지난해 7월과 11월, 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여한 바 있다.한편, 토스뱅크는 다음주 이사회를 열고 3000억원 규모의 유상증자를 추진 안건을 논의할 것으로 알려졌다. 이번 안건이 통과되면 토스뱅크의 자본금은 5500억원에서 8500억원으로 늘어난다. 앞서 토스뱅크는 지난해 10월 유상증자를 단행해 토스뱅크의 납입자본은 2500억원에서 5500억원으로 확대된 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>카카오뱅크 환상 걷혔다… 잇단 악재에 혁신 압박↑</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/262/0000015229?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>● 지난해 8월 상장 당시 고평가 논란 지속● 카카오페이 이어 대표·임원진 스톡옵션 행사 뭇매● 상장 6개월 만에 주가 40%↓… 금융 시총 1위 반납● 비대면 주담대·기업대출 진입 준비… 새로운 성장동력 모색● 자체 신용평가모형 경쟁력, 대손비용 영향에 직결카카오뱅크는 지난해 8월 6일 많은 이의 관심과 기대 속에 상장했다. 사진은 서울 영등포구 여의도 한국거래소 전광판에 뜬 카카오뱅크의 코스피 상장 알림. [뉴시스]“인터넷전문은행 특유의 ‘부족한 기능’이 ‘혁신’으로 포장됐다. 이제 그 포장지가 벗겨졌다.”카카오뱅크에 대한 평가는 불과 반년 만에 180도 달라졌다. 카카오뱅크는 지난해 8월 6일 상장 첫날 금융업종 시가총액 1위를 단숨에 꿰찼다. 새로운 인터넷은행이 수십 년 역사의 전통 금융사를 단박에 제쳤다는 점에서 금융권에 큰 충격을 안겼다. 다만 상장 전부터 불거진 고평가 논란이 투자심리에 영향을 미쳐 이른바 ‘따상’(공모가 두 배에서 시초가 형성 후 상한가)에는 실패했다.카카오뱅크 상장 당일 금융주 시총 1위를 내준 KB금융 내부 분위기는 뒤숭숭했다. 시장과 투자자가 카카오뱅크의 미래 성장성에 크게 기대한다는 점이 입증된 만큼 위기감도 커졌다. 거대한 조직과 인력, 상대적으로 무겁고 효율성이 떨어지는 IT시스템 기반의 초거대 전통 은행이 인터넷은행을 제압하기는 사실상 불가능하다는 냉철한 목소리도 잇따랐다.이처럼 카카오뱅크는 화려한 스포트라이트를 받으며 증시에 입성하고 세계 챌린저 뱅크의 성공사례로 평가받았다. 하지만 상장 6개월이 지난 지금 성장모델 부재, 기대에 못 미친 여신 점유율과 실적에 대한 실망감이 커졌다. 여기에 더해 류영준 카카오페이 대표와 임원진 등 총 8명의 부적절한 대규모 스톡옵션(주식매수선택권) 행사가 뭇매를 맞으면서 카카오페이와 함께 주가가 내리막을 걷고 있다.1월 19일 윤호영 카카오뱅크 대표이사가 지난해 4분기 스톡옵션 25만 주 중 일부를 행사한 사실이 뒤늦게 알려져 논란이 됐다. 사진은 지난해 7월 20일 윤 대표가 기업공개(IPO) 프레스톡에서 상장 계획을 밝히는 모습. [뉴스1]최근 뒤늦게 카카오뱅크 임원진도 상장 후 주가 고점 시기였던 지난해 8월 스톡옵션을 행사한 점이 주목받았다. 여기에 더해 윤호영 대표 역시 카카오페이 임원진과 비슷한 시기에 차액보상형으로 스톡옵션 52만 주 중 일부를 행사한 사실도 알려졌다. 차액보상형은 주가에 영향을 주지 않지만 회사 순자산이 감소한다.2월 7일 카카오뱅크 1억5081만3725주에 대한 의무보유기간이 해제되면서 주가는 상승과 하락을 오가다 0.59% 상승으로 장을 마감했다. 이튿날 주가는 5%대로 상승했지만 추가 물량 해제를 앞두고 있어 주가 회복 여부가 불투명하다.카카오發 악재… 상장 4개월 만에 최저가카카오뱅크는 공모가 3만9000원, 상장 첫날 시초가 5만3700원, 종가 6만9800원(상한가)으로 코스피 시장에 화려하게 입성했다. 상장 첫날 시가총액 33조1620억 원으로 금융 대장주인 KB금융지주(21조7052억 원)와 신한금융지주(20조182억 원)를 약 12조~13조 원의 압도적 차이로 제치고 1위에 등극했다.상장 6개월이 지난 2월 4일 기준 카카오뱅크 주가는 4만2100원으로 상장 당일 종가 대비 약 40% 하락했다. 자칫하면 공모가 수준까지 떨어질 수 있다는 우려까지 나왔다. 2021년 실적 발표에서 시장 예상치보다 더 낮은 성적에 그칠 것이라는 전망도 제기됐다. 금융주 시총 1위 자리는 다시 KB금융에 내줬다.카카오뱅크 주가는 상장 후 주요 임원진이 스톡옵션을 행사한 이후 줄곧 하락했다. 카카오뱅크 스톡옵션을 부여받은 임원 9명 중 5명이 지난해 8월 6일 상장 후 10~11일, 20~24일에 걸쳐 주식을 대거 매도했다. 이들이 행사한 스톡옵션은 총 29만5182주로 상장 전 미행사된 스톡옵션(267만2800주)의 약 11%에 달한다.카카오뱅크 주가는 상장 이전은 물론, 이후에도 고평가 논란이 끊이지 않았다. 이런 상황에서 임원진 스톡옵션 행사까지 겹치자 주가는 하락세로 완전히 전환했다. 임원진 스톡옵션 행사가 끝난 지난해 8월 24일 주가는 장중 5%대로 하락했다. 이후 주가는 9월 말까지 계단형으로 하락했다.이후 다시 반등했던 카카오뱅크 주가는 계열사인 카카오페이 류영준 대표와 임원진 7명이 지난해 12월 1일과 10일 약 800억 원대 스톡옵션을 행사하자 다시 가파르게 하락했다. 회사 상장 한 달 만에 시간 외 대량매매(블록딜) 방식으로 주식을 대량 매각하면서 소액주주에게 피해를 주는 결과를 낳았다.스톡옵션은 회사 성장에 기여한 임원진에게 부여하는 성과 보상 방식이다. 원하는 시기에 매각해 차익을 실현할 수 있지만 주가 상승이 충분히 예상되는 코스피200 지수에 편입되는 날 카카오페이 임원진이 대량으로 지분 매각에 나섰다는 점에서 모럴해저드라는 비판을 피하기 어려웠다.경영진에 대한 시장과 투자자의 신뢰 하락에 더해 카카오페이는 2월 기관투자자 3개월 의무보유 물량이 해제돼 주가에 악영향을 끼쳤다. 앞으로 3월부터 두 달에 걸쳐 보호예수가 종료되는 물량이 잇달아 나올 예정이어서 주가 상승 모멘텀을 찾기 어려운 상황에 직면했다.카카오뱅크도 대표와 임원진의 스톡옵션 행사 시점에 대한 문제 제기가 계속되고 있다. 카카오뱅크 임원진에 이어 윤호영 대표가 스톡옵션 일부를 행사한 것까지 알려져 논란이 됐다.도마에 오른 인터넷전문은행의 혁신시장은 강력한 카카오 플랫폼을 바탕으로 한 카카오뱅크의 새로운 비대면 금융 모델, 적극적 인프라 투자 기조에 주목해 왔다. 특히 인터넷전문은행의 혁신 포인트인 작은 조직, 개발자 위주의 인력 구성, 효율적인 IT 인프라 운영, 디지털 기반 비대면 중심 서비스는 기존 금융사보다 빠른 성장성을 보이기에 충분한 환경으로 평가받았다.이 같은 특징 때문에 카카오뱅크는 기존 금융주와 동일 선상에서 비교하기 힘들다는 이유로 적정 기업가치를 객관적으로 평가받지 못했다. 상장 당시 카카오뱅크는 해외 금융 플랫폼 4개 기업의 주가순자산비율(PBR)을 기반으로 희망 공모가를 산출했다. 이들 PBR은 최저 4.6배, 최대 8.8배인데 카카오뱅크는 평균치인 7.3배 PBR을 적용했다. 국내 금융주 PBR이 1배 미만인 데 비해 상당히 높은 수준을 기준으로 적용한 셈이다. 이는 상장 전후로 카카오뱅크에 대한 밸류에이션 고평가 논란이 그치지 않은 원인으로 지목됐다. 증권가에서는 카카오뱅크의 적정 가치에 대해 더 많은 논의가 필요하다고 보고 있다.최근 시장에서는 그동안 열광해 온 인터넷전문은행의 혁신성에 대해 비판의 목소리가 나오고 있다. 당초 비대면 플랫폼 중심의 영업과 서비스, 단순 명료한 여수신 상품 구성은 기존 금융사 대비 쉽고 간편해 강점으로 부각됐다. 최근에는 이 강점이 ‘기능이 적고 제한적’이라는 단점으로 평가되고 있다.예를 들어 기존 금융사는 예금, 대출, 투자 등 다양한 분야 상품을 취급하는데 카카오뱅크를 비롯한 인터넷전문은행은 개인 고객에 한정해 소수의 상품만 취급하고 있다. 다루는 상품이 적다 보니 사용자에게 더 쉽고 효과적으로 노출될 수 있어 혁신성이 부각됐지만, 그만큼 선택의 폭이 좁다는 지적도 계속됐다.개인 대출상품의 경우 초기 낮은 금리와 간편한 대출 심사 프로세스로 많은 사용자를 끌어모았다. 최근에는 대출 상환 과정에서 금리가 빠르게 올랐는데 이 과정에서 대출 고객에게 충분한 설명이 부족했고 양방향 소통 채널이 부족하다는 지적까지 제기됐다.무엇보다 카카오뱅크의 가장 큰 문제는 인터넷전문은행 설립 핵심 목적 중 하나인 중금리 대출 활성화에 사실상 실패한 것이다. 금융 당국은 ICT(정보통신기술)와 금융을 융합해 금융산업 경쟁과 혁신을 촉진하고 금융소비자 편익을 높이기 위해 인터넷전문은행 제도를 도입했다. 특히 비금융 거래정보, 통신 등 다양한 데이터를 결합해 신용평가모델을 고도화하고 이를 기반으로 중·저신용자를 포용하는 중금리 대출을 적극 공급하는 효과를 기대했다.하지만 인터넷전문은행 3사(케이뱅크, 카카오뱅크, 토스뱅크) 모두 지난해 중금리 대출 공급 목표치에 도달하지 못했다. 인터넷전문은행 설립 취지가 무색할 정도로 고신용자 위주 대출에만 치중했다는 비판을 피하기 어려웠다.비대면 주담대·개인사업자 대출사업, 탈출구 될까카카오뱅크는 개인사업자 전용 대출상품 연내 출시를 목표로 신사업을 추진하며 주가 회복에 나설 예정이다. [뉴스1]증권가에서는 카카오뱅크의 주택담보대출(주담대) 사업 진출을 기대해 왔다. 인터넷전문은행이 주담대 사업에 진출하면 이른바 ‘대출 갈아타기’ 수요가 상당한 규모로 발생할 것으로 예상됐기 때문이다. 하지만 지난해 정부가 대출을 강하게 옥죄었고, 올해도 대출 총량을 4~5% 수준에서 관리할 방침이어서 관련 사업에도 악영향이 불가피할 것으로 보인다.이 같은 영향으로 증권가는 올해 들어 카카오뱅크 목표 주가를 큰 폭으로 낮췄다. 하이투자증권은 목표 주가를 8만1000원에서 6만3000원으로 약 22.2%, 신한금융투자는 8만5000원에서 6만3000원으로 약 25.8%씩 각각 낮췄다.업계는 카카오뱅크가 최대한 많은 주담대 신규 가입자를 확보해야 낮아진 시장 기대치를 다시 높일 수 있다고 보고 있다. 카카오뱅크는 올 1분기 중 비대면 주담대 상품을 출시할 계획이다. 또 주담대 경쟁력을 높이기 위해 금리가 낮은 ‘신(新) 잔액 기준 자금조달비용지수(코픽스)’ 연동 상품 출시도 준비하고 있다.그러나 저신용자 대상 중금리 대출 확대는 금융 당국의 정책 목표에 부합하지만 카카오뱅크의 대손비용 확대가 불가피해 ROE(자기자본이익률)에 부정적 영향을 끼칠 수 있다. 금융 당국이 강조하는 5~15% 수준 중금리 대출은 대손비용률이 높아 수익성이 낮고 경쟁도 치열하다고 평가받기 때문이다. 저신용자 대출 비중이 높아지면 대손비용률이 함께 상승할 수밖에 없어 ROE 하락을 초래하게 된다.중금리 대출을 확대하면서 동시에 양호한 건전성을 유지하려면 카카오뱅크의 자체 신용평가모델(CSS)이 제대로 역할을 해야 한다. 카카오뱅크는 설립 후 2020년까지 5~6등급 이상 우량등급 차주 중심의 대출을 실행해 왔다. 지난해부터 7~8등급 차주에 대한 대출을 시작했는데 올해 이 비중이 높아지면 대손비용 상승 가능성이 커진다. 따라서 차별화된 데이터 관리를 바탕으로 건전성을 높이는 것이 숙제다.개인사업자와 중소기업 등 기업대출 활로가 열린 것은 수익성 확대 기회로 작용할 전망이다. 가계대출 중심이던 인터넷전문은행이 개인사업자와 중소기업으로 범위를 넓혀 여신 포트폴리오를 다각화할 수 있기 때문이다.개인사업자 대출에서도 특화된 자체 신용평가모델 경쟁력이 큰 영향을 끼칠 전망이다. 실제 상환 능력을 가늠하는 잣대이기 때문에 다양한 금융·비금융 데이터 활용이 필수다. 이 분야에서는 토스뱅크가 가장 먼저 개인사업자 전용 대출상품을 선보일 예정이다. 카카오뱅크는 연내 진출을 목표하고 있다. 데이터기반중금리시장혁신준비법인이 준비하는 개인사업자 신용평가모델을 바탕으로 서비스를 제공할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>22일 장 마감 후 주요 종목 뉴스</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005152558?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[이데일리 김연지 기자] 다음은 22일 장 마감 이후 주요 종목 뉴스다.△ 디아이(003160)=중국 소주(Suzhou) 삼성전자 법인과 21억7872만원 규모의 반도체 검사장비 공급계약을 체결했다고 공시.△ 그린케미칼(083420)= △이차전지 전해액 첨가제, 전해질 등 관련소재 제조 및 판매업 △온실가스 포집소재 제조 및 판매업을 새로운 사업목적으로 추가하고 다음달 23일 주주총회에서 승인을 받을 예정이라고 공시.△ 두산(000150)= 반도체 테스트 1위 기업인 ‘테스나’ 인수와 관련해 “검토 중이나 아직까지 확정된 사항은 없다”고 공시.△ OCI(010060)=부광약품 최대주주인 김동연 회장 외 특수관계인 9인이 보유한 주식 773만 334주를 1461억원에 취득한다고 공시. 이는 자기자본대비 6.12%에 해당하는 규모. 이번 인수로 OCI의 부광약품 보유 주식 수는 774만 7934주로 늘어나. 지분비율은 10.90%. 주식 취득 예정 일자는 오는 3월8일.△ 한화시스템(272210)=보통주 1주당 160원의 현금 결산배당을 결정했다고 공시. 시가배당율은 1.02%이며 배당금총액은 299억1892만원.△ 한화시스템(272210)=100% 해외자회사 한화시스템 USA 코퍼레이션이 유상증자 과정서 발행한 주식 1만5000주를 1791억원에 인수한다고 공시. 이는 자기자본 대비 17.35%. 회사측은 디지털플랫폼 관련 투자 및 사업 진행을 위한 차원이라고 설명.△ 현대건설(000720)=오는 24일 정기주주총회에서 사내이사로 황준하 안전관리본보 본부장, 사외이사 겸 감사위원으로 정문기 성균광대 경영학과 교수를 선임할 계획이라고 공시.△ 현대건설(000720)=보통주 1주당 600원의 배당을 실시한다고 공시. 시가 배당율은 1.3%, 우선주는 1주당 650원. 이번 배당금은 다음달 3월24일 열리는 주주총회에서 확정될 예정.△ 현대중공업지주(267250)=자회사 현대오일뱅크가 주당 1208원 배당을 실시할 계획이라고 공시. 배당금 총액은 2960억5000만원으로, 배당금지급일은 아직 정해지지 않아.△ 한화투자증권(003530)=토스뱅크의 유상증자에 참여해 주식 600만주를 취득하기로 결정했다고 공시. 취득금액은 300억원으로 이는 자기자본대비 2.4%에 해당하는 규모. 취득 후 한화투자증권의 지분율은 10%(1700만주)이며 취득예정일자는 오는 24일.△ 신세계인터내셔날(031430)= 유통주식수 확대를 위해 1주당 가액을 5000원에서 1000원으로 분할하기로 결정했다고 공시. 발행주식총수는 분할전 714만주에서 분할후 3570만주로 늘어나. 신주 상장예정일은 4월 11일.△ 하이브(352820)=지난해 4분기 영업이익이 739억원으로 전년동기대비 36.8% 증가했다고 공시. 매출액은 4598억원으로 48.0% 증가, 당기순이익은 538억원으로 106.2% 늘어.△대한항공(003490)=박남규 사외이사(서울대 경영대 교수)를 재선임하기로 결정했다고 공시.△휴젤(145020)=오스트리아 연방보건안전청(BASG)으로부터 미간주름 개선 효과가 있는 보툴렉스 50유닛의 품목 허가를 획득했다고 공시. △오션브릿지(241790)= SK ON Hungary와 168억원 규모의 2차전지 제조장비 공급계약을 체결했다고 공시. 계약금액은 최근 매출액은 대비 18.3%. 계약기간은 이달 21일부터 오는 10월15일까지.△한국정보공학(039740)=연결 기준 지난해 영업이익 35억원으로 전년 대비 흑자전환했다고 공시. 매출액은 4.8% 감소한 1718억원. 당기순이익은 49억원으로 전년 대비 흑자전환.△한국테크놀로지(053590)=연결 기준 지난해 영업이익이 62억원으로 전년 대비 20.3% 증가했다고 공시. 매출액은 9.4% 늘어난 3534억원. 당기순손실은 97억원으로 전년 대비 17.1% 줄어.△와이아이케이(232140)=주가 안정 및 주주가치 제고를 목적으로 20억원 규모의 자기주식취득 신탁계약을 삼성증권과 체결했다고 공시. 계약기간은 이날부터 오는 8월22일까지.△줌인터넷(239340)=연결 기준 지난해 영업이익이 63억원으로 전년 대비 704.5% 증가한 것으로 잠정집계했다고 공시. 같은 기간 매출액은 전년 대비 19% 늘어난 283억원, 당기순이익은 전년 대비 398.3% 증가한 39억원. △켐트로닉스(089010)=연결 기준 지난해 영업이익이 387억원으로 전년 대비 75% 증가했다고 공시. 매출액은 같은 기간 6% 증가한 5634억원, 당기순이익은 전년보다 58% 늘어난 284억원.△테스(095610)=삼성전자와 185억원 규모의 반도체 제조장비 공급계약을 체결했다고 공시. 계약금액은 최근 매출액 대비 7.51% 수준. 계약 기간은 이달 21일부터 오는 5월31일까지.△중앙디앤엠(051980)=브이씨텍과 GTX-A 전동차 160량 부품 공급계약을 체결했다고 공시. 계약금액은 12억원으로 최근 매출액 대비 11.3%에 해당. 계약기간은 이달 21일부터 2023년 12월31일까지.△ 브이원텍(251630)=연결 기준 지난해 영업이익이 50억원으로 전년 대비 23.1% 감소했다고 공시. 같은 기간 매출액은 64.3% 늘어난 511억원으로 집계. 당기순이익은 106억원으로 전년 대비 92.7% 늘어.△ 에이스토리(241840)=월트디즈니컴퍼니코리아와 드라마 방영권 라이선스 계약을 체결했다고 공시. 올해 방영 예정인 16부작 드라마 공급할 계획. 계약금액은 유보기한 종료 후 공개. 계약기간은 이날부터 오는 2032년 6월29일.△에코플라스틱(038110)=보통주 1주당 50원의 현금 결산배당을 결정했다고 공시. 시가배당률은 1.7%, 배당금총액은 16억7537만원.△프리시젼바이오(335810)=연결 기준 지난해 영업손실이 41억원으로 전년 대비 136.3% 늘었다고 공시. 같은 기간 매출액은 159억원으로 전년 대비 82.9% 늘어. 당기순손실은 33억원으로 전년 대비 32.4% 줄어.△ ITX-AI(099520)=서울회생법원으로부터 회생절차 개시를 결정 받았다고 공시. 회생채권·회생담보권·주식 또는 출자지분 신고기간은 이날부터 다음달 4일까지. 회생채권 및 회생담보권 조사기간은 3월5일부터 11일까지. △ 덕산네오룩스(213420)=연결 기준 지난해 영업이익이 504억원으로 전년 대비 25.6% 증가했다고 공시. 매출액은 32.7% 증가한 1914억원. 당기순이익은 484억원으로 전년보다 45.1% 늘어.△ 테크윙(089030)=주가 안정 및 주주가치 제고를 위해 30억원 규모의 자기주식 취득 신탁계약을 삼성증권과 체결했다고 공시. 계약기간은 이날부터 오는 8월21일까지.△고려제약(014570)=보통주 1주당 170원의 현금 결산배당을 결정했다고 공시. 시가배당률은 1.94%, 배당금총액은 18억3320만원.△ 피씨디렉트(051380)=주식회사 유에스알이 서울서부지방법원에 청구한 주주명부 열람 및 등사 허용 가처분 신청을 취하했다고 공시.  △주성엔지니어링(036930)=152억원 규모의 반도체 제조장비 공급 계약을 SK하이닉스(000660)와 체결했다고 공시. 계약금액은 최근 매출액 대비 12.78% 수준. 계약기간은 이달 21일부터 오는 3월7일까지.△진성티이씨(036890)=연결 기준 지난해 영업이익이 253억원으로 전년 대비 9.9% 증가했다고 공시. 매출액은 전년보다 40.5% 늘어난 4374억원, 당기순이익은 172억원으로 전년 대비 13.8% 증가.△성우테크론(045300)=연결 기준 지난해 영업이익이 55억원으로 전년 대비 26.9% 증가했다고 공시. 매출액은 15.8% 늘어난 439억원, 당기순이익은 58억원으로 전년 대비 49.2% 증가.△ 와이팜(332570)=타법인 증권 취득자금을 마련하기 위해 60억원 규모의 무기명식 무보증 사모 교환사채를 발행하기로 결정했다고 공시. 표면이자율과 만기이자율은 0%, 사채만기일은 2025년 2월24일. 교환가액은 주당 6만원, 교환비율은 100%. 교환대상은 테스나(131970) 기명식 보통주 10만주로 주식총수 대비 0.59%. 교환청구기간은 오는 3월3일부터 2025년 1월24일까지.△ 연이비앤티(090740)=제모씨가 대전지방법원 천안지원에 청구한 이사회결의무효확인 소송에 대해 취하간주 판결을 내렸다고 공시.△ 연이비앤티(090740)=조모씨가 대전지방법원 천안지원에 채무자인 연이비앤티의 주주명부를 본점 등에서 열람 및 등사를 허용하도록 요구하는 가처분 신청을 청구했다고 공시.회사 측은 “법률대리인을 선임해 법적 대응을 할 예정”이라고 말했다.  △휴먼엔(032860)=인피니엄인베스트먼트 주식회사가 의정부지방법원에 청구한 이사 직무집행정지 가처분 소송에 대해 즉시항고 각하 판결을 받았다고 공시.△ SM Life Design(063440)= 연결 기준 지난해 영업이익이 1억6373만원으로 전년 대비 흑자전환했다고 공시. 매출액은 같은 기간 55% 증가한 452억원으로 집계, 당기순이익은 18억원으로 전년 대비 흑자전환.△에코프로비엠(247540)=종속회사 에코프로이엠이 시설자금 마련을 위해 주주배정 방식으로 1000억원 규모의 유상증자를 결정했다고 공시. 발행되는 신주는 보통주 1000주. 주주배정 증자 방식에 따라 에코프로비엠(60%)과 삼성SDI(006400)(40%)의 지분율에 따라 각각 600억원, 400억원 출자. 주당 액면가액은 500원. △ 플리토(300080)=국내 소재 IT기업과 7억4550만원 규모의 다국어 번역 용역 위탁 계약을 체결했다고 공시. 계약금액 규모는 최근 매출액 대비 12.65%. 계약 기간은 오는 3월2일부터 6월30일까지.△에이테크솔루션(071670)=연결 기준 지난해 영업이익이 66억원을 기록해 전년 대비 64.8% 증가했다고 공시. 매출액은 8.2% 늘어난 2599억원. 당기순이익은 57억원으로 전년보다 95.7% 증가.△ 민앤지(214180)=연결 기준 지난해 영업이익이 374억원으로 전년 대비 32.5% 늘었다고 공시. 같은 기간 매출액은 29.3% 증가한 2210억원으로 집계. 당기순이익은 325억원으로 전년보다 10.9% 늘어.△프리시젼바이오(335810)=52억원 규모의 대전광역시 유성구에 위치한 토지 및 건물을 양수하기로 결정했다고 공시. 양수금액은 자산총액 대비 12.3%, 양수예정일은 오는 6월15일.△ 한일사료(005860)=연결 기준 지난해 영업이익이 136억원을 기록해 전년 대비 297.1% 증가했다고 공시. 매출액은 7.3% 늘어난 3558억원, 당기순이익은 74억원으로 전년보다 217.7% 늘어.△ 나래나노텍(137080)=보통주 1주당 200원의 현금 결산배당을 결정했다고 공시. 배당금총액은 16억7846만원. △엘아이에스(138690)=연결 기준 지난해 영업손실이 618억원으로 전년 대비 적자전환했다고 공시. 매출액은 554억원으로 전년 대비 72.6% 감소. 당기순손실은 393억원으로 전년 대비 적자전환.△ 아스타(246720)= 4억9210만원 규모의 아스타 오아시스 공급계약을 체결했다고 공시. 계약금액은 최근 매출액 대비 39%, 계약 기간은 이날부터 오는 9월30일까지. 계약 업체는 영업비밀 요청에 따라 공시 유보.△ 에스맥(097780)=한국거래소 코스닥시장본부는 액면병합 주권 변경상장으로 주권매매거래 정지를 해제한다고 공시. 해제일시는 오는 23일.△ 원풍물산(008290)=한국거래소 코스닥시장본부가 현저한 시황변동에 대한 조회공시를 요구했다고 공시. 답변시한은 오는 23일 오후 6시까지.△ 에이티넘인베스트(021080)=보통주 1주당 200원의 현금 결산배당을 결정했다고 공시. 시가배당률은 3.75%, 배당금총액은 95억2687만원.△ 엑세스바이오(950130)=292억원 규모의 코로나19 항원 자가진단키트 공급계약을 F&amp;E Medical과 체결했다고 공시. 계약금액은 최근 매출액 대비 23.96%, 계약기간은 이날부터 오는 3월7일까지.△ 신한제7호스팩(366330)=개별 기준 지난해 영업손실이 2억5240만원으로 전년 대비 1178% 증가했다고 공시. 당기순손실은 2억555만원으로 전년 대비 552% 늘어.△ 삼화네트웍스(046390)=직원 윤은정씨 외 18명에게 보통주 62만5000주를 살 수 있는 주식매수선택권을 부여한다고 공시. 주식매수선택권의 가격은 3810원, 행사기간은 오는 2024년 2월22일부터 2027년 2월21일까지. △ 케이사인(192250)=사옥 건설 및 운전자금 마련을 위해 200억원 규모의 단기차입을 결정했다고 공시. 차입금액은 자기자본 대비 31.1%. △ 코드네이처(078940)=연결 기준 지난해 영업손실이 45억원으로 전년 대비 69.9% 증가했다고 공시.매출액은 9.2% 감소한 3489억원. 당기순손실은 66억원으로 전년 대비 104.5% 늘어.△ 디알젬(263690)=원자재 구매 등의 자금 확보를 위해 200억원 규모의 단기차입을 결정했다고 공시. 차입금액은 자기자본 대비 38.1%. 이에 따라 단기차입금총액은 250억원으로 늘어날 예정.△세틀뱅크(234340)=연결 기준 지난해 영업이익이 153억원으로 전년 대비 43.4% 증가했다고 공시. 매출액은 41.3% 늘어난 1104억원, 당기순이익은 전년 대비 103.1% 증가한 229억원으로 집계.△ 남화토건(091590)=연결 기준 지난해 영업이익이 88억원으로 전년 대비 92.1% 늘었다고 공시. 같은 기간 매출액은 1091억원으로 전년보다 44.8% 증가. 당기순이익은 131억원으로 전년 대비 100.8% 늘어. △ 남화토건(091590)=보통주 1주당 150원의 현금 결산배당을 결정했다고 공시. 시가배당률은 1.72%, 배당금 총액은 17억6100만원.△이엔드디(101360)=연결 기준 지난해 영업이익이 77억원으로 전년 대비 52.9% 감소했다고 공시. 매출액은 16.2% 감소한 774억원, 당기순이익은 109억원으로 전년보다 204.9% 늘어.△ 홈캐스트(064240)=41억원 규모의 스마트폰용 이미지센서 공급 계약을 주식회사 나무가와 체결했다고 공시. 계약금액은 지난 2020년 매출액 대비 10.1%. 계약기간은 이달 21일부터 오는 3월31일까지.△ KH E&amp;T(226360)=연결 기준 지난해 영업이익이 12억원으로 전년 대비 55% 감소했다고 공시. 같은 기간 매출액은 504억원으로 전년 대비 1% 증가. 당기순손실은 296억원으로 전년보다 13% 감소.△ 에이치엘비생명과학(067630)(HLB생명과학)=개암이엔티와 체결했던 80억원 규모의 폐기물소각 발전사업 계약을 해지했다고 공시. 해지금액은 최근 매출액 대비 8.7% 수준.△ HB테크놀러지(078150)=연결 기준 지난해 영업손실이 225억원으로 전년 대비 적자전환했다고 공시. 매출액은 42% 감소한 1589억원. 당기순이익은 98억원으로 전년보다 1079% 늘어.△ 토비스(051360)=차파트너스자산운용 주식회사 외 2명이 인천지방법원에 오는 3월 개최되는 정기주주총회에서 별지 기재 의안 상정 등을 요구하는 가처분 소송을 청구했다고 공시.△ 넥스트아이(137940)=연결 기준 지난해 영업손실이 117억원으로 전년 대비 13.2% 늘었다고 공시. 매출액은 17.2% 감소한 288억원. 당기순손실은 151억원으로 전년 대비 적자전환.△ 푸드나무(290720)=타법인 증권 취득자금 마련을 위해 65억원 규모의 무기명식 이권부 무보증 사모 교환사채 발행을 결정했다고 공시. 표면이자율과 만기이자율은 모두 0%, 사채만기일은 오는 2027년 2월25일. 교환가액은 17만원, 교환비율은 100%. 교환대상은 종속법인 중 에프엔프레시 기명식 보통주 3만8235주로, 주식총수 대비 19.12%. 교환청구기간은 이달 28일부터 2027년 2월19일까지. 이번 교환사채 발행에 따라 주식회사 에프엔프레시를 대상으로 65억원 규모의 주식을 처분하기로 결정. 처분금액은 자기자본 대비 11.55%에 해당, 처분주식수는 3만8235주. 처분예정일자는 오는 25일. △티웨이항공(091810)= 운영자금 및 채무상환자금 마련을 위해 1190억원 규모의 유상증자를 결정했다고 공시. 발행되는 신주는 5000만주, 증자방식은 주주배정후 실권주 일반공모. 주당 액면가액은 500원.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스뱅크, 카카오뱅크·케이뱅크보다 중저신용자 잘 포용했다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038160?sid=105</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>토스뱅크 관련 이미지(사진=토스뱅크)인터넷전문은행 3호 토스뱅크가 1호 케이뱅크, 2호 카카오뱅크보다 중저신용자에게 대출문을 더 포용적으로 열었다. 토스뱅크만의 신용평가모형(CSS) 덕분이다.25일 은행연합회에 공시된 인터넷은행의 '중·저신용자 대상 신용대출 비중(잔액 기준)'을 보면 지난해 말 기준 케이뱅크는 16.6%, 카카오뱅크 17.0%, 토스뱅크가 23.9%를 기록했다. 비율이 낮을수록 가계신용대출에서 고신용자 비중이 더 크단 뜻이다. 중저신용대출은 금융당국이 인터넷은행의 출범을 허락해준 이유이기도 하다.토스뱅크는 자사의 CSS를 자체적으로 개발했다는 의미에서 'TSS(Toss Scoring System)'로 부른다. 개인신용평가사(CB사) 데이터에 간편송금 시절부터 축적해온 데이터를 결합했다. 모체가 IT기업인 카카오뱅크(카카오), 케이뱅크(KT)와 달리 토스는 출범부터 금융 데이터를 축적할 수 있었고, 여기에는 은행과 카드사뿐 아니라 전 금융권의 데이터가 포함됐다.구체적으로 TSS는 고신용자에 초점을 맞춘 1금융권 데이터뿐 아니라 저축은행, 캐피털사 등 2금융권의 신용데이터까지 모두 취합했다. 신용정보 외에도 꾸준히 아르바이트 급여가 들어오는 계좌내역, 성실한 휴대폰 요금 납부내역 등 신용도를 가늠할 수 있는 대안 데이터도 결합했다. 머신러닝이나 딥러닝 등 인공지능(AI) 기술을 활용해 순간적인 신용상태가 아닌 고객의 금융활동 맥락 전체를 데이터화한 후 알고리즘에 반영했다.중저신용자의 대출상환능력을 정교하게 평가할 수 있는 TSS를 활용해 토스뱅크는 신용대출의 중저신용자 비중을 올해 말 42%, 내년 말 44%로 늘려나간다는 계획이다.업계 '형님'격인 케이뱅크와 카카오뱅크는 중저신용자 포용을 위해 더욱 노력하겠다는 입장이다.케이뱅크는 지난해부터 올 2월까지 공급한 중저신용 고객 신용대출 규모가 1조원에 달한다고 밝혔다. 특히 지난해 하반기부터 증가세가 두드러졌다. 하반기에만 직전연도(2020년) 한 해 동안 공급한 총액(3251억원)의 약 1.5배에 달하는 4942억원을 공급했다. 이달 중순부터는 중저신용, 금융정보 부족(씬파일러) 고객에 특화한 CSS를 새로 개발해 적용했다. 케이뱅크는 신규 CSS 도입으로 중저신용 고객군의 대출 승인율이 기본 모형 대비 약 18.3% 증가하고, 씬파일러 고객군의 대출 승인율 역시 약 31.5% 상승했다고 밝혔다. 케이뱅크 관계자는 "대출이자 지원과 대출안심플랜을 제공하며 중저신용 고객 신용대출 공급을 확대하고 있다"고 전했다.카카오뱅크는 2021년 한 해 동안 중저신용 고객에게 공급한 무보증 신용대출 규모가 1조7166억원으로 2020년(4679억원) 대비 3.7배가량 증가했다. 전체 신용대출 신규 공급에서 중저신용 비중은 2020년말 4.1%에서 2021년 4분기에 90.6%까지 확대됐으며, 특히 2021년 11월 이후부터는 신규 신용대출 100%를 중저신용 고객에게 공급하고 있다.카카오뱅크의 2022년 CSS 혁신 및 고도화 계획(자료=카카오뱅크)카카오뱅크 역시 CSS 고도화에 주력한다. 지난해 6월 적용한 현 카카오뱅크의 CSS는 2500만건에 달하는 카카오뱅크 대출 신청 데이터에 통신정보 등을 반영한 머신러닝 방법으로 개발됐다. 이를 기반으로 한 대출 상품 출시를 통해 대출 가능 고객의 범위를 KCB 신용점수 기준 500점대까지 확대했다. 카카오뱅크는 현재 카카오 공동체 외에 교보그룹과 데이터 협력을 진행하고 있으며, 다른 금융회사를 이용하고 있는 중저신용 고객을 위한 '대환 신용평가 모형'도 개발할 계획이다.사측 관계자는 "카카오뱅크는 중저신용대출 공급 확대를 여신 계획의 최우선순위로 정했으며 고신용 신규 신용대출 중단은 올해도 이어가기로 결정했다"며 "올해 말 중저신용대출 비중은 25%, 내년 말에는 30%로 끌어올릴 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>“개인사업자 신용평가-빅데이터 플랫폼으로 제2도약”</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003412784?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>한국기업데이터, ‘코데이터’로 사명 변경이호동 코데이터 대표. 코데이터 홈페이지 한국기업데이터가 회사이름을 창립17주년을 맞아 22일 ‘코데이터(KODATA)’로 바꾸고 본격적인 사업 다각화에 시동을 걸었다.  이호동 코데이터 대표는 “새로운 사명은 16년간 쌓아 온 한국기업데이터의 명성과 위상을 재정립하고, 종합 신용평가(CB)사이자 빅데이터 플랫폼으로서 성장하겠다는 회사의 정체성을 보다 명확히 한 것”이라고 밝혔다. 그동안 기업에 치중해왔던 사업 영역을 이제 개인과 개인사업자로 넓히겠다는 말이다.  한국은행이 집계한 1월말 기준 은행권 개인사업자 대출은 425조1000억 원으로 한 달 새 2조원 이상 늘었다. 시장 선점을 위해 은행과 카드사, 핀테크 회사들이 잇따라 개인사업자 대출 상품을 내놓거나 내놓을 준비를 하고 있다. 토스는 연내 신용평가사 설립도 추진 중이다. -현재 신용평가 시장은 어떤 상황인가?“2020년 신용정보법 개정 이후 금융회사들의 새로운 격전지가 되고 있다. 개인과 개인사업자 CB 라이선스가 신설되고, 진입 장벽이 낮아지면서 신규 사업을 모색할 수 있는 길이 열렸다. 새로운 환경에서 우리도 이제 변신하지 않으면 안된다는 생각이다”-격전에 대비해 그동안 어떤 준비를 해왔는가? “비교적 시장 형성이 아직 초기 단계인 개인사업자 CB업 진출에 먼저 주력하고 있다. 지난해 KB국민카드와 협업해 출시한 개인사업자 신용평가인 ‘크레딧 트리(Credit Tree)’가 간판 상품이다. 개인사업자들을 대상으로 한 신용평가 외에도 매출추정, 사업경쟁력, 요약항목, 종합신용관리보고서 등의 서비스를 함께 제공하고 있다”-경쟁력이 있다고 보나?“코데이터 역시 개인사업자 CB시장은 후발주자다. 하지만 코데이터는 1100만 개 이상의 기업 데이터베이스(DB)와 16년간 쌓아 온 신용 및 기술평가 역량은 다른 곳에서 갖기 힘든 경쟁력이다. 크레딧 트리에서도 이러한 장점이 반영되었다. 전국의 지리 정보를 토대로 상권을 분류하여 사업장 단위로 성장성과 안정성, 영업력, 구매력, 집객력 등 종합적인 경쟁력을 수치화하여 제공한다. 특히 1만 5000여 개에 달하는 상권 분석 규모는 국내 최대 수준이다. 분석 결과를 토대로 맞춤형 마케팅 전략을 펼칠 수 있다는 점에서, 마케팅 비용을 낮추고 효율은 높일 수 있다는 장점도 있다고 본다”. -그 밖에 준비 중인 사업은 무엇인가?“금융결제원과 손잡고 소상공인 특화 대안신용평가모형도 준비 중이다. 금결원이 보유한 어음, 지로 등의 정보와 코데이터의 기업 기술인증 및 부동산 정보 등 간접적인 금융거래 정보를 활용한다. 영세 소상공인도 정확한 신용등급을 받고 금융권 대출을 이용할 수 있을 전망이다. 올해 상반기 중으로 정식 오픈할 예정이다”</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>토스 인증서로 KT 알뜰폰 비대면 개통된다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013004196?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[토스 제공=연합뉴스]    (서울=연합뉴스) 한혜원 기자 = 토스를 운영하는 비바리퍼블리카는 KT 알뜰폰 개통에 토스 인증서와 토스 본인확인 서비스를 도입하는 업무협약(MOU)을 KT와 체결했다고 22일 밝혔다.     이 협약에 따라 KT 알뜰폰 사업자 온라인몰에서 휴대전화를 개통할 때 토스 인증서를 사용할 수 있게 된다. 비대면 가입 마지막 인증 절차에서 이를 선택하면 된다.     토스와 KT는 나아가 토스 애플리케이션(앱)에서 KT 알뜰폰을 비대면 개통할 수 있도록 앱 안에 매장을 입점시킬 예정이다.      토스 인증서는 공동인증서와 동등한 법적, 기술적 지위를 지닌다.     토스 관계자는 "토스 인증서는 작년 11월 전자서명 인증사업자 지위를 획득한 이후 가파르게 사용자를 늘려나가고 있다"며 "KT 알뜰폰의 토스 인증서 도입을 계기로 다양한 영역에 인증서·본인확인 서비스를 확대해 나갈 것"이라고 말했다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>“삼성전자 0.1주 살게요”… 9월부터 국내 주식도 소수점 거래</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004019555?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>금융위, 혁신금융서비스 신규 지정[서울경제] 오는 9월부터 국내 주식을 소수 단위로 구매할 수 있게 된다.금융위원회는 16일 정례회의를 열고 이 같은 내용의 혁신 금융 서비스를 신규 지정했다고 밝혔다. 신규 지정한 서비스는 국내 주식의 소수 단위 거래 서비스다. 신탁제도를 활용해 여러 개의 수익증권으로 분할 발행해 국내 주식을 소수 단위로 거래할 수 있게 한다. 투자자가 소수 단위의 주식을 주문하면 증권사가 부족한 부분을 채워 자기 명의로 한국거래소에 호가를 제출한 뒤 거래가 체결돼 취득한 주식을 예탁결제원에 신탁하는 방식으로 이뤄진다.투자자는 종목당 최소 투자 금액이 낮아져 주식 투자에 대한 접근성이 확대되는 효과를 가진다. 위험 관리와 수익 다변화를 위한 다양한 포트폴리오를 효율적으로 구성하는 것도 가능해진다.다만 금융위는 각 증권사가 일반 거래와 소수 단위 거래의 차이점을 투자자가 명확히 인지할 수 있도록 위험 고지 체계를 구축하는 부가 조건을 제시했다. 또 각 증권사는 소수 단위 거래를 중개하는 과정에서 자기 재산으로 취득하게 되는 주식을 종목별로 5주 이내로 제한하고 의결권 행사도 금지했다.혁신 금융 서비스로 지정받은 금융기관은 한국예탁결제원을 비롯해 교보증권과 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, KB증권, KTB투자증권, 키움증권, 토스증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등이다. 서비스 시행 일정은 개별 증권사의 전산 구축 일정에 따라 9월부터 순차적으로 이뤄질 것으로 전망된다.이 외에도 금융위는 △IBK기업은행의 은행 내점 고객 대상 실명확인 서비스 △KB증권·한화투자증권의 안면인식기술 활용 비대면 계좌개설 서비스 △씨비파이낸셜솔루션의 원클릭 예·적금 분산예치 서비스 △삼성생명의 근로자 5인 미만 사업장 단체보험 서비스 △현대해상의 기업성 보험 온라인 간편가입 서비스 △신한카드의 렌탈 중개 플랫폼을 통한 렌탈 프로세싱 대행 서비스 △네이버파이낸셜의 소액 후불 결제 서비스 등 기존 혁신 금융 서비스의 지정 기간을 연장했다. 금융위 측은 “이번 신규 지정으로 혁신 금융 서비스 지정 건수가 총 200건을 넘어섰다”며 “적극적인 제도 운용을 지속하면서 동시에 제도에 대한 내실화 노력도 병행하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>데이터 전쟁 본격화… 기존 금융사들의 반격 시작될까</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003669175?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>빅테크·핀테크 기업의 금융시장 진출이 활발해지는 가운데 기존 금융사들의 ‘원앱’ 전략이 본격화하고 있다. 은행과 증권, 카드, 보험 등 계열사별로 관리하던 데이터와 서비스, 고객을 한곳에 모아 경쟁력을 높이겠다는 것이다. 빅데이터 및 인공지능(AI)과 같은 신기술 기반의 서비스와 간편결제 등이 본격화하면서 기존에 확보한 데이터를 내주기만 했던 기존 금융사들이 반격의 단초를 마련할 수 있을지 주목된다.   ◆대세가 된 기존 금융권의 원앱 전략   21일 금융업계에 따르면 삼성생명·화재·카드·증권 등 4개 삼성 금융계열사가 다음달쯤 통합앱 ‘모니모(가칭)’를 출시할 예정이다. 앞서 지난해 4월 삼성화재가 174억원, 삼성생명이 143억원, 삼성증권이 74억원을 분담하고 삼성카드는 통합 플랫폼 시스템을 구축·운영하기로 공동협약을 체결한 바 있다.   삼성 금융계열사의 정보를 한눈에 확인할 수 있는 모니모는 보험료 결제를 비롯해 오픈뱅킹, 내 자산 시세 조회, 각종 서비스 달성에 대한 보상 및 포인트 지급 등의 서비스를 담을 예정이다. 이를 통해 서비스 이용 과정에서 발생한 포인트를 소액 주식투자에 활용하는 등 서비스 반경이 대폭 확대될 것으로 기대를 모은다.   이러한 원앱 전략은 최근 금융사별로 카드사를 중심으로 앱·서비스 통합을 추진해온 것의 연장선상으로 풀이된다. 토스와 카카오페이 등 핀테크·빅테크들이 선보인 모바일 중심의 원앱 서비스가 고객의 큰 호응을 얻자 급격히 사업 방향을 선회한 셈이다. 이에 따라 복잡한 서비스가 나열되던 앱의 인터페이스가 대폭 수정되는 동시에 서비스의 대대적인 구조조정도 뒤따랐다.   ◆데이터전문기관, 새로운 돌파구 될까   여기까지는 빅테크·핀테크의 행보를 따라 하는 것으로 볼 수 있지만, 본격적인 행보는 그다음이다. 금융위원회는 오는 24~25일 데이터전문기관 예비지정에 대한 사전신청 접수를 받는다.   데이터전문기관은 간단히 말해 금융·비금융 분야의 비식별데이터를 결합할 수 있는 권한을 정부로부터 부여받은 전문기관이다. 기존에는 보건복지부와 과학기술정보통신부 등 소관 정부부처별로 개인정보보호법에 근거해 비금융 데이터를 결합할 수 있는 결합전문기관을 지정했고, 신용정보법에 근거해 금융데이터와 비금융데이터를 결합할 수 있는 데이터전문기관은 한국신용정보원·금융보안원·국세청·금융결제원의 공공기관 4곳만 금융위로부터 지정받았다.    이러한 가운데 데이터경제에 대한 가능성이 커지고, 정부의 관련 산업 활성화에 대한 의지가 결합하면서 공공분야에 한정됐던 데이터전문기관 지정이 민간으로 열리게 된 셈이다. 앞서 지난해 9월 금융위가 실시한 사전 수요조사에서 삼성SDS와 NH농협은행, BC카드, 나이스신용평가 등 10여곳 금융사들이 의향을 내비친 것으로 전해진다.   삼성 금융계열사들이 연합하더라도 각자 보유한 데이터를 결합해 분석하는 것은 관련 법에 따라 제한이 돼 있고, 새롭게 고객의 정보이용동의를 받는 등 여러 관문이 남아있다. 삼성SDS가 데이터전문기관으로 지정받을 경우 중요한 관문을 통과하는 것으로 볼 수 있다. 업계 관계자는 “삼성생명이 암 보험금 지급 관련 건으로 금융당국으로부터 중징계를 받아 1년간 신사업에 진출할 수 없게 된 상황이기는 하지만, 장기적으로 데이터사업에 대한 로드맵을 잘 그려나가고 있는 것으로 보인다”고 말했다.   이에 따라 데이터 결합이 본격화할 경우 데이터 분석 및 관련 서비스 역량에 대한 본격적인 경쟁이 이뤄질 것으로 전망된다. 기존에도 카드사를 중심으로 방대한 고객데이터가 축적됐지만, 고객 입장에서 만족할 만한 서비스는 찾아보기 힘들었다. 좋은 서비스, 즉 내실보다는 가입자 확보 등 외연 확장에만 골몰했기 때문이다. 최근 마이데이터 서비스가 본격 시행됐지만, 기존 금융권을 중심으로 여전히 창구 직원을 통한 가입자 모집 실적 할당, 커피 쿠폰 등 경품지급 등에 골몰한 구태를 벗어나지 못했다는 지적이 이어졌다.   ◆데이터전략 통해 기업의 역량 알 수 있다?   이러한 가운데 데이터사업에 대한 전략과 추진 상황을 통해 각 기업의 계열사 장악력과 데이터경제에 대한 장기적인 안목을 살펴볼 수 있다는 시각도 나오고 있다. 최근 급부상한 ESG(환경·사회·지배구조)처럼 오너나 CEO(최고경영자)의 결단, 장기적인 추진력이 필요한 분야이기 때문이다.     사진=뉴스1    우선 삼성 금융계열사의 통합 앱 추진 과정에 대해서도 일각에서는 삼성이기에 가능하다는 평가가 나온다. 금융권의 한 관계자는 “아무리 대기업이라 하더라도 계열사별로 실적경쟁이 벌어지고, 임원의 임기가 길지 않은 현실을 고려할 때 데이터를 한 계열사에 모아 장기적으로 사업을 추진하는 것이 현실적으로 쉽지 않다”면서 “삼성이 이러한 사업을 추진한다는 것은 그만큼 계열사들에 대한 공고한 지배력을 보여주는 것으로 볼 수 있다”고 설명했다. 이는 다른 금융사들도 일찌감치 원앱 전략을 표방하고 스타 마케팅까지 불사하며 막대한 비용을 투입했지만, 성과가 제대로 나지 않는 현실과도 맞물린다.   실제로 역량을 한곳에 모으지 못한 채 갈팡질팡하는 모습도 보인다. SK그룹의 경우 당초 하나금융지주가 일찌감치 내세운 핀크 플랫폼을 통해 마이데이터 사업 등 데이터사업을 펼쳐나갈 예정이었지만, 지난해 SK플래닛이 본허가를 받으며 전략 수정을 예고했다. 하지만, 최근 이와 별도로 SK텔레콤과 11번가가 마이데이터 사업에 대한 예비허가를 신청했다. 한 그룹사 내에 3개의 마이데이터 서비스가 경쟁을 펼치게 된 것이다. 업계의 또 다른 관계자는 “SK그룹의 경우 그룹 내 ICT패밀리사 등 계열사별 알짜 사업과 인력을 SK텔레콤 등 핵심 계열사에서 가져가는 경우가 많았고, 장기간 유지되는 경우를 찾아보기 힘들다는 지적이 나왔다”며 “이번 마이데이터 서비스의 추가 신청은 최근 진행된 그룹사 구조조정과도 연관된 것으로 보인다”고 전했다.   케이뱅크와 BC카드를 통해 금융업에 대한 역량 확장에 한창인 KT그룹의 경우도 주목할 만한 사례로 꼽힌다. KT는 특히 BC카드를 통해 마이데이터사업과 데이터전문기관 지정 등 다양한 분야에 적극적인 행보를 보인다. 하지만, 여전히 남아있는 공기업적인 기업문화 측면이 한계로 떠오른다. 통신업계의 한 관계자는 “KT가 민영화되기는 했지만, ‘오너 없는 국민기업’의 성격이 여전하고 낙하산 인사로 몸살을 앓아온 만큼 계열사별 실적경쟁을 누르고 장기적인 안목의 사업을 추진한다는 게 쉽지 않은 것이 현실”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>'한국형 로빈후드' 무리였나...줌인터넷 '바닐라' 접는다</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004709740?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>/사진제공=KB증권KB증권과 이스트소프트 자회사 줌인터넷이 '한국형 로빈후드'를 목표로 만든 모바일 주식거래 플랫폼(MTS) '바닐라(vanilla)' 앱이 출시 1년도 안돼 주요 서비스를 중단한다. 지난해 6월 토스증권의 간편한 MTS 대항마로 꼽혔던 바닐라는 이용자 수가 저조하자 서비스를 중단하기로 한 것이다. 17일 금융투자업계에 따르면 바닐라는 오는 28일 오후 2시부터 구매 및 판매기능(예약포함), KB증권 비대면 계좌 개설 및 신규 회원가입 기능 등을 중지한다고 공지했다. 증권 거래 MTS의 구매 및 판매 기능을 닫는다는건 사실상 서비스 종료를 의미한다. 전날 바닐라측에선 이용 고객들에게 "바닐라 앱 서비스를 종료한다"고 공지했다 다시 "서비스 일부 중지"라고 정정 안내문을 보냈다. 바닐라 앱에서는 현재 "더 나은 서비스를 준비하기 위해 신규 회원 가입과 거래 관련 서비스 기능 중 일부가 중지된다"고 밝혔다. 하지만 중지 일자만 나와있을뿐 재개 일자는 공지하지 않았다. KB증권 내부에서는 줌인터넷이 나서지 않는 이상 더 이상 바닐라 앱에 투자하지 않기로 논의한 것으로 알려졌다. 바닐라 앱은 누구나 쉽게 쇼핑을 하듯 주식거래를 할 수 있도록 기존 MTS와 차별화된 주식투자 경험을 제공하고자 만들었다. 2020년 9월 KB증권은 줌인터넷과 함께 '프로젝트바닐라' 조인트벤처를 설립하고 핀테크 사업에 진출했다. 박정림 KB증권 대표와 김우승 전 줌인터넷 대표 등이 직접 나서 계약 체결식을 진행하고 대대적으로 홍보했다. 토스, 카카오페이에서 신사업을 이끌던 구대모씨를 합작사 대표로 영입하기도 했다.  당시 줌인터넷과 KB증권이 손잡고 핀테크 사업에 진출한단 소식이 발표된 이후 이틀간 줌인터넷 주가는 상한가를 기록하기도 했다. '한국형 로빈후드' 같은 간편투자 핀테크 서비스가 시작된단 소식이 호재로 작용한 덕분이다. 이후 9개월간의 개발끝에 지난해 6월 '바닐라'가 베일을 벗었다. 당시 토스증권, 삼성증권 'O2(오늘의 투자)' 등 증권업계에서 주린이(주식+어린이)를 잡기 위해 쉽고 간편한 MTS 서비스를 앞다퉈 내놓던 시기였다. 토스증권 등은 초반 화끈한 마케팅 등을 통해 신규 계좌 수를 지속적으로 늘려갔지만 바닐라 앱은 8개월도 채 안 돼 주요 서비스 중단에 나섰다. KB증권 관계자는 "생각보다 실적이 안나오다보니 서비스를 중단하게 됐다"고 말했다. 줌인터넷이 프로젝트바닐라를 설립할 당시 공시한 내용에 따르면 프로젝트바닐라에는 초기 자본금 50억원이 투입됐다. 이 중 줌인터넷이 25억5000만원, KB증권이 24억5000만원을 투입했다. KB증권과 줌인터넷은 예상보다 이용자 수가 줄어드는데 반해 투입 비용은 늘어나자 서비스 중단을 결정한 것으로 보인다. 줌인터넷 지난해 3분기 분기보고서에 따르면 프로젝트바닐라의 최근사업연도 총자산은 44억4600만원 당기순손익 6억2000만원 적자를 기록했다. 금융투자업계 관계자는 "증권가에 가벼운 MTS 열풍이 불었지만 투자자를 계속 머물게 하고 신규 투자자를 유입할만한 요인이 부족했던 것"이라며 "플랫폼 단순화가 다양한 정보를 두루 살펴야 하는 주식투자 특성상 오히려 단점이 될 수 있다는 걸 보여준 사례"라고 말했다. 한편 기존 바닐라앱 투자자는 오는 28일 오후 2시 이후부터 연동계좌에 대한 예수금 입·출금 및 보유 주식 매매 등은 KB증권 마블(M-able) MTS에서 할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>“폼만 잡는 회장 안돼…전금법 개정 위해 뛸 것”</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005152400?sid=105</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>이근주 신임 핀테크산업협회장, 광폭행보 예고“전금법 개정, 마이데이터 활성화, 망분리 완화”“유니콘 키워야, 금융위 금융혁신단 강화 필요”“금융위에 핀테크 현장 목소리 가감 없이 전달”[이데일리 최훈길 기자] “전자금융거래법(전금법) 개정안 통과, 마이데이터 활성화, 망분리 규제의 합리적 개선을 위해 뛰겠습니다. 이 같은 3대 난제를 논의하는 과정에서 외부에서 누군가 돌을 던지면 제가 앞서 나가 맞겠습니다. 가만히 폼 만 잡는 회장은 되지 않겠습니다.”  이근주 한국핀테크산업협회장은 ‘①전자금융거래법 개정안 통과, 마이데이터 활성화, 망분리 규제 합리적 개선 등 지속적 규제 완화 ②핀테크 창업 활성화, 회원사간 소통 강화, 회원사 확충 등 상생하는 핀테크 산업 환경 조성 ③협회의 전문성 강화, 유관기관과의 네트워킹 역량 증대, 협회 운영의 효율화·투명화’를 협회장 선거 공약으로 제시했다. △1960년생 △동국대 대학원 핀테크블록체인학과 △전 IBK기업은행 전산정보부·뉴욕지점·국제업무부·스마트금융부 △전 소상공인 간편결제사업추진단장 △전 한국핀테크산업협회 설립준비국장·사무국장 △한국간편결제진흥원 원장(2019년 10월~) (사진=김태형 기자)이근주(사진·62) 신임 한국핀테크산업협회 회장은 지난 21일 서울 중구 한국간편결제진흥원 집무실에서 이데일리와 만나 ‘핀테크 산업 육성을 위해 차기정부에 요청하고 싶은 내용’에 대해 질문을 받자 “유니콘(기업가치 1조원 이상 스타트업) 핀테크를 계속 육성하는 게 절실하다”며 이같이 말했다.이 회장은 이승건 비바리퍼블리카(토스) 대표, 김대윤 피플펀드 대표, 류영준 전 카카오페이(377300) 대표를 이은 4대 협회장에 지난 17일 선출됐다. 협회 회원사는 네이버페이·카카오페이·토스 등 지급결제 회사, 두나무·빗썸·코인원·코빗 등 가상자산거래소, 피플펀드 등 온라인투자연계금융업, 크라우드펀딩, 보안인증 기업까지 347곳에 달한다.  이 회장은 외유내강형 성실파다. IBK 기업은행 전산정보부, 뉴욕지점, 국제업무부, 스마트금융부 등을 거쳐 금융 분야 잔뼈가 굵다. 핀테크산업협회 설립준비국장·사무국장도 맡아 핀테크 태동기부터 기업 애로를 살뜰히 챙겼다. 최근에는 동국대 대학원 핀테크블록체인학과도 졸업하는 등 인생 2모작을 위한 배움도 놓지 않고 있다.특히 이 회장은 “핀테크 산업이 성장하려면 1순위로 전금법 개정부터 추진돼야 한다”고 강조했다. 핀테크 기업의 전자금융업 진입 문턱을 낮출 뿐아니라 ‘제2의 머지포인트’ 사태 방지로 이용자 보호 및 금융 안전성 강화도 할 수 있어서다. 그는 전금법 개정안이 네이버(035420), 카카오(035720) 등 빅테크 특혜라는 기존 금융권 주장에 대해 “양쪽 모두 상생하는 방향으로 가야 한다”고 지적했다.  이 회장은 “마이데이터를 빨리 활성화 하는 방안이 필요하다”며 “망분리는 중요하지만 산업을 활성화 하는 쪽으로 개선돼야 한다”고 강조했다. 지난달 핀테크 22곳, 은행 10곳 등이 정식 출시한 마이데이터 서비스를 보다 활성화 시키는 후속 정책이 필요하다는 것이다. 업무망과 인터넷망을 분리하는 규제인 망분리로 해킹 사고는 줄었지만, 이제는 규제를 완화해 혁신 서비스 출시를 지원해야 한다는 얘기다.이 같은 논의 과정에서 불거질 수 있는 기존 금융권과의 충돌도 이 회장이 풀어야 할 숙제다. 이 회장은 “기존 금융사들은 ‘기울어진 운동장’이라고 하는데 좀 더 넓은 시각으로 고민해 봤으면 한다”고 제안했다. 그는 “세계 최고 수준의 IT 기술 기반을 가진 대한민국에서 핀테크를 육성할수록 메기 효과가 커진다”며 “결국 전통 금융사까지 혁신하게 돼 전체 금융산업이 성장할 수 있다”고 전망했다. 이를 위해 그는 “금융위원회에 더욱 보강된 핀테크 금융혁신단을 만들어 IT 기반의 한국형 금융 혁신을 추구해달라”고 정부에 요청했다. 이어 “은행연합회, 여신금융협회, 금융투자협회 등 다른 산업 협회·단체와 교류를 강화해 상생 협업을 하겠다”며 “현장의 목소리를 가감 없이 정부에 전달하고, 정책 효과가 극대화되도록 시장에서 함께 노력하겠다”고 약속했다. 한국간편결제진흥원(한결원) 원장도 맡고 있는 그는 서울시에도 상생하는 방안을 강조했다. 최근 서울시와 한결원은 서울사랑상품권, 제로페이 데이터 이관·연동 여부를 놓고 이견을 보이고 있다. 이 회장은 “이미 구축돼 자리를 잡은 제로페이 가맹점(전국 139만)망과 연동하는 게 사회적 낭비가 없는 방안”이라며 “가맹점주들이 어려움을 겪지 않도록 서울시와 적극 협의할 것”이라고 힘줘 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>여전히 높은 이통사 장벽…후발 본인확인기관, 우회로 찾기 고심</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003000388?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>수익감소·시장 장악력 약화 우려이통3사 비협조에 협상 미뤄져비대면 통신 등 진입 타개책 모색ⓒ게티이미지뱅크새로운 본인확인기관이 지정된 지 6개월이 됐지만 이통사와 시장 진출 실무협의를 시작한 신규 기관이 전무한 것으로 나타났다. 정부가 본인확인 수단을 다양화하고 시장 효율성을 높이기 위해 진입 문턱을 낮췄지만 정작 높은 시장 장악력을 무기로 실무협의조차 이뤄지지 않고 있어 정책 목표가 빛을 잃고 있다는 지적이 나온다. 후발주자들은 이통사 패스의 높은 벽을 넘는 것은 불가능하다고 보고 우회로를 모색하고 있다.23일 업계에 따르면 지난해 새로운 본인확인기관으로 지정받은 신규 사업자와 이통3사간 제대로 협의가 이뤄지지 않고 있다.지난해 신규 본인확인기관으로 지정받은 곳은 비바리퍼블리카(토스)다. 금융결제원은 공동인증서를 본인확인수단으로 제공해왔으나 2020년 본인확인기관으로 재지정받으면서 사설인증서인 금융인증서도 함께 공급하고 있다.공인인증서 제도가 폐지되면서 사설인증서를 전자서명인증수단으로 사용할 수 있게 되자 사설인증서 사업자들이 마이데이터 등 본인확인 관련 업무와 시장 확대를 위해 본인확인기관 지정에 도전하고 있다.하지만 휴대폰 기반 본인확인 시장의 약 98% 이상을 장악한 이통3사 패스(PASS)와 경쟁할 수 있는 기반이 조성되지 못하고 있다. 이 시장에 진출하려면 중계기관을 통해 이통사와 협의해야 하는데 아직 제대로 된 실무협의가 시작된 곳이 하나도 없다.한 본인확인기관 관계자는 “다수 중계기관과 계약을 맺고 이통사 협의를 타진하고 있지만 수 개월째 회의 한 번 못 해봤다”며 “패스 외에 여러 간편인증을 함께 제공하면 그동안 유지해온 시장 장악력이나 수수료 수익 감소를 우려해 협상이 제대로 이뤄지지 않는 것 같다”고 토로했다.기관 지정을 준비하는 모 은행 관계자는 “본인확인기관 지정을 준비하며 시장을 파악해보니 이통3사 패스와 맞경쟁할 기회가 주어지는 것이 아예 불가능하다고 판단했다”며 “다른 틈새시장으로 우회해 서비스 기회를 찾을 수밖에 없는 상황”이라고 말했다.대표적인 우회 진출로는 비대면 통신 시장이다. 특히 알뜰폰의 경우 현재 비대면으로 서비스 가입 시 범용 공인인증서와 신용카드로만 본인확인을 할 수 있다. 신용카드를 사용하지 않는 미성년자 등이 많아 후발 본인인증기관이 진입할 여지가 크다는 것이 업계 중론이다.실제로 본인확인기관으로 지정된 비바리퍼블리카의 경우 최근 KT와 개별 협약을 맺고 KT 알뜰폰에 본인확인서비스와 토스인증서를 제공하기로 했다. KT 알뜰폰 사업자 온라인몰이나 토스 앱에서 휴대폰을 개통하면 토스인증서를 사용할 수 있고 비대면 가입 과정에서 본인인증 절차로 토스인증서를 선택할 수 있게 된다.내달 본인확인기관 신청 접수를 준비하는 다수 은행권도 알뜰폰을 비롯한 비대면 통신서비스 시장 진출을 눈여겨보고 있다.한 은행 관계자는 “본인확인기관으로 지정되면 마이데이터 등 자체 서비스에서 본인확인에 필요한 번거로운 절차를 대폭 간소화하는 효과가 획기적으로 크다”며 “내부 업무절차 개선이 1차 목적이지만 외부 적용 확대도 반드시 필요해서 비대면 통신서비스 분야에서 사업 기회를 발굴하고 있다”고 전했다.한편 이통사 측은 통신사 영향력 때문에 후발 본인확인기관과 중계기관(영업대행사) 실무협의가 이뤄지지 않고 있다는 지적은 사실이 아니라고 반박했다.이통사 관계자는 “후발 본인확인기관은 영업대행사와 협의하는 것이며 이 과정에서 이통사는 법적으로 승인 권한이 없다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>토스뱅크, '입사 1주년' 임직원 17명에 스톡옵션 부여</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005916016?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>다음주 3000억 규모 유상증자 추진서울 강남구 토스뱅크 본사© News1 박세연 기자(서울=뉴스1) 민선희 기자 = 토스뱅크가 입사 1주년을 맞이한 사내 임직원을 대상으로 '주식매수선택권(스톡옵션)'을 부여한다. 토스뱅크는 18일 임시주주총회를 열고 임직원 17명에게 스톡옥션 총 34만주를 부여하기로 결정했다고 밝혔다. 주식의 종류는 기명식 보통주다. 신주발행의 형태로 부여되며, 행사가는 액면가 기준 주당 5000원이다. 부여 기준일은 오는 28일이다. 대상 임직원은 부여일로부터 2년 뒤인 2024년 2월28일부터 5년간 이를 행사할 수 있다.그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입해 왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다. 토스뱅크는 지난해 7월과 11월, 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여한 바 있다.한편 토스뱅크는 다음주쯤 3000억 규모의 유상증자를 추진할 것으로 알려졌다. 토스뱅크는 유상증자를 통해 대출 여력을 확보하고, 운영자금으로 활용할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>인뱅 3총사, 중저신용자 신용대출 목표 미달…포용금융 약속 ‘공염불’</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000275734?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[앵커]지난해 인터넷전문은행들이 중저신용자들에게 대출문을 확대하겠다고 약속했습니다.하지만 3사 모두 목표치에 크게 미달해 여전히 설립 취지와 다른 영업을 하고 있다는 지적입니다.김성훈 기자의 보도입니다.[기자]중저신용자 대출은 신용평가점수 820점 이하인 4등급 이하 차주를 대상으로 합니다.지난해 카카오뱅크와 케이뱅크, 토스뱅크 모두 이들을 대상으로 한 신용대출 비중을 확대하겠다고 약속했지만, 지키지 못했습니다.카카오뱅크는 연말이 다가오면서 지난해 4분기에야 7%포인트 가량 비중을 늘렸지만 목표치인 20.8%에 미달했습니다.맏형 케이뱅크도 21.5%를 채우지 못했고, 지난해 10월 출범한 토스뱅크는 목표치보다 10%포인트 가까이 부족했습니다.인터넷은행들은 고신용자 대출을 중단하고 이벤트까지 하는 등 노력했지만 시장 상황 등으로 역부족이었다고 설명했습니다.중저신용자 대출 확대 약속은 인터넷은행들이 설립 취지와 달리 고신용자 대상 영업만 집중한다는 지적에 따라 지난해 5월 나왔습니다.[이정환 / 한양대 경제금융학부 교수 : (목표를) 달성 못했다는 건 인터넷은행의 설립 목적에 맞지 않는 '(고신용자) 상품을 많지 팔지 않았느냐' 그렇게 봐야겠죠. 금리가 좀 낮으면 마진이 덜 붙겠지만 훨씬 안정적으로 (이자를) 받을 수 있기 때문에(요.)]인터넷은행들은 내년까지 중저신용자 대출 비중을 전체의 30% 수준까지 끌어올려야 합니다.금융당국은 목표 달성을 못하면 금융 신사업 인·허가 과정에서 불이익을 줄 예정입니다.[금융위원회 관계자 : 전체적인 잔액이라든지 실적 자체는 확실히 개선이 됐는데, 비율 목표는 달성을 못한 것 같아요. 매년 저희가 노력을 어떻게 하고 있는지를 체크하고 있고요.]올해는 카카오뱅크와 케이뱅크는 25%, 토스뱅크는 42%로 목표치가 더 높아집니다.금융당국이 중저신용자 대출을 가계대출 총량 관리 한도에서 제외하는 당근책을 꺼내든 만큼, 인터넷은행들이 올해는 성과를 보여줄 수 있을지 주목됩니다.SBS Biz 김성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>후불결제 점점 커지는데 ... 규제 사각지대 놓인 '쿠팡 나중결제'</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004708656?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>쿠팡 나중결제를 이용한 불법 현금융통 게시글/사진=중고 커뮤니티 캡처네이버파이낸셜, 카카오페이에 이어 토스, NHN페이코가 후불결제 시장 진출을 앞둔 가운데 쿠팡의 '나중결제'가 규제 사각지대에 있다는 지적이 나오고 있다. 혁신금융서비스로 지정돼 후불결제 사업을 하려면 연체율 등에 대해 금융당국의 관리를 받아야 한다. 그런데 쿠팡의 경우 규제 무풍지대에서 영업을 확대하고 있다. 16일 금융업계에 따르면 금융위원회는 이날 정례회의를 열어 네이버파이낸셜의 후불결제 서비스 연장 여부를 결정한다. 후불결제는 금융위로부터 1년 단위 혁신금융서비스로 지정돼야 운영이 가능하다. 최근에는 토스와 NHN페이코도 후불결제 시장 진출을 예고했다.쿠팡의 경우 2020년부터 '나중결제'라는 후불결제 기능을 제공하고 있다. 당시엔 후불결제가 금융혁신서비스로 지정되기 전이었다. 쿠팡은 직매입한 물건에 한해 외상 개념으로 후불결제 서비스를 시작했다. 별도의 신용공여가 필요하지 않아 관련 금융업에 등록하지 않고도 사업이 가능했다.이런 사정 탓에 쿠팡은 자유롭게 한도와 기능도 늘렸다. 지난해에는 월 후불결제 한도를 고객 신용도에 따라 최대 130만원까지 확대했고, 11개월까지 할부 결제가 가능토록 했다. 혁신서비스가 지정하는 후불결제는 한도가 최대 30만원, 할부결제는 불가능하다. 카드업계에 따르면 개인 고객의 매달 평균 신용카드 결제액은 60~70만원이다. 쿠팡 나중결제 한도가 두 배 가량 더 높다는 얘기다.  문제는 금융당국의 규제를 받지 않는 탓에 소위 '깡'으로 불리는 불법 현금 융통에도 제재 근거가 없다는 점이다. 이미 중고거래 커뮤니티에서는 나중결제를 통한 거래가 빈번하게 이뤄지고 있다. A고객이 나중결제를 통해 가격이 38만원인 상품을 B고객 주소로 배송하고, 현금 34만2000원을 받는 식이다. 카드결제, 후불결제 모두 깡에 대한 처벌 규정이 있지만, 나중결제에 대해선 적용할 수 없다.금융당국도 법·제도를 이유로 쿠팡 나중결제의 관리 감독할 권한이 없다는 입장이다. 카드사, 페이사처럼 신용공여를 통해 결제기능을 제공하는 게 아니라, 쿠팡이 직접 매입한 물건을 외상 개념으로 팔고 있는 탓이다.  일각에선 쿠팡이 적절한 리스크 관리없이 공격적으로 영업을 확대하다 고객 피해가 발생할 수 있다는 우려도 있다. 나중결제 한도가 월 평균 카드사의 신용카드 결제액보다 높은 만큼, 적절한 연체율 관리 없이는 부실이 발생할 가능성도 있다는 것이다. 나중결제의 경우 지금까지 연체율 현황이 공개된 적이 없다. 쿠팡이 1년 이상 베타서비스로만 나중결제를 제공한 이유를 연체율 관리의 어려움에서 찾는 분석도 있다. 금융업계 관계자는 "쿠팡의 나중결제에 대해서는 금융당국이 아니더라도 정부 차원의 관리가 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>이근주 핀산연 회장 취임…'망분리 규제 완화' 콕 찝은 이유는?</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038067?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>핀테크산업협회 제4대 이근주 회장.(사진=한국핀테크산업협회)이근주 한국핀테크산업협회 신임 회장이 역점 사업으로 '망 분리 규제 완화'를 꼽았다. 망 분리 규제가 핀테크 업권의 이익을 떠나서 디메리트(demerit·불리함) 요소로 작용하고 있다는 여론을 반영한 것으로 풀이된다.한국핀테크산업협회는 제4대 회장으로 한국간편결제진흥원 이근주 원장이 선출됐다고 17일 밝혔다. 협회 사무처는 지난 16일부터 이틀간 온라인으로 회장 선거를 진행했으며, 투표 결과 최다득표를 기록한 이근주 원장을 17일 프레지던트호텔에서 열린 정기총회에서 제4대 회장으로 선출했다. 임기는 2월 18일부터 2년이다.이 신임 회장은 전통 금융기관 출신의 핀테크 전문가로 평가된다. IBK기업은행 스마트금융부장과 핀테크산업협회 설립준비국장, 소상공인간편결제추진단장, 제로페이SPC설립준비위원장을 거쳐 현재 한국간편결제진흥원장으로 재직하고 있다. 동국대학교에서 공학박사(핀테크) 학위를 취득했으며 저서로 '글로벌 관점에서 바라본 핀테크 에센셜' 등이 있다.그는 취임사에서 '망분리 규제의 완화'를 강조했다. 망 분리 규제 합리화는 한국핀테크산업협회에 접수되는 단골 민원으로 꼽힌다. 망 분리는 해킹 방지를 위해 내부 업무망과 외부 인터넷망을 분리하도록 하는 규제다. 2013년 초 악성코드 감염으로 인한 금융사 전산망 마비 사고를 계기로 모든 금융사에 의무화됐다.핀테크업계는 중요정보를 지정해 분리하는 방식으로 바뀌길 원한다. 도메인 중심의 망분리에 따라 신기술을 활용하려면 국경을 넘나드는 것처럼 제약이 따른다. 오픈소스를 적용할 때 반입, 반출 허락을 받아야 한다. 클라우드는 인터넷 연결이 기본조건인 기술이다.규모가 영세한 핀테크 업체들은 규제준수 비용부담이 상대적으로 크다. 협회에 따르면 25명 규모의 스타트업의 경우 망분리 설비 구축에 5억원이 소요된다. 소규모 전자금융업자의 자본금 요건은 3억원이다. 업권 진입의 또다른 허들이 되고 있다는 지적이다.핀테크 개발자들의 업무적, 심적 부담을 가중하는 요인이기도 하다. 협회가 회원사 개발자 130여명을 대상으로 설문조사한 결과 응답자의 83%가 망 분리가 업무 스트레스에 영향을 미친다고 답했다. 이직 및 퇴사 요인이 되기도 한다는 협회 설명이다.이 신임 회장은 규제혁신과 이업종 교류를 통한 핀테크산업 성장을 강조하며 "전금법 개정안 통과, 마이데이터 서비스 영역 확대 그리고 망분리 규제의 합리적 완화 등이 매우 시급하다"고 밝혔다.한편 이날 정기총회를 통해 부회장, 이사, 감사 등 제4대 이사회 임원이 선출됐다. 신규 부회장사로 뉴지스탁, 센트비, 줌인터넷, 포블게이트 등 4개사가, 신규 이사사로 페이민트, 푸시 등 2개사가 선출됐다. 핀테크산업협회는 현재 국내 핀테크 기업 344개사를 회원으로 두고 있다. 초대 회장은 이승건 비바리퍼블리카(토스) 대표, 2대 회장은 김대윤 피플펀드 대표, 3대 회장은 류영준 카카오페이 대표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>카뱅·캐뱅, 금융사 텃밭 넘본다...대출시장 경쟁 격화</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002576679?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>카뱅, 최저 2.9%주담대...중도상환수수료 0원가계대출 규제 안받는 ‘개인사업자 대출’ 각광카카오뱅크의 비대면주담대 대출(왼쪽)과 케이뱅크의 아파트담보대출 금리 인하 안내문ⓒ 각 사 제공[데일리안 = 이호연 기자] 인터넷전문은행이 대출 포트폴리오 확장에 나서며 시중은행들의 영역까지 뛰어들었다. 카카오뱅크, 케이뱅크, 토스뱅크 등의 인터넷은행들은 가계대출 규제로 성장 한계에 부딪히자 사업다각화를 통한 활로 모색에 나선것이다.17일 금융권에 따르면 주요 인터넷은행 3곳은 주택담보대출과 개인사업자대출 시장에 출사표를 던졌다. 기존 은행보다 상대적으로 낮은 금리와 모바일에 기반한 편의성을 강점으로 내세웠다.카카오뱅크는 오는 22일 전 과정을 대화형 인터페이스로 구현한 모바일 주택담보대출을 선보인다. 고객이 챗봇과 카카오톡 대화를 하면서 금리 및 한도 조회부터 서류 제출, 심사, 대출까지 이뤄지는 방식이다. 비대면의 특징을 살리면서도, 소유권 이전 등기 같은 까다로운 서류 제출만 법무사를 통해 대면하는 방식을 적용했다.KB시세 기준 9억원 이하의 수도권(서울·경기·인천) 소재 아파트가 대상이며, 1개월 이상의 근로 소득자나 소득 증빙이 가능한 사업 소득자를 대상으로 한다. 주택 구매자금 대출 한도는 최대 6억3000만원이며, 대출 금리는 최저 2.989%(변동금리, 14일 기준) 수준이다. 특히 주담대 금리 상단이 6%에 임박한 시중은행 금리보다 대폭 낮은 금리를 제공한다. 각종 우대금리 조건이 없으며, 올해말까지 중도상환수수료도 전면 면제했다. 송호근 카뱅 주택담보대출 스튜디오 팀장은 “카뱅의 주담대 평균 금리는 타행의 금리보다 가장 낮을 것”이라며 “중도상환수수료는 추후 상황을 보며 면제 정책 연장을 검토하겠다”고 밝혔다.케이뱅크는 아파트담보대출 금리를 0.5%p 낮추며 맞불을 놓았다. 케이뱅크가 제공하는 고정금리형 아파트담보대출 최저금리는 연 3.5%로 은행권 최저 수준이다. 총 한도는 1000억원까지 적용된다. 해당 상품은 대환대출 전용상품으로 2020년 8월 출시 후 누적 취급액 1조원을 돌파했다. 또 예•적금 상품 금리는 최대 0.3%p 인상했다. 이에 따라 적금 상품은 최대 연 2.6%, 예금상품은 최대 2.4%까지 올랐다.개인사업자 대출 시장도 새로운 격전지로 떠올랐다. 가장 먼저 토스뱅크가 무보증 • 무담보 개인사업자 대출 상품을 내놓았다. 최저금리는 연 3% 초중반(변동금리)이고, 최대한도는 1억원이다. 대출 신청부터 실행까지 전 과정이 비대면으로 진행되며, 대출한도와 금리는 자체 개발한 신용평가모형(CSS)으로 진행한다.케이뱅크도 1분기 대출 상품을 출시하기 위해 지난해부터 전담팀을 구성해 상품 개발을 진행중이다. 카뱅은 하반기 중 개인사업자 대상 소호(SOHO) 대출을 출시한다.인터넷은행들이 본격적으로 신용대출에서 벗어나 사업영역을 확대하면서 시중은행들도 기존 고객을 사수하기 위한 쟁탈전을 벌일 전망이다. 시중은행들은 비대면 대출상품의 비중을 높이는 한편, 대면 영업의 강점을 살린 마케팅을 통해 가입자 이탈 방지에 주력할 것으로 보인다.시중은행 관계자는 “인터넷은행들의 대출 상품이 금리 면에서 확실히 경쟁력이 높은 것은 사실”이라면서도 “목돈이 오고가고 난이도가 높은 주담대 같은 경우 온전히 비대면으로 대출 과정을 구현하기가 쉽지 않을 것”이라고 밝혔다. 이어 “가계대출 경쟁 규제로 주담대를 소화할만한 수요가 있을지도 지켜봐야 한다”며 “규제를 받지 않는 개인사업자 대출시장은 고객 유치 경쟁이 더욱 치열할 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>은행권 '뱅킹앱' 리더는 어디…국민·우리은행 '선두'</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000655698?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>우리은행 가입자 수 1위, 국민은행 MAU도 앞서KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 뱅킹에플리케이션(앱) 경쟁력을 분석한 결과 KB국민은행과 신한은행이 선두를 달렸다.23일 5대 은행에 따르면 5대은행의 뱅킹앱 가입자 수는 7천140만5천명으로 전년 대비 5.87% 증가했다.한 고객이 휴대폰으로 모바일 대출 서비스를 가입하고 있다. [사진=뉴시스]은행별로 가입자 수가 가장 많은 건 우리은행의 '우리 WON 뱅킹'으로 1천918만5천명으로 전년 대비 3.3% 증가했다.다음은 국민은행의 KB스타뱅킹으로 1만793만명으로 전년 대비 15.45% 증가했다. 뒤를 이어 하나은행 '하나 원큐' 앱 가입자 수가 1천793만명으로 전년대비 6.9% 상승했으며, 농협은행의 'NH스마트뱅킹'은 1천33만2천명으로 전년 대비 13.52% 증가했다.월간 앱 이용자 수(MAU)에선 국민은행과 신한은행이 앞섰다.데이터 분석 솔루션업체인 모바일인덱스가 5대 은행 뱅킹 서비스 앱 사용자를 분석한 결과 지난해 말 기준 국민은행의 'KB스타뱅킹'이 1천36만명으로 선두를 달렸다. 뒤를 이어 '신한 쏠 뱅킹'이 948만명, 농협은행 'NH스마트뱅킹'이 884만명 순이었다. 우리은행 '우리 원 뱅킹'은 597만명으로 5대 은행 중 4위, 하나은행의 '하나 원큐'는 이보다 68만명 적은 529만명으로 가장 낮았다.금융앱 인기 순위에서도 KB스타뱅킹이 앞섰다. 모바일인덱스가 지난해  9월 실시한 금융업종 사용량 조사 결과 10대부터 60대까지 스타뱅킹이 유일하게 5위 안에 들었다. 10대부터 20대까지 1·2위는 토스와 카카오뱅크가 차지했으며, 30대부터는 삼성페이가 1위를 굳혔다.은행권의 비대면화도 급속도로 진행되고 있다. 하나은행의 경우 신용대출의 87.9%는 비대면으로 진행됐으며 예적금의 경우도 67.9% 비대면으로 이뤄졌다. 우리은행도 신용대출의 68.5%는 비대면이며 적립식 예금의 경우 90.1%가 비대면이다.은행권에선 올해 뱅킹앱 이용자수를 늘리기 위해 내부 체계도 개선 중에 있다.우리금융지주 황원철 전무는 "올해 우리은행의 MAU를 월 1천만명까지 늘릴 것"이라면서 "금융회사들의 비대면 채널은 플랫폼적 성격으로 가야하며, 구체적으로 뱅킹, 페이먼트까지 하나의 플랫폼으로 진화하는 것을 목표로 삼고 있으며 이를 위한 내부 개선작업도 이뤄지고 있다"고 말했다.조영서 KB금융지주 디지털플랫폼총괄 전무 역시 지난 8일 실적 발표 뒤 진행된 컨퍼런스 콜에서 "한국의 전체적인 금융시장에서 앱 MAU는 7000만명이고, 최소한 1000만명은 넘어야 한다"면서 "이를 위해 상품의 구조도 MAU 유도할 수 있게끔 했고, 작년에 금융권 최초로 은행와 지주의 겸직 조직인 디지털 조직을 만들었다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.02.26.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>저신용자 평가모델 있다더니…카뱅·케뱅·토스 전부 미달</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004713390?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷은행 3사가 모두 지난해 중·저신용자 대출 목표치를 달성하지 못한 것으로 나타났다. 다만 금융당국은 이들이 취급한 중·저신용자 대출 규모가 크게 늘어난 만큼, 당장 신사업 진출 제한 등 제재를 가하지는 않겠다는 입장이다. 한편, 인터넷은행들은 올해는 중·저신용자 대출 목표치를 달성하겠다며 신용평가모형(CSS) 고도화에 나섰다. 25일 은행연합회 공시에 따르면 지난해 12월 말 기준 전체 가계신용대출 가운데 중·저신용자 대상 신용대출 비중이 카카오뱅크 17%, 케이뱅크 16.6%, 토스뱅크는 23.9%를 기록했다. 중·저신용자는 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(820점 이하)를 뜻한다.인터넷은행 3사 모두 지난해 제시한 중·저신용자 목표치를 제시하지 못했다. 지난해 5월 당시 카카오뱅크는 20.8%, 케이뱅크는 21.5%, 토스뱅크는 34.9%가 목표치였다. 특히 케이뱅크의 경우 지난해 3월 말(18.2%)보다 오히려 중·저신용자 대출 비중이 줄었다. 앞서 금융당국은 인터넷은행이 중·저신용자 대출 확대라는 설립 취지를 제대로 이행하지 못하고 있다고 지적한 바 있다. 이에 따라 지난해 5월 각사별로 중·저신용자 대출 비중 목표치를 정했다. 23년 말까지는 모두 가계신용대출 가운데 30% 이상을 중·저신용자 대출로 채워야 한다. 금융당국은 이를 달성하지 못할 경우, 신사업 진출 제한 등 불이익을 받을 수 있다고 강조했다.그럼에도 금융당국은 당장 인터넷은행에 제재를 가하지는 않을 방침이다. 지난해 중반부터 목표치가 도입돼 반년 만에 달성하기가 쉽지 않았고, 실제로 인터넷은행들이 중·저신용자 대출을 확대하는 모습을 보였기 때문이다. 실제로 카카오뱅크가 지난해 취급한 중·저신용자 대출은 1조7166억원으로 전년(4679억원)보다 3.7배 가량 늘었다. 케이뱅크도 지난해 하반기(4942억원)에만 전년에 취급한 중·저신용자 대출 전체 규모(3251억원)보다 1.5배 가까이 공급했다. 금융위원회 관계자는 "인터넷은행의 경우 전체 대출 규모가 작아 일률적으로 목표치를 달성했는지 따지는 보다는, 실제로 중·저신용자 대출 규모가 얼마나 늘었는지 등을 확인하고 있다"고 말했다.이에 따라 인터넷은행들은 중·저신용자 대출 활성화에 더욱 분주해졌다. 영업 확대로 전체 대출이 늘어나면, 중·저신용자 대출 규모도 훨씬 늘려야 목표치에 근접할 수 있기 때문이다. 우선 각사 모두 CSS 고도화에 총력을 기울이고 있다. CSS를 개선할수록 더욱 정교한 대출이 가능하다. 케이뱅크는 이달 중순부터 중·저신용자 대상 CSS를 새로 개발했다. 케이뱅크측은 기존 CSS 대비 중·저신용자 대출 승인율이 18.3% 증가했다고 설명했다. 카카오뱅크 역시 올해 도서구입, 자동이체 정보 등 대안정보를 활용한 CSS 개선에 힘쓰는 한편, 타 금융기관의 중·저신용 고객 대상 대환 CSS도 개발할 계획이다. 토스뱅크 역시 지난 23일 3000억원의 유상증자를 진행하며 새 주주인 웰컴캐피탈의 다양한 금융 상품 취급 경험과 웰컴저축은행의 CSS 노하우를 접목해 대출 영업을 활성화할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>한발 물러선 토스·한발도 못뗀 카카오페이…빅테크 보험혁신 먼길</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004020821?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>토스인슈어런스, TM 영업 실패전략 선회하며 대면 설계사 채용카카오페이는 손보사 출범 지연주력상품 미니보험 파급력도 의문높은 진입장벽에 뚜렷한 성과 못내[서울경제] 보험업계의 ‘메기’ 역할이 기대되던 빅테크의 보험 혁신 작업이 난항을 겪고 있다. 플랫폼을 무기로 기존 보험사들을 자극해 산업 생태계에 변화를 몰고올 것으로 전망됐지만 보수적이고 대면 중심의 시장 장벽에 가로 막혀 좀처럼 성과를 내지 못하고 있다. 토스는 대면 영업 설계사 대신 정규직 텔레마케팅(TM) 설계사를 채용하는 ‘실험’을 시도했지만 결국 실패로 돌아갔으며, 카카오페이의 디지털 손해보험사 본인가 심사는 지연 중인 상황이다. 네이버파이낸셜에서는 ‘사장님 보험 가이드 체크리스트’ 외에 이렇다할 보험 관련 서비스가 없다.20일 업계에 따르면 토스의 보험 자회사인 토스인슈어런스는 대면 영업 설계사를 채용 중으로, 상반기까지 100명을 목표로 채용 중이다. 이는 토스인슈어런스가 TM 중심 영업에서 대면 채널로 전환하기로 결정하면서 진행되는 것이다. 앞서 토스인슈어런스는 법인보험대리점(GA)으로서는 이례적으로 정규직 보험설계사를 채용하고 TM 영업을 중심으로 진행하면서 ‘토스의 보험 실험’으로 불리기도 했다.하지만 실적 부진 등으로 인해 결국 대면영업 설계사 시장에 뛰어든 모습이다. 토스 관계자는 “보험 신규계약 시장에서 비대면 채널 비중은 10%밖에 안 된다”며 “보험 시장 판도를 바꾸려면 90%에 이르는 대면영업 강화가 절실하다”고 설명했다. 업계의 한 관계자도 “보험은 자발적으로 가입하는 경우가 드물다보니 보험의 필요성을 꾸준히 얘기해주는 대면형 푸시(push)형 영업이 아직까지도 주효할 수 밖에 없다”고 말했다.카카오페이는 빅테크 중 처음으로 디지털 손해보험사를 직접 설립한다고 밝히며 주목 받았지만 여전히 본인가 심사가 지연 중이다. 금융 당국이 정보기술(IT) 보안 관련 개선을 요구하고 있으며 지난해 말 발생했던 류영준 대표를 포함한 임원진 주식 대량매도 사건도 심사 지연에 영향을 미치고 있는 것으로 추정된다. 디지털 손보사가 보험업계에 새로운 바람을 일으킬지에 대해서도 의견이 갈린다.주력인 생활밀착형 미니보험은 MZ세대(밀레니얼+Z세대)들에게 새로운 보험 경험을 제공해줄 수 있다는 점이 강점으로 꼽힌다. 하지만 가입 기간이 짧고 보험료가 낮기 때문에 수익을 내기 쉽지 않은 데다 이미 시장 포화 상태에서 얼마나 많은 가입자가 새로 유입될지도 미지수다. 업계 한 관계자는 “플랫폼이 미래 고객층인 젊은이들이 보험의 필요성을 느끼도록 생활밀착형 보험을 통해서 조금씩 보험금을 타보는 ‘고객 경험’을 시켜주는 역할을 하는데 유리할 수는 있을 것”이라고 봤다.네이버파이낸셜의 경우 지난 2020년 자동차보험 비교서비스 출시 소식이 있었지만 결국 진출하지 않았고, 현재 ‘사장님 보험 가이드’를 선보이는 정도에 그치고 있다. 이 가이드는 소상공인 사업자들이 개인 정보 보호, 재난 배상책임, 화재 등 의무 가입 보험들을 한눈에 알 수 있도록 한 체크리스트다. 업계 한 관계자는 “빅테크 플랫폼은 고객들의 보험 접근성을 높여주고 보험을 쉽고 정확하게 보험을 알려주는 역할을 해야할 것으로 본다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.02.26.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>가계대출 제한 속 기업대출 힘 쏟는 은행들</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005050573?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>가계대출 작년 5월 이후 첫 감소…기업대출은 상승세소상공인·개인사업자 대출 노려시중은행·인터넷은행 경쟁↑[이미지출처=연합뉴스]정부가 여전히 가계대출 규모를 관리하는 추세를 이어가는 가운데 은행들이 기업대출 강화에 나서고 있다. 소상공인 및 개인사업자 대출에서 치열한 경쟁이 나타날 것으로 예상된다.23일 금융업계에 따르면 KB국민은행, 신한은행, 하나은행, 우리은행 등 4대 시중은행들은 실적 발표 콘퍼런스콜을 통해 올해 기업대출을 전년 대비 4~8%가량 늘리겠다고 밝혔다. 정부의 관리 기조를 의식해 기업대출을 늘리는 모양새다.지난 1월도 가계대출은 줄고 기업대출은 늘어났다. NH농협까지 포함한 국내 5대 시중은행의 지난달 가계대출 잔액은 전월보다 1조3634억원 가량 줄었다. 지난해 5월 이후 처음으로 줄어든 것이다. 반면 같은 기간 기업대출 잔액은 전월 대비 8조1749억원 증가한 644조618억원을 기록했다.금융당국이 가계대출 총량 증가율을 4~5%대로 관리하자 기업대출로 눈을 돌리는 분위기다. KB국민은행은 지난해 하반기부터 법인 영업 강화를 강조하고 있는 것으로 전해졌다. 신한은행도 올해부터 기업대출에 힘을 싣는 분위기로 알려졌다. 우리은행은 올해 1분기 중 기업 영업을 전폭 지원하기로 했다. 대기업 및 중소기엄 대출 신규 실적에 가중치를 적용한 포상도 진행할 방침이다.특히 소상공인·자영업자 등의 고객에 힘을 쏟고 있다. 시중은행들은 이를 위해 신용평가모형도 새로 마련할 정도다. KB국민은행은 그룹 내 계열사 정보와 상권 정보 등 자체 데이터와 고객의 반응 등을 활용한 '소상공인 특화 모형'을 개발 중이다. 향후 중소기업 등 보다 덩치가 큰 기업 고객 전용 신용평가모형도 개발할 계획이다. 신한은행도 KT와 협력해 소상공인 전용 신용평가모형을 개발 중이다. '음식점 특화 모형'으로 KT가 운영하는 상권 정보 빅데이터 플랫폼 '잘나가게'의 정보를 활용하겠다는 방침이다. 가맹점 결제 데이터를 통한 재방문 건수 등도 반영될 예정이다.인터넷전문은행들도 올해부터 본격 경쟁에 나선다. 토스뱅크는 지난 14일 인터넷은행 중 최초로 자영업자와 소상공인 등 개인사업자를 겨냥한 대출을 출시했다. 케이뱅크도 1분기 중 '개인사업자 운전자금 대출'을 개시할 예정이다. 카카오뱅크도 올해 하반기 개인사업자 대상 소호(SOHO) 대출을 출시할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>인터넷은행, 지난해 중·저신용대출 목표 결국 '미달'</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011027662?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>기사내용 요약지난해 중저신용대출 결과카뱅 -3.8%p, 케뱅 -4.9%p 토뱅 -11%p…대출 중단 여파"확대 위해 적극 노력할 것"[서울=뉴시스] 각 인터넷전문은행 중·저신용자 대상 신용대출 비중(잔액 기준). (사진=은행연합회 공시) 2022.02.25. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 박은비 기자 = 중·저신용자 대상 신용대출 공급 확대 주문을 받은 인터넷전문은행들이 지난해 목표로 한 실적에 크게 못미치는 것으로 나타났다.25일 은행연합회 공시에 따르면 카카오뱅크와 케이뱅크, 토스뱅크의 중저신용대출 비중은 지난해 말 잔액 기준 각 17.0%, 16.6%, 23.9%에 그쳤다.중저신용대출은 올크레딧(KCB) 기준 신용평점 하위 50%(820점 이하)를 대상으로 하는 대출을 말한다. 당초 이들 은행이 계획했던 건 20.8%, 21.5%, 34.9%였다. 하지만 각 -3.8%포인트, -4.9%포인트, -11%포인트씩 부진한 결과를 보였다. 특히 공격적인 목표를 제시했지만 가계대출 총량 관리로 출범 9일 만에 대출 문을 닫았던 토스뱅크가 가장 기대에 못미쳤다. 올해는 각 25%, 25%, 42%를 목표로 하고 있다.카카오뱅크는 이날 지난해 한 해 동안 중저신용 고객에게 공급한 무보증 신용대출 규모가 1조7166억원으로 전년 4679억원 대비 3.7배 가량 증가했다고 밝혔다.전체 신용대출 신규 공급 중에서 중저신용 비중은 지난 2020년 말 4.1%에서 지난해 말 90.6%까지 확대됐다는 게 카카오뱅크 설명이다. 특히 지난해 11월 이후부터는 신규 신용대출 100%를 중저신용 고객에게 공급하고 있다.대출 실행 고객들의 최저 신용점수는 500점대까지 분포하고 있으며 평균 대출금리는 6%대를 기록했다. 전체 은행권에서 카카오뱅크가 차지하는 중저신용대출 취급 비중은 건수 기준 지난해 1월 1.0%에 불과했지만 그해 12월 39.6%까지 불어난 것으로 집계됐다.카카오뱅크는 중저신용 대출 확대를 위해 대출 금리를 인하하고 대출 한도를 최대 1억원으로 늘린 상태다. 김광옥 부대표를 중심으로 태스크포스(TF)를 구성해 회사 역량을 집중해왔다.올해도 중저신용대출 공급 확대를 여신(대출) 계획의 최우선순위로 정하고 고신용자 대상 신규 신용대출 중단을 이어가기로 결정했다. 특히 신용평가모형(CSS) 고도화를 위해 카카오 공동체 외에 교보그룹과 데이터 협력을 진행 중이다. 다른 금융회사를 이용 중인 중저신용 고객을 위한 대환 신용평가모형도 개발하겠다는 구상이다.케이뱅크도 지난해 한 해 동안 중저신용대출 7510억원을 취급했다. 지난 2020년 공급액 3251억원 대비 2.3배 증가한 규모다. 올해 들어서는 2개월 동안 2500억원을 공급한 것으로 파악됐다.케이뱅크는 지난해 9월부터 연말까지 중저신용 고객 대상 대출이자 지원, 11월부터는 대출안심플랜을 제공한 바 있다. 중대 사고 등으로 빚을 갚을 수 없는 상황일 때 이를 해결해주는 서비스다.올해 들어서는 이달부터 중저신용·금융이력 부족(신파일러) 고객 특화 CSS를 새로 개발해 적용했다. 신규 CSS 도입으로 중저신용 고객군의 대출 승인율은 기존보다 18.3% 높아진 것으로 집계됐다. 신파일러 고객군 역시 31.5% 뛰었다.케이뱅크 관계자는 "지난해 하반기부터 중저신용 고객 혜택을 강화한 노력이 실적으로 나타나고 있다"며 "차별화된 혜택에 더해 중저신용·신파일러 고객에게 특화된 CSS를 도입하는 등 금융소외계층 대출 확대를 위해 더욱 노력하겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.02.19.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>"푼돈이라도 모아야"…소액적금 출시하는 금융권</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005046935?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>금융권에서 소액적금 상품이 연이어 출시되고 있다. 청년과 사회초년생들 사이에서 적은 금액이라도 조금씩 모으려는 수요가 늘면서다. 금융사들도 목표달성 지원금을 주거나 기능을 편리하게 개선하는 등 트렌드에 발맞추는 추세다.19일 금융권에 따르면 OK저축은행은 이달 소액으로 100만원의 목돈을 마련하는 적금상품을 출시했다. ‘100만원 만들기’ 적금상품은 매달 8만2000원씩 12개월을 내 세후 100만원을 받는 상품이다. 기본금리는 연 2.6%지만 입출금통장에서 6회 자동이체하면 1%포인트 우대금리를 제공한다. OK저축은행은 목표금액이나 금리, 기간을 찾아야 하던 번거로움을 최소화하기 위해 ‘000원 만들기 적금’ 시리즈를 연중 지속해서 출시할 예정이다.토스뱅크에서는 자동으로 잔돈을 모아주는 기능을 제공하고 있다. 사전에 원하는 대로 설정해 둔 규칙에 따라 알아서 돈을 모으게 된다. 가령 카드결제 시 잔돈을 모으도록 설정하면 1000원 미만의 잔돈을 자동으로 쌓는 식이다.웰컴저축은행도 ‘잔돈모아올림 적금’ 서비스를 운영하고 있다. 체크카드를 이용해 원하는 물건을 사면 설정한 잔돈을 적금 계좌에 자동 이체한다. 가입기간은 12개월로 500만원 범위 내에서 낼 수 있다. 특히 일정 조건을 충족하면 1만원 이하 원리금을 올림 해준다. 200만1원이 만기금액이면 201만원을 받는 식이다.케이뱅크 역시 추천목록에서 적금목표를 고르거나 직접 정한 뒤 자동으로 목돈을 모으는 ‘챌린지 박스’를 운용중이다. 가령 ‘가족에게 소고기 사주기’를 정한 뒤 원하는 목표금액과 기한에 맞춰 돈을 넣는 식이다. 목표 금액은 500만원 이하로 소액이다. 날짜도 30~200일 사이로 단기다.기본금리는 연 1.5%지만 우대금리가 0.5%포인트 있다. 별다른 복잡한 조건 없이 목표일까지 목표액을 유지하면 2.0%의 이자혜택을 누릴 수 있다. 챌린지 박스 내에서도 비상금 출금, 모으기 금액 자동 변경, 끝전 채움 등의 서비스가 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>"비싼 LG엔솔 0.5주만 사볼까?"…9월부터 소수점 거래 가능해진다</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004709119?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>금융위원회오는 9월부터 국내주식 소수단위 거래가 가능해진다. 금융위원회는 16일 정례회의를 열고 국내주식 소수단위 거래 서비스를 혁신금융서비스로 지정했다. 한국예탁결제원 이외 교보증권, 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, KB증권, KTB투자증권, 키움증권, 토스증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등이 국내주식 소수단위 거래에 참여한다. 현행 자본시장법과 금융지주회사법상 금융투자업인가를 받지 않고 금융투자업을 영위해서는 안되지만 금융위는 카카오페이증권과 토스증권에게도 특례를 부여했다. 국내 주식 소수단위 거래 서비스는 신탁제도를 활용해 온전한 1주를 여러개 수익증권으로 분할 발행하는 방식이다. 예컨대 LG에너지솔루션·삼성바이오로직스 등 1주당 가격이 높은 인기 주식을 소수점 단위로 나눠 살 수 있는 것이다. 증권사가 투자자의 소수단위 주식 주문을 취합하고 부족분을 자기분으로 채워 온전한 1주로 만든 후 자기 명의로 한국거래소에 호가를 제출한다. 거래가 체결돼 취득한 주식을 예탁결제원에 신탁하는 방법이다. 주식 소수점 거래는 해외주식부터 시행됐다. 앞서 2019년 금융위는 신한금융투자, 한국투자증권 등 2곳에 대해 해외주식 소수점 거래 서비스를 혁신금융서비스로 지정했다. 이후 지난해 9월 금융위는 국내 및 해외 주식거래에서 소수거래를 허용한다고 밝혔다. 다만 부가조건도 있다. 예탁결제원은 신탁재산과 고유재산간 거래가 불가능하다. 각 증권사는 일반 국내주식 거래와 소수단위 거래의 차이점에 대해 투자자가 명확히 인지할 수 있게 위험고지 체계를 만들어야 한다. 또 각 증권사는 소수단위 거래를 중개하는 과정에서 자기 재산으로 취득하게 되는 주식을 종목별로 5주 이내로 한정했다. 의결권 행사도 금지된다. 이 같은 서비스는 오는 9월부터 각 증권사별 전산 구축 일정 등에 따라 순차적으로 시작될 예정이다. 금융위 관계자는 "투자자가 종목된 최소투자금액의 인하로 주식투자 접근성이 확대되고 소규모 투자금으로 위험관리와 수익다변화를 위한 다양한 포트폴리오를 효율적으로 구성할 수 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>JT친애저축은행, 온라인 신용대출 '원더풀 나우론' 출시</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013006947?sid=004</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>JT친애저축은행, 온라인 신용대출 '원더풀 나우론' 출시[JT친애저축은행 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = JT친애저축은행은 언택트 금융서비스 확대를 위한 온라인 다이렉트 신용대출 상품 '원더풀 나우론'을 출시한다고 23일 밝혔다.    원더풀 나우론은 현재 직장에서 4개월 이상 재직하고 있는 연 소득 1천800만원 이상, 만 20세 이상의 직장인을 대상으로 한다.    최저 5.9%의 금리로 한도는 최대 1억원아다.     최장 상환 기간은 10년이며, 전체 상환 기간이 84개월 이상일 경우 일정 기간 이자만 내고 이후 남은 기간 원금과 이자를 분할 상환하는 '거치식 원리금 균등분할 상환 방식'을 이용할 수 있다.    온라인 다이렉트 상품인 만큼 인터넷, 모바일 애플리케이션(앱) 또는 전화로 대출 신청부터 실행까지 모든 과정을 편리하게 이용할 수 있다. 토스, 카카오페이, 핀다 등 혁신금융 플랫폼을 이용한 대출 신청도 가능하다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[인터넷은행 5년②]50대까지 넘보는 카뱅…마음만 급한 케뱅</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005048856?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>50대까지 넘보는 카뱅…마음만 급한 케뱅·토뱅카뱅, 2030 고객 943만명전체 고객의 절반 넘어익숙함으로 중장년층 공략신규 고객 40%가 50대케뱅·토뱅 추월 나섰지만격차 크게 못 줄이고 고비2030세대 고객이 1000만명에 육박하는 카카오뱅크는 중장년층 공략에도 속도를 높이면서 저변을 넓히고 있다. 반면 케이뱅크와 토스뱅크는 카카오뱅크의 뒤를 바짝 쫓고 있지만 좀처럼 격차가 줄어들지 않는 모양새다.2030잡고 50대 공략23일 카카오뱅크에 따르면 카카오뱅크의 지난해 말 기준 2030세대 고객은 943만명에 달한다. 이는 카카오뱅크 전체 고객(1799만명)의 절반이 넘는 수치다. 카카오뱅크는 젊은층 공략에 이어 중장년층으로 고객을 확대하고 있다. 중장년층에게도 익숙한 ‘카카오’라는 브랜드가 먹히고 있다는 분석이다. 카카오뱅크에 따르면 50대 고객은 2020년 167만명에서 지난해 228만명으로 약 37% 증가했다. 60대 이상 고객은 48만명에서 76만명으로 60% 가까이 늘었다. 최근 신규고객 중 40% 가량이 50대다. 윤호영 카카오뱅크 대표는 "50대 이상의 신규유입이 두드러지고 있다"면서 "2030세대가 쓰고 40대가 합류했고, 이제는 50대 이상이 카카오뱅크를 통해 금융 라이프를 연결하고 있다"고 말했다.카카오뱅크의 인기에는 편리한 유저인터페이스(UI)와 국민메신저 카카오톡으로 익숙해진 브랜드 이미지가 큰 역할을 했다는 평가가 나온다. 카카오뱅크는 초반 카카오의 인기 캐릭터 라이언, 어피치 등을 활용해 체크카드를 출시했는데 이 캐릭터 때문에 체크카드를 일부러 발급 받는 MZ세대(밀레니얼+Z세대) 고객들이 상당했다. 기존 금융권이 각종 이벤트로 고객을 유치해야 하는 반면 카카오뱅크는 ‘캐릭터’만으로도 영향력을 키웠다. 카카오의 대표 캐릭터인 ‘라이언’은 막강한 마케팅 효과 때문에 카카오 사내에서는 전무라는 직책이 붙을 정도였다.카카오뱅크의 캐릭터 효과를 본 시중은행들도 앞다퉈 같은 전략을 펼치고 있다. KB금융과 신한금융은 자체 캐릭터인 ‘스타 프렌즈’와 ‘쏠 익스플로러스’를 활용해 MZ세대 공략에 나섰다. 토끼와 곰, 오리 등을 활용한 캐릭터들을 통해서 딱딱한 금융 이미지에서 벗어나 친근한 이미지로 다가가겠다는 계획이다. KB금융과 신한금융은 이 캐릭터들을 금융 상품, 플랫폼 홍보 등에 활용하면서 마케팅 효과를 노리고 있다. 은행권 관계자는 "이제 시중은행들의 경쟁 상대는 서로가 아니라 인터넷전문은행이 됐다"며 "카카오뱅크 등에 맞설 각 사의 경쟁력을 찾는 것이 화두"라고 말했다.뒤쫓는 케뱅·토뱅카카오뱅크가 이용자층을 넓히면서 덩치를 키우고 있는 가운데 케이뱅크와 지난해 토스뱅크까지 합류하면서 인터넷전문은행들 간의 내부 경쟁도 치열하다. 다만 카카오뱅크가 입지를 굳히면서 케이뱅크는 경쟁에서 밀리고 있고, 토스뱅크도 시장에 진입했지만 아직까지 시장을 놀라게 할만한 혁신은 보여주지 못하고 있다.3사는 이용자부터 확연한 차이를 보이고 있다. 케이뱅크의 고객 수는 717만명으로 같은 해에 사업을 시작한 카카오뱅크의 절반에도 못 미치는 숫자다. 이마저도 지난해 가상화폐 열풍으로 가상화폐거래소 업비트와 제휴하면서 유입된 고객이 대다수다.카카오뱅크와 케이뱅크는 여수신, 자산 등에서 차이가 크다. 지난해 기준 카카오뱅크의 여신 잔액은 25조8614억원으로 케이뱅크(7조900억원)의 3.5배 정도였다. 이 기간 수신 잔액도 카카오뱅크가 30조261억원, 케이뱅크가 11조3200억원으로 3배 가까이 차이났다. 총 자산규모도 카카오뱅크가 2배 이상 높았다. 지난해 9월 금융감독원 공시 기준 총 자산은 카카오뱅크가 35조원, 케이뱅크가 14조원 수준이다.지난해 10월 출범한 토스뱅크는 출범 직후부터 고비를 맞았다. 조건 없이 예금 이자 2%, 저금리 개인 신용 대출 등을 내걸면서 첫날 가입자만 120만명에 달할 정도로 인기를 끌었지만 금융 당국의 가계대출 총량 규제 기조에 따라 신용대출, 마이너스통장부터 정책금융 상품인 사잇돌대출, 비상금대출 등 신규 대출을 전면 중단할 수 밖에 없었다. 올해부터 가계대출을 다시 재개하고 개인사업자 대출도 출시했지만 인터넷전문은행들이 모두 달려든 만큼 치열한 경쟁이 예상된다. 토스 애플리케이션(앱) 가입자가 2000만명에 달하는 만큼 토스뱅크로 최대한 유입시키면서 고액 규모를 키우는 데 집중할 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>인터넷은행, 작년 중·저신용자 대출 비중 목표달성 실패</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005155374?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>작년 12월말 기준 케뱅 16.6%·카뱅 17.0%·토뱅 23.9%연초부터 중·저신용자 대출 비중 지속 확대"신용평가모형 고도화 등 중·저신용자 대출 늘릴 것"[이데일리 박철근 기자] 중·저신용자 대출공급 확대를 설립취지로 내걸었던 인터넷은행들이 지난해 중·저신용자 신용대출 목표달성에 실패한 것으로 나타났다. 다만 인터넷은행들은 지난해 하반기부터 중·저신용자 신용대출을 지속해서 늘리면서 중·저신용자 대출비중을 점차 확대한다는 계획이다.25일 은행연합회와 업계에 따르면 작년 12월말 기준 인터넷은행의 중·저신용자 신용대출 비중(잔액 기준)은 토스뱅크가 23.9%로 가장 높았으며 카카오뱅크(323410)(17.0%)와 케이뱅크(16.6%)가 뒤를 이었다.하지만 지난해 5월 인터넷은행 3사가 제시한 중·저신용자 신용대출 목표치에는 모두 미달했다. 당시 토뱅은 34.9%, 케뱅은 21.5%, 카뱅은 20.8%를 각각 목표치로 제시했다.목표치와 괴리가 가장 큰 곳은 토뱅으로 11.0%포인트 차이가 났으며 케뱅(4.9%포인트)과 카뱅(3.8%포인트) 순으로 나타났다. 토뱅 관계자는 이에 대해 “정부가 지난해 대출총량규제를 실시하면서 영업일이 9일에 그쳤다”며 “새롭게 대출을 할 수 없는 상황이다보니 실제 중·저신용자에 대한 전체 대출규모가 자을 수밖에 없었다”고 설명했다. 이어 “하지만 9일동안 실시한 대출 가운데 33%가 중·저신용자 대출”이라고 덧붙였다.(자료= 은행연합회)인터넷은행업계는 지속해서 중·저신용자 신용대출 비중을 늘린다는 계획이다.카뱅은 이날 “지난해 중·저신용자 고객에게 공급한 무보증 신용대출 규모는 1조7166억원으로 전년(4697억원)대비 3.7배 가량 늘었다”며 “올해는 중·저신용자 신용대출비중을 25%, 2023년말에는 30%까지 높일 계획”이라고 설명했다.케뱅도 중·저신용자 신용대출규모가 대폭 증가했다고 설명했다.이 회사의 지난해 중·저신용자 신용대출 규모는 7510억원으로 전년(3251억원)대비 2.3배 증가했다. 올해는 신용대출의 25%, 내년에는 30%를 중·저신용자 대출로 구성한다는 계획이다.케뱅 관계자는 “이달 중순부터는 중·저신용자 금융정보부족 고객 특화 신용평가모형을 신규 개발·적용했다”며 “이로 인해 기존 모형보다 중·저신용자 고객군의 대출 승인율을 18.3% 높일 수 있었다”고 설명했다. 이어 “차별화된 혜택에 더해 중·저신용자 및 금융정보부족 고객에게 특화한 신용평가모형을 도입하는 등 금융소외 계층 대출 확대를 위해 더욱 노력하겠다”고 덧붙였다.토뱅은 더 공격적이다. 올해는 전체 신용대출의 42%를 중·저신용자 대출로 꾸릴 예정이며 내년에는 44%까지 확대키로 했다.카뱅도 중·저신용자 대출 확대를 위해 신용평가모형 고도화 및 대안정보 활용범위를 확대한다는 계획이다.카뱅은 “카카오 공동체 외에 교보그룹과 데이터 협력을 진행하고 있다”며 “다른 금융회사를 이용하고 있는 중저신용 고객을 위한 ‘대환 신용평가 모형’도 개발할 계획”이라고 설명했다.한편 금융당국은 지난해 5월 발표한 ‘혁신적 포용금융을 위한 인터넷전문은행 중·저신용자 대출 확대 계획’에서 인터넷전문은행이 (중·저신용자 대출 확대) 계획을 미이행하면 신사업 인허가 등에 고려하겠다고 발표했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>[핫문쿨답] IT기업 중 '선호도' 1위 네이버·'성장성' 1위 카카오</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002248906?sid=105</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>오픈서베이 설문 결과...ESG 경영 인식에서도 네이버·카카오가 톱국내 IT 기업 중 선호도 1위에는 네이버가, 향후 가장 많이 성장할 것 같고 취업하고 싶은 IT 기업 1위에는 카카오가 꼽혔다.환경·사회·지배구조(ESG) 등 경영 투명성을 세 축으로 지속 가능한 성장을 도모하는 기업에는 네이버와 카카오가 나란히 1, 2위 자리에 이름을 올렸다.지디넷코리아는 연초를 맞아 모바일 설문 플랫폼 오픈서베이와 함께 IT기업 선호도 조사를 지난 24일 진행했다. 총 1천명이 응답했으며, 표본오차는 ±3.10%p(95% 신뢰수준)다. 표본 추출은 인구 구성비에 따른 비례할당추출 방식을 사용했다. 주요 질문에 제시한 기업 목록은 국내 주요 'IT 기업' 및 '기술 기반 커머스 기업' 등으로 구성했다.빌딩 자료사진(제공=이미지투데이)■ 긍정 이미지·선호하는 기업 1위 네이버, 성장성 1위는 카카오네이버, 카카오 등 국내 많은 IT 기업들이 자체 기술력과 콘텐츠 등을 앞세워 글로벌 진출을 꾀하고 있다. 또 쿠팡과 마켓컬리와 같은 이커머스 기업들도 IT 기술을 접목해 편의성을 높이고 인프라를 확충하는 방향으로 공격적인 투자를 이어나가고 있다.국내를 넘어 해외에서 점차 영향력을 넓혀가는 IT 기업에 대해 일반 소비자들은 어떤 인식을 갖고 있을까. 먼저 국내를 대표하는 23곳의 IT기업들을 후보군으로 나열한 뒤, 알고 있는 기업을 모두 선택해 달라고 했다. 그 결과 ▲네이버(92.8%) ▲카카오(92.2%) ▲쿠팡(90.6%) ▲KT(89.9%) ▲SK텔레콤(89.6%) ▲이마트(SSG닷컴·지마켓·옥션 등, 86.5%) ▲야놀자(83.8%) ▲GS리테일(GS25·GS홈쇼핑·요기요 등, 81.9%)) ▲넷마블(81.1%) ▲넥슨(80.9%) ▲우아한형제들 배달의민족(80.1%) ▲엔씨소프트(78.5%) ▲마켓컬리(77.3%) ▲삼성SDS(63.6%) 등의 순으로 응답했다.이어 같은 보기를 제시하고, 그 중 긍정적인 이미지를 갖고 있는 기업을 모두 선택해 달라고 했다. 그랬더니 네이버가 57.7%를 받아 1위를 차지했다. 이어 ▲카카오(51.1%) ▲이마트(48%) ▲SK텔레콤(40.5%) ▲쿠팡(37.4%) ▲마켓컬리(33.5%) ▲GS리테일(33.1%) ▲KT(29.6%) ▲삼성SDS(28.1%) ▲비바리퍼블리카 토스(22.8%) ▲우아한형제들(22.4%) ▲야놀자(20.7%) 등의 순이었다.또 이중 가장 선호하는 기업을 선택해 달라는 질문에는 네이버가 25.6%로 가장 많은 선택을 받았다. 그 다음 ▲카카오(16%) ▲이마트(10.6%) ▲쿠팡(9.3%) ▲SK텔레콤(7.8%) ▲삼성SDS(6.3%) ▲비바리퍼블리카 토스(5.3%) ▲마켓컬리(3.5%) ▲KT(3.2%) ▲GS리테일(2.2%) ▲엔씨소프트(1.9%) ▲우아한형제들(1.6%) 순이었다.특이점은 카카오는 전 성별/연령 중 30대 남성의 긍정도가 유독 낮았다(41.4%, 평균 대비 –9.7%p). 반면 이들은 비바리퍼블리카, 라인, NHN에 대한 긍정도는 상대적으로 높았다. 또 네이버는 50대 여성의 긍정도가 유독 높게 나타났다(68.3%, 평균대비 +10.6%p).네이버와 카카오는 인지도 면에서 별 차이가 없지만(각 0.6%p 차이), 선호도와 최선호도 문항으로 갈수록 격차가 크게 벌어졌다(각 6.6%p, 9.6%p). 이에 네이버와 카카오의 최선호도를 성별/연령별로 나눠보면 네이버는 특히 20대 남성의 응답률이 높았다.그렇다면 응답자들은 어떤 기업이 미래에 더 많이 성장할 것으로 기대할까. 그 결과 카카오가 24.8%를 기록, 2위인 네이버(14.7%)를 크게 앞질렀다. 이어 ▲쿠팡(11.5%) ▲삼성SDS(6.9%) ▲비바리퍼블리카 토스(6.5%) ▲마켓컬리(5.2%) ▲우아한형제들(4.1%) ▲이마트(4%) ▲SK텔레콤(3%) ▲엔씨소프트(2.2%) 등이 선택을 받았다.■ 네이버·카카오 인식 1위 "친숙함"...ESG 경영도 네이버·카카오가 긍정적앞선 질문에서 가장 높은 선택을 받은 네이버와 카카오에 대한 이미지(인식)를 좀 더 구체적으로 보기 선택 방식으로 물었다. 그랬더니 네이버는 ▲친숙한(56.1%) ▲꾸준한(42.8%) ▲지속성장하는(38.7%) ▲전문적인(29.4%) ▲믿을 수 있는(26.8%) 등 상대적으로 긍정적인 보기가 상위권을 차지했다.카카오 역시 ▲친숙한(45%) ▲지속성장하는(38%) ▲유행에 앞서 나가는(36.8%) ▲즐거운/재미있는(35%) ▲혁신적인(32.1%)과 같은 좋은 반응이 많았다.이 문항에서 소비자가 네이버/카카오에 각각 어떤 차별화된 이미지를 확인할 수 있는데 두 기업 모두 ‘친숙한’ 이미지 속성이 가장 많았지만 다음 순위부터는 차이를 보였다.최근 기업의 사회적 책임과 투명 경영에 대한 요구가 높아지면서 ESG(환경, 사회, 지배구조) 경영이 화두다. 이에 많은 기업들이 ESG 경영을 약속하며 탄소중립 선언 등을 앞다퉈 발표하고 있다.이 같은 움직임에 ESG 경영을 가장 잘하고 있다고 생각하는 기업을 최대 3개 선택해 달라는 질문을 했다. 그 결과 네이버가 24.9%를 얻어 1위(‘없음’ 보기 제외 시)를, 카카오가 19.1%로 2위를 차지했다. 이어 ▲이마트(15.1%) ▲마켓컬리(13.7%) ▲SK텔레콤(13%) ▲삼성SDS(11.1%) ▲쿠팡(10.2%) ▲KT(6.5%) ▲GS리테일(6.5%) ▲비바리퍼블리카 토스(5.6%)  등의 순이었다.마지막으로 응답자 자신이 20~30대 구직자라고 가정했을 때 보기 중 가장 취업하고 싶은 기업을 선택해 달라고 했다. 그랬더니 카카오가 26.1%, 네이버가 25.1%로 각각 1, 2위에 올랐다. 이어 ▲삼성SDS(11.5%) ▲SK텔레콤(5.1%) ▲비바리퍼블리카 토스(3.6%) ▲엔씨소프트(2.9%) ▲KT(2.4%) ▲이마트(2.1%) ▲넥슨(2%) ▲우아한형제들(1.9%) ▲SK C&amp;C(1.8%) 등의 순이었다.기업 성장성 및 ESG 경영에 대한 인식, 취업 희망 의향은 응답자의 기업 선호도가 반영된 것으로 풀이된다.이번 조사에 대한 보다 자세한 결과는 [☞오픈서베이 페이지]를 통해 누구나 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>작년 전세계 핀테크 투자건수 사상 최대…블록체인 449% 급증</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005045962?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>블록체인과 가상자산에 대한 관심이 늘면서 지난해 전세계 핀테크 투자 건수가 사상 최대치를 기록한 것으로 나타났다.글로벌 회계법인 KPMG(회장 빌 토마스)가 17일 발간한 보고서에 따르면 지난해 글로벌 핀테크 투자 건수는 5684건으로 전년(3764건)대비 51% 증가했다. 투자액은 2101억달러로 전년(1249억달러) 대비 68% 늘었다.지난해 핀테크 투자액이 가장 많이 쏠린 분야는 지급 결제로 517억 달러가 집중됐다. B2B 후불결제(BNPL, Buy Now Pay Later)와 임베디드 뱅킹 및 오픈 뱅킹 제휴 솔루션과 같은 분야에 관심이 늘면서 전세계적으로 지급결제 분야는 가장 많은 투자금을 유치했다.블록체인 및 가상자산(302억 달러), 사이버보안(48억 달러), 자산 관리(16억 달러) 분야는 사상 최대 투자액을 돌파했다. 특히 블록체인 및 가상자산 기술에 대한 투자액은 2020년 55억 달러에서 449% 급증했다. 같은 기간 투자 건수는 927건에서 1332건으로 43% 증가했다. 보고서는 “금융 시스템에서 가상자산의 잠재적 역할과 이를 활용한 기술에 대한 인식이 높아지고 있음을 의미한다”고 전했다.핀테크 M&amp;A 거래액은 2020년 758억 달러에서 지난해 831억 달러로 늘었고, 핀테크 분야 크로스보더 M&amp;A 거래액은 362억 달러로 전년 대비 3배 이상 증가했다. 사모펀드(PE)의 핀테크 투자액은 2018년 최고 규모였던 52억 달러에서 지난해 122억 달러로 두 배 이상 증가했다.미주 지역의 총 핀테크 투자는 2020년 835억 달러에서 지난해 1053억 달러로 증가했고, 유럽도 지난해 774억 달러로 지속적으로 증가했다. 아시아태평양 지역은 2020년 147억 달러에서 지난해 275억 달러로 큰 폭의 성장세를 기록했다. 다만 지난해 중국은 가상자산 채굴 및 거래 금지, 빅테크 규제 등 핀테크 산업 전반에 대한 규제 강화 기조로 일부 투자자들은 중국 투자를 축소하면서 인도와 싱가포르 등 아시아태평양의 다른 핀테크 허브로 눈길을 돌렸다. 특히, 한국의 케이뱅크(11억 달러)와 데카콘으로, 성장 가능성이 높은 토스(4억 달러)는 아시아태평양 상위 핀테크 투자 중 각각 2위와 5위를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>매일유업, '앱솔루트 명작 액상' 리뉴얼 출시</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004790279?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 매일유업의 조제식 국내 판매 1위 브랜드 앱솔루트가 엄마의 선물 프리미엄 명작을 액상 형태로 새롭게 출시했다고 18일 밝혔다.   앱솔루트 엄마의 선물 프리미엄 명작은 지난해 국내 최초로 모유 올리고당 2FL(투에프엘)을 적용해 업그레이드했다. 아기의 자기방어 체계를 형성하는 2FL은 모유에서 세 번째로 많은 영양 성분인 모유 올리고당(HMO) 중에서도 가장 높은 비중을 차지하는 성분이다.   매일유업은 생후 24개월까지는 아기의 자기방어 체계 형성에 매우 중요한 시기라는 점에 주목, 앱솔루트 명작 액상에도 앱솔루트 명작과 동일하게 2FL을 적용해 리뉴얼했다. 이와 함께 두뇌와 눈을 위한 영양성분을 배합했다.   리뉴얼 앱솔루트 명작 액상은 자기방어를 위한 핵심 성분 2FL을 비롯해 모유 올리고당의 일종인 갈락토실락토스(GL), 사이알릭락토스(SL)까지 함유하고 있다. 여기에 두뇌를 구성하는 성분 DHA와 MFGM(유지방구막), 체내에서 합성되지 않아 외부로부터 섭취해야 하는 황반 구성 물질 루테인과 지아잔틴도 더했다. 원료는 뉴질랜드 자연방목으로 풀을 먹고 자란 젖소의 우유로 만든 Grass-Fed 인증 원료를 사용해 더욱 안심할 수 있다.   리뉴얼된 앱솔루트 명작 액상은 매일유업 네이버 브랜드 스토어를 비롯한 주요 온라인 쇼핑몰에서 구입할 수 있다. 오프라인 대형 마트 등에도 순차적으로 입점될 예정이다. 이번 리뉴얼 제품은 아기의 성장단계에 따라 1단계(0~6개월), 2단계(6~12개월), 3단계(12개월~24개월) 총 3종으로 분말 제품과 동일하게 월령과 단계를 구분해 출시된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>JT친애저축은행, 온라인 다이렉트 신용대출 ‘원더풀 나우론’ 출시</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002578835?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>최저 연 5.9%, 최대 1억원 한도ⓒJT친애저축은행[데일리안 = 이세미 기자] JT친애저축은행은 23일 언택트 금융서비스 확대를 위한 온라인 다이렉트 신용대출 상품인 ‘원더풀 나우론’을 출시한다고 밝혔다.원더풀 나우론은 현재 직장에서 4개월 이상 재직하고 연 소득 1800만원 이상, 만 20세 이상의 직장인을 대상으로 한다. 최저 5.9%의 금리로, 최대 1억원의 한도를 제공한다. 최장 상환 기간은 10년이며, 전체 상환 기간이 84개월 이상일 경우 일정 기간 이자만 내고 이후 남은 기간 원금과 이자를 분할 상환하는 ‘거치식 원리금균등분할 상환 방식’을 이용할 수 있다.또한, 온라인 다이렉트 상품인 만큼 인터넷, 모바일 앱 또는 전화를 통해 대출 신청부터 실행까지 모든 과정을 한 번에 이용할 수 있다. 토스·카카오페이·핀다 등 금융 플랫폼을 이용한 대출 신청도 가능하다.이번 온라인 다이렉트 상품은 변화하는 신용대출 시장에 선제적으로 대응하고 고객 혜택을 강화하고자 기획 단계부터 신용평가전문기관인 NICE평가정보의 컨설팅을 반영해 설계했다.JT친애저축은행 관계자는 “신종 코로나바이러스 감염증으로 힘든 시기를 겪고 있는 서민 고객분들에게 조금이나마 도움이 되고자 보다 편리한 비대면 방식의 온라인 다이렉트 신용대출 상품을 출시하게 됐다”며 “앞으로도 고객이 필요로 하는 상품 및 서비스를 제공하는 서민금융사가 되고자 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>이자 10% 효과 청년희망적금 50만명 돌풍…인뱅은 불참한 이유?</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000275935?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[앵커]연 10%대 이자 효과가 있는 '청년희망적금'에 대한 관심이 뜨겁습니다.미리보기 서비스 이용자가 불과 닷새 만에 50만 건을 넘어섰는데요.권준수 기자 연결합니다.청년희망적금 관심이 높군요?[기자]네, 청년희망적금 신청 자격을 조회하는 ‘미리보기’ 서비스가 지난 9일 시작된 후 닷새 만에 신청 건수가 50만 건을 돌파했습니다.미리보기 서비스는 오늘(18일)까지 진행되기 때문에 신청 건수는 더 늘어날 수 있습니다.청년희망적금은 2년 동안 최대 월 50만 원을 납입할 경우 연 10%대의 이자 효과를 얻을 수 있는데요.기본금리도 높을 뿐만 아니라 정부 지원금과 비과세 혜택까지 있기 때문입니다.전체 급여가 3600만 원 이하고 만 18세에서 34세까지가 대상인데요.은행마다 젊은 고객층을 대거 확보할 수 있는 기회로 보고 명품 지갑과 현금, 노트북 같은 고가 경품까지 내세워 유치전을 벌이고 있습니다.이 때문에 과열 경쟁으로 변질됐다는 지적이 나올 정도입니다.[앵커]가입 경쟁이 치열한데 인터넷 은행은 이번에 사업에 참여하지 않는다고요?[기자]시중은행과 지방은행까지 합쳐 11곳의 은행이 해당 적금 가입을 받는데 카카오·케이·토스뱅크 등 인터넷 은행 3곳은 빠졌습니다.서민금융진흥원과 전산 연계, 병역 우대 혜택을 위한 증명 서류 확인, 적금 중도 해지에 따른 관리 등 전산 개발 과정이 부담됐기 때문이라는 설명입니다만, 이미 청년층이 주요 고객인 인터넷은행들에게는 별 실익이 없다는 분석입니다.[앵커]다음 주 월요일 출시인데, 몇 명이 가입할 수 있나요?[기자]청년희망적금 가입 시한은 올해 말까지인데 배정된 사업 예산 456억 원이 소진되면 선착순 마감됩니다.단순 계산해보면 약 38만여 명이 가입할 수 있을 것으로 전망됩니다.SBS Biz 권준수입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>5.9% 금리로 1억까지…JT친애저축銀, '원더풀 나우론' 출시</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004711842?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>사진=JT친애저축은행JT친애저축은행이 온라인 다이렉트 신용대출 상품 '원더풀 나우론'을 출시한다고 23일 밝혔다.원더풀 나우론은 현재 직장에서 4개월 이상 재직하고 있는 연소득 1800만원 이상, 만 20세 이상 직장인이 가입할 수 있다. 금리는 최저 연 5.9%이며 한도는 최대 1억원이다.상환 기간은 최장 10년이다. 전체 상환 기간이 84개월(7년) 이상일 경우 일정 기간 이자만 내고 이후 남은 기간 원금과 이자를 분할상환하는 '거치식 원리금 균등분할 상환 방식'으로 이용할 수 있다.대출 신청부터 실행까지 모든 과정을 인터넷, 모바일 애플리케이션(앱) 또는 전화로 이용할 수 있다. 토스나 카카오페이, 핀다 등 금융플랫폼을 이용한 대출 신청도 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>알아서 투자 척척… MZ세대 취향저격 MTS 쏟아진다</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002721509?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>알아서 투자 척척… MZ세대 취향저격  MTS 쏟아진다국내 중소형 증권사들이 MZ세대를 겨냥한 모바일트레이딩시스템(MTS) 기능 등을 선보이면서 경쟁력 확보에 나서고 있다.21일 증권업계에 따르면 이베스트투자증권은 최근 기존 MTS를 대체하는 차세대 MTS '이베스트온(eBest ON)을 출시했다.이베스트 온은 기본·주식전용·선물옵션전용·간편모드 등 나에게 맞는 모드 선택 옵션 제공하는 등 개인 맞춤형 기능을 새롭게 제공한다. 또한 간편인증 및 비대면 계좌개설 서비스, '염블리' 염승환 이사의 블리온 등 기존 MTS의 기능도 그대로 가져왔다.유진투자증권도 이달 들어 간편투자앱 유투(U.TOO)를 새롭게 선보였다. 유투는 편리하고 직관적인 투자를 선호하는 MZ세대와 MTS, HTS에 어려움을 겪는 초보 투자자를 위한 간편투자 플랫폼이라는 설명이다.투자금액만 입력하면 가격과 수량을 알아서 계산해 주식 주문해주는 '24시간 간편 주문' 기능을 선보였다. 이 외에도 매월 설정한 금액만큼 자동으로 투자하거나, 주가 하락 시 추가 매수를 진행하는 '스마트 적립' 등 자동주문을 제공한다. 특히 SNS(사회관계망서비스)에 친숙한 MZ세대를 위해 SNS 기능을 탑재한 타임라인을 통해 투자 관련 포스팅, 투자 친구 추가 기능을 추가했다.또한 유안타증권은 인공지능(AI) 투자분석 시스템 티레이더의 기능을 업그레이드해 주식 고수들의 매매종목을 분석해 제공하는 '티레이더 5.0' 공개했다. 기능 업데이트를 통해서는 투자자들의 종목 선정과 매매 타이밍 파악에 도움을 주는 투자 고수들의 매매종목 분석을 제공한다.이같은 중소형사의 MTS 진출이 이어지는 가운데 증권업계의 MTS 경쟁에 순위 변동이 일어나고 있다.빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면 지난달 MTS MAU(월간 활성 이용자수) 1위는 KB증권이 차지했다. 지난달 진행된 LG에너지솔루션 공모주 청약에 힘 입어 기존에 MAU 상위권인 키움증권 영웅문S(302만9250명), 미래에셋증권(256만932명), 삼성증권 (249만5281명) 등을 제쳤다.여기에 토스증권, 카카오페이증권 등 빅테크가 출범한 증권사에서도 MTS 진출을 공언한 상황이다. 토스증권이 밝힌 자사 MTS MAU가 230만명(지난해 말 기준)에 달한다고 밝힌만큼 기존 증권사 수준과 맞먹는다. 또한 지난달 대규모 업데이트를 통해 국내주식 ETF·ETN, 해외 투자종목 확대 등 서비스 추가를 진행했다.카카오페이증권도 주식 베타 서비스를 전체 사용자에게 공개했다. 타사 MTS와 달리 전체 투자금과 수익률을 한 눈에 보여주는 '내 주식' 서비스를 전면 배치하거나, 수익률에 따라 변화하는 카카오 프렌즈 테마 등을 통해 MZ 세대 공략에 나섰다.한 업계 관계자는 "최근 개인투자자 참여가 확대되면서 MTS 이용 비중이 커져 각 증권사들이 MTS 편의성 개선에 공을 들이고 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'네카라쿠배당토' 아니어도…플랫폼 업계는 '휴가중' [IT돋보기]</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000654948?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>1년만 다녀도 1달 안식휴가…무제한 휴가도 과감히 도입스타트업 간 개발자 구인 경쟁이 치열해지면서 단순 급여·보너스 외에도 휴가 등을 통해 '워라밸'을 강조하는 플랫폼 업체들이 늘어나고 있다. 눈치보지 않고 쉴 수 있는 사내 분위기를 조성하고 충분한 휴식을 보장하면서 업무 효율을 높일 수 있다는 기대감이 반영됐다.20일 업계에 따르면 통합 SCM 플랫폼 '품고'를 운영하는 두핸즈는 최근 경력 개발자 채용을 진행하면서 풀필먼트 업계 최초로 근속 1년 시점부터 유급휴가 1개월의 '안식월'을 보장하겠다는 조건을 내걸었다. 안식월은 연차 및 여름휴가와는 별도로 주어진다.두핸즈 관계자는 "일정 기간 프로젝트에 집중한 직원이 1개월간 충분히 휴식하거나 자기계발에 몰두할 수 있는 시간적 여유를 가짐으로서, 업무 복귀 시 최고의 성과를 낼 수 있을 것"이라고 소개했다.제주국제공항 1층 도착장에 휴가를 제주에서 보내려는 관광객들의 발걸음이 이어지고 있다.  [사진=뉴시스]소셜 네트워크 플랫폼 '로켓펀치'를 운영하는 알리콘은 전 직원에게 무제한 휴가를 보장한다. 기본 연차를 모두 소진한 이후에도 자유롭게 휴가를 쓸 수 있으며 휴가 외 근무장소, 근무 시간도 100% 임직원의 자율에 맡긴다. 알리콘은 지난 2015년 설립 당시부터 이 같은 제도를 운영하고 있다.재택근무도 코로나19 이전부터 선제적으로 적용했다. 재택근무 직원들에게는 매월 통신비와 장비비를 지급하며 업무 역량 개발을 위한 세미나, 교육, 도서 구입비나 간식비, 식비 등도 지원한다. 재택근무를 원치 않는 직원은 알리콘이 운영 중인 거점 오피스 '집무실'을 이용하면 된다.이외 여러 플랫폼 기반 스타트업 업체들이 다양한 휴가 관련 복지를 시행하고 있다. 프리랜서 마켓인 '크몽'은 주 35시간 근무 제도와 함께 5년 장기근속 시 1달 유급휴가를 지원한다. 생일 당일이나 해당 월에는 자유롭게 반차를 쓸 수도 있다. 자산관리 플랫폼 뱅크샐러드는 근속 3년마다 안식휴가 10일을 제공하며 반기별 하루씩 연차와 별개로 유급휴가도 주어진다.이 같은 파격적인 휴가 관련 복지는 IT업계에서 손꼽히는 업체들이 먼저 시행한 바 있다. 카카오는 3년 근속 시 1개월간의 안식휴가를 부여하는 제도를 지난 2014년부터 실시했다. 당근마켓과 토스는 '무제한 휴가' 제도를 시행 중이다. 직원들에게 휴식을 보장했음에도 고속 성장하는 업체들이 속속 늘어나자 스타트업들도 보다 과감하게 휴가 관련 정책을 실시하는 것으로 풀이된다.지난해 11월 잡코리아가 2~30대 직장인들을 대상으로 진행한 '첫 이직 경험' 설문조사에 따르면 첫 이직을 감행한 이유 1위(38.6%)로 '워라밸(일과 삶의 균형) 불만족'이 꼽혔다. 과도한 업무와 잦은 야근으로 개인생활을 누리기 어려운 상황에서 이직을 택한 직장인들이 많은 것이다. 업계 관계자는 "MZ세대가 워라밸을 더욱 중시하는 만큼 스타트업들도 더 좋은 인재를 구하기 위해 과감한 시도를 하는 것으로 보인다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>[구독 전략 릴레이 인터뷰 ③] 해외 비즈니스 뉴스에 갈증, '쉽고' '맥락 풍부하게'</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/006/0000111897?sid=105</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[구독 전략 릴레이 인터뷰 ③] 오세훈 ‘커피팟’ 대표… 기업 일하며 해외 비즈니스 콘텐츠 ‘수요’ 느껴, 유료 구독자에 ‘추가 뉴스레터’ 제공"우버, 위워크 얘기가 나오긴 하는데 명쾌하게 설명이 되지 않았다." 해외 비즈니스 소식을 전하는 뉴스레터 서비스를 운영하는 오세훈 '커피팟' 대표의 말이다. 과거 '독자'인 그가 보기에 한국 신문을 통해 접한 해외 비즈니스 소식은 단편적으로 느껴졌다. LX인터내셔널(LG상사), 알리바바 한국지사 등 직장 잘 다니던 회사원이 퇴사 후 '퍼블리'에 입사해 스타트업 업계에 발을 들였고 '해외 비즈니스' 소식을 전하는 '커피팟' 뉴스레터에 도전했다. 뉴스레터 구독자는 1만5000여명, 지난해 유료 구독에도 도전해 유료 구독자를 늘리고 있다. '커피팟'은 소개글을 통해 "변화하는 세상 속 비즈니스 뉴스의 '맥락'을 쉽고 재밌게 전합니다" "세상을 바꾸고 있는 기업과 비즈니스 이야기를 꾸준히 받아보세요"라고 강조한다. 뉴욕타임스의 낱맡 퍼즐게임 업체 워들 인수의 의미, 대체고기 시장 근황 업데이트, 인스타그램이 선보인 새 수익 프로그램의 의미 등의 해설 콘텐츠를 찾아볼 수 있다. ▲오세훈 커피팟 대표가 지난 14일 서울 중구 로컬스티치에서 인터뷰하고 있다. 사진=박서연 기자.해설은 '쉬운 내용'과 '풍부한 맥락'을 강조한다. 인스타그램의 크리에이터를 위한 새 수익화 프로그램을 설명하며 다른 소셜미디어 사업자들의 수익 프로그램 현황과 경쟁 구도, 인스타그램의 차별 포인트 등을 함께 짚어내는 식이다. '커피팟'은 부분 유료화 서비스로 운영하고 있다. 매주 화요일 보통 세 가지 주제로 구성된 무료 뉴스레터를 발행한다. 월 6000원의 '샷 추가'(유료구독) 요금을 내는 유료 구독자들에겐 금요일을 포함해 일주일에 최대 두 차례 유료 구독자 전용 뉴스레터를 보낸다. 2년 전 혼자 뉴스레터 사업에 뛰어들었던 그는 현재 4명의 프리랜서 필진들과 함께 콘텐츠를 제작한다. 지난해 11월 이메일 뉴스레터 서비스를 운영하는 '스티비'로부터 투자를 받기도 했다. 오세훈 대표를 지난 14일 서울 소공동 '커피팟' 사무실에서 만나 '커피팟'의 전략을 들었다. -과거 기업에서 일했다고 들었다. "2010년 LG종합상사에 입사해 5년 정도 자원과 원자재 사업개발 부문 일을 했다. 2015년쯤 디지털 쪽으로 전환을 하고 싶다는 생각을 했다. 이후 서울대 글로벌 MBA에 진학했고, 퇴사 후 알리바바 한국지사에서 B2B e커머스 사업개발을 맡아서 디지털 부문에 발을 디뎠다. 당시엔 스타트업 붐이 일어날 때였다. 스타트업 쪽으로 커리어를 전환하고 싶다고 생각이 다시 들어 '퍼블리'에 입사했다. 비교적 초기에 입사해 콘텐츠 프로젝트매니저 역할을 했다. 이후 항공 스타트업인 '에어 프레미아'에도 입사해 마케팅 업무를 했다. 마케팅 일을 하며 경력을 쌓다 보니 콘텐츠 서비스를 직접 운영해보고 싶다는 생각까지 들게 됐다." -왜 많은 소재 중 '해외 비즈니스'를 선택했나. "원래 관심이 많았다. 과거에 해왔던 경력들을 돌아보면, 일을 하면서 자연스럽게 생각하게 된 것 같다. 해외 콘텐츠는 일하는 데 있어 정보의 원천이었다. 직장 생활을 하던 2010년 당시에도 맥킨지, 베인 컨설팅 등 해외에서 좋은 리포트를 발행하는 연구기관과 시장조사 업체가 많았다. 뉴욕타임스, 가디언 등 해외 매체들도 구독했다. 좋은 정보들이 많은데 사람들이 직접 찾아보지 않으면 알 수 없는 내용이었다. 이 정보들을 다른 사람들에게 공유하면 업무에 큰 도움을 줄 수 있을 것 같았다. 적합한 양식을 만들고 매주 정기적으로 리포트를 만들어 보고했다." ▲커피팟 홈페이지 화면 갈무리.-기존의 해외 비즈니스 관련 콘텐츠에서 부족함이 느껴졌던 걸까. "시기적으로 보면 위워크, 우버와 같은 사업 모델들이 해외 시장에서 빠르게 자리잡고 있었지만, 한국 대중들에게는 쉽게 이해가 되지 않았다. 그래서 쉽게 설명해주면서 이 사업 모델은 '이래서 성공할 수 있었다'는 식의 정보를 제공하는 서비스가 있으면 좋지 않을까 생각했다. 유용한 정보들은 해외 매체들을 통해 나왔는데, 우리나라에서도 공급하는 서비스가 있으면 좋겠다고 생각했다. (한국) 신문에도 당시 위워크, 우버를 소재로 한 기사들이 있었다. 하지만 명확하게 무슨 사업 모델로 어떻게 성장하고 있는지 명쾌하게 설명되지는 않았다. 명쾌하게 설명을 해주면 사람들이 좋아하지 않을까하는 생각이 들었다. 분명 니즈가 있었다." -2020년 1월 첫 발행 후 2년이 흘렀다. "현재 뉴스레터 무료 구독자는 1만5000명이 넘는다. 오픈률이 중요한데, 40%에 가깝다. 유료구독 시스템은 지난해 5월 시작해 꾸준히 증가하고 있다. 마케팅을 별도로 한 적 없고 순전히 입소문만으로 확장해 가고 있다. 월별 리텐션률(기존 고객이 빠져나가지 않고 잔류하는 비율)이 90%가 넘는다. 유료구독자가 폭발적으로 증가할 순 없지만, 우리 뉴스레터에 꾸준히 만족감을 느끼고 있다고 생각한다." -처음 유료구독 서비스를 시작할 때 반응은 어땠나. "6개월 이상 꾸준히 구독하는 '커피팟' 무료 구독자 20명을 대상으로 조사했다. 먼저 '이 콘텐츠가 없어도 괜찮냐'고 물었다. 일과 삶에서 좋은 결과를 만드는 영향을 끼쳐야지만 유료구독에 이르게 된다고 생각해서다. '돈을 내고 구독할 수 있냐'고 물었더니 절반 이상의 응답자는 '돈을 내야 하면 다른 콘텐츠를 찾아 읽어야겠다'고 응답했다. 나머지 절반 가량의 분들은 '커피팟'의 대체재를 찾지 못할 것 같다며 유료구독을 할 의사가 있다고 답했다. 지난해 5월부터 유료 구독을 적용하기 시작했다. 화요일은 무료로 제공하고, 유료구독자에겐 주별로 1~2일 유료 전용 뉴스레터를 제공한다." -주 독자층은 어떻게 되나. "20~30대의 직장인이다. 주로 20대 중반에서 30대 후반의 일하는 사람이라고 정의하고 있다. 레퍼런스가 필요한 실무자, 아니면 본인이 받은 보고를 분석해야 하는 팀장급, 어떤 결정을 내릴 때 참고자료를 찾아야 하는 스타트업 임원이나 대표들, 꾸준히 학습하는 분들, 적극적으로 정보를 찾는 분들, 생활에서 주도적으로 결정을 내리려고 하는 사람들이 있을 것 같다." -유통, 소셜미디어, 스타트업 등 다양한 주제를 다룬다. 주제는 어떻게 선정하나. "'커피팟'은 큰 변화가 일어나는 흐름을 맥락을 놓치지 않고 설명한다. 예를 들어 페이스북과 구글이 광고정책을 바꾸면 어떻게 변화하는지 쉽고 맥락을 풍부하게 설명하는 게 목적이다. 분야별로 보면 페이스북, 아마존, 알파벳 등 빅테크 업체들, e커머스로 인한 전통 리테일 사업의 변화, 기후위기로 인해 생기는 신사업 등이 해당한다. 미디어도 마찬가지로 큰 변화가 일어나고 있다. 이처럼 기존 기업에 대한 분석보다는 새로운 변화가 만들어지는 흐름들 속에서 기업과 기업의 비즈니스를 전하는 게 중점이다." -콘텐츠 내용 측면에선 어떤 차별성이 있을까. "차별성보다는 독자들에게 생소한 내용이라 할지라도 맥락을 놓치지 않게 설명하는 게 장점이라고 생각한다. 우리는 파편화된 내용을 전달하는 서비스가 아니다. 맥락을 담고 한 이슈를 꾸준히 전하고 있으니, 꾸준히 읽다 보면 현상을 이해하는 데 도움이 되는 콘텐츠가 될 것이다. 한 자 한 자 꾹꾹 눌러서 쓰고 있다. 본문 내용과 연관된 콘텐츠들을 꼭 링크로 담고 있는데, 링크 오픈률도 높다." -필진은 얼마나 되나. "지난해 11월까지는 혼자서 다 했다. 투자(스티비로부터)를 받고 '커피팟 라이터' 필진 섭외를 시작했다. 현재는 4명이 프리랜서 라이터로 활동하고 있다. 각 분야에서 어떤 새로운 흐름이 일고 있는지, 중요한 내용이 뭔지, 해외에서 어떤 변화가 일어나는지 캐치해줄 수 있는 분들이 섭외 기준이다. 이분들이 전기차, 벤처캐피털, 크리에이터 경제, 미디어 등 분야 관련 콘텐츠를 쓰고 있다. 새로운 흐름을 캐치해서 이야기해줄 수 있는 사람들 중에서 현업에 실제로 종사하는 분들로 구성돼 있다. 각각 배터리 업체, 벤처캐피털 회사, 원래 스타트업에서 테크니컬 라이터를 했던 프리랜서, 뉴미디어와 콘텐츠 비즈니스에 종사하고 있는 분들로 닉네임으로 활동하고 있다. 지금은 핀테크 분야를 담당할 분을 찾고 있다." ▲스티비 홈페이지화면 갈무리.-콘텐츠마다 평가할 수 있게 했다. 기억에 남는 피드백이 있나. "우리와 같은 작은 스타트업에겐 정성스럽게 유효한 평가를 남겨주는 것 하나 하나가 좋은 데이터베이스가 된다. 한 분은 디자이너인데 디자인 정보 외에 세상이 어떻게 돌아가는지 흐름을 이렇게 잘 캐치해서 보여준 서비스는 처음이었다고 평가하며, 인사이트를 얻고 영감을 받는다고 하셨다. 다른 한 분은 e커머스에서 어떤 일을 할지 고민하던 중이라 관련 산업이 어떻게 돌아가는지 알아야 한다고 생각해 구독을 시작했는데, 취업 준비하면서 도움을 많이 받고 있다고 했다." - 유료구독 외의 수익 모델은 있나. "현재 유료구독 수익 외에도 B2B 사업으로 인한 수익이 있다. 토스피드라는 토스의 콘텐츠 플랫폼과 계약을 맺고 '커피팟'이 이미 발행한 콘텐츠를 바탕으로 한 달에 2~3편씩 발행한다. 토스에 많은 이들이 접속을 하니 '커피팟'이 보다 많은 사람들한테 다가가는 차원에서 서비스하고 있다. 내용 측면에선 뉴스레터 구독자 분들에게 서비스하는 것과 충돌이 일어나지 않게 조정하고 있다." -서비스를 운영하면서 가장 어려운 점은 뭔가. "본질이 콘텐츠라고 생각한다. 정성스러운 콘텐츠를 만드는 게 가장 어렵다. 좋은 콘텐츠를 만드는 법칙이 만들어지기 굉장히 어려우니 앞으로도 계속 극복해내야 하는 과제다. 불과 몇 개월 전에 적용된 콘텐츠의 깊이가 현재엔 유효하진 않다. 이런 면들이 당장 드러나지는 않아도 독자들에겐 티가 날 것이다. 이와 관련해서 같이 서비스를 만들고 팀을 키워나갈 동료분들을 찾고 있다." - 앞으로의 목표는. "저는 이메일 뉴스레터를 읽는 분들을 고객이라고도 표현한다. 고객의 습관으로 자리 잡으면 소중한 참고자료가 될 수 있을 거라고 생각한다. 뉴스레터를 통해 필요한 정보를 전달받는 분들의 저변이 커져가고 있다고 생각한다. 이 가운데 중심적인 역할을 하는 서비스가 되는 게 '커피팟'의 목표다."</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>[단독] 보험판매대리점 1위 피플라이프, 새주인 찾는다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004668186?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>코로나로 GA 대면영업 타격수익악화 우려에 매각 나선 듯몸값 최대 3000억원 거론토스·대형보험사 등 인수 검토▶마켓인사이트 2월 25일 15시20분4000여 명의 설계사를 보유한 국내 1위 독립계 보험판매대리점(GA)인 피플라이프가 매물로 나왔다. 코로나19 여파로 오프라인 대면 영업에 타격을 입은 데다 한화생명 미래에셋생명 등 대형 보험사들이 잇따라 GA 시장에 진출하면서 수익성이 크게 악화하고 있기 때문으로 풀이된다. 토스 등 보험 시장에 신규 진입하려는 테크 기업 등이 피플라이프 인수에 관심을 보이고 있는 것으로 알려졌다.25일 투자은행(IB)업계에 따르면 피플라이프는 경영권 매각을 결정하고 잠재 인수 후보들에게 회사 소개가 담긴 ‘티저 레터’를 배포했다. 매각 주관사는 도이치뱅크가 맡았으며 희망 몸값은 3000억원 수준인 것으로 전해졌다.주주 구성을 살펴보면 삼성생명 출신 창업자인 현학진 회장 및 특수관계인이 62.9%의 지분을 보유하고 있다. 재무적투자자(FI)인 코스톤아시아가 32.2%, 푸본현대생명이 4.9%를 갖고 있다. 현 회장과 FI 지분을 포함한 100% 지분이 매각 대상이다.티저 레터에 따르면 피플라이프는 2020년 6월부터 지난해 6월까지 1년간 매출 3190억원, 상각전영업이익(EBITDA) 340억원을 기록했다. EBITDA는 전년 동기(200억원) 대비 70% 증가했다. 전국 오프라인 지점 수는 189곳으로 국내 최대 규모의 대면채널을 보유하고 있다.하지만 코로나19 사태로 대면 영업에 큰 타격을 입은 데다 지난해 한화생명과 미래에셋생명 등이 자회사형 GA법인을 설립하는 등 경쟁이 치열해져 결국 매각을 선택한 것으로 풀이된다. 소속 설계사 1만8000여 명을 보유한 한화생명금융서비스는 지난해 4월 출범하자마자 GA 업계 1위로 올라섰다.피플라이프의 인수 후보로는 국내 대형 생명보험사 및 국내외 사모펀드(PEF) 운용사 등이 거론된다. 최근 들어 자회사 토스인슈어런스 등을 통해 GA 영업망을 늘리고 있는 토스(비바리퍼블리카) 등도 인수 여부를 검토 중이다. 토스는 올해 초 100여 명의 설계사 채용에 나서는 등 대면 영업을 확대하고 있다.한 IB업계 관계자는 “토스 등 테크 회사들이 규제 강화 등 영향으로 오프라인 영업망을 구축하기 시작하면서 매각 측에선 기회라고 판단했을 것”이라며 “토스 입장에서도 가격만 적당하다면 M&amp;A로 단기간에 사업 기반을 확충할 수 있을 것”이라고 말했다.최근 독립계 GA회사들이 잇따라 상장이나 매각에 성공한 점도 한몫했다는 평가다. 리치앤코는 JC파트너스에 약 1900억원에 매각됐고 인카금융서비스는 연초 코스닥시장 상장에 성공했다.피플라이프는 현 회장이 2003년 설립한 국내 최대 규모의 독립계 GA로 조인성·현빈 등 유명 배우를 모델로 기용하는 등 공격적인 영업으로 사세를 키웠다. 업계 최초로 설계사를 전원 정규직으로 채용해 화제가 되기도 했다. 2019년 PEF인 코스톤아시아로부터 조달한 투자금으로 오프라인 점포를 500곳까지 확대한다는 청사진을 세웠으나 코로나 위기로 결국 좌절됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>한화투자證, 토스뱅크 주식 추가 취득…'디지털 투자' 확대</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000134104?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>취득 후 지분율 10.0%(1700만주)로 확대한화투자증권이 토스뱅크 유상증자에 참여해 주식 600만 주를 취득한다고 22일 공시했다. /더팩트 DB한화투자증권이 토스뱅크 유상증자에 참여해 주식 600만 주를 취득한다고 22일 공시했다.취득금액은 300억 원이며 이는 자기자본대비 2.4%에 해당하는 규모다.취득 후 한화투자증권의 지분율은 8.86%에서 10.0%(1700만주)로 확대된다. 취득 예정일자는 오는 24일이다.앞서 한화투자증권은 지난 2019년 3월 247억5000만 원을 투자하며 토스뱅크 컨소시엄에 주요 주주로 참여한 바 있다. 또한 지난해 10월에도 300억 원을 들여 토스뱅크의 보통주 450만 주와 전환주 150만 주를 매입했다.회사 측은 "증권업 본업과의 시너지 효과 및 수익 다각화를 위한 것"이라고 취득 배경에 대해 밝혔다.한편, 한화투자증권은 지난해 1분기 퀄컴으로부터 두나무의 지분을 취득하면서 '디지털 투자'에 발을 넓혀가고 있다. 지난해 3분기 한화투자증권의 보고서에 따르면 한화투자증권은 두나무 지분 6.14%(206만9450주)를 보유 중이다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>팀윙크, 플랫폼 알다 통해 개인회생자대출 첫 선</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004924461?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>◆ 핀테크가 바꾸는 세상 / 간편대출 ◆  팀윙크는 대출 비교 플랫폼 '알다'를 서비스하는 핀테크 스타트업이다. 금융생활의 불편을 해결하고 '누구나 눈탱이 맞지 않는 금융 세상'을 만들겠다는 비전을 갖고 있다. 2019년 금융위원회 혁신금융서비스, 지난해 마이데이터 사업, 대출 상품 판매·대리 중개업, 온라인 대부중개업 등 라이선스를 차례로 취득했다.알다는 대출 비교, 부채 관리, 신용 관리 등을 제공하는 대출 특화 마이데이터 서비스다. 2018년 처음 선보인 이래 누적 다운로드 건수 150만건을 기록했다. 알다 이용자는 자신이 보유한 대출을 한눈에 관리하고, 대출이 필요할 때 편리하게 조건을 비교할 수 있다. 꾸준한 관리와 간편한 비교를 통해 이자 부담을 줄이고 실제 사용할 수 있는 소득을 늘릴 수 있다. 이자 재테크, 이른바 '론테크(Loan-Tech)'가 가능해지는 것이다.알다의 대표 서비스는 실시간 대출 비교다. 대출 수요자가 가장 유리한 조건으로 이용할 수 있는 대출을 추천해 준다. 은행에 방문할 필요 없이 알다 애플리케이션(앱)에서 대출 목적, 직업, 연소득 등 몇 가지 정보를 입력하면 2~3분 안에 알다와 연계된 금융사 대출 상품들을 비교할 수 있다.알다는 다른 플랫폼에 비해 다양한 업권의 대출 상품을 다룬다. 은행·저축은행·캐피털 대출 상품과 더불어 개인회생자대출, P2P(온라인 투자 연계 금융업)대출, 대부 상품 등을 함께 제공한다. 특히 지난해 9월 대출 비교 플랫폼 최초로 개인회생자대출을 선보여 주목받은 바 있다. 현재 알다에서 실시간 대출 조건을 비교할 수 있는 제휴 금융사는 27곳이다.알다는 대출 비교 서비스와 함께 개인신용평점 관리를 위한 신용관리 서비스를 제공한다. 2018년에는 핀테크 업계 최초로 신용평가사 코리아크레딧뷰로(KCB)와 제휴해 '신용 올리기' 서비스를 출시했다. 알다 앱을 통해 국민연금·건강보험·통신비 납부 내역 등을 제출하면  KCB는 해당 내역을 평가해 다음날까지 개인신용평점에 반영한다.팀윙크는 지난해 토스, 카카오페이 등 빅테크 기업과 함께 마이데이터 1기 사업자로 선정됐다. 마이데이터를 기반으로 더욱 고도화된 부채 관리 서비스를 선보일 예정이다. 이와 더불어 팀윙크는 대안신용평가 모형인 '알다리빙스코어'를 대출심사에 반영하는 것을 추진하고 있다. 대안신용평가는 전통적인 금융정보 이외 정보로 신용을 평가하는 기법이다. 팀윙크가 보유한 알다리빙스코어는 사용자의 소비 내용을 기반으로 만든 모형이다. 팀윙크는 다양한 금융 마이데이터를 수집·결합·분석해 실질적인 금융 혜택을 제공할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>매일유업, ‘앱솔루트 명작 액상’ 리뉴얼 출시</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002577207?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>자기방어 체계 형성하는 2FL, 모유 올리고당 중에서도 가장 비중 높아ⓒ매일유업[데일리안 = 최승근 기자] 매일유업의 조제식 국내 판매 1위 브랜드 앱솔루트가 엄마의 선물 프리미엄 명작을 액상 형태로 새롭게 출시했다고 18일 밝혔다.앱솔루트 엄마의 선물 프리미엄 명작(이하 앱솔루트 명작)은 지난해 국내 최초로 모유 올리고당 2FL(2’-O-fucosyllactose, 투에프엘)을 적용해 업그레이드했다.아기의 자기방어 체계를 형성하는 2FL은 모유에서 세 번째로 많은 영양 성분인 모유 올리고당(HMO, Human Milk Oligosaccharide) 중에서도 가장 높은 비중을 차지하는 성분이다.매일유업은 생후 24개월까지는 아기의 자기방어 체계 형성에 매우 중요한 시기라는 점에 주목, 앱솔루트 명작 액상에도 앱솔루트 명작과 동일하게 2FL을 적용해 리뉴얼했다. 이와 함께 두뇌와 눈을 위한 영양성분을 배합했다.리뉴얼 앱솔루트 명작 액상은 자기방어를 위한 핵심 성분 2FL을 비롯, 모유 올리고당의 일종인 갈락토실락토스(GL), 사이알릭락토스(SL)까지 함유하고 있다.여기에 두뇌를 구성하는 성분 DHA와 MFGM(유지방구막), 체내에서 합성되지 않아 외부로부터 섭취해야 하는 황반 구성 물질 루테인과 지아잔틴도 더했다.원료는 뉴질랜드 자연방목으로 풀을 먹고 자란 젖소의 우유로 만든 Grass-Fed 인증 원료를 사용했다.리뉴얼된 앱솔루트 명작 액상은 매일유업 네이버 브랜드 스토어를 비롯한 주요 온라인 쇼핑몰에서 구입할 수 있다. 오프라인 대형 마트 등에도 순차적으로 입점될 예정이다.이번 리뉴얼 제품은 아기의 성장단계에 따라 1단계(0~6개월), 2단계(6~12개월), 3단계(12개월~24개월) 총 3종으로 분말 제품과 동일하게 월령과 단계를 구분해 출시된다.매일유업 관계자는 “아기의 자기방어 능력은 물론 두뇌·눈 구성 성분까지 고려한 앱솔루트 명작의 핵심 성분을 액상 제품에까지 확대 적용함으로써 보다 많은 분들의 기대에 부응할 수 있게 됐다”며 “앱솔루트 명작 액상은 쉽고 간편한 액상 분유를 찾는 고객 여러분에게 육아의 부담은 덜고 영양은 더한 좋은 선택지가 될 것”이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>지난해 글로벌 핀테크 투자 건수 '사상 최대'…1년 전보다 51%↑</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012993442?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>투자액 2천101억달러, 68%↑…케이뱅크·토스, 투자유치 상위 기록 핀테크[게티이미지뱅크 제공]    (서울=연합뉴스) 김유아 기자 = 블록체인과 가상자산에 대한 관심이 커지면서 지난해 전 세계에서 거래된 핀테크 투자 건수가 사상 최대치를 기록한 것으로 나타났다.    삼정KPMG에 따르면 세계적인 회계법인 KPMG는 17일 발간한 보고서 '2021 핀테크 동향 보고서'를 통해 지난해 글로벌 핀테크 투자 건수는 5천684건이었다고 밝혔다. 이는 전년(3천764건)보다 51% 증가한 수치로, 사상 최대치다.     투자액은 2천101억달러로 전년(1천249억달러) 대비 68% 늘었다.    가장 많은 투자금이 몰린 분야는 기업간거래(B2B) 후불 결제 등 지급 결제로, 517억달러를 유치했다.블록체인/가상자산 관련 글로벌 총 투자활동 추이[삼정KPMG 제공. 재판매 및 DB금지]    블록체인과 가상자산(302억달러), 사이버보안(48억달러), 자산관리(16억달러) 분야에 투자된 금액은 사상 최대를 기록했다.     블록체인 및 가상자산 기술에 대한 투자액은 2020년 55억달러에서 449% 급증했다. 투자 건수는 927건에서 1천332건으로 43% 증가했다.    보고서는 "금융 시스템에서 가상자산의 잠재적 역할과 이를 활용한 기술에 대한 인식이 높아지고 있음을 의미한다"고 밝혔다.    핀테크에 대한 벤처캐피탈(VC) 투자도 2020년 462억달러에서 2021년 1천149억달러로 두 배 이상 증가하며, 2018년 최고치(532억달러)를 넘어섰다.    보고서는 또 한국의 케이뱅크(11억달러)와 토스(4억1천만달러)는 아시아태평양 지역에서 각각 11억달러, 4억1천만달러 투자금을 모으며, 투자 유치 순위에서 상위를 기록했다고 전했다.    삼정KPMG 핀테크 리더 조재박 전무는 "코로나19 팬데믹 상황에서도 핀테크에 대한 투자 열기가 뜨거웠다"라며 "향후 금융과 비금융의 합종연횡, 슈퍼 앱으로 진화를 위한 지급 결제 및 플랫폼 업체 인수합병, 블록체인 기술 활용에 대한 기대감 등에 따라 글로벌 핀테크 투자가 지속될 것"이라고 강조했다.    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>토스서 KT알뜰폰 가입 가능해진다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002248312?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>앱 내 입점…개통 시 토스인증서 활용토스를 운영하는 비바리퍼블리카가 KT와 업무협약을 체결, KT알뜰폰 가입을 토스 애플리케이션(앱)에서도 할 수 있게 된다고 22일 밝혔다.토스 앱 내에서 KT 알뜰폰 비대면 개통 서비스가 입점되는 형식이다.개통 시 토스인증서를 활용하며, 토스 앱 뿐만 아니라 KT알뜰폰 사업자 온라인몰에서도 토스인증서를 통해 휴대전화 가입이 가능하다. 토스인증서 및 본인확인 서비스는 KT 알뜰폰 사업자 온라인몰에 순차적으로 적용될 예정이다.토스 관계자는 "토스인증서는 지난해 11월 전자서명인증사업자 지위를 획득했다"며 "이번 KT 알뜰폰 서비스의 토스인증서 도입을 계기로 다양한 영역으로 토스인증서 및 본인 확인 서비스를 확대해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>SC그룹 “한국은 전략적 요충지”… 외국계 은행 한국 이탈 현상과 반대 행보</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000796138?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>“한국은 우리 그룹에게 전략적 시장이다. 우리의 핵심 시장이고, 무역 흐름 면에서도 매우 중요하다.”25일 금융업계에 따르면, 빌 윈터스 스탠다드차타드(SC)그룹 회장(CEO)은 최근 공식석상에서 ‘한국’을 거론하며 이같이 말했다. 이는 지난 주 열린 SC그룹의 2021년 결산 실적 관련 콘퍼런스콜에서 한 증권사 애널리스트가 ‘한국 시장에서 목표는 무엇이며, 경쟁 은행들이 있는 상황에서 한국에서 향후 기회가 있다고 보느냐’는 물음에 대한 답변이었다.빌 윈터스 SC그룹 회장.        지난해 한국씨티은행이 소매금융 청산을 선언하면서 외국계 은행들의 잇따른 국내 철수가 조명됐는데, SC제일은행(한국스탠다드차타드은행)의 모기업인 스탠다드차타드(SC)그룹의 한국 시장에 대한 전략과 시각은 다소 다르다는 분석이다. 영국 런던에 본사를 둔 스탠다드차타드(SC)그룹은 세계 59개국에 진출해있는 글로벌 금융 조직으로, 지난 2015년 제일은행을 인수했다.이날 벤 헝 SC그룹 아시아 총괄 대표(CEO)는 “전략적으로 한국은 한국 외의 시장과 연관성이 많이 구축돼 있다”면서 “특히 최대 무역 통로인 한·중, 한·아세안 무역이 매우 큰 비중을 차지하고 있다”고 말했다. 또 그는 “한국이 약 10%의 유형자기자본이익률(RoTE)을 달성할 수 있을 것”이라고 밝혔다.SC그룹은 현재 한국을 전략에 따라 성과가 나오는 사례로 평가하고 있다. 빌 윈터스 회장은 “한국에서 진행 사항들을 매우 면밀히 살펴보고 있다”면서 “한국 시장에서 극적인 변화가 있었고, 한국은 좋은 사례연구(case study) 대상”이라면서 “한국은 분명 좋은 사례라고 할 수 있다”고 말했다.지난 2019년 SC그룹은 실적 발표를 하면서 조직 차원에서 대한민국, 인도, 인도네시아, UAE 등 4개국을 ‘최적화 시장’으로 꼽았다. 이는 4개국에서의 경영 성과가 기대치보다 저조해, 실적 개선을 위한 전략이 필요하다는 의미였다. 이후 2년 만에 한국 시장에서 의미있는 성과가 나오고 있다는 긍정적 진단이 나온 셈이다.실제 SC그룹에 따르면, 한국과 인도 SC은행의 지난해 성장률은 각각 12%, 53%를 기록했다. 소매금융(CPBB)의 발전과 지점 최적화, 생산성에 대한 지속적인 집중의 결과라는 게 그룹 측 얘기다. 그룹과 별도로 SC제일은행이 전년도 실적을 발표할 예정이나, SC그룹이 밝힌 지난해 한국 시장 영업이익은 전년 대비 5.2% 늘어난 11억달러, 우리나라 돈으로 약1조3249억원을 기록했다.시장에서는 SC그룹 회장의 이번 언급이 SC제일은행 매각 및 국내 철수 등 시장 일각의 의구심을 불식시키는 대목이라는 해석도 나온다. 지난해 한국씨티은행을 비롯해 외국 은행들이 잇따라 국내 시장에서 철수하자, 시장 일각에서는 ‘SC그룹도 SC제일은행의 매각을 고려하고 있다’, ‘한국 시장에서 소매금융을 철수할 것’이라는 등의 의심이 제기되기도 했다.금융업계 한 관계자는 “이번 한국에 대한 언급을 보면 SC그룹이 SC제일은행 매각 및 국내 철수를 고려하고 있지 않은 것으로 본다”고 말했다.최근 SC그룹은 한국 시장에 ‘선택과 집중’ 전략을 펼치며, 경쟁력 강화에 보다 열을 올리는 행보를 보이고 있다. 씨티은행이 소매금융 사업을 폐지하면서 국내에서 소매금융을 영위하는 외국계 은행은 SC제일은행이 유일해진 상황이기도 하다. 이런 변화 속 SC제일은행은 특화점포를 개설하고, 자산관리(WM)사업 분야에 역량을 집중하고 있다.SC제일은행은 지난해 7월 안양지점과 세종지점을 개소한 데 이어 그해 12월 부산 해운대구 랜드마크인 주상복합단지 엘시티에 자산관리(WM) 특화점포인 영업점과 PB센터를 열었다. SC제일은행은 지속적으로 특화점포를 늘려나간다는 계획이다. 올해는 은행 자회사인 SC증권을 결합한 복합점포를 개소해, 은행과 증권 상품을 함께 판매하며 자산관리 서비스를 제공할 예정이다.SC제일은행은 국내 세 번째 인터넷전문은행인 토스뱅크에 투자하기도 했다. 25일 기준 현재 SC제일은행의 토스뱅크에 대한 의결권 기준 지분율은 8.32%로, 2020년(6.67%)보다 지분율이 확대됐다. SC제일은행 관계자는 “토스뱅크에 대한 지분 투자는 디지털 금융 등 채널 다변화를 위한 취지”라면서 “토스뱅크와 전략적 파트너로서 다양한 협업을 위한 논의를 이어가고 있다고 말했다.SC그룹은 올해 중국 개방의 기회를 노리는 한편, 홍콩과 싱가포르에서 시장 지위를 강화하고, 한국, 인도, 인도네시아 프랜차이즈를 재편해 수익률을 개선하겠다는 전략이다. SC제일은행 관계자는 “올해 디지털 뱅킹과 중산층까지 확대한 자산관리 서비스, 기업 금융에 더욱 집중할 계획”이라며 “글로벌 경쟁력을 갖춘 기업금융을 더 공고히 발전시키고, 소매금융 자산관리 부문의 차별성과 강점을 키워나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>"인재 꽉 붙잡아라" 복지혜택 쏟아내는 핀테크</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004020103?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>핀다, 올해 200명까지 인력 규모 확대 예정1년 이상 근무자 최대 1억원까지 무이자로 대출토스, 겨울방학 제도·무제한 휴가제 운영[서울경제] 핀테크 기업들의 성장성이 부각되면서 관련 기업들의 채용 열기가 뜨겁다. 우수 인재 영입을 위해 전 직장 대비 연봉의 1.5배를 주거나 스톡옵션을 제공하는 등 경제적인 유인책은 물론 다양한 복지 혜택을 선보이며 채용에 앞장서고 있다.17일 업계에 따르면 대출 비교 플랫폼 서비스를 제공하는 핀테크 기업 핀다는 현재 지난해 1월 대비 조직규모를 3배 이상 키웠으며, 올해 200명 규모로 조직을 키운다는 계획이다. 핀다는 테크·재무·마케팅 부문에 각각 최고책임자를 영입하며 조직 규모 확장에 본격적으로 나섰다. 현재 △백엔드 △웹프론트엔드 △안드로이드 △iOS △DevOps △프로덕트디자인 △콘텐츠 마케팅 △CRM 등 19개 포지션에서 130명 넘게 채용 중이다.특히 핀다는 올해부터 입사자가 자신의 보상체계를 스스로 디자인할 수 있는 ‘핀다 커스텀 패키지’ 제도를 도입했다. 계약 연봉 외에도 신규 입사자에게 주는 사이닝 보너스와 재직 기간 지급하는 리텐션 보너스를 원하는 비율로 구성할 수 있는 것이다. 핀다 관계자는 “그동안 입사를 희망하는 지원자들과 처우 협의를 하는 과정을 통해 제도화될 필요가 있다고 생각해 도입하게 됐다”고 설명했다. 해당 패키지는 개발 및 데이터 시니어 직군부터 적용되며, 추후 내부 조직 강화가 필요한 직군에 우선적으로 적용된다.복지제도도 대폭 강화했다. 1년 이상 근무한 직원의 주택 마련 자금을 최대 1억원까지 무이자로 빌려준다. 또 코로나19 상황과 관계없이 주 2회 리모트근무 제도를 도입했고, 재택 환경 조성을 위한 개인 업무 장비 구매 비용을 120만원까지 지원한다. 재직 연수에 따라 연 1회, 최대 3주 단위로 집과 사무실이 아닌 원하는 곳에서 일할 수 있는 워케이션 제도와 3년마다 주어지는 2주 간의 리프레시 휴가 등을 시행하고 있다.토스의 경우 현재 토스(비바리퍼블리카) 기준 116개 직군의 채용이 진행 중으로, 개발(엔지니어링) 직군 약 20개, 디자인, 데이터, 인사 등 다양한 직군에서 인재를 모집 중이다. 전 직장대비 최대 1.5배 연봉을 받을 수 있는 것은 물론 지원 포지션에 따라 스톡옵션도 부여된다. 특히 토스에서는 올해부터 포괄임금제를 폐지하고 주 4.5일 근무제와 겨울방학 제도를 정식으로 도입했다. 포괄임금제란 법정 표준 근무시간인 주 40시간을 초과한 근무시간에 대해서는 연봉 외 별도 수당을 지급하는 것이다.또 성탄절을 전후로 약 10일 동안 고객센터 등 일부 필수 인력을 제외한 전 사원이 쉬는 겨울방학도 정례화한다. 토스는 개인별 연차 개수가 정해진 것이 아니라 원하는 대로 쉴 수 있는 무제한 휴가제를 운영하고 있다. 아울러 토스는 직원들이 안심하고 회사를 다닐 수 있도록 그동안 운영해 온 스트라이크 제도와 3개월 리뷰 과정 등을 폐지했다. 이러한 인사 제도의 변화는 강경한 평가제도로 인재 유출이 이어진다는 비판을 의식한 것으로 풀이된다.국내 최초로 데이터 기반의 자산관리 서비스 앱을 선보인 뱅크샐러드는 현재 9개 직군 36개 포지션에서 채용을 진행하고 있다. 개발 직군에 한해 전 직장 대비 1.5배 기본급을 인상해주고, 직책자에 스톡옵션을 부여한다. 유연근무제를 진행하고 있는 뱅크샐러드는 반기별로 휴일을 제공하는데, 재직 3년마다 안식휴가가 10일 부여된다. 근속연수나 나이와 상관없이 능력을 인정받으면 누구나 리더가 될 수 있다는 점도 능력 있는 구직자들의 눈길을 사로잡을 수 있다.인공지능(AI) 기반 비대면 투자일임 서비스인 ‘핀트(fint)’를 서비스하고 있는 디셈버앤컴퍼니자산운용은 현재 개발자, 디자이너, 마케터 등 21개 직군에서 채용 진행 중으로, 필요 인원 충원을 위해 지속적으로 채용을 이어나갈 계획이다. 핀트에서는 기본적으로 탄력근무제를 실시하고 있으며, 임직원 신뢰를 기반으로 출퇴근 시간은 별도로 기록하지 않고 있다. 지난해에는 코로나19 상황 속에서도 괄목할 만한 성과를 이룬 점을 고려해 전 직원 연봉을 평균 700만원 규모로 일괄 인상한 바 있다. 연봉 인상과 더불어 기존의 복리후생 제도도 확대 개편해 매년 360만원 상당 현금성 복리후생 포인트도 추가 지급하고 있다.다만 핀테크사에서는 신입보다는 경력 직원 중심으로 채용이 진행되고 있다. 신입 직원을 처음부터 육성할 여력이 크지 않은 만큼 바로 업무에 투입될 수 있는 경력직을 선호하는 모습이다. 핀테크 업계 관계자는 “유망 핀테크사 인재상의 공통점을 꼽자면 ‘원래 그런 것’을 의심하는 태도”라며 “다양한 경력을 지닌 이들이 한 곳에 모여 혁신 서비스를 만드는 과정에서 그동안 해왔던 방식이 아닌 색다른 관점으로 문제를 해결하고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>인터넷전문은행, 지난해 중·저신용자 대출 비중 목표치 미달</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000796157?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>케이뱅크 16.6%·카카오뱅크 17%·토스뱅크 23.9%        카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행들이 지난해 중·저신용자 대상 신용대출 비중 목표치 달성에 실패했다.5일 각 은행이 은행연합회에 공시한 ‘중·저신용자 대상 신용대출 비중(잔액 기준)’에 따르면, 작년 12월 말 기준 카카오뱅크는 17.0%, 케이뱅크는 16.6%, 토스뱅크는 23.9%를 각각 기록했다. 앞서 이들이 제시한 목표 비중과 비교하면 카카오뱅크는 목표치보다 3.8포인트(P) 낮고, 케이뱅크는 4.9%P 낮다. 지난해 10월 출범한 토스뱅크도 목표치(34.9%)보다 11%P 낮은 수준이다.중·저신용자는 전체 가계 신용대출 중 KCB 기준 신용평점 하위 50%(820점 이하) 대출자를 의미한다. 지난해 금융당국은 인터넷 은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 비중 확대를 주문했다.인터넷전문은행 3사의 애플리케이션(앱). /조선비즈        물론 중·저신용자 신용대출 비중 확대에 열을 올리면서 중·저신용자 대출 비중이 늘긴 했다. 지난해 12월 말 기준 카카오뱅크와 케이뱅크의 중·저신용자 대출 비중은 전 분기 말 대비 각각 3.4%포인트, 2.9%포인트씩 증가했다.지난해 10월부터 영업을 시작한 토스뱅크의 중·저신용자 대출 비중은 이날 처음 공시됐다. 토스뱅크는 서비스를 시작한 뒤 대출 총량 규제에 부딪혀 9일 만에 신규 대출을 중단한 바 있다. 작년 대출 중단 시점을 기준으로 토스뱅크의 중·저신용자 신용대출 비중은 약 33%까지 도달했다가 이후 대출자들의 원리금 균등 상환이 이어지며 비중이 줄었다.올해 말 기준 중·저신용자 대출 목표치는 카카오뱅크와 케이뱅크가 각각 25%, 토스뱅크가 42%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>[금융라운지] "제2, 제3의 토스 발굴하자"…스타트업 기획사된 금융권</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004926181?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>전 세계 핀테크 유니콘(기업가치 10억달러 이상 비상장사) 중 유일한 한국 기업인 비바리퍼블리카(토스)는 요즘 제2의 토스, 제3의 토스를 육성하는 데 한창 바쁘다. 국내외 유망 스타트업 3곳을 뽑아 총 10억원을 지원하는 스타트업 경진대회 '파운드(FOUND)'를 진행하고 있다. 올해 상반기 중에 선발된 최종 우승팀 3곳에 총 10억원 규모 투자가 차등적으로 이뤄지며, 성장 코칭과 파트너십 등 혜택이 주어진다. 최근 금융회사들의 스타트업 지원·육성 프로그램이 더욱 활발해지고 있다. 기업의 사회적 책임을 다하는 데 더해 전략적 차원도 있다. 유망한 기업에 일찍 투자하고 관계를 계속 유지하며 동반성장하겠다는 것이다. 신한금융그룹은 지난 7일부터 한 달간 스타트업 육성 플랫폼 '신한 스퀘어브릿지'에서 함께 성장할 스타트업을 모집하고 있다. 그룹의 중장기 혁신금융 플랫폼 구축 사업인 '트리플 K 프로젝트'의 일환으로 서울, 인천, 제주 등 전국 단위로 신한 스퀘어브릿지를 만들어 운영하고 있다. 신한금융은 이번에 오픈 이노베이션, 인큐베이션, 글로벌 등 3개 트랙에서 총 81개사를 선발할 계획이다. 업무용 공간 무상 임차, 전용 펀드 투자, 사업 컨설팅 등을 제공한다. 소상공인 매출 관리 서비스 '캐시노트'를 운영하며 8000억원의 기업가치를 인정받는 한국신용데이터(KCD)는 금융회사와 스타트업의 상부상조 모범 사례다. KCD는 우리은행 스타트업 육성 프로그램 '위비핀테크랩'과 KB금융그룹 'KB이노베이션허브' 지원을 받으며 사업을 고도화했다. KCD는 우리은행과 협력해 '우리 캐시노트 플랫폼 전용 대출'을 출시하는 등 관계를 이어가고 있다. 이 밖에도 하나은행, IBK기업은행 등이 스타트업을 지원하고 필요시 그들의 기술을 도입해 활용하며 협력하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.02.24.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3천억원 유상증자</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002248593?sid=105</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>출범 후 두 번째…신규 주주로 웰컴캐피탈 합류인터넷전문은행 '토스뱅크'가 총 3천억원 규모의 유상증자를 진행한다.토스뱅크는 23일 열린 이사회서 3천억원 규모의 유상증자를 추진하기로 결의했다고 24일 밝혔다.유상증자는 2021년 10월 은행 출범 이후 두 번째다. 유상증자 후 토스뱅크의 총 자본금은 8천500억원이다.토스뱅크증자를 통해 신규 발행하는 주식은 총 6천만주다. 이 가운데 4천500만주(2천250억 원)가 보통주이며, 1천500만주(750억원)는 전환주다.증자방식은 제3자 배정으로, 주당 발행가는 5천원이다. 자본금 납입일은 이달 24일이다.한편, 토스뱅크에 신규 주주로 웰컴캐피탈이 합류했다. 웰컴캐피탈에는 총 300만 주(150억원 규모)가 배정된다.홍민택 토스뱅크 대표는 "출범 4개월 만에 두 번째 증자가 가능했던 이유는 주주사들이 토스뱅크의 성장에 대한 높은 관심과 합의가 있었기 때문"이라며 "그 기대를 발판 삼아 고객 중심의 상품과 혁신적인 서비스로 시장을 바꾸어 나갈 것"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>디지털서비스 업고 전국구 노리는 지방은행</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003253333?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>전북銀, 암호화폐 거래소 손잡아대구銀, 메타버스로 채용박람회지방은행들이 ‘디지털실험’에 본격적으로 속도를 내고 있다. 비대면 상품, 모바일 앱 등 디지털서비스를 확대하는 것에서 나아가 암호화폐, 메타버스 등 블루오션에 적극적인 관심을 보이는 추세다. 오프라인 영업점을 늘리지 않고도 손쉽게 사업 영역을 전국 단위로 확대할 수 있을 뿐 아니라 금융권 전반의 화두인 ‘MZ세대 잡기’에 유리하다는 점도 지방은행을 움직이게 하는 이유다.21일 금융업계에 따르면 전북은행은 최근 가상자산(암호화폐) 거래소 ‘고팍스’와 실명확인 입출금 계정 발급 계약을 맺었다. 업계에서는 전북은행과 고팍스의 동맹이 제2의 케이뱅크·업비트와 같은 ‘윈윈’ 기회가 될 수 있다는 관측이다. 특히 고팍스의 경우 특금법(특정 금융거래 정보의 보고 및 이용 등에 관한 법률) 시행 이전까지는 거래대금 기준으로 국내 암호화폐 거래소 순위권에 들었던 인지도가 있는 만큼 원화마켓이 재개될 경우 4대 거래소의 뒤를 빠르게 추격할 수 있을 것이라는 전망이다.실제로 케이뱅크는 2020년 6월 업비트와 제휴를 맺고 실명계좌를 제공하기 시작하며 본격적으로 몸집을 키웠다. 고객 수가 2020년 219만명에서 지난해 717만명으로 3배 이상 늘어나는 등 외형 성장에 힘입어 지난해 흑자로 돌아섰다. 전북은행 관계자는 “아직 고팍스가 신고 수리를 진행하기 전 단계라 향후 계획에 대해 언급하기는 어렵다”면서도 “비대면 금융 비중이 늘어나고 있고 MZ 고객의 중요성이 부각되는 시대의 변화에 맞추기 위해 다양한 신사업 진출을 검토 중”이라고 말했다.대구은행은 메타버스에 주목하고 있다. DGB금융그룹은 지난 16일 메타버스 플랫폼 ‘게더타운’에서 정기 회의인 ‘기업문화발전협의회’를 개최했다. 지난해에는 채용박람회를 메타버스를 활용해 개최했으며, 지난 1월에는 지구를 본떠 가상지구를 만들어 낸 가상의 공간 ‘어스2’ 내에서 대구 북구 칠성동에 위치한 DGB대구은행 제2본점 건물을 약 100만원에 구매하기도 했다.이 밖에 BNK부산은행 등 다른 지방은행들도 핀다, 카카오페이, 토스 등 빅테크 업체와 손잡고 신용대출, 중금리대출 등 비대면 전용 상품 판매 확대에 나서는 추세다. 한 지방은행 관계자는 “오프라인 영업점 중심의 영업이 위축되고 있는 데다 인터넷전문은행들까지 출범하면서 단순히 예대마진으로만 생존을 모색하기 어려워 돌파구를 찾아 나서는 분위기”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1주년 임직원 대상 스톡옵션 부여</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003129297?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>[경향신문] 토스뱅크는 18일 임시주주총회를 열고 입사 1주년을 맞은 임직원 17명에게 스톡옵션(주식매수선택권) 34만주를 부여하기로 결정했다고 밝혔다. 대상자는 2020년 12월부터 지난해 2월 입사자로 1인당 2만주씩을 받는다.주식 종류는 기명식 보통주로 신주발행 형태로 부여되며 행사가는 액면가 기준 주당 5000원이다. 부여 기준일은 오는 28일이고 대상 임직원은 2년 뒤인 2024년 2월28일부터 5년 간 스톡옵션을 행사할 수 있다.토스뱅크는 지난해 7월과 11월에도 임직원 60명에게 스톡옵션을 부여한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>[해시태그 경제 용어] 선학개미</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060010?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[해시태그 경제 용어]서울 중구 하나은행 딜링룸 모습. 사진=한국경제신문‘선(先)학개미’는 한국 주식에 투자하는 ‘동학개미’와 해외 주식에 투자하는 ‘서학개미’에서 파생된 단어다. 잠재력이 있는 기업의 가치를 남들보다 먼저 알아보고 비상장 주식을 빠르게 매수하는 투자자들을 일컫는 말이다. 선학개미의 주류는 MZ세대(밀레니얼+Z세대)다. 이들은 토스의 운영사 비바리퍼블리카, 케이뱅크, 가상화폐 거래소 업비트를 운영하는 두나무 등 빅테크 관련주나 온페이스게임즈 등 메타버스 관련주에 주로 투자하고 있다.금융투자협회에 따르면 올해 1월 기준 한국장외거래시장(K-OTC)의 시가 총액은 30조817억원으로 2019년 12월(14조2712억원) 대비 2배 이상 증가했다. 비상장 주식 거래 플랫폼인 증권플러스 비상장과 서울거래 비상장 등의 누적 가입자도 90만 명을 넘었다.금융 투자업계도 선학개미 유치 경쟁에 나서고 있다. KB증권은 지난해 비상장 기업 분석을 위해 신성장기업솔루션팀을 신설했고 하나금융투자는 홈 트레이딩 시스템(HTS)을 통해 미국 장외 주식에 투자하는 서비스를 선보였다.벤처기업 비상장 주식의 시가 평가 방법도 다양해진다. 중소벤처기업부는 최근 벤처기업 비상장 주식의 시가를 다양한 방법으로 평가할 수 있도록 하는 벤처기업 육성에 관한 특별조치법 시행령 개정안이 국무회의를 통과했다고 밝혔다. 재무적 부분만 고려하던 기존 평가 방식에서 실거래가액 등을 활용한 평가가 가능해진다.#비장상주식 #MZ세대 #중기부</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>대출 영역 넓히는 인뱅, 기업대출은 언제?</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006498?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>규제정비로 인터넷은행도 기업대출 가능해져개인대출보다 복잡…"시행까진 시간 더 필요"카카오뱅크, 케이뱅크 등 인터넷은행들이 본격적인 외연 확장에 나선다. 개인을 대상으로 한 중금리 대출을 넘어 수요가 가장 많은 주택담보대출, 개인사업자 대출 등으로 상품을 다양화하고 있다. 이에 더해 정부도 인터넷은행들이 기업대출도 가능하도록 문을 열어주면서 영업의 폭은 더 넓어지게 됐다.다만 인터넷은행들이 기존 은행 수준의 기업대출 시스템을 갖추고 시장에 진입하기까지는 상당 시일이 걸릴 전망이다. 당분간은 개인대출 영역에 주력하면서 기업대출 역량을 갖춰나갈 것으로 보인다.기업대출, '문'은 열렸다카카오뱅크는 지난 15일 기자간담회를 갖고 '챗봇(채팅로봇)' 기반 대화형 인터페이스를 통한 주택담보대출(주담대)을 출시했다. 22일부터 판매를 시작하며 대출 신청부터 심사 진행과 결과까지 챗봇 대화창에서 확인할 수 있는 비대면 주담대다.주담대는 가계대출중에서 가장 규모가 큰 상품이다. 대출을 받는 과정에서 제출해야 할 필요 서류 등이 많아 비대면 대출이 어려운 상품이었는데, 최근 기존 은행권을 시작으로 비대면 상품이 판매되기 시작했다. 여기에 카카오뱅크도 비대면 주담대 시장에 뛰어들었다. ▷관련기사: 카뱅 주담대 출시…'편리함'·'저금리'로 공략(2월15일)케이뱅크는 아파트담보대출 고정금리 상품 금리를 0.5%포인트 인하해 최저금리를 3.5%로 낮췄다. 최근 금리인상에 따른 이자부담이 늘어나는 대출 차주들의 갈아타기 수요를 노린 움직임이다.토스뱅크는 신용으로만 대출하는 비대면 개인사업자 대출을 출시했다. 자체 개발한 신용평가모형으로 소상공인에 특화된 심사기준을 반영해 한도와 금리를 산정한다. 실제 사업을 영위하고 있는 자영업자와 소상공인 등 개인사업자가 대상이다. 카카오뱅크 역시 올 하반기중 개인사업자 대상 소호(SOHO, 자영업자)대출을 출시할 예정이다.개인을 대상으로 한 대출상품 외에도 인터넷은행의 기업대출 시장 진입도 가능해졌다. 금융당국이 인터넷은행에 대한 기업대출 규제를 재정비했기 때문이다. 금융당국은 인터넷은행 예대율(예금잔액 대비 대출잔액 비율) 규제를 일반 은행과 동일하게 바꾸고, 기업대출 심사에 필요한 현장 실사와 기업인 대면 거래 등을 허용하기로 했다.기업대출 '첫 거래'는 언제인터넷은행은 설립 취지에 맞게 중‧저 신용자를 대상으로 중금리 대출 상품에 주력했다. 하지만 자산 규모를 늘리고 이익을 키우기 위해선 대출 상품 다양화가 필요한 상황이었다. 인터넷은행들이 올 들어 주담대와 개인사업자 대출 등 새로운 상품을 내놓은 이유이기도 하다.무엇보다 기업대출 문이 열렸다는 점에서 인터넷은행들의 빠른 채비가 필요한 상황이다. 가계대출 등을 포함한 개인 대출은 정부의 가계대출 관리를 위한 규제에서 자유롭지 못한 만큼 기업대출로 변동성을 완충해야 하는 까닭이다. 실제 시중은행들의 전체 여신중 기업대출 비중은 45% 이상이다. 또 기업대출은 개인대출보다 대출 운용이 복잡해 은행들의 역량이 중요하다. 인터넷은행이 기업대출을 시작하려면 관련 인력 충원 뿐 아니라 시스템을 갖추는데 상당한 시간이 필요한 만큼 선제적인 움직임이 필요한 상황이다.기업대출은 자금목적에 따라 시설자금과 운전자금으로 분류되고, 각 자금별 최대한도가 정해진다. 이 때 개별 기업의 신용등급과 담보에 따라 차이가 발생하는데, 신용등급을 산출하는 방법은 각 은행별로 축적된 과거 데이터와 산업에 대한 관점에 따라 달라진다.한 은행 기업대출 담당 관계자는 "가계대출은 담보냐 신용이냐에 따라 한도를 산출하고, 담보의 경우 LTV(주택담보인정비율)와 DSR(총부채원리금비율) 등 정부가 정한 범위 내에서 한도를 정해 대출 운용이 단순하다"며 "반면 기업대출은 신용등급을 산출하는 과정, 개별기업과의 관계 등 상당한 시간과 노력이 축적이 필요해 인터넷은행들이 역량을 갖추기가 쉽지 않을 것"고 말했다.다른 은행 관계자도 "인터넷은행도 기업대출에 진출할 수 있는 길은 열렸지만 바로 시작할 수 있는 것은 아니다"라며 "기업대출이 가능한 역량을 갖출 수 있을지가 향후 은행으로서의 경쟁력을 가늠할 수 있는 잣대가 될 수도 있을 것"이라고 강조했다.다만 인터넷은행 업계에선 이에 더해 추가적인 제도 정비가 필요하다는 목소리도 나온다. 한 인터넷은행 관계자는 "기업대출 가운데 비중이 높은 보증기관 기업대출을 취급하려면 비대면으로 구현하는데 한계가 있다"며 "대출신청은 비대면 방식으로 지원이 되는 반면 보증기관들의 보증사고 접수나 대위변제 프로세스가 여전히 비효율적이기 때문"이라고 설명했다.이어 "보증기관 대위변제 프로세스를 전자화하면 인터넷은행들이 기업대출을 시작할 수 있는 기간을 단축할 수 있을 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[데스크가 만났습니다]정인영 디셈버앤컴퍼니자산운용 대표 "마이데이터, 고객 금융생활 고민 덜어줄 것"</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002999887?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>지난해 재테크에 대한 관심이 늘면서 비대면 자산관리 서비스도 덩달아 주목받기 시작했다.그 중심에 디셈버앤컴퍼니자산운용 인공지능(AI) 간편투자 금융 플랫폼 '핀트'가 있다. 핀트는 지난해 폭발적인 성장세를 기록하며 투자일임 서비스의 대중화를 앞당겼다.지난해 말 기준 핀트 고객 수는 64만명으로, 31만명이었던 작년보다 두배 넘게 증가했다.AI 엔진 아이작(ISAAC)으로 대표되는 독보적인 기술력과 고객 개개인 상황과 특성을 고려한 차별화된 맞춤형 금융 서비스가 MZ세대는 물론, 기성세대까지 끌어들인 것으로 분석된다.투자일임자산(AUM)도 빠르게 성장했다. 핀트의 2020년 AUM은 280억원이었지만 지난해 말 평가액 기준 1000억 AUM을 달성했다.수익률도 준수한 성과를 보였다. 지난해 말 코스콤 로보어드바이저 테스트베드에 공시된 해외 적극투자형의 경우 1년간 수익률이 20.7%이다. 코스닥(6.16%), 코스피(4.17%) 수익률을 크게 웃도는 실적이다.이러한 괄목할만한 성장에는 자체 독보적인 기술력이 뒷받침했다. 정인영 디셈버앤컴퍼니자산운용 대표는 자산운용에 적용되는 핵심 기술을 개발하는데만 7년을 집중했다.외부로부터 러브콜도 받았다. KB증권, 엔씨소프트와 합작법인 출범을 위해 각각 300억원씩 총 600억을 투자 받았고, 비씨카드로부터 99억원을 투자받았다. 디셈버앤컴퍼니자산운용이 보유한 AI 금융투자 분야 기술력과 성장 잠재력에 주목한 것이다. 정인영 디셈버앤컴퍼니자산운용 대표를 만나 앞으로의 전략과 비전을 들었다.대담=길재식 디지털금융부장-핀트가 지난해 괄목할만한 성장을 거뒀다. 지난해 성장 배경이 궁금하다.▲핀트는 2019년 4월 17일에 출시됐다. 특별히 지난해 성과만 좋다고 보기는 어렵고 론칭 이후 꾸준히 성장해왔다. 지난해 말 핀트를 통한 비대면 투자일임 금액만 1000억원이 넘었는데 이는 2021년 초에 비해 4배에 달하는 성과다. 무엇보다 고객이 크게 늘었다는 점이 괄목할 만하다.서비스 성장을 이야기할 때 가장 중요한 부분이 고객 행동 변화다. 지난해 유의미한 변화가 있어 이 부분을 주요 성과로 꼽고 싶다. 지난해 데이터를 분석해 보니 고객은 핀트를 물론 금융투자서비스로 인식하고 있지만 동시에 여유자금을 파킹하는 '파킹통장'으로 이용하는 비율이 눈에 띄게 늘어나고 있다.가령 급여가 들어오는 시점에 핀트에 투자금을 입금하고 필요할 때마다 조금씩 출금해 이용하다가 다시 급여가 들어올 때 즈음 투자금을 재입금하는 방식으로, 실제 투자금을 입금한 뒤 20% 미만으로 출금을 한 고객의 경우 이후 재입금 비율이 90%에 달했다.핀트를 생활 속 서비스로 인지하고 있다는 방증이다. 높은 수익률보다는 어느 정도 안정적인 수익률을 추구하면서 동시에 금융 생활을 편안하게 누릴 수 있는, 내 자산의 베이스캠프로 여기는 모습을 보여주고 있다.-금융위원회로부터 마이데이터(본인신용정보관리업) 사업자 본허가를 땄다. 앞으로 어떤 마이데이터 서비스를 구상하고 있는지 말씀해달라.▲2022년 한 해는 업권 전반적인 '마이데이터 베타서비스' 기간이 될 것이라 생각한다. 고객에게 마이데이터가 뭔가 특별한 서비스로 인식되기보다 은행 앱에 송금 기능이 있듯 금융 관련 앱이라면 당연히 제공되는 서비스로 인식될 것이다.마이데이터를 사용하는 동안 사업자들은 고객이 어떤 행동을 하는지, 어떤 정보를 더 필요로 하는지를 파악하게 될 것이고, 이후 각 업권별로 공유해야 할 데이터에 대한 협상이 이루어지면서 마이데이터가 보다 차별화된 서비스로 가시화될 것이다.핀트는 투자가 기반이 되는 서비스이기 때문에 중장기적으로 고객 금융투자 자산을 모아 한눈에 보여주고 이와 관련된 특화된 서비스를 제공하는 것을 고려하고 있다.예컨대, 주식세금이나 고객에게 가장 적절한 전체 자산 배분에 대해 조언해 주는 서비스가 될 수도 있다. 다만 지금부터 '우리는 마이데이터로 이런 서비스를 만들겠다'고 단정짓기보다는 오는 3월 초 론칭할 마이데이터 서비스에 고객이 어떻게 반응하고 활용하는지를 보며 계속해서 발전시킬 예정이다.공급자 결정으로 서비스를 만드는 것보다 고객이 실제 어떻게 서비스를 활용하는가를 보면서 그에 따라 필요한 부분을 더해가는 것이 성공적인 서비스를 만드는 핵심이기 때문이다.-마이데이터 시장이 본격 개화하면서 토스, 카카오 등 다양한 빅테크·핀테크도 자산관리서비스에 뛰어든 상황이다. 핀트만의 차별화 전략이 궁금하다.▲핀트는 기본적으로 고객 금융생활에 고민을 덜어주는 서비스가 되는 것을 목표로 한다. 다른 금융 앱과 차별점이 바로 이 부분이다. 일반적인 금융 앱 경우 고객이 의사결정을 하기 위해 직접 정보를 탐색하고 판단하며 행동해야 하지만 핀트는 이 과정조차 부담스러운 이들에게 안심하고 편리하게 금융생활을 할 수 있도록 도와준다. 핀트는 마이데이터 서비스에서도 고객이 금융 생활을 함에 있어 편리하게 의사결정을 할 수 있도록 돕는, 때로는 의사결정을 대신해 주며 고객의 부담을 덜어주는 서비스가 되고자 한다.-기업공개(IPO)에 대한 계획은.▲IPO 자체가 돈을 벌기 위해서 하는 것은 아니기 때문에 IPO를 목표로 삼고 있지 않다. IPO는 한 기업이 성장하기 위한 하나의 전략적 수단이라고 생각한다. 목표로 두고 가는 것이 아니라 자연스럽게 필요해지는 시점에 하게 될 것이다. 그보다는 핀트가 고객들에게 지지를 받는 편리한 서비스로 인식되는 것이 지금은 더 중요하다.-성장하는 스타트업에서 인력이 가장 중요할텐데, 인력 양성이나 인재 투자에 대한 계획이 궁금하다.▲우리는 고객이 자사 서비스를 통해 성장하길 바란다. 내면적이건 외면적이건 어떠한 형태로든 성장을 원한다. 이는 회사도 마찬가지다. 회사는 직원 성장을 돕는 하나의 플랫폼이 돼야 한다. 단순히 연봉이나 능력 성장뿐만 아니라, 직원들 간 자유롭게 소통하고 그 안에서 배우며 이를 통해 스스로 성장하고 있다는 만족감을 느낄 수 있도록 도와주는 플랫폼이 돼야 한다. 그러기 위해 회사는 직원이 온전히 자신의 성장에 집중할 수 있도록 다른 고민들을 최대한 덜어줘야 한다. 기본적으로 타사에서 제공되는 주택자금 지원, 복지 포인트 등은 당연히 지원하고 치과를 포함한 의료 실비 보험을 직원 가족까지 책임지고 제공하고 있다.채용에서 가장 중요한 척도는 '성장에 대한 의지가 얼마나 진솔한가'이다. 직원 성장이 곧 회사 성장이라는 진부한 이야기가 아니다. 서비스 중심, 기술 중심 시대에 직원이 성장하기 위해선 고객을 더 잘 이해하고 고객과 같이 성장하고 있다는 공감대를 갖는 것이 중요하다.이는 사업적으로도 마찬가지다. 고객들이 우리 서비스를 사용하면서 자신도 성장하고 있음을 깨닫고 뿌듯함을 느끼는 그런 서비스가 돼야 한다. “이 정도면 나도 금융생활을 잘 하고 있네, 나도 성장하고 있어”라는 생각을 가지도록 만드는 것이 핵심이다.채용의 경우 기존 직원들 추천이 대다수다. 자원하는 경우도 있지만 그 경우에도 현재 디셈버에 재직 중인 뛰어난 연구 개발자들과 함께 일하고 싶어 자원하는 경우가 많다. 현재 임직원은 100명 정도가 되고 앞으로도 지속적으로 충원할 예정이다.-정인영 대표의 리더십 철학이 궁금하다.▲스타트업은 단순히 젊은 친구들이 일하는 곳이 아니다. 자신의 역량이 어느 정도인지 스스로를 잘 파악하는 '메타인지'가 뛰어난 사람들이 일하는 곳이다. 이는 직원에 대한 신뢰로 이어진다. 때문에 채용은 신중히 하되, 디셈버의 일원이 되었다면 그 직원을 온전히 신뢰하고 많은 업무 권한을 부여한다.또 기술에 대한 이해가 굉장히 중요하다. 기술 자체가 아니라 기술이 세상을 어떻게 변화시킬 것인지를 과학사의 관점에서 보아야 한다. 예컨대 인공지능은 결국 인간이 무엇을 불편해하는지 인간 스스로를 돌아보게 하는 기술이 되었고, 빅데이터는 세상 모든 것을 저장할 수 있다는 믿음으로 어떤 현상이든 재현하고 분석할 수 있다는 자신감을 줬다. 기술로 인해 인류의 인식이 자연스럽게 변화하고 발전하는 것이다. 그 관점에서 서비스를 어떻게 만들지 살펴야 한다.-올해 핀테크 산업이 본격적인 성장 기로에 서 있다는 평가가 나온다.▲기존 금융은 금융 상품을 판매하는 '판매사' 위치에 머물러 있던 것 같다. 그래서 오히려 고객들 신뢰를 잃는 경우도 왕왕 있었다. 이 부분을 핀테크는 '고객 중심 서비스'로 고객의 마음을 잡았다고 생각한다.결국 가장 중요한 것은 '고객 중심' 사고이다. 고객과 함께 성장하는 서비스로, 함께 만들어 가는 산업이 된다면 우리나라 금융 산업도 글로벌 스탠다드의 최고 자리에 위치할 것이라 기대한다.-기존 금융사와 빅테크·핀테크사 간 경쟁이 격화되고 있다. 미래 금융시장을 전망해달라.▲사실 지난해 초만 하더라도 기존 금융사가 가진 파워가 막강하다고 생각했다. 이미 확보하고 있는 고객 수나 보유 자금이 엄청나기 때문이다. 당시 유행하던 '디지털 트랜스포메이션'에 이들이 성공적으로 전환하게 된다면 할 수 있는 것들이 굉장히 많아질 것으로 기대했다. 실행력과 스피드를 가진 핀테크 스타트업에 대한 대대적이 투자라던가 적극적 인수와 같은 것을 예상했다.올해는 생각이 조금 바뀌었다. 기존 금융권이 핀테크 회사에 대한 과감한 투자나 인수가 규제적으로 어려운 부분이 많다. 규제가 먼저 풀어져야 핀테크 산업 역동성이 확대될 것이라 본다. 비록 규모는 작더라도 번뜩이는 아이디어로 무장해 소비자 편의성을 제공하는 서비스가 만들어져야 금융산업 전반이 발전할 수 있다. 당연히 스타트업 역시 자신들만의 특별한 영역을 키워 빅테크로 발전할 발판도 만들어야 한다. 업계 전반에 이 같은 선순환 구조가 만들어져야 한다.○정인영 디셈버앤컴퍼니자산운용 대표는…1979년생으로 서울과학고와 서울대 전기공학부를 졸업 후 동대학원 경영전문대학원(MBA) 석사 학위를 받았다.2013년까지 엔씨소프트에서 투자경영실장으로 근무하다 김택진 엔씨소프트 대표의 투자를 받아 그해 디셈버앤컴퍼니자산운용을 설립했다. 인공지능(AI) 간편투자 금융 플랫폼 '핀트(Fint)'를 개발해 출시했다.현재까지 한국핀테크산업협회 부회장, 연세대학교 정보대학원 겸임교수를 맡고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>[르포]토스, 직방…유니콘 창업자들 거쳐간 청년창업사관학교 가보니</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005047630?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>졸업생 누적 매출액 5조원 일자리 1만7800여개 창출 사업진도 성과따라 자금 지원 기업 5년차 생존률 72% 달해 비대면 교육 한계극복은 과제'토스, 직방, 강남언니, 뱅크샐러드….' 이름만 들으면 아는 스타트업 창업자들이 1년 동안 거쳐간 곳이 있다. 중소벤처기업진흥공단이 운영하는 '청년창업사관학교(청창사)'다. 2011년 3월 경기 안산에 본교가 문을 연 이후 전국에 총 18곳이 운영 중이다. 지난해까지 청창사를 졸업한 청년CEO는 총 5842명. 이들의 누적 매출액 5조원, 일자리 1만7800여개를 만드는 성과를 거뒀다. 청년CEO들은 청창사에서 각종 창업교육을 받고 사업화 준비를 위한 시설·투자금 등을 지원받아 괄목할 만한 성장을 이뤘다.◆유니콘 된 선배기업들 따라…매년 5000여명 지원= 지난 17일 청창사 본교에 들어서자 하얗고 커다란 유니콘 조각상이 기자를 맞았다. 이 조각상은 청창사가 유니콘 기업(기업가치 1조원 이상의 비상장 스타트업)의 산실이 되길 바라는 의미에서 세웠다고 한다. 2018년 유니콘 기업이 된 비바리퍼블리카(토스 운영사)의 이승건 대표는 청창사 2기 출신이다. 지난해 유니콘 기업에 이름을 올린 부동산 거래 플랫폼 직방의 안성우 대표도 청창사 1기 졸업생이다.선배 창업가들이 좋은 성과를 내고 사회적으로 청년창업 붐까지 일면서 청창사 지원자 수는 매년 늘어나고 있다. 전국에서 총 1000명 가량의 입교생을 뽑는데 2019년에는 4919명, 2020년 4929명, 지난해 5484명 등 해마다 증가 추세다. 올해 안산 본교의 경우 정원 130명에 399명이 지원 신청을 하면서 3:1의 경쟁률을 기록했다. 신청자는 서류, 발표(PT) 심사를 거친 뒤 심층면접까지 통과해야 입교할 수 있다. 또한 만 39세 이하로 창업 후 3년 이내인 청년을 대상으로 한다.청창사의 문을 두드리는 이유는 크게 3가지다. 먼저 사업화 자금이다. 입교생은 총 사업비의 70% 이하, 최대 1억원 규모의 사업화 자금을 받을 수 있다. 하지만 정붓돈을 허투루 줄 순 없다. 중간평가와 졸업평가를 한 차례씩 진행해 결과에 따라 사업화 자금을 차등 지원한다. 김성희 교장은 "청년CEO들이 강사진 앞에서 자신의 사업 실적을 발표하는 자리를 갖는다"며 "사업 진도율과 성과에 따라 사업화 자금을 차등 지원한다"고 밝혔다. 졸업기업에는 5년간 후속 지원을  통해 데스밸리를 극복할 수 있도록 돕고 있다. 청창사를 졸업한 창업기업의 5년차 생존율은 72.3%에 달한다. 두 번째 장점은 사무공간과 다양한 설비를 이용할 수 있다는 것이다. 452개팀이 입주 가능한 공간이 있으며 제품 디자인·설계, 시제품 제작, 촬영 등을 할 수 있는 '디자인 팩토리'가 구축돼있다.창업에 필요한 각종 교육과 전문가와의 일대일 코칭도 빼놓을 수 없다. 현장 경험이 많은 전문 강사들이 청년CEO들의 사업화 역량을 키워준다. 기자가 본교를 방문한 이날은 삼성전자에서 20년간 디자이너로 근무해온 김경묵 한양대 교수가 '디자인 씽킹'을 주제로 청창사 내부 직원들에게 온라인 강연을 펼쳤다. 청창사 강사로 들어오기 위한 관문이다. 김 교장은 "트렌드에 따라서 새로운 강사를 영입하기도 한다"며 "학생이 강사의 수업을 평가해 만족도가 낮으면 더 이상 강의를 할수 없는 구조"라고 설명했다. 또한 "올해는 기업가정신 교육을 통해 청렴과 나눔의 가치를 강조하고자 한다"며 "단순히 돈을 많이 버는 사업가로 성장하는 게 아닌, 사회에 필요한 기업가로서 올바른 정신을 함양하게 해준다는 데 초점을 맞추고 있다"고 말했다.◆비대면 한계 극복하고 선후배 네트워크 쌓는다= 이치원 메디인테크 대표(11기)는 국내 의료용 내시경 시장이 100% 외국산에 의존하고 있는 점을 발견하고 내시경 핵심요소 기술에 대한 연구를 시작했다. 지난해 청창사에 입교해 창업지원금 1억원을 지원받고 해상도와 조작 편의성을 높인 스마트 내시경을 개발하고 있다. 5년간 95억원 규모의 범부처전주기의료기기 연구개발(R&amp;D) 사업을 수주하는 성과를 냈으며, 직원 수는 2020년 4명에서 지난해 10명으로 늘었다. 최근에는 민간 벤처캐피탈(VC)들로부터 80억원 규모의 시리즈A 투자를 유치했다.코로나 여파로 입교생들이 각종 연수, 국제 박람회 참여 기회를 얻지 못하고 창업 교육도 비대면으로 진행되고 있다는 점이 아쉬운 대목이다. 김 교장은 "청년CEO들이 강사, 동료들과 상호작용하고 적극적으로 참여할 수 있는 방안을 모색 중"이라며 "온라인에 익숙한 젊은 세대이니 만큼 메타버스를 활용할 수도 있을 것"이라고 말했다. 청창사 졸업기업의 경험과 노하우를 후배기업들과 나누는 네트워킹을 활성화하고 멘토링 기회도 늘릴 방침이다.중소벤처기업부는 올해부터 청창사 운영 방식을 개편한 '청년창업사관학교 2.0'을 추진한다. 대전 청창사는 민간 주도형으로 운영하며, 운영사로 블루포인트파트너스가 선정됐다. 블루포인트파트너스 관계자는 "운영사가 직접 청년CEO들을 선발하고, 프로그램 중에도 투자를 검토한다는 점이 다른 지역 청창사와의 가장 큰 차별성"이라고 밝혔다. 이 밖에 안산은 소재·부품·장비 및 제조업, 서울은 ICT분야 및 글로벌 진출, 경기북부는 군장병 창업지원 등 지역별로 특화 운영된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>금감원, ECB와 우크라 사태 '핫라인' 구축</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004023271?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>정은보(오른쪽) 금융감독원장이 최근 독일 프랑크푸르트에 위치한 유럽중앙은행(ECB) 청사에서 크리스틴 라가르드 ECB 총재를 만나 최고위급 핫라인 구축 등 글로벌 공조 체계 방안을 논의하고 있다. 정 원장은 지난 16∼24일 유럽 출장 길에서 앤드루 베일리 잉글랜드은행(BOE) 총재, 롭 파우버 무디스 회장 등 국제 금융계 인사들을 잇따라 만나 러시아의 우크라이나 침공 등의 여파에 따른 거시경제·금융시장 불확실성에 대비해 협력 방안을 모색했다. 사진 제공=금융감독원[서울경제] 정은보 금융감독원장이 글로벌 경제·금융 최고위급 인사들을 만나 우크라이나 사태 등 글로벌 금융 불안에 대응하기 위한 핫라인을 구축하기로 했다.25일 금융감독원에 따르면 정 원장은 이달 16∼24일 유럽 출장 길에서 크리스틴 라가르드 유럽중앙은행(ECB) 총재 등을 독일 프랑크푸르트에 위치한 ECB 청사에서 최근 만나 주요 현안을 논의했다. 특히 러시아의 우크라이나 침공이 금융시장 불안과 실물경제 악화로 급속하게 전이될 상황에 대비해 ‘최고위급 핫라인(Hot-line)’을 구축해 글로벌 공조 체계를 강화하는 방안에 대해 협의했다.이번 해외 출장에서 정 원장이 만난 최고위급 수장들은 한국 경제가 신종 코로나바이러스 감염증(코로나19) 위기 극복 과정에서 다른 주요국에 비해 견고한 펀더멘털을 유지하고 있고 위기관리 측면에서도 충분한 능력을 갖추고 있다고 평가했다. 롭 파우버 무디스 회장은 한국의 거시·미시 건전성 조치, 신속한 팬데믹 대응 등을 높이 평가하며 향후 시장 불확실성에 효과적으로 대응할 것이라고 예상했다. 파우버 회장은 “팬데믹 대응 과정에서 한국의 부채비율 증가는 여타 선진국 대비 상대적으로 양호한 수준”이라며 “올해 예정된 신용등급 평가에서도 한국 경제의 안정적 운용에 대해 종합적으로 평가할 예정”이라고 말했다.정 원장은 크리스틴 라가르드 유럽중앙은행(ECB) 총재와 만나 유로존의 통화정책 결정 시 주요 고려사항 및 통화정책 전환 관련 접근방식을 공유하고 금감원과 긴밀한 협력관계를 지속하기로 합의했다. 앤드루 베일리 잉글랜드은행(BOE) 총재 역시 통화정책 결정시 에너지 가격, 인플레이션, 노동시장 등을 주요 변수로 꼽고 거시·금융환경 불확실성에 대비해 기관 간 협력할 방안을 논의했다.샘 우즈 영국 건전성감독청장은 코로나19 이후 실시된 한국의 취약계층에 대한 금융규제 유연화 조치를 영국에서 벤치마킹하고 싶다는 의사를 표명하기도 했다. 토스튼 포에취 독일 금융감독청(BAFIN) 부청장은 헤리티지 펀드와 관련한 정보제공 협조 요청에 최대한 협조하겠다고 밝혔다.이 외에도 정 원장은 미국·영국·독일에 진출한 한국 금융회사의 관계자들과 간담회를 개최하고 기관별 애로사항 및 건의사항을 현지 감독 당국에 전달했다. 금감원 측은 “글로벌 금융시장 충격 대응을 위한 국제공조 체계를 더욱 공고히 하는 한편 감독 당국 간 인력교류도 더욱 확대할 예정”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>[금융핫스팟] 카카오페이 '병원비 청구' 직접 해보니…"보험사 앱보다 범용성 높아"</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000656281?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>전 보험사 청구 가능…"설명도 직관적이고 상세"최근 빅테크 기업의 보험업 진출이 활발히 진행되고 있는 가은데 손해보험사들과 빅테크 기업이 제공하는 실손보험 간편청구서비스가 주목받고 있다. 일부 서비스들은 특정 병원이나 보험사만 지원해 한계가 나타났지만, 카카오페이 등 빅테크 기업의 서비스는 다양한 보험사들의 보험금 청구를 지원해 범용성이 높았다.카카오페이 병원비 청구 서비스 화면. [사진=카카오페이]◆ 서류 사진 찍고 올리면 청구…카카오페이가 제휴 보험사 많아 편리25일 보험업계에 따르면 금융소비자연맹과 녹색소비자연대 등 시민단체가 지난해 4월 실손의료보험에 가입한 만20세 이상 보험 소비자들을 대상으로 설문조사를 진행한 결과 실손의료보험금 청구를 포기한 경험이 있다는 응답이 전체의 47.2%를 기록했다. 미청구 진료의 95.2%는 30만원 이하 소액 진료였다.청구를 포기한 사유로는 진료금액이 적어서(51.3%), 진료당일 보험사에 제출할 서류를 미처 챙기지 못했는데 다시 병원을 방문할 시간이 없어서(46.6%), 증빙서류를 보내는 것이 귀찮아서(23.5%) 등 이었다. 사실상 실손 가입자 4명 중 1명꼴로 복잡한 청구절차 때문에 보험금을 청구하지 않은 경험이 있는 셈이다.이런 번거로움을 해소하고자 최근 대형보험사들을 비롯해 카카오페이, 토스, 뱅크샐러드 등 빅테크 업체들은 보험금 간편청구 서비스를 제공하고 있다. 스마트폰 앱을 통해 보험금 청구 서류를 제출하면 손쉽게 보험금을 돌려받을 수 있도록 해준다.우선 KB손해보험의 간편청구 서비스를 이용해봤다. 앱에 접속하자마자 '보험금 청구' 항목을 선택하고, 개인정보 수집과 이용에 관한 사항을 동의하면 다음단계로 넘어갔다. 이어 사고(발병)일을 선택하고, 피보험자, 사고유형, 주소지, 전화번호를 입력해야 한다. 내원 경위를 작성하고 보험금 지급 계좌정보를 입력해야 한다.다음 단계로는 서류제출 절차가 있다. 의료비 청구 영수증을 제출해야 하며, 비급여 항목의 경우 진료비세부내역서를 추가로 내야 한다.관련 서류를 스마트폰으로 촬영하고 업로드할 수 있어 나름 간편한 느낌을 받았다. 병원에서 발급받은 진료비 계산서 영수증과 진료비내역서를 촬영해 올리고 최종적으로 접수내역을 확인하면 절차가 완료된다.절차가 끝나자 카카오톡 메시지로 보험금 청구 접수가 완료됐다는 안내가 제공됐다. 전반적으로 쉽고 편하게 청구가 진행됐지만, KB손해보험 앱을 추가로 다운로드 받아야 하는 점이 불편했다. 타사 보험상품은 청구할 수 없었던 점도 아쉬웠다.카카오페이 병원비 청구 항목에서 서류를 등록하는 모습. [사진=카카오페이]빅테크 기업의 대표주자인 카카오페이의 '병원비 청구'도 진행해봤다. 병원비 청구 항목을 선택하고 필수항목 동의, 피보험자 주민번호 뒷자리 등을 입력하면 보험사 선택 항목으로 넘어간다.지원되는 보험사들은 국내 생·손보사 전체다. 대형 손보사 간편청구 서비스의 경우 자신들의 보험만 가능하거나, 특정 제휴 병원에서만 청구할 수 있게 돼 있는점을 감안하면 범용성이 훨씬 높다는 느낌을 받았다.가입한 보험사를 선택하면 서류 등록 항목으로 넘어간다. 사진을 찍어 올리는데, 특히 필요한 서류를 설명하는 항목이 기존 대형사 앱보다 더욱 직관적인 정보설명을 제공했다. 항목별, 유형별로 필요한 서류가 무엇인지 바로 확인할 수 있고, 물음표를 누르면 설명이 상세히 떴다.서류를 제출하는데 사진촬영본을 올리도록 돼 있다. 미리 찍어놓은 사진을 올리거나 바로 촬영해서 올릴수 있도록 지원한다. 다만, KB손보 앱의 경우 사진촬영시 서류에 원하는 만큼 구역을 지정해 올릴수 있는 기능을 추가로 제공했는데, 카카오페이 앱은 해당 기능을 지원하지 않았다. 불필요한 정보(병원 로고 등)를 제외하고 중요한 내용만 넣을수 없었다는 점이 아쉬웠다.병원비 받을 계좌를 선택하면 되면 청구인 서명란으로 옮겨진다. 마지막으로 내용을 확인하고 청구서를 제출하면 청구신청이 완료된다.◆ 무료 서류로 청구 가능…"진단서는 고액보험금 청구시 필요"실손보험 청구를 위한 서류는 병원에서 제공하는 진료비 영수증과 진료비 세부 내역서가 필요하다. 여기에 약제비까지 받으려면 환자 보관용 처방전과 약국 영수증을 추가로 발급받아야 한다.간혹 병원에서 질병코드가 없는 처방전을 제공하는 경우가 있는데, 이런 경우 수기로 질병코드를 써달라고 하고 병원 도장을 찍어달라고 요청하면 된다.수술을 했을 경우 수술확인서나 진료확인서를 발급받으면 된다. 이 서류들은 수수료가 3천~5천원 수준이므로 진단서(약 2만원)보다 훨씬 저렴하다. 입원했을 때는 진료비 영수증과 진료비 세부내역서, 처방전에 더해 입퇴원 확인, 초진 기록지가 필요하다.보험업계 관계자는 "일반적으로 진단서는 고액 보험금을 받아야 하는 경우 필요하고 소액의 경우에는 무료로 제공되는 영수증과 세부 내역서를 발급받으면 대부분 실손보험금 청구를 할 수 있다"면서 "최근에는 보험사들과 더불어 빅테크 업체들도 간편청구 서비스를 제공하고 있기 때문에 못받는 보험금 없이 많이 이용했으면 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[포토뉴스] 청년창업가 1044명…‘유니콘을 향하여’</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001957379?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>청년창업가 1000여명의 미래 유니콘을 향한 힘찬 출발이 시작됐다. 지난 25일 서울 목동 서울청년창업사관학교에서 졸업식이 열려 청창사 수료생 1044명이 배출됐다. 창업 3년이내 초기단계 기업인 이들은 코로나19로 어려웠던 대내외 환경 속에서도 지난해 매출 2658억원, 고용 3548명, 투자유치 228억원의 성과를 창출했다. 2011년 개교 이래로 총 5842명의 창업자가 청창사를 거쳐갔고, 유니콘 2곳이 탄생했다. 2018년에는 토스를 서비스하는 ㈜비바리퍼블리카(대표 이승건·2기), 지난해에는 ㈜직방(대표 안성우·1기)이 유니콘으로 등극했다. 중소벤처기업진흥공단이 운영하는 청창사는 유망 아이템과 혁신기술을 보유한 우수 창업자를 발굴해 최대 1억원의 사업화자금과 교육·코칭, 사무공간, 시제품제작 등을 일괄 지원한다. [중진공 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>전북 순창군, 실내야구연습장 준공식 개최</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000654287?sid=102</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>전라북도 순창군이 지난 15일 실내 야구 연습장 준공행사를 개최했다고 16일 밝혔다.전라북도 순창군 팔덕면에 새롭게 조성된 순창실내야구연습장 전경. [사진=순창군청]이날 준공행사는 신종 코로나바이러스 감염증(코로나19)사회적 거리두기 지침에 따라 황숙주 순창군수, 이상근 대한유소년야구연맹회장 등 야구 관계자들을 비롯해 20여명이 참석해 시설 이용자들의 안전과 지역 스포츠마케팅 사업의 발전을 기원하는‘안녕기원제’형식으로 간소하게 진행했다.팔덕면 구룡리에 조성된 실내야구연습장은 21억원의 사업비가 투입됐다.지난 2020년 12월부터 지난해 12월까지 1년여 공사 기간을 거쳐 지상 2층으로 신축된 실내야구연습장에는 메이저리그에서 주로 사용되는 피칭머신 2대, 토스머신 3대 등 최신 설비를 갖추고 있다.또한 2019년 준공된 팔덕 다용도 경기장이 연습장 인근에 위치하고 있다. 팔덕 다용도 경기장은 전용야구장 1면과 겸용야구장 1면을 갖추고 있어 실내야구연습장과 더불어 전지훈련 야구팀 유치를 위한 최적의 야구 인프라를 갖추고 있다.지난달부터 동계 전지훈련 야구팀을 대상으로 실내야구연습장을 시범 운영한 결과 한파와 우천 등 어떠한 기상 조건에도 훈련에 임할 수 있고, 최신 시설과 장비를 사용할 수 있어 찬사를 받은 바 있다.양은욱 체육진흥사업소장은 “야구종목 전지훈련을 유치해 지역경제 활성화에 기여할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>신보, 토스·야놀자 등 유니콘 성장 밑거름…공간 대여·해외진출 원스톱 서비스</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004023713?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>[서경이 만난 사람 ] 윤대희 신보 이사장舊 사옥 '마포프론트원'으로 탈바꿈매출채권보험 통해 부도 위험 줄이고대학가-금융사 연계, 중기 성장 지원윤대희 신용보증기금 이사장이 지난 21일 서울 마포프론트원에서 스타트업 및 중소기업 지원책에 대해 설명하고 있다. 오승현 기자[서울경제] ‘토스·야놀자·리디북스·지피클럽·오늘의집’이들의 공통점은 스타트업으로 창업해 유니콘 기업으로 성장했다는 것이다. 모두 창업 이후 신용보증기금의 지원을 받았다. 밀리의서재·브랜디·뷰노·루닛은 신보에서 ‘혁신아이콘’으로 선정된 기업들로 코스닥에 상장했거나 상장을 준비 중인 예비 유니콘 후보다.신용보증기금은 한국 경제에 역동성을 불어넣을 스타트업의 역할에 주목하고 스타트업 종합 지원 체계를 구축해 운영하고 있다. 윤대희 신용보증기금 이사장은 “지난 1997년 국제통화기금(IMF) 외환위기를 극복하는 데 벤처기업의 역할이 컸던 것처럼 위기 극복 및 성장의 모멘텀을 만드는 데 새로운 돌파구로서 스타트업의 역할이 중요하다”며 “스타트업 전담 부서와 전담 영업 조직을 운영하는 이유”라고 말했다.구(舊) 마포 사옥을 스타트업의 메카인 ‘마포프론트원’으로 탈바꿈시킨 것도 이 같은 배경에서다. 스타트업을 위한 보육 공간이 필요하다는 점을 정부에 건의하고 설득한 끝에 2020년 마포프론트원을 개소할 수 있었다. 공간 대여부터 금융 지원, 벤처캐피털·액셀러레이터 컨설팅, 해외 진출 등을 원스톱으로 제공하는 곳으로 세계 최대 규모의 스타트업 복합 지원 공간이라는 평가를 받는다. 윤 이사장은 “마포프론트원과 신촌 대학가, 여의도 금융사 등을 연결해 스타트업 삼각 생태계를 만들려고 한다”며 “현재 마포프론트원에 100여 개의 스타트업 기업이 입주해 각종 지원을 받고 있다”고 설명했다.스타트업 외에도 신보의 지원으로 위기를 극복한 중소기업의 사례는 많다. 윤 이사장은 신보의 대표적 업무인 매출채권보험이 중소기업을 지원하는 역할을 톡톡히 한다고 귀띔했다. 매출채권보험은 중소기업이 거래처에 외상 판매를 하고 대금을 회수하지 못할 때 발생한 손실금을 보상받는 공적 보험 제도다. 그는 “거래처가 부도를 내 당황했는데 매출채권보험을 들어놓아 회사가 회생할 수 있었다며 고맙다는 편지를 받은 적도 있다”며 “올해 21조 원 규모로 운영할 계획으로 중소기업들이 이를 잘 활용해 경영에 많은 도움을 받기를 기대한다”고 덧붙였다.윤 이사장은 인터뷰 내내 중소기업과의 인연 및 애정을 드러냈다. 그는 사회생활을 서울은행 신용조사부에서 시작한 데 이어 경제기획원·국무조정실을 거치며 중소기업 관련 정책을 수립했다. 이 과정에서 양자·다자 간 통상 협상을 조정해온 경험을 쌓아 이해관계 조정에 탁월하다는 평가를 받는다. 윤 이사장은 “코로나19 발생 초기에 대책을 논의하는 자리에서 실무자들의 짐을 덜어주고 대책이 제대로 실행되려면 면책 조항이 들어가야 한다고 제안해 반영되기도 했다”며 “한국은 경제 규모, 고용 규모에서 중소기업이 차지하는 비중이 상당히 큰 만큼 신보가 중소기업의 경쟁력을 높이고 성장 모멘텀을 만들어주는 데 앞장서고자 한다”고 목소리를 높였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>알체라, 토스뱅크에 AI얼굴인식 솔루션 공급</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002119416?sid=105</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[디지털데일리 박세아 기자] 영상인식 인공지능(이하 AI) 기업 알체라는 인터넷전문은행 토스뱅크(대표 홍민택)에 비대면 신원확인 솔루션 '에어아이디(AIIR ID)'를 공급, 대고객 서비스에 적용할 수 있도록 했다고 22일 밝혔다.   에어아이디는 알체라의 AI 안면인식 기반 인증으로 금융기관 비대면 고객신원확인(eKYC)과 신분증 진위확인에 활용되는 솔루션이다. 토스뱅크에는 eKYC 솔루션이 적용돼 고객은 토스 앱 내에서 셀프카메라를 이용해 인증, 실시간 안전한 로그인, 계좌 개설 등 서비스를 이용할 수 있게 된다.   이전에는 비대면으로 계좌를 개설하려면 신분증 제출, 기존계좌 활용 1원 인증 또는 영상통화 등 절차를 거쳐야 했다. 또 영상통화를 위해 고객이 상담원 연락을 기다리거나, 상담원이 육안으로 고객 얼굴을 확인하는 과정을 거쳐야 해 신속성 및 정확성 측면에서 비효율이 발생했다.   알체라 황영규 대표는 "이번 에어아이디 솔루션으로 AI를 통한 비대면 신원확인이 가능해지면서 비대면 계좌 개설의 제약이 상당 부분 해소될 것으로 기대된다"고 설명했다.   이번에 적용한 에어아이디는 고도화된 얼굴 위변조방지기술을 탑재했다. 마스크 착용, 조명∙배경 등 다양한 카메라 촬영 환경에서도 99% 이상 정확하게 얼굴을 인식해낸다. 이를 통해 신원도용 사기 등의 문제를 차단하고 금융거래 보안성을 확보했다.   한편 알체라는 지난해 세계 최대 얼굴인식 테스트(NIST)에서 국내 1위, 글로벌 12위를 차지하는 등 안정적인 안면인식 기술력을 대외적으로 인정받은 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>"스펙 안 봅니다" SK ICT 계열사, 코딩 실력만으로 신입 개발자 뽑는다</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004927406?sid=105</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>SKT·SKB·SK쉴더스 등 5개社 공동채용자기소개서 등 1차 서류전형 폐지비대면 코딩 테스트 후 5~7월 입사SK텔레콤은 SK브로드밴드, SK쉴더스, 11번가, FSK L&amp;S 등 SK ICT 패밀리社와 함께 경력 3년 미만의 신입 개발자를 채용한다고 25일 밝혔다. SK ICT 패밀리는 지원자의 개발 역량과 업무 적합성을 집중적으로 검증하기 위해 1차 서류 전형을 폐지했다. [사진 제공 = SK텔레콤] 스펙 대신 순수하게 코딩 실력으로 신입 개발자를 채용하는 분위기가 확산하고 있다. SK텔레콤이 SK브로드밴드, SK쉴더스, 11번가, FSK L&amp;S를 비롯한 SK그룹 내 정보통신기술(ICT) 계열사들과 함께 경력 3년 미만의 신입 개발자 채용을 진행하며 서류 전형을 폐지한다고 25일 밝혔다.이들 5개 회사는 서류전형 폐지와 함께 지원자의 학력, 전공, 나이, 성별 등의 정보를 일체 받지 않기로 했다. 대신 실무 중심의 평가로 개발역량과 업무 적합성을 집중적으로 검증하겠다는 취지다.이번 채용 지원은 오는 25일부터 내달 10일 오후 5시까지 별도 응시 사이트에서 가능하다. △서버·백엔드 개발 △프론트엔드·앱 개발 △머신러닝·데이터 사이언티스트·데이터 엔지니어 등 3개 직군이 대상이다. 지원자는 이름, 연락처와 함께 직무분야와 입사 지망 순서만 입력하면 누구나 채용을 위한 코딩 테스트에 응시할 수 있다. 지원자는 이번 코딩 테스트 결과를 통해 최대 5개 회사에 지원할 수 있어 코딩 테스트 응시 부담도 줄어든다.1차 테스트는 알고리즘과 프로그래밍 언어에 대한 기초 역량을 평가하며 3월 12일 시행된다. 1차 테스트 합격자는 3월 19일 2차 코딩 테스트에 참여 후 합격한 회사가 주관하는 면접 전형을 거쳐 입사하게 된다.SK텔레콤은 지난해부터 수시 채용 방식의 '주니어 탤런트 채용'을 통해 구성원을 채용하고 있다. 개발 분야 외 다른 직무 분야의 채용은 오는 3월 중으로 예정돼있다.허준 SK텔레콤 탤런트 담당은 "최고 수준의 다양한 개발자 인재를 모시기 위해 서류 전형을 과감히 폐지하고 5개 社 합동 채용 프로그램을 기획했다"고 전했다.한편, SK텔레콤 외에도 많은 ICT 기업들이 지난해 신입 개발자 채용에서 '블라인드' 방식을 도입했다. 지난해 9월 NHN은 두자릿수 단위의 그룹사 신입개발자 공개채용을 진행하며 자기소개서를 생략한 채 졸업 자격을 비롯한 기본사항을 입력하면 자동으로 서류전형을 통과하는 방식을 채택했다.2017년부터 블라인드 채용을 도입한 카카오 역시 지난해 8월 세자릿수 규모의 신입 개발자 공개채용을 진행하며 인재영입 사이트에서 성명·이메일·휴대전화번호 등을 입력해 본인 계정만 생성하면 누구나 1차 온라인 코딩테스트에 응시할 수 있게 했다. 모바일 금융 플랫폼 토스도 지난해 8월 경력 3년 이하 개발자 공개 채용에서 서류평가 과정 없이 코딩 테스트만으로 역량을 평가하는 전형을 진행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>'토스·직방’ 거쳐간 청년창업사관학교…11기 졸업식</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011026743?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>기사내용 요약창업 생태계 선도할 창업자 1044명 양성 지난해 매출 2658억·투자유치 228억 성과 [서울=뉴시스] 청년창업사관학교 11기 졸업식 포스터. (사진=중진공 제공) 2022.2.25. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스]권안나 기자 = 중소벤처기업진흥공단(중진공)은 25일 서울시 목동 서울청년창업사관학교에서 11기 청년창업사관학교(청창사) 졸업식을 개최했다. 졸업식은 코로나19 확산 예방을 위해 현장 참여 인원을 최소화하고 온·오프라인으로 동시 진행했다.중진공이 운영하는 청창사는 유망 아이템과 혁신 기술을 보유한 우수 창업자를 발굴해 최대 1억원의 사업화 자금과 교육·코칭, 사무공간, 시제품제작 등을 일괄 지원하는 국내 대표 창업 지원 사업이다.이날 11기 청년 창업기업 대표 1044명이 졸업했다. 창업 3년 이내 초기단계 기업인 이들은 코로나19로 어려웠던 대내외 환경 속에서도 지난해 12월말까지 매출 2658억원, 고용 3548명, 투자유치 228억원의 성과를 창출해냈다.2011년 개교 이래로 이날 졸업한 11기를 포함해 총 5842명의 창업자가 청창사를 거쳐갔다. 유니콘기업도 2곳이 탄생했다. 2018년에는 토스를 서비스하는 비바리퍼블리카(2기)가, 지난해에는 직방(1기)이 유니콘기업으로 이름을 올렸다.또 지난 1월에는 청창사 개교 이래 최초로 2기 졸업기업 오토앤이 코스닥시장에 성공적으로 상장하기도 했다. 졸업식에서는 ▲우수졸업기업 표창 수여 ▲선배기업 응원 메시지 ▲스타트업 피칭 페스타 왕중왕전 ▲온라인 전시관 등이 진행됐다.우수졸업기업 표창에는 자가 두피측정 및 탈모예측 솔루션을 제공하는 콘스탄트의 정근식 대표 등 14명이 중소벤처기업부 장관상을 받았다. 빅데이터 기반 플랜트 자재 온·오프라인 연계(O2O) 중개거래 플랫폼을 운영하는 마켓오브메테리얼 조윤기 대표 등 12명이 중진공 이사장상을 수상했다.또 지역별 예선과 본선을 거쳐 스타트업 피칭 페스타 왕중왕전에 오른 세종씨아이, 제이엔디코스메틱, 콜로세움코퍼레이션, 스프링온워드, 바다품애 등 5개사가 투자자를 대상으로 기업설명회(IR) 발표를 진행했다. 김학도 중진공 이사장은 "11기 졸업기업은 청창사 개교 이후 가장 높았던 경쟁률을 뚫고 합격할 정도로 사업성과 기술성을 인정받은 기수"라며 "중진공은 창업기업이 청창사를 디딤돌 삼아 유니콘기업으로 성장하고, 창업 생태계를 선도해나갈 수 있도록 적극 지원하겠다"고 약속했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>토스뱅크, 다음주 3000억원 규모 유상증자 추진</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005148319?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>출범 후 두번째 유증예수부채 한도 10.6조로 확대[이데일리 서대웅 기자] 인터넷전문은행 토스뱅크가 다음주 이사회를 열고 3000억원 규모 유상증자를 추진한다.16일 은행권에 따르면 토스뱅크는 다음주 이사회를 열고 3000억원 규모 유상증자 단행 안건을 논의한다.이번 유상증자는 간헐적 수혈이 아닌 증자 스케줄에 따른 것으로 알려졌다. 지난해 10월 출범 당시 홍민택 토스뱅크 대표는 5년간 1조원가량의 유상증자를 계획하고 있다고 밝혔다.유상증자가 성공적으로 마무리되면 토스뱅크의 자본금은 5500억원에서 8500억원으로 늘어난다. 토스뱅크가 끌어들일 수 있는 수신액은 약 7조원에서 10조6000억원으로 늘어나게 된다. 그만큼 대출 영업도 확대할 수 있다.토스뱅크는 올해 신규 신용대출을 재개한 데 이어 지난 14일 인터넷전문은행 중 처음으로 개인사업자 대출 상품을 선보였다. 앞서 토스뱅크는 지난해 10월 3000억원의 유상증자를 단행했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>"돈·신용카드 없어도 구매 가능"…후불결제 시장 열린다</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004665765?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>빅테크·핀테크 '후불결제 시장' 공격적 진입네이버·카카오에 이어…토스·NHN 연내 시장 진출해외시장 '수익성' 집중…국내시장 '락인 효과' 기대사진=한경DB빅테크와 핀테크 업체들이 국내 후불결제 시장에 공격적으로 뛰어들고 있다. 네이버파이낸셜, 카카오페이에 이어 올해는 토스와 NHN페이코까지 시장 진출을 앞두고 있다. 목표는 하나다. 신용카드 발급이 어렵지만 소액 신용대출 서비스가 필요한 젊은 층 이른바 MZ세대(밀레니얼+Z세대)를 겨냥한 '락인(lock-in) 효과'를 누리기 위해서다.21일 금융권에 따르면 토스를 운영하는 비바리퍼블리카는 다음 달 후불결제 서비스를 출시할 계획이다. 선불전자지급 수단으로 구매하려는 이용자가 포인트 잔액이 부족할 경우 월 30만원 한도 내에서 후불결제 서비스를 제공하는 식이다. 개인 신용 심사 정책은 향후 부실률 운영과 사용자 특성 분석 작업을 통해 점차 강화한다. 일부 가맹점을 대상으로 서비스를 적용한 뒤 사용자 동향에 따라 제휴처를 확장한다는 게 비바리퍼블리카의 방침이다.자체 신용평가사 '토스신용데이터준비법인' 설립에도 박차를 가한다. 비바리퍼블리카는 2분기 내 법인 예비허가 신청서를 금융당국에 제출할 예정이다. 이에 따른 서비스 개시 시점은 올해 연말 또는 내년 초일 것으로 전망된다. 다양한 금융·비금융 데이터를 기반으로 고도화된 데이터 분석 능력을 활용함으로써 신용평가 역량을 대폭 키운다는 게 비바리퍼블리카의 계획이다.NHN페이코도 다음 달 자체 개발한 신용평가모형 '피스코어'(P-Score)를 출시한다. 피스코어를 기반으로 한 후불결제 서비스는 연내 출시를 목표로 한다. 피스코어는 이용자별 후불결제 한도를 산정하는 과정에서 주로 활용된다. 서비스 출시를 위해 NHN페이코는 지난해 말 신한은행과 신서비스 발굴 및 생활금융 플랫폼 강화를 위한 업무협약을 체결한 바 있다. 우선 소액 후불결제에 대한 수요가 집중된 가맹점에 서비스를 도입하고 이후 제휴처를 서서히 확대한다는 게 NHN페이코의 방침이다.사진=네이버파이낸셜의 후불결제 서비스 안내 화면 캡처현재 국내 후불결제 시장을 선도하고 있는 기업은 네이버파이낸셜이다. 네이버파이낸셜은 지난해부터 월 30만원 한도의 후불결제 서비스를 시범 운영하고 있다. 구체적으로는 네이버페이 결제 쇼핑 이력 등 비금융 데이터와 정보기술(IT)을 통한 대안신용평가시스템(Alternative Credit Scoring System, ACSS)를 활용해 서비스를 제공하고 있다. 이달 금융위원회로부터 후불결제 서비스 기간 2년 연장을 승인받은 만큼, 향후 고객 수요에 따라 후불결제 서비스 대상을 확대한다는 계획이다.카카오페이는 올해 초 월 15만원 한도의 후불결제 서비스를 일부 사용자를 대상으로 도입했다. 그간 카카오페이는 버스·지하철·택시 등에서 사용할 수 있는 선불 충전형 모바일 교통카드 기능을 제공해왔다. 카카오페이가 보유 중인 금융 정보와 비금융 정보를 결합한 대안신용평가시스템(ACSS)을 활용해 소비자의 후불결제 한도를 산정한다. 향후 소비자 동향 분석 및 안정성 검증 과정을 거쳐 서비스 대상을 확대한다. 교통카드로 후불결제 시장에 진입한 카카오페이가 추후 네이버파이낸셜처럼 서비스 제공 영역을 소액결제 시장 전체로 확대할 것이란 게 업계 중론이다.해외시장에서 후불결제 서비스는 이미 대중화된 영역이다. 현금 없이 일단 구매하고 나중에 결제하라는 의미의 'BNPL(Buy Now Pay Later)' 이름표를 달고서다. 뱅크오브아메리카는 BNPL 시장 규모가 2025년까지 1조 달러(약 1186조원)로 성장할 것이라고 전망했다. 지난해 블록(옛 스퀘어)이 호주 애프터페이를 290억달러(약 34조원)에 사들였고, 페이팔이 일본 페이디를 27억달러(약 3조원)에 인수했다. 애플은 골드만삭스와 함께 '애플 페이 레이터' 출시를 앞두고 있다. 앞서 BNPL 시장에 공격적으로 진입한 기업 스웨덴 클라르나는 17개국에 진출한 상태다.다만 해외시장과 국내시장의 후불결제 서비스에는 차이가 있다. 해외시장에서는 수익성 창출을 목표로 BNPL를 주력 사업으로 운영하고 있다. 그러나 국내시장에서는 수익성보다는 '락인(lock-in) 효과'를 기대하고 있다. MZ세대(밀레니얼+Z세대)를 자사 플랫폼에 계속 머무르도록 하는 방안으로 후불결제 서비스가 활용되고 있는 것이다. 이는 해외와 달리 국내시장에서 후불결제 한도액이 월 30만원 수준으로 책정돼 있고, 분할 납부 기능이 제한된 데 따른 것이다.고은아 하나금융경영연구소 수석연구원은 "국내 후불결제 서비스는 금액이 소액인 데 더해 서비스의 핵심인 분할 납부 기능이 없기 때문에 해외시장과 같은 큰 인기를 기대하긴 어렵다. MZ세대를 겨냥한 서비스로 금융 플랫폼의 차별화를 모색하고 있는 것이 서비스의 기대효과"라며 "향후 금융위의 규제 내용에 따라 후불결제 시장의 확장 가능성은 열려있는 만큼, 금융회사와 빅테크·핀테크사는 해외 규제를 검토하고 선제적으로 대응할 필요가 있다"고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>토스뱅크 두 번째 유상증자 추진…3천억원 규모</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000275750?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>다음주 이사회서 안건 논의인터넷 전문은행 토스뱅크가 두 번째 유상증자를 추진합니다.오늘(17일) 은행권에 따르면 토스뱅크는 다음주 이사회를 열고 3000억원 규모의 유상증자 단행 안건을 논의하기로 했습니다.유상증자를 마치면 토스뱅크의 자본금은 5500억원에서 8500억원으로 늘어납니다.5년 동안 약 1조원의 유상증자를 계획 중인 토스뱅크는 지난해 10월 3000억원 규모의 첫 번째 유상증자를 단행한 바 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>총량관리·수익창출 Exit…라인업 늘리는 ‘인뱅 여신’</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001953841?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>국내대표 인뱅 3사 영토확장 전략은자체 신용평가시스템 기반 개인대출사업성공 여부는 ‘충분한 데이터 확보’에 달려비대면 주담대도 新수익원 통로로 각광아담대 금리 시중은행보다 낮춰 승부중·저신용대출 비중 30% 확대는 변수인터넷은행들이 여신 포트폴리오 확대에 적극적으로 나서고 있다. 그간 포트폴리오의 대부분을 차지했던 개인 신용대출에서 소상공인 위주 사업자 대출, 주택담보대출까지 영역을 넓힌다는 계획이다. 올해도 이어지고 있는 금융당국의 가계대출 총량 규제와 중·저신용자 대출 비중 확대를 달성하기 위한 대안으로 이같은 상품 다양화가 대두되고 있다는 분석이다.▶인뱅 3사 모두 올해 개인사업자 대출 선봬=인터넷은행들은 올해 자체 신용평가시스템(CSS) 기반 개인사업자 대출을 선보인다. 인터넷은행 ‘막내’인 토스뱅크가 가장 먼저 첫 발을 뗐다. 인터넷은행 업계에서 정부 보증 대출이 아닌 사업자대출이 나온 것은 처음있는 일이다.이달 14일 선보인 토스뱅크 ‘사장님 대출’은 최저 금리 연 3% 초중반(변동금리)에 최대 한도가 1억원이다. 대출은 전면 비대면으로 실행되며 별도 보증과 담보물 없이 개인 신용에 따라 한도를 부여 받는다. 토스뱅크는 자체 신용평가시스템에 소상공인에 특화된 심사기준을 반영해 금리와 한도를 산정할 예정이다.카카오뱅크와 케이뱅크 역시 연내 개인사업자 대출 출시를 목표로 하고 있다. 케이뱅크는 1분기 중에, 카카오뱅크는 하반기에 해당 상품을 선보일 방침이다.관건은 CSS다. 개인사업자는 매출 변동이 심하기 때문에, 리스크를 책정할 수 있는 충분한 데이터 확보가 전제돼야 한다. 토스뱅크의 경우 모회사 토스에서 개인사업자의 매출 관리 등을 제공하는 ‘사장님’ 서비스를 운영 중인데, 따라서 해당 데이터를 신용평가에 활용할 수 있다. 토스뱅크가 타 은행 대비 비교적 빨리 개인사업자대출 출시가 가능했던 이유도 이런 데이터 확보가 빠르게 가능했기 때문인 것으로 전해진다.카카오뱅크의 경우 같은 카카오 계열사인 카카오페이 등과 협력이 예상된다. 두 회사는 이미 지난해 3월 데이터 협력을 위한 업무협약을 체결한 바 있다. 케이뱅크 역시 최대주주인 BC카드와 결제 데이터 등을 공유할 수 있어 시너지를 낼 수 있을 것으로 예상된다.▶비대면 주담대 출시하고 이자 낮추고=비대면 주택담보대출도 인터넷은행들이 차기 수익원으로 염두에 두고 있는 시장이다. 주담대 시장 규모는 지난달 기준 약 781조원이며 지속해서 규모가 커지고 있다.카카오뱅크는 이달 22일 비대면주택담보대출 출시를 예고했다. 앞서 케이뱅크가 아파트담보대출(아담대) 상품을 2020년 8월에 출시했지만 주택 구입 자금은 가능하지 않았다.카카오뱅크 주택담보대출은 KB시세 기준 9억원 이하 수도권(서울·경기·인천) 소재 아파트를 대상으로 신규 주택구입 자금, 기존 주택담보대출 대환, 생활안정, 전월세보증금반환 대출을 취급한다. 대출 가능 최대 금액은 6억3000만원이다.금리는 혼합고정금리와 변동금리를 선택할 수 있으며 17일 기준 최저 2.94%다. 대출금리는 여타 시중은행보다 약 1%포인트 낮은 편이다. 카카오뱅크는 주담대 출시 기자간담회에서 시중은행보다 낮은 현재 금리 수준을 유지하겠다고 약속했다. 송호근 카카오뱅크 주택담보대출 스튜디오 팀장은 금리 관련 질문에 “최근 시중의 기준금리들이 자주 변동하고 여러가지 규제, 시장환경, 경쟁환경에 따라 우대금리 등 금리정책이 많이 바뀌어서 조심스럽다”면서도 “어떤 상품을 선택하느냐와 만기, 한도에 따라 금리 차등이 있기에 특정한 금리수준을 말씀드리기보다는 타행보다 평균적으로 낮을 것이라는 정책을 유지하겠다”고 했다. 카카오뱅크는 중간에 대출을 상환할 경우 지불하는 중도상환수수료도 올해까지 받지 않기로 했다.케이뱅크는 아담대 금리를 낮췄다. 해당 상품은 대환대출(최대 10억원), 생활안정자금대출(최대 1억원)을 제공한다. 케이뱅크는 아담대 누적 취급액 1조원 돌파를 기념해 고정금리형 혼합금리 상품 금리를 0.5%포인트 낮춘다고 밝혔다. 이로써 케이뱅크 아담대는 최저금리 연 3.11%(18일 기준, 금융채 6개월 연동)을 나타내고 있다. 인하된 금리는 총 한도 1000억원까지 우선 적용된다.케이뱅크는 추후 아담대 상품을 구입 자금까지 가능하도록 범위를 넓히는 것도 검토 중인 것으로 알려졌다.▶인뱅 여신 라인업 확대…“개인 신용 넘어”=인터넷은행들의 이같은 행보에는 금융당국의 가계대출 총량 관리 지침과 중·저신용자 대출 확대 계획이 영향을 미쳤다는 분석이 나온다.금융위원회는 은행권에 제시한 가계대출총량 증가 목표 수위를 작년(5~6%)보다 올해(4~5%) 더 높게 제시했다. 인터넷은행들은 시중은행보다 더 완화된 목표치를 부여받는 것으로 알려졌지만, 대출 규모 자체가 작은 인터넷은행으로서는 부담이 될 수밖에 없다.이와 함께 인터넷은행의 경우 중·저신용자 대출을 늘려야 하는 상황이다. 2023년 말까지 중·저신용자 대상 대출 비중을 전체의 30% 이상으로 끌어올리지 않으면 향후 신사업 진출이 제한될 수 있다.실제 지난해 인터넷은행들은 중·저신용자 대출 비중을 늘리기 위해 일부 신용대출 상품을 제한하기도 했다. 올해도 유사한 상황이 일어났을 때 인터넷은행들이 신용대출 의존도가 높다면 수익성 하락 문제가 대두될 수 있는 상황인 것이다. 한 은행권 관계자는 “인터넷은행의 경우 대면 영업에 제한이 있어 기업대출에 바로 뛰어들기 어렵다”면서 “개인사업대출 같은 경우 총량관리와 수익성을 동시에 잡는 돌파구가 될 수 있다고 본다”고 설명했다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>인터넷銀 3사, 중저신용자 대출 늘렸지만 목표엔 미달</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004668087?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>은행聯, 작년 12월 기준 공시카뱅 3.8%P, 케뱅 4.9%P후발 토스뱅크는 11%P 모자라신용평가모형 고도화 공들여"올해는 대출 늘어날 것" 자신인터넷전문은행 3사가 금융당국 요구에 따라 중저신용자 신용대출 확대에 주력했지만 당초 목표한 수준에는 도달하지 못한 것으로 나타났다. 중저신용자는 신용점수가 KCB 기준 하위 50%(820점 이하)인 사람을 가리킨다.25일 은행연합회 공시에 따르면 지난해 12월 말 기준 카카오뱅크의 중저신용자 대상 신용대출 비중(잔액 기준)은 17.0%, 케이뱅크는 16.6%, 토스뱅크는 23.9%를 기록했다.정부는 지난해 5월 인터넷은행이 중저신용자 대출 공급을 활성화한다는 설립 취지와 달리 고신용자 위주의 ‘손쉬운 장사’를 하고 있다고 문제 삼으며 개선을 요구했다. 인터넷은행들은 작년 말까지 중저신용자 대출 비중을 카카오뱅크가 20.8%, 케이뱅크가 21.5%, 토스뱅크가 34.9%까지 끌어올리기로 약속했는데 결국 지키지 못한 것이다.인터넷은행마다 나름대로 열심히 뛰긴 했다. 카카오뱅크와 케이뱅크의 중저신용자 대출 비중은 전 분기 말에 비해 각각 3.4%포인트, 2.9%포인트 상승했다. 카카오뱅크가 지난해 중저신용자에게 새로 내준 무보증 신용대출은 총 1조7166억원으로, 1년 전(4679억원)의 3.7배다. 케이뱅크도 전년 대비 2.3배인 7510억원을 공급했다.지난해 10월 초 영업을 시작한 토스뱅크의 실적은 이날 처음 공개됐다. 토스뱅크는 가계대출 총량규제에 막혀 출범 9일 만에 신규 대출을 중단한 바 있다. 토스뱅크 측은 “대출 중단 시점을 기준으로 비중이 약 33%에 도달했지만, 이후 기존 대출자의 원리금 상환이 이어져 연말 기준으로는 줄었다”고 설명했다.인터넷은행들은 ‘올해는 더 잘할 수 있다’는 점을 강조하고 있다. 중저신용자 신용대출 사업을 잘하려면 제대로 된 신용평가모형이 필수다. 시중은행에서 거절당했지만 실제 상환 능력은 탄탄한 사람들을 잘 선별해내는 것이 관건이다.카카오뱅크는 중저신용자들의 갈아타기 수요를 겨냥한 대환 신용평가모형을 개발할 예정이다. 카카오뱅크는 지난해 11월부터 고신용자에게는 신규 신용대출을 아예 중단하고 중저신용자에게만 내주고 있다. 중저신용자 대출 비중을 올해 말 25%, 내년 말 30%로 맞춘다는 계획을 당국에 제출했다.케이뱅크는 이 비율을 올해 말 25%, 내년 말 32%까지 늘리기로 했다. 케이뱅크는 이달 중순부터 중저신용자와 신파일러(금융거래 이력이 부족한 사람)에 특화한 별도 신용평가모형을 가동하고 있다.올 들어 신규 대출을 재개한 토스뱅크는 이날까지 중저신용자 비중이 30%대에 다시 올라섰다. 토스뱅크는 올해 말 42%, 내년 말 44%가 목표다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>“연 7% 수익…주식보다 나은 서비스 드릴 것”</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005149148?sid=105</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>‘1호 온라인투자연계금융’ 렌딧 김성준 대표 인터뷰“요즘 주식 등락 심한데, P2P는 안정적 투자 수익”“올해 신용평가모형 혁신해 서비스 신뢰 높일 것”“30대 창업 후 941억 투자받아, 금융변화 만들 것”[이데일리 최훈길 기자] “온라인투자연계금융(P2P금융)은 전 세계적으로 연간 평균 6~7% 기대수익률이 나옵니다. 요즘처럼 등락이 심할 때 주식보다 안정적으로 수익을 얻을 수 있는 좋은 투자처입니다.”테크핀 기업 렌딧의 김성준 대표는 최근 여의도 집무실에서 이데일리와 만나 “P2P금융은 일반적으로 직장인 근로소득에 대한 투자여서 부동산, 주식만큼 경기에 민감하지 않다”며 “요즘 같은 시기에 개인이든 법인투자자든 아주 좋은 투자가 될 것”이라며 이같이 말했다. 김성준 렌딧 대표는 “국내 대출의 불합리한 문제를 바꾸겠다는 목표로 31살 때 렌딧을 창업해 힘든 일도 많았지만, 창업에 후회한 적은 없다”고 말했다. 렌딧 회사명은 ‘빌려주다(lend)’와 ‘아이티(IT)’를 결합해 만들었다. △1985년 안양 △서울과학고 △카이스트 산업디자인 학사 △미국 스탠퍼드대 대학원 기계공학 제품디자인(창업 위해 자퇴) △네이버 디자이너 △서치솔루션 디자이너 △아이콘랩 UX 디자이너 △1/2프로젝트 공동창업자 △스타일세즈 대표이사 및 창업자 △렌딧 대표이사(2015년 3월~) (사진=노진환 기자)대출자는 저축은행보다 낮은 평균 10%대 초반 금리로 대출받을 수 있고, 돈을 빌려준 투자자들은 6~7% 수익률을 얻는 비즈니스 구조다. 렌딧은 여러 법인·개인들로부터 자금을 모아 돈을 빌려주는 이 같은 개인신용대출에 집중하고 있다. 창업 과정에서 최대 20%가 넘은 대출이자 부담을 겪었던 김 대표의 경험이 계기가 돼 이 같은 서비스를 만들게 됐다. 렌딧은 2015년 창업 이후 알토스벤처스, 중소벤처기업진흥공단, H&amp;Q 등으로부터 941억원(작년 기준)의 투자를 받았다. 작년 6월에는 온라인투자연계금융업 1호 등록 기업으로 라이센스를 획득했다. 알토스벤처스는 비바리퍼블리카(토스)·쿠팡·크래프톤(259960)·우아한형제들(배달의민족)·직방·당근마켓 등에 투자한 실리콘밸리 투자사다. 김 대표는 “알토스벤처스는 금융 규제에서 정책적 변화를 만들어내는 끈기 있는 스타트업을 찾고 있었다”며 “그동안 2600억원 넘는 개인신용대출을 취급한 렌딧의 끈기있는 근성이 투자 유치의 밑거름이 됐다”고 전했다. 이어 “우리나라의 경제 규모, 우수한 IT 기술과 인프라를 고려할 때 P2P금융 시장은 충분한 잠재력을 갖고 있다”고 지적했다. 특히 올해 렌딧은 ‘등락이 심한 주식 투자보다 나은 P2P 투자 서비스’를 만드는데 공을 쏟을 예정이다. 기반 기술을 혁신해 서비스 신뢰를 높이는 게 핵심이다. 앞서 렌딧은 대출 심사를 위해 렌딧 개인신용평가모형 LSS(LENDIT Scoring System)을 자체 개발했다. 이는 대출 신청자의 신용카드 사용·대출·연체 이력, 직장 정보 등 300여개 금융 정보를 심사하는 시스템이다. 머신러닝 분석을 통해 월간 트렌드까지 찾아낸다. 김 대표는 “개인신용평가모형 고도화, 시스템 자동화를 통해 대출자 신원을 자동으로 확인하고, 투자금에 대한 분산 처리를 할 계획”이라며 “깐깐하게 기술을 혁신하는 것은 원가를 절감하기 위해서다. 이를 통해 돈 빌리는 분들에게 되도록 낮은 금리를 제공하도록 노력할 것”이라고 약속했다. 김 대표는 “국내 대출의 불합리한 문제를 바꾸겠다는 목표로 31살 때 렌딧을 창업해 힘든 일도 많았지만, 창업에 후회한 적은 없다”며 “온라인투자연계금융 법안이 발의돼 처리되기까지 1422일 간 치열하게 시장 변화를 만들기 위해 노력했다. 앞으로도 변화를 만들어나갈 것”이라고 강조했다. 그는 “온라인투자연계금융은 금융과 기술의 융합, 스타트업과 금융의 융합 모델”이라며 “융합 모델을 인정·이해하는 정책이 필요하다. 소비자 보호와 새로운 산업 육성을 조화롭게 했으면 한다”고 당부했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>월화수목‘일일일’… 주4일제 실험, 어디까지 왔나 [스토리텔링경제]</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001507108?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>공휴일 그래픽. 국민일보DB“‘삶의 질’ 높이려다 ‘삶의 터전’ 잃습니다.” 주5일 근무제 도입을 한창 논의하던 2002년에 전국경제인연합회 등 경제단체들은 이런 광고를 냈다. 경영계 등의 거센 반대에 부딪혀 법안이 통과하고도, 주5일제가 완전 정착하는 데 약 8년이 걸렸다.그리고, 이제 주4일제가 떠오르고 있다. 이재명 더불어민주당 대선후보는 지난달 26일 경기 부천시 근로자종합복지관에서 노동공약을 발표하고 주4.5일제 단계적 도입을 위한 시범사업을 추진하겠다고 밝혔다. 심상정 정의당 대선후보도 “대한민국은 시간 빈곤사회”라면서 주4일제 도입 공약을 공식화했다. 이미 주4일제를 도입한 기업도 제법 있다.주4일제를 찬성하는 쪽에선 노동자의 삶의 질 향상, 노동생산성 향상 등을 거론한다. 장시간 노동에 기반하는 노동시장을 개혁해 ‘시간 빈곤’을 해결할 수 있다고 말한다. 반대편에선 기업 비용 증가, 생산성 하락을 지적한다. 근로시간 축소가 영세업체와 비정규직에 악영향을 미친다는 우려도 제기된다. 주4일제 실험은 어디까지 왔고, 어디로 가야 할까.앞다퉈 주4일제 시행하는 기업들로이터 등 외신에 따르면 벨기에 정부는 지난 15일(현지시간) 주 4일만 근무할 수 있도록 하는 노동법 개정안을 발표했다. 개정안은 하루 최대 노동시간을 8시간에서 9시간30분으로 늘렸다. 노사 합의 시 최대 10시간 근무도 가능하다.프랑스 영국 아이슬란드 스페인 뉴질랜드 등에선 여러 기업이 주4일제를 이미 실시하거나 시범 도입 후 확대 계획을 갖고 있다. 미국인사관리협회 2019년 통계를 보면 미국의 전체기업 중 주4일제를 도입한 곳은 27%에 이른다. 일본 정부도 주4일제 도입을 추진하는 것으로 알려졌다.한국에서도 주4일제 기업이 등장하고 있다. 에듀윌은 2019년 6월 ‘드림데이’라는 제도를 시작했다. 주말을 제외하고 하루 더 쉬는 주4일 근무체계로 직원들은 하루 8시간씩 주32시간을 일한다. 에듀윌에 따르면 초기에 업무 강도가 높았으나, 내부 시스템 개편과 일자리 나누기로 보완했다. 제도 시행 전 470명이었던 직원은 750명으로 늘었고, 매출은 연간 800억원대에서 1100억원대로 올랐다. 우려했던 부작용(생산성 하락, 일자리 축소 등)은 없는 셈이다.SK그룹의 SK수펙스추구협의회와 지주사는 2019년부터 격주로 주4일제를 시행 중이다. 우아한형제들은 2017년부터 월요일 오후 1시에 출근하는 4.5일제를 실시하고 있다. 핀테크 플랫폼 토스를 운영하는 비바리퍼블리카도 지난해 11월부터 금요일에 오전까지만 일하는 주4.5일제를 도입했다. 카카오게임즈는 매월 1회 실시하던 금요일 휴무제를 지난해 4월부터 격주로 늘렸다. 한 달로 치면 ‘주4.5일 근무’다.금융권도 주4.5일제 카드를 만지작거리고 있다. 신한은행은 주40시간을 맞추되 유연근로제를 혼합해 1일 4시간 근로를 하고 다른 요일에 근로시간을 더해 운영하는 주 4.5일 근무제 실험을 예고했다."노동자 삶의 질 향상"주4일제를 찬성하는 가장 큰 근거는 노동자의 삶의 질 향상이다. 구인·구직 플랫폼 사람인이 지난해 8월 성인 4155명을 대상으로 주4일제에 대한 인식조사를 한 결과, 83.6%가 긍정적이라고 답했다. 이유로는 휴식권 보장과 워라밸 정착(72.4%), 충분한 재충전을 통한 업무 효율 향상(51.7%), 건강 관리(32.1%), 휴일 증가로 내수 진작(21.2%), 자녀 돌봄(20.1%) 등을 꼽았다(복수응답).시간의 양보다 질을 높여 업무에 집중하는 환경을 만들 수 있다는 주장도 제기된다. 경제협력개발기구(OECD)에 따르면 2020년 기준으로 한국의 연평균 노동시간은 1908시간이다. OECD 회원국 가운데 3번째로 많이 일하는 나라다. OECD 38개 회원국 평균 노동시간은 1687시간이다. 이와 달리 한국의 시간당 노동생산성은 41.7달러로 27위다.해외에선 주4일제 실시로 생산성이 높아졌다는 보고도 있다. 영국 레딩대학의 2019년 연구를 보면, 주4일제를 도입한 영국 기업의 64%가 “생산성이 높아졌다”고 응답했다. 마이크로소프트 일본지사는 주4일제 실시 후 생산성이 40%가량 향상됐다고 발표했다.“생산성 향상, 일자리 창출 어렵다”그러나, 찬성 만큼 반대 논리도 선명하다. 기업 비용·부담 증가, 노동생산성 하락 등을 들며 우려하는 목소리가 만만찮다. 사람인의 같은 설문조사에서 주4일제에 부정적 답변을 한 이들은 임금삭감 가능성(60.4%), 업무강도 상승(45.3%), 생산성 하락(19.6%), 상대적 박탈감(15.4%), 기업 경쟁력 약화(15.1%) 등을 이유로 제시했다(복수응답).근로시간 축소를 두고 업종 간, 정규·비정규직 간 격차가 불가피하다는 관측도 있다. 최영기 한림대 경영학부 객원교수(전 한국노동연구원장)는 “IT, 금융 업종이나 공공기관, 전문직 등 근로시간에 구애되지 않는 업무나 직종에서는 자연스럽게 근로시간 단축이 이뤄질 수 있지만 양극화가 더 커질 수 있다”고 말했다.주4일제가 일자리 창출이나 기업의 생산성 향상으로 이어지기 어렵다는 비판도 제기된다. 장정우 한국경영자총협회 노동정책본부장은 “최근 우리나라 노동자들의 실근로시간이 많이 줄고 있는데 동시에 고용률도 감소하는 추세”라면서 “주4일제 도입 시 일자리 창출이 기대된다고 하지만, 최근 추세를 보면 근로시간을 줄였을 때 실제로 일자리가 늘어날지 예단하기 어렵다”고 했다.전문가들은 노동자와 기업 모두에 지속가능한 형태를 고민해야 한다고 진단한다. 최 교수는 “코로나19 이후 노동시장의 세계적 트렌드에 걸맞게 기업 주도로 주4일제 확산이 빠르게 자리잡을 수도 있을 것으로 본다”면서 “기업 주도로 주4일제를 정착시키되, 노동시장 변화에 따른 양극화나 불평등 등의 문제를 정부가 차분하게 분석하고 정책 우선순위를 가려야 할 것”이라고 말했다.장 본부장은 “유연근무제 확대, 전문직 근로시간 면제제도 등으로 노동시장 유연성을 높인 뒤에야 근로시간 축소를 논의할 수 있을 것”이라고 말했다.김종진 한국노동사회연구소 연구위원은 “탄소중립, 기후위기, 고령화 등과 맞물려 개인의 여가시간과 직업교육 등의 중요성이 커지고 일자리를 고르는 기준과 가치관 또한 크게 달라질 것”이라며 “노동시장이 급속하게 변하는 만큼 주4일제를 포함한 일자리 변화에 대한 사회적 논의가 선제적으로 이뤄져야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>'씬파일러' 껴안는 인뱅3사…중·저신용대출 공략戰</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005050730?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>인터넷전문은행들이 자체신용평가모델(CSS) 등을 도입하면서 중·신용자대출 취급을 확대하고 있다. 카카오뱅크, 케이뱅크 등은 올해 중·저신용자 대출 취급 목표를 늘리면서 씬파일러(Thin Filer·금융이력 부족자) 공략에도 공을 들이고 있다.27일 은행연합회 공시 자료에 따르면 카카오뱅크는 올해 말까지 중·저신용자 대출 취급을 25%까지 늘린다. 내년 말에는 30%까지 비중이 확대된다. 이는 지난해 12월 기준(17%)에서 13% 늘어난 규모다.케이뱅크 역시 16.6%였던 비중을 올해 말까지 비중을 25%까지 늘리겠다고 밝혔다. 내년 말까지 32%까지 확대한다. 지난해 10월 출범한 토스뱅크는 3사 중 가장 높은 비중을 잡았다. 토스뱅크는 12월말 기준 중·저신용자 대출 비중이 23.9%였고, 올해 말까지 42%까지 이 비중을 확대한다는 계획이다.지난해 금융당국에 제시한 목표치에 미달했지만 대출 규모 확대 등 중·저신용자 대출에 성과가 있었다는 것이 인터넷은행들의 설명이다. 올해부터 CSS 고도화 등을 통해 더욱 박차를 가한다는 방침이다. 카카오뱅크의 지난해 중·저신용 고객에게 공급한 무보증 신용대출 규모는 1조7166억원으로 2020년(4679억원)대비 3.7배 증가했다. 카카오뱅크는 지난해 말 중·저신용대출 잔액은 2조4643억원으로 2020년말 대비 1조263억원 증가했고, 전체 신용대출에서 중저신용대출 비중은 2020년말 10.2%에서 지난해 말 17%로 상승했다고 밝혔다.카카오뱅크는 중·저신용대출 확대를 위해 대출금리 인하했고 대출 한도를 최대 1억원으로 늘렸다. 김광옥 부대표를 중심으로 태스크포스(TF)를 결성해 회사의 역량을 쏟고 있다. 지난해 8월에는 신규 CSS를 바탕으로 '중신용플러스대출', '중신용비상금대출'을 출시했다.카카오뱅크는 올해도 중·저신용대출 공급 확대를 여신 계획의 최우선순위로 정하고 고신용 신규 신용대출 중단은 올해도 이어간다는 계획이다. 카카오뱅크 관계자는 "CSS를 고도화하고 대안정보 활용 범위를 확대할 예정"이라며 "카카오 공동체, 교보그룹과 데이터 협력을 진행하고 있으며 다른 금융사를 이용하고 있는 중·저신용 고객을 위한 '대환 신용평가 모형'도 개발할 것"이라고 말했다.케이뱅크 역시 지난해부터 올해 2월까지 공급한 중·저신용 고객 신용대출 규모가 1조원에 달한다고 밝혔다. 지난해 7510억원을 취급했고, 올해 두 달간 약 2500억원을 공급했다. 지난해 하반기부터 증가세가 두드러졌다. 하반기에만 4942억원을 공급했다. 이는 2020년 한 해 동안 공급한 총액(3251억원)의 약 1.5배에 달하는 수치다. 케이뱅크 측은 하반기부터 중·저신용 고객 혜택을 대폭 강화한 효과가 반영된 것이라고 분석했다.케이뱅크는 올해 대출이자 지원과 대출안심플랜을 제공하며 중·저신용 고객 신용대출 공급을 확대하고 있다. 2월 현재 18%에 이르는 것으로 집계됐다.인터넷전문은행들은 중·저신용자 대출을 고객들을 유치할 좋은 기회로 보고 있다. 시중은행들에서 대출이 쉽지 않은 고객을 확보할 수 있고, 고객 입장에서도 1금융권에서 돈을 빌리게 되면서 신용도 하락하는 문제가 발생하지 않는다는 장점이 있다. 인터넷은행 관계자는 "사업적인 가능성도 크다고 판단하고 있다"며 "시중은행들은 고신용자 중심으로 대출을 내주고 있고 신용등급 장벽이 있지만, 인터넷전문은행들은 신용평가모형만 있으면 고객에게 장벽을 주지 않는다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>"5.5% 금리주는 적금 있어요" 매달 20만원으로 종잣돈 도전</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004927981?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>웰컴저축銀, 첫거래 고객 대상12개월 만기…우대금리 2.8%최대 월 20만원 납입 가능웰컴저축은행이 첫거래 고객 대상 적금 상품의 금리를 대폭 올린다. 웰컴저축은행은 다음달 1일부터 '웰컴 첫거래우대 m정기적금(첫거래우대정기적금)' 상품 최고 금리를 기존 3.7%에서 5.5%로 1.8%포인트 인상한다고 28일 밝혔다. 웰컴저축은행을 처음 이용하거나 첫 거래 후 30일이 지나지 않은 고객이면 웰컴저축은행 앱 '웰뱅'에서 언제든 가입 가능하다.첫거래우대정기적금은 12개월 만기 상품이다. 매월 1만원에서 최대 20만원까지 납입 가능하다. 기본금리는 연 2.7%이고 우대금리는 최고 2.8%포인트 제공된다. 웰컴저축은행의 자유입출금 통장을 통해 8회 이상 적금납입 시 1.8%포인트, 자유입출금 통장 내 50만원 이상 유지 시 1%포인트를 받을 수 있다.웰컴저축은행에 따르면 첫거래우대정기적금 상품에 매월 20만원씩 넣을 경우 만기에 고객이 얻을 수 있는 원리금은 최대 246만490원이다. 이자 수익은 세전 7만1500원, 세후 6만490원이다.만약 우대금리를 받기 위해 1년간 보통예금 50만원을 넣어둔다면 예금에서도 이자 수익이 발생한다. 웰컴저축은행 비대면 보통예금에 넣어두면 3000만원까지는 조건 없이 연 1.3%의 이자 수익이 생기기 때문이다. 따라서 적금 만기 후 비대면 보통예금의 원리금을 찾을 때 세후 50만5532원을 받게 된다.웰컴저축은행 관계자는 간편결제 서비스를 주로 이용하는 고객을 대상으로 웰뱅모두페이 상품을 추천한다고 전했다. 최대 연 3%의 이자 수익을 얻을 수 있기 때문이다. 웰뱅모두페이 통장 기본금리는 연 0.5%이지만 자유입출금 통장 내 50만원 유지 시 연 0.5%포인트, 카카오페이, 네이버페이, 토스, 페이코에 등 매월 10만원씩 충전하면 연 2%포인트를 받게 된다. 모든 우대금리 조건을 충족한다면 적금 만기 후 웰뱅모두페이 통장의 원리금을 찾을 때 세후 51만2866원을 받을 수 있다.웰컴저축은행 관계자는 "주식을 비롯해 가상화폐 등 단기에 높은 수익을 올릴 수 있는 투자처가 다양해진만큼 초기 투자 비용인 시드머니는 더욱 중요해졌다"며 "이번 상품으로 시드머니, 여행비용 등에 활용할 수 있는 목돈을 만드는 것을 추천한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>9월부터 국내 주식 소수점 거래 도입...25개 증권사 도전장</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002999161?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>김민수기자 mskim@etnews.com9월부터 국내 주식 소수점 단위 거래가 도입된다. 100만원이 훨씬 넘는 고가 코스피 우량주를 0.1주만 쪼개 사는 것이 가능해진다. 카카오페이증권·토스증권 등 젊은층을 겨냥하는 핀테크업체와 KB, NH, 한국투자증권 등 기존 증권사가 앞다퉈 뛰어들었다.금융위는 16일 정례회의를 열고 '국내주식 소수단위 거래 서비스'와 관련해 25건 혁신금융서비스를 새롭게 지정했다.국내 소수점 거래에 참여한 회사는 한국예탁결제원, 교보증권, 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, KB증권, KTB투자증권, 키움증권, 토스증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등 25개사다.금융위는 예탁결제원의 신탁업 영위와 카카오페이증권·토스증권 등 투자매매업 인가가 없는 일부 증권사 영업이 무인가 영업에 해당하지 않도록 특례를 부여했다.국내주식 소수점 매매는 신탁제도를 활용해 온주를 여러 개의 수익증권으로 분할 발행하는 방식이다.증권사가 투자자의 소수단위 주식 주문을 취합하고 부족분을 자기분으로 채워서 온주로 만든 후, 자기 명의로 한국거래소에 호가를 제출한다. 이후 거래가 체결돼 취득한 주식을 예탁결제원에 신탁하게 된다.서비스 시행 일정은 개별 증권사의 전산 구축 일정에 따라 오는 9월부터 순차적으로 이뤄질 전망이다.다만 금융위는 각 증권사가 일반 거래와 소수 단위 거래의 차이점을 투자자가 명확히 인지할 수 있도록 위험고지 체계를 구축하는 부가조건을 제시했다.또 각 증권사는 소수 단위 거래를 중개하는 과정에서 자기재산으로 취득하게 되는 주식을 종목별로 5주 이내로 제한하고 의결권 행사도 금지했다.앞서 증권사들은 해외주식 소수점매매를 혁신금융서비스로 지정받아 운영하고 있다.이날 기존 8건의 혁신금융서비스의 지정 기간도 2년 연장됐다.연장된 서비스는 △IBK기업은행의 은행 내점 고객 대상 실명확인 서비스 △KB증권·한화투자증권의 안면인식기술 활용 비대면 계좌개설 서비스 △씨비파이낸셜솔루션의 원클릭 예·적금 분산예치 서비스 △삼성생명의 근로자 5인 미만 사업장 단체보험 서비스 △현대해상의 기업성 보험 온라인 간편가입 서비스 △신한카드의 렌탈 중개 플랫폼을 통한 렌탈 프로세싱 대행 서비스 △네이버파이낸셜의 소액 후불 결제 서비스 등이다.금융위는 이번 25건의 혁신금융서비스를 신규 지정함에 따라 총 210건의 혁신금융서비스를 지정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1주년 임직원에 스톡옵션 34만주 부여</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005046723?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>토스뱅크가 입사 1주년이 된 사내 임직원들에게 주식매수선택권(스톡옵션)을 부여한다고 18일 밝혔다.토스뱅크는 이날 임시주주총회를 열고 임직원 17명에게 스톡옵션 총 34만주를 부여하기로 결정했다.주식의 종류는 기명식 보통주다. 신주발행의 형태로 부여되며, 행사는 액면가 기준 주당 5000원이다.대상 임직원은 스톡옵션 부여일로부터 2년 뒤인 2024년 2월28일부터 5년간 이를 행사할 수 있다.토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입했다. 지난해 7월, 11월 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여했다. 토스뱅크 관계자는 "전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지"라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>JT친애저축은행, 온라인 다이렉트 신용대출 '원더풀 나우론' 출시</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001955002?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>만 20세 이상 직장인 대상최저 연 5.9%에 최대 1억원 한도JT친애저축은행은 언택트 금융서비스 확대를 위한 온라인 다이렉트 신용대출 상품 ‘원더풀 나우론’을 출시했다.[JT친애저축은행 제공][헤럴드경제=이태형 기자]JT친애저축은행은 언택트 금융서비스 확대를 위한 온라인 다이렉트 신용대출 상품 ‘원더풀 나우론’을 출시한다고 23일 밝혔다.‘원더풀 나우론’은 현재 직장에서 4개월 이상 재직하고 있는 연 소득 1800만원 이상, 만 20세 이상의 직장인을 대상으로 한다.최저 5.9%의 금리로 최대 1억원의 한도를 제공한다. 최장 상환 기간은 10년이며, 전체 상환 기간이 84개월 이상일 경우 일정 기간 이자만 내고 이후 남은 기간 원금과 이자를 분할 상환하는 ‘거치식 원리금균등분할 상환 방식’을 이용할 수 있다.온라인 다이렉트 상품으로 인터넷, 모바일 앱 또는 전화를 통해 대출 신청부터 실행까지 모든 과정을 한 번에 편리하고 신속하게 이용할 수 있다. 토스, 카카오페이, 핀다 등 혁신금융 플랫폼을 이용한 대출 신청도 가능하다.특히 이번 온라인 다이렉트 상품은 변화하는 신용대출 시장에 선제적으로 대응하고 고객 혜택을 강화하고자 기획 단계부터 신용평가전문기관인 NICE평가정보의 컨설팅을 반영해 설계한 것이 특징이다.JT친애저축은행 관계자는 “코로나19로 힘든 시기를 겪고 있는 서민 고객분들에게 조금이나마 도움이 되고자 보다 편리한 비대면 방식의 온라인 다이렉트 신용대출 상품을 출시하게 됐다”라며 “앞으로도 고객이 필요로 하는 상품 및 서비스를 제공하는 서민금융사가 되고자 노력하겠다”고 말했다.‘원더풀 나우론’ 관련 자세한 정보는 JT친애저축은행 모바일 앱과 홈페이지, 고객센터 전화상담을 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>떠나는 직원 붙잡아라…연봉인상·스톡옵션·주4일제 쏜다</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011014912?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>기사내용 요약평생직장 NO…이직에 대처하는 기업들금전적보상에 워라밸까지…애사심 부여 주4일제 도입…온보딩·웰컴키트 운영도[서울=뉴시스] 채용박람회. (사진=뉴시스 DB). photo@newsis.com [서울=뉴시스] 배민욱 기자 = 평생직장이 사라진 시대다. 특히 MZ세대(밀레니얼+Z세대)를 중심으로 이직은 하나의 채용 문화가 된 것처럼 보인다. 인재가 필요한 기업이나 인재를 확보하고 있는 기업 모두 직원들을 붙잡기 위해 다양한 방안을 고민하고 있다.20일 취업플랫폼 캐치에 따르면 대표적인 방법은 '연봉 인상'과 같은 금전적인 보상이다. 개발자 채용에서 자주 볼 수 있었던 사례지만 전 직원을 대상으로 혜택이 주어지는 경우도 많다. 암호화폐거래소 코인원은 기존 직원들의 연봉을 일괄적으로 20% 인상했다. 티맥스 같은 경우에도 기본 연봉에서 500만원을 인상시켰다. 카카오뱅크는 전 직원 연봉 평균 1000만원 인상이 있었다. 크래프톤도 기존 직원 연봉을 1500만원 이상 인상시켰다. 토스뱅크는 입사 1주년 임직원 스톡옵션 2만주를 지급하고 있으며 SK텔레콤은 전 직원 자사주 100주씩을 지급하기도 했다. 금전적인 부분 외에도 기업들의 노력은 계속된다. 직원들이 회사에서 겪는 조직문화를 직원친화적으로 개선해 애사심을 북돋는 방법도 그 중에 하나다. 간단하게 채용부터 퇴사까지의 모든 경험을 일컫는다고 볼 수 있다. 2019년 가트너(Gartner)의 HR(인사관리) 트렌드의 핵심 전략으로 등장했다. 국내에서는 최근 들어 주목을 받고 있다. 기업들은 인재를 영입하고 유출을 막기 위해 직원경험에 공을 들이고 있다. 워라밸 위해 주 4일제를 시행하는 기업들이 있다. 에듀윌, 에네스티, 뮬라웨어, 엔도르핀커넥트, 한국국학진흥원 등이 대표적이다.[서울=뉴시스] 관광산업 일자리박람회를 찾은 학생 및 구직자들이 채용정보 게시판을 살펴보고 있다. (사진=뉴시스 DB). photo@newsis.com 신규 입사자가 조직에 빠르게 적응할 수 있도록 돕는 과정인 온보딩 프로그램도 있다. 온보딩 프로그램은 업무뿐만 아니라 기업의 문화와 가치를 알리는 시간이다. 기업별로 다양하게 운영된다. 최근에는 단순 교육형태로만 진행되지 않고 직접 참여하고 파티를 열기도 하는 등 다양한 형태로 진행하고 있다. 실제로 하이브, 비바리퍼블리카, 카카오, 네이버 등에서 온보딩 프로그램을 잘 활용하고 있다. 웰컴키트는 더 이상 고객들만을 위한 것이 아니다. 새로 입사한 직원들에게도 환영을 담은 입사 선물인 웰컴키트를 제공하는 회사들이 많아지고 있다. 웰컴키트를 받은 직원들은 SNS(사회관계망서비스)에 자신이 받은 웰컴키트를 올리며 애사심을 느끼고 해당 물품을 사용하며 소속감을 느끼게 된다. 대외 홍보 효과는 덤이다. 우아한형제들, 티몬, 카카오페이, 샌드박스, 버킷플레이스 등이 웰컴키트를 제공하고 있다. 진학사 캐치 김정현 소장은 "좋은 여건의 직장으로의 이직이 하나의 트렌드로 자리 잡았다"며 "앞으로는 연봉과 같이 기본적인 근무여건에 더해 경험을 통해 애사심을 느끼게 되는 직원경험을 신경 쓰는 회사들이 더 많아질 것으로 전망된다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>저축은행중앙회장 선거, 어떻게 이변 나왔나</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011012960?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>기사내용 요약사실상 첫 民 출신 중앙회장 선출저축은행권 전문경영인 늘어나고현장 전문가 필요하단 공감대 형성핀테크는 '官 소통' 강점 후보 선택[서울=뉴시스] 정병혁 기자 = 오화경 하나저축은행 대표이사가 지난달 25일 오후 서울 강남구 하나금융그룹 강남사옥에서 뉴시스와 인터뷰하고 있다. 2022.01.28. jhope@newsis.com[서울=뉴시스] 박은비 기자 = 사실상 첫 민간 출신 저축은행중앙회장이 나온 것에 대해 저축은행권에서도 과거보다 전문경영인이 많아진 게 한몫했다는 평가가 나온다. 오화경 신임 회장이 내부 개혁이 필요하다고 목소리를 높인 결과이기도 하다.18일 금융권에 따르면 제19대 저축은행중앙회장으로 선출된 오 신임 회장이 이날부터 3년 임기를 시작했다.그는 전날 시행한 저축은행중앙회장 선거에서 출석회원 3분의 2 이상의 표를 얻은 것으로 집계됐다. 금융에 대한 풍부한 경험과 네트워크를 바탕으로 산적한 저축은행권 현안을 해결할 적임자라는 판단이다.업계에서는 이번 결과에 대해 오 대표가 후보 등록 전부터 적극적으로 출마 의사를 밝히고 회원사들의 표심을 모은 게 컸다고 보고 있다. 그동안 중앙회장은 관 출신이 오는 자리였고, 민간 출신 회장이라고 해도 2명 밖에 없었다. 이들조차 순수 저축은행 출신은 아니었기 때문에 오 회장이 출사표를 던졌을 때 무모한 도전이라고 말하는 사람들이 많았다. 하지만 오 회장은 각 저축은행이 처한 상황을 공감하고 일일이 설득에 나서는 적극성을 보였다.저축은행 업계에 이전보다 전문경영인이 많아진 영향도 있다. 개인 오너가 운영하던 저축은행들은 저축은행 사태를 겪으면서 상당수 외국계 자본, 금융지주, 캐피탈, 증권 등 법인에 팔렸다.최고경영자(CEO)로 선임된 이들은 당장의 경영 성과를 내는데 집중하다 보니 상대적으로 중앙회 의사 결정에는 크게 관심을 두지 않는 경향을 보였다. 하지만 어느 정도 자산 규모를 키운 뒤에는 업권 전체에 적용되는 규제를 완화하지 않으면 성장에 한계가 있다는 문제의식이 생겼다.특히 저축은행은 같은 2금융권이라도 보험·증권과 달리 저축은행에만 특화된 영업을 할 수 없는 것에 아쉬움을 갖고 있다. 제한된 권역 내에서 영업을 해야 하고 정책 지원 상품도 햇살론 등 정도에 불과하다. 프로젝트파이낸싱(PF)대출, 유가증권 한도, 인수합병(M&amp;A) 규제 완화를 주장하는 것도 이 때문이다.이를 해결하려면 중앙회장이 구심점이 돼야 한다는 공감대가 형성됐다. 수도권 대형 저축은행과 지방 소형 저축은행 간 양극화가 심화된 상황에서 가뜩이나 한 목소리를 내기가 어려운데 중앙회장마저 외부인이다 보니 해결 의지가 약한 게 아니냐는 목소리도 나왔다.오 회장은 이번 선거에 출마하면서 5가지 공약을 내세웠는데 그중에 가장 먼저 제시한 게 중앙회 중심의 저축은행 업계 변화와 혁신이다. 전산, 금융자산 운용수익 등 수익사업을 전개하고 자산운용사 지원 등을 통해 회원사 부담을 경감시킬 계획이다.이외에도 ▲저축은행 양극화 해소(지역여신비율 완화, 지방저축은행 연계대출·참여확대 등을 상생구조 마련)▲예금보험료 인하(단순 예보료 인하 아닌 새 기준 수립해 당국 건의) ▲M&amp;A 지원, 관련 규제 철폐(중앙회 차원에서 조율·업무 지원, 중소기업 상속특례 적용을 통한 오너 저축은행 승계 지원) ▲직원교육, 디지털전환(DT)(디지털 전문인력 양성, 관련 인프라 지원) 등이 있다.한편 같은 날 4대 한국핀테크산업협회장 선거를 치른 핀테크사들의 선택은 다른 양상을 보였다. 규제 완화가 시급한 상황은 똑같지만 이들은 전통 금융기관에서 오래 근무한 경험이 있는 이근주 한국간편결제진흥원(한결원)장을 선출했다.역대 회장들이 1대 이승컨 비바리퍼블리카(토스) 대표, 2대 김대윤 피플펀드 대표, 3대 류영준 카카오페이 대표였던 점을 고려하면 훨씬 중량감 있는 후보다. 연륜과 경력으로 당국과 소통할 수 있는 이근주 한국간편결제진흥원장을 선출해 대관을 강화하겠다는 뜻으로 풀이된다.한 핀테크 관계자는 "초기에는 핀테크 산업 육성 정책에 맞춰 추진 동력이 생겼던 반면 지난해 금융위원장이 바뀌고부터는 기조가 달라졌다"며 "이번 선거 결과도 회원사들의 그런 두려움에서 비롯된 게 아닐까 싶다. 워낙에 소통에 강한 분이니 제 역할을 해주실 것으로 기대하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.02.16~2022.02.28).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.02.16~2022.02.28).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,1256 +1706,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅, 작년 중저신용자에 2.5조 대출 공급</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004023345?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>전년 7930억 대비 211%↑[서울경제] 지난해 케이뱅크와 카카오뱅크 등 인터넷전문은행을 통해 신규 공급된 중저신용자 대상 신용대출이 2조 4676억 원으로 25일 집계됐다. 이는 7930억 원에 불과했던 재작년 공급액 대비 3배 이상(211.2%) 증가한 액수다. 중저신용자는 신용점수가 코리아크레딧뷰로(KCB) 기준 820점 이하인 차주들이다. 이들은 옛 신용등급 4등급 이하에 해당한다.은행별로 보면 케이뱅크의 중저신용 고객 신용대출 공급은 2020년 3251억 원에서 2021년 7510억 원으로 131.0% 늘었다. 케이뱅크는 작년 9월부터 연말까지 중저신용 고객에게 대출이자를 돌려주는 판촉행사를 벌이고 11월부터는 고객이 중대 사고 등으로 대출 상환이 불가능한 경우 무료로 이를 해결해주는 대출안심플랜을 제공한 덕분이라고 설명했다. 다만 전체 대출 잔액에서 중저신용 고객 대상 대출 잔액이 차지하는 비중은 지난해 말 16.6%로 1년 전보다 4.8%포인트 낮아졌다. 애초 정부에 제출한 목표치인 21.5%에도 미치지 못했다.카카오뱅크가 지난 한 해 동안 중저신용 고객에게 공급한 무보증 신용대출 규모는 1조 7166억 원으로 2020년 4679억 원과 비교해 266.9% 증가했다. 카카오뱅크를 이용하는 중저신용 고객의 대출 이자 절감을 위해 지난해 6월부터 12월까지 첫 달 이자를 지원한 덕이다. 총 지원액은 약 80억 원에 달했다.그러나 카카오뱅크 역시 중저신용 고객 대상 대출 잔액 비중이 17.0%로 당초 계획했던 20.8% 달성에 실패했다. 결국 카카오뱅크는 작년 11월 꺼낸 고신용자 대상 신용대출 신규 취급 중단이란 ‘극약처방’을 올해에도 이어가고 있다.한편 지난해 10월 출범한 토스뱅크의 연말 기준 중저신용 고객 대상 대출 잔액 비중은 23.9%다. 한때 토스뱅크의 중저신용자 대출 비중은 33.3%에 달했으나 총량 규제로 인해 신규 취급이 막힌 사이 중저신용자 위주의 대출 상환이 일어나면서 소폭 조정을 받았다. 지난해 토스뱅크에 배정된 대출 가능 총액은 5000억 원이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>대출규제에 인터넷은행 약진…'중금리대출 강자' 옛말된 저축銀</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004710436?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>임종철 디자이너 /사진=임종철 디자이너중금리대출 시장의 메인 플레이어였던 저축은행의 입지가 갈수록 위축되고 있다. 가계대출 총량규제 여파와 함께 인터넷전문은행(이하 인터넷은행), P2P(온라인투자연계금융) 등 타업권과의 경쟁이 치열해지면서다.20일 금융권에 따르면 인터넷은행 후발주자 토스뱅크가 올해 중·저신용자 대출 취급을 42%까지 확대한다는 목표를 내세웠다. 내년에는 44%까지 끌어올릴 계획이다. 토스뱅크 뿐만 아니리 카카오뱅크도 올해 말 25%, 2023년 말 30%까지 중·저신용자 대출 규모를 늘린다. 케이뱅크는 25%, 32%의 목표치를 제시했다.  중금리대출은 개인신용평점 하위 50% 중·저신용자를 대상으로 한 대출을 말한다. 업권별로 △은행 6.5% △상호금융 8.5% △카드 11% △캐피탈 14% △저축은행 16% 등의 금리상한이 있다. 기존에는 이렇다 할 인센티브나 취급 확대 유인이 적어 저축은행의 고유 영역이란 인식이 강했다. 하지만 상황이 바뀌었다. 시중은행은 물론 P2P 등 타업권도 중금리대출 시장 문을 노크하고 있다.특히, 인터넷은행들의 중금리대출 확대가 공격적이다. 예컨대 지난해 12월 기준 카카오뱅크의 신용대출 평균금리는 평균 연 9.88%로 나타났다. 작년 말까지 신용대출을 취급하지 않았던 토스뱅크와 KDB산업은행을 제외한 17개 은행 평균 금리 연 5.17%였다. 거의 두 배에 달하는 수준이다.이는 카카오뱅크가 지난해 하반기부터 중·저신용자를 대상으로 한 중금리 대출 비중 확대에 열을 올렸기 때문이다. 실제 카카오뱅크는 작년 하반기 들어 중·저신용자들에겐 신용대출 이자를 한 달 간 면제해주는 등 우대했다. 반대로 고신용자 대출 금리를 올리거나 한도를 낮춰 오히려 불이익을 줬다. 온라인투자연계금융업 시행을 계기로 제도권에 안착한 P2P 업계도 저축은행들에겐 강력한 중금리대출 경쟁자다. P2P사들은 은행에서 대출을 거절당했지만 제2금융권에서 대출을 받기는 부담스러운 이들을 주타깃으로 중금리대출 영업을 강화하고 있다. 갈수록 대출 문턱이 높아지고 있는 저축은행 중·저신용 대출 수요를 흡수해 갈 가능성이 높아지고 있다. 저축은행들은 최근 강화된 가계대출 총량 규제 '풍선효과'로 넘어오는 고신용자 위주 영업을 펼쳤다. 실제로 지난해 저축은행들은 신용도에 따라 가산금리를 높이는 식으로 영업을 했고 결과적으로 중·저신용자가 심사에서 배제되는 상황이 다수 발생했다. 올해 역시 저축은행에서 중·저신용자 대출을 받기는 쉽지 않을 전망이다. 중금리대출을 포함해 21.1%였던 지난해 저축은행의 가계대출 총량 증가율 상한선이 올해는 회사별로 10~15% 수준에서 정해졌기 때문이다. 중·저신용자들 대상 대출 공급이 더 줄어들 가능성이 제기된다. 이에 따라 저축은행들은 중금리대출의 일부나 전체를 총량규제에서 제외하는 '인센티브'를 올해도 적용해 줄 것을 요구하고 있다. 총량규제와 중금리대출 연계 저축은행 대상 인센티브는 2018년과 2019년에만 적용됐었다.저축은행 관계자는"중금리대출에 대한 인센티브가 없다면 리스크관리 차원에서라도 고신용자 위주로 영업을 할 수밖에 없다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"시중은행 한판 붙자"…주담대·사업자대출로 영역 넓히는 인터넷은행들</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003833249?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>그간 개인 신용대출 중심의 가계대출에 주력해오던 인터넷전문은행들이 비대면 주택담보대출, 개인사업자 대출 등을 잇따라 내놓으며 대출 포트폴리오 강화에 나서고 있다. 금융당국의 가계대출 규제가 강화됨에 따라 개인사업자 대출 등으로 상품을 다변화해 활로를 모색하겠다는 의지로 풀이된다.카카오뱅크는 지난 15일 '2022년 카카오뱅크의 방향과 주택담보대출 출시' 프레스톡을 열고 오는 22일 카카오톡에서 대화를 하듯 전 과정을 대화형 인터페이스로 구현한 비대면 주택담보대출 상품을 출시한다고 밝혔다.고객이 주택담보대출을 신청하면 카카오뱅크의 챗봇과 고객의 대화창이 열린다. 고객이 정보를 입력하면 한도 조회, 서류 제출, 대출 심사, 대출 실행 등의 전 과정이 대화창에서 진행된다.KB시세 기준 9억원 이하 수도권 소재 아파트를 대상으로 하며, 주택 구입자금 대출 한도는 최대 6억3000만원이다. 대출 금리는 최저 2.989% (변동금리, 14일 기준)이다. 카카오뱅크는 올해 말까지는  중도상환수수료를 면제하기로 했다..케이뱅크는 최근 비대면 아파트담보대출 상품의 금리를 낮추고, 예·적금 금리를 인상하며 경쟁력 확보에 나섰다.케이뱅크는 1000억원 한도로 아파트담보대출 고정금리 상품의 금리를 전 고객에 대해 연 0.5%포인트(p) 낮춘다고 밝혔다. 기존 대출자의 '고정금리 갈아타기' 수요를 공략하겠다는 것이다. 이에 따라 케이뱅크 고정금리 상품의 최저금리는 연 4%에서 연 3.5%로 낮아졌다. 또 '주거래우대 자유적금'과 '코드K 자유적금'의 기본 금리를 최대 0.3%p 인상했다. 케이뱅크 관계자는 "기준 금리 인상에 따라 예적금 금리를 인상한다"며 "고객들에게 더 많은 금융 혜택을 제공할 수 있도록 노력하겠다"고 말했다. 한편 올 하반기에는 인터넷은행 3사가 개인사업자 대출 시장에서 맞붙을 예정이다.토스뱅크는 지난 14일 3사 중 가장 먼저 개인사업자 대출을 선보였다. 이는 토스뱅크가 자체 개발한 신용평가모형에 따라 무보증·무담보, 비대면으로 대출해주는 것이 특징이다. 이용 대상 고객은 실제 사업을 영위하고 있는 자영업자, 소상공인 등 개인사업자다. 사업자등록번호를 보유하고 1년 이상 실제 사업을 영위하거나 최근 6개월 이상 매출액이 발생해야 한다. 최저 금리는 연 3% 초중반(변동금리)이며, 최대 한도는 1억원이다.케이뱅크는 올해 1분기 중 '개인사업자 운전자금 대출'을 출시할 예정이다.먼저 신용보증재단과 협업을 통해 보증서 기반 상품부터 선보인 후 신용 기반 상품도 순차적으로 출시할 계획이다. 이를 위해 케이뱅크는 지난해 초부터 전담팀을 신설했다. 전담팀은 리스크 담당부서와 함께 개인사업자들이 보다 쉽고 편리하게 대출 신청부터 실행까지 100% 비대면 구현이 가능한 상품을 준비하고 있다고 케이뱅크 측은 설명했다.카카오뱅크도 하반기 개인사업자 대상 소호(SOHO) 대출을 내놓는다. 윤호영 카카오뱅크 대표는 지난 9일 실적발표 컨퍼런스콜에서 "개인사업자에 대한 수신과 대출상품 두 가지를 동시에 론칭해서 기업금융 시장에 진출할 계획"이라면서 "개인과 사업자금의 구분이 어려운 소상공인들이 직관적으로 관리하고 운영할 수 있도록 UI를 준비하고 있다"고 말한 바 있다.▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>&lt;사진기사&gt;청년창업가 1044명 배출…유니콘 향해 출발</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001957111?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>청년창업가 1000여명의 미래 유니콘을 향한 힘찬 출발이 시작됐다. 지난 25일 서울 목동 서울청년창업사관학교에서 졸업식이 열려 청창사 수료생 1044명이 배출됐다. 창업 3년이내 초기단계 기업인 이들은 코로나19 악재 속에서도 지난해 매출 2658억원, 고용 3548명, 투자유치 228억원의 성과를 창출했다. 2011년 개교 이래 총 5842명의 창업자가 청창사를 거쳐갔고, 유니콘 2곳이 탄생했다. 2018년에는 토스를 서비스하는 ㈜비바리퍼블리카(대표 이승건·2기), 지난해에는 ㈜직방(대표 안성우·1기)이 유니콘으로 등극했다. 중소벤처기업진흥공단(이사장 김학도·왼쪽 네번째)이 운영하는 청창사는 유망 아이템과 혁신기술을 보유한 우수 창업자를 발굴해 최대 1억원의 사업화자금과 교육·코칭, 사무공간, 시제품제작 등을 일괄 지원한다. [중진공 제공]</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>“삼성전자 0.5주만 살게요”…9월부터 주식 소수점 거래 도입</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000275676?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>올해 9월부터 국내 주식 시장에서 소수 단위 주식 거래를 할 수 있게 됩니다. 100만원이 훨씬 넘는 고가 코스피 우량주를 0.1주만 쪼개 사는 것이 가능해집니다.금융위원회는 정례회의를 통해 25건의 혁신금융서비스를 신규 지정하고, 기존 혁신금융서비스 12건은 지정 기간을 연장하거나 내용을 변경했다고 오늘(16일) 밝혔습니다. 현재까지 지정된 혁신금융서비스는 모두 210건입니다.국내 소수점 거래에 참여한 회사는 한국예탁결제원, 교보증권, 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, KB증권, KTB투자증권, 키움증권, 토스증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등 25개 회사입니다.금융위는 예탁결제원의 신탁업 영위와 카카오페이증권·토스증권 등 투자매매업 인가가 없는 일부 증권사 영업이 무인가 영업에 해당하지 않도록 특례를 부여했습니다.증권사는 소수단위 주식 주문을 취합하고 부족분을 자기분으로 채워서 온전한 주식으로 만든 후 자기 명의로 한국거래소에 호가를 제출하고, 거래가 체결되어 취득한 주식을 예탁결제원에 신탁하게 됩니다. 금융위 관계자는 "투자자는 종목당 최소투자금액의 인하로 주식투자 접근성이 확대되고, 소규모 투자금으로 위험관리와 수익다변화를 위한 다양한 포트폴리오를 효율적으로 구성 가능할 것으로 기대된다"며 "금융투자회사는 투자자에 대한 다양하고 혁신적인 금융서비스 제공을 위한 재료로 활용할 수 있다"고 말했습니다.이날 기존 8건의 혁신금융서비스의 지정 기간도 2년 연장됐습니다. 연장된 서비스는 △IBK기업은행의 은행 내점 고객 대상 실명확인 서비스 △KB증권·한화투자증권의 안면인식기술 활용 비대면 계좌개설 서비스 △씨비파이낸셜솔루션의 원클릭 예·적금 분산예치 서비스 △삼성생명의 근로자 5인 미만 사업장 단체보험 서비스 △현대해상의 기업성 보험 온라인 간편가입 서비스 △신한카드의 렌탈 중개 플랫폼을 통한 렌탈 프로세싱 대행 서비스 △네이버파이낸셜의 소액 후불 결제 서비스 등입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[재택플러스] 소액, 주택 담보‥ '인터넷 대출' 어디까지?</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001180086?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[뉴스투데이]◀ 앵커 ▶모바일 뱅킹에 이어 인터넷 은행 관련 소식 하나 더 살펴보겠습니다.요즘 간편하고 손쉬운 방법을 앞세운 '인터넷 은행' 대출이 주목받고 있다는데, 오늘 +NOW에서'인터넷 은행' 대출이 뭔지, 시중 은행과의 차이점은 어떤 게 있는지 살펴보겠습니다.+NOW 지금 시작합니다. 오늘은 행복자산관리연구소 김현우 소장과 함께합니다.안녕하세요.◀ 김현우 / 행복자산관리연구소장 ▶안녕하세요.◀ 앵커 ▶인터넷 은행, 서비스 시작한 지도 꽤 됐죠?아직도 생소해하는 사람들도 많은 거 같은데, 스마트폰으로 돈을 빌리는 사람들이 늘고 있는 모양이에요?◀ 김현우 / 행복자산관리연구소장 ▶'인터넷 은행' 하면 20~30대 젊은 세대들이 주로 쓰는 서비스 정도로 여기는 분들도 많은데요.지난해 말 기준으로 신규고객 가운데 40대 이상이 60%를 차지할 정도로 이용자 연령층이 넓어지고 있다는 조사도 나왔습니다.인터넷, 네트워크 기반이라는 강점을 살린 서비스, 가령 휴면 예금이나 보험금 찾아주기, 증권사의 주식계좌 연결 서비스 같은 게 좋은 반응을 얻고 있는 것도 큰 역할을 한 걸로 풀이됩니다.◀ 앵커 ▶소액 대출, 이른바 급전 빌릴 때 편리하다, 신속하다, 이런 반응들이 많았던 거 같은데, 이제는 주택담보대출도 한다면서요?◀ 김현우 / 행복자산관리연구소장 ▶아무래도 인터넷 은행의 대출 금리가 낮다는 장점 때문입니다.시중 5대 은행의 주택담보대출 금리는 이미 6%에 근접했고요.올해 '기준금리'도 여러 차례 인상될 예정이어서 7% 벽도 뚫을 걸로 전망되고 있습니다.그런데 카카오뱅크 같은 곳을 예로 들면, 부동산 담보대출 금리가 3%대거든요.금리가 시중은행 절반 수준이니까, 찾지 않을 수 없는 거죠.◀ 앵커 ▶인터넷 은행이라고 이런 부동산 대출이 시중은행보다 더 쉽거나 그런 건 아닐 텐데, 인터넷 은행이 이렇게 공격적으로 영업하는 배경이 있겠죠? ◀ 김현우 / 행복자산관리연구소장 ▶정부의 가계부채 정책을 좀 들여다볼 필요가 있는데요.정부가 제시한 올해 평균 가계대출 증가 목표치는 4.5%입니다.각 은행이 이 목표치를 넘겨서 개인에게 대출 영업을 하면 금융당국의 각종 규제를 받게 되는데요.지난 연말에도 이런 '대출총량제'가 적용되면서 일부 은행들이 대출을 일시 중단하기도 했었죠.인터넷 은행도 이런 규제를 똑같이 받지만, 상대적으로 시중은행보다는 쿼터, 총량을 채우기까지는 아직 여유가 있는 거죠.◀ 앵커 ▶아무래도 인터넷, 비대면으로 영업을 하니까 대출받을 때 절차나 방법 같은 면에서도 시중은행보다 좀 간소화되거나, 편리한 면도 있을까요?◀ 김현우 / 행복자산관리연구소장 ▶카카오뱅크 같은 경우 '챗봇'이라고 일종의 자동응답 AI죠, 이걸 활용하는데요.보통 메신저에서 다른 사람과 채팅하듯이 챗봇과 대화창을 열고 관련 정보를 입력하면 내 대출 한도 조회도 해주고, 적용 금리도 계산해서 알려줍니다.실제 대출에 필요한 서류 제출과 심사, 실행까지 다 이 대화창에서 진행되는데요.관련 서류도, 부동산 담보 대출 같은 경우엔 매매계약서를 사진 촬영해서 보내면 되고요.더 필요한 서류들은 카카오뱅크가 고객의 동의를 얻어서 유관 기관에 직접 확인하는 형태로 진행되니까, 이용자 입장에서는 서류 제출 부담이 크게 준다는 장점이 있습니다.◀ 앵커 ▶그래도 사진이나 파일로 실물 서류를 대체하는 건, 위·변조 우려도 있고 여러 가지 걱정도 될 거 같은데요?◀ 김현우 / 행복자산관리연구소장 ▶보완 장치도 마련돼 있습니다.주택 구입자금 대출 신청을 예로 들면, 소유권 이전 등기가 필요하잖아요.이럴 땐 인터넷 은행과 협약을 맺은 법무사가 직접 잔금 날 고객을 찾아가서 확인하는 겁니다.이 법무사가 진짜인지 이게 또 걱정될 수 있잖아요. 그래서 아까 그 챗봇을 통해서 어떤 법무사가 찾아오는지도 미리 알려주는 식으로 그런 걱정도 좀 덜려는 노력을 하고 있습니다.◀ 앵커 ▶인터넷 은행이 '개인사업자' 대출에도 적극적이라면서요? ◀ 김현우 / 행복자산관리연구소장 ▶소상공인 등을 상대로 한 대출 상품이 올해 잇따라 나오고 있는데요.먼저 시작한 건 '토스뱅크'라는 인터넷 은행입니다.지난 14일부터 소상공인 등 개인사업자를 대상으로 한 대출을 시작했는데요.'비대면·무보증·무담보'를 앞세워 공격적인 영업을 하고 있어요.최대 대출 한도는 1억 원인데, 연 3% 수준의 이자에 개인사업자의 수입이 일정할 땐 금리와 한도를 더 우대해주기까지 합니다.또 다른 인터넷 은행 케이뱅크 역시 개인사업자 대출 상품을 개발 중이고요.카카오뱅크도 유사한 대출 상품을 곧 내놓을 계획입니다.◀ 앵커 ▶개인사업자 대상 대출도 아까와 비슷한 맥락에서 인터넷 은행은 아직 대출 여력이 남아있기 때문에 이렇게 대출 영업에 적극적인 건가요?◀ 김현우 / 행복자산관리연구소장 ▶큰 틀에서는 같지만, 내밀히 들여다보면 이럴 수밖에 없는 속사정이 있습니다.올해부턴 총부채 원리금 상환비율, 즉 DSR 규제 강화로 신용대출을 받은 개인은 다른 대출도 받기가 어려워졌거든요.'개인 신용대출'에 주력해 오던 인터넷 은행 입장에선 사업 성장을 더 하긴 어려워진 거죠.또 인터넷 은행 설립 목적 자체도 '중저신용자', 그러니까 대기업 직장인보다는 신용 등급이 상대적으로 낮은 자영업자에 대한 대출 기회를 마련하라는 거였는데 그렇게 운용해오지 않았거든요.그러다 보니까 은행 존립 목적을 맞추기 위해서라도 소상공인 대출에 적극적인 겁니다.◀ 앵커 ▶그러면 기존 시중 은행들은 여기에 어떻게 대응하고 있습니까?고객 다 뺏기기 전에 금리를 좀 낮춰주거나 우대 정책을 펴지는 않나요?◀ 김현우 / 행복자산관리연구소장 ▶그런 기대도 할 수 있겠지만 기존 시중은행들은 워낙 거대해서요,아직까지는 인터넷 은행의 영업에는 한계가 있을 걸로 보는 시각이 우세합니다.인터넷 은행이 체급을 올리려면 유상증자 등을 통해서 자기 자본을 늘려야 하는데, 아직 그럴 의지나 여력은 약해 보이고요.당장은 소비자 입장에선 대출을 해야만 한다면 좋은 조건의 상품을 미리 확보해 두는 게 나을 걸로 보이는데요,대출이 무한정 가능한 것도 아니기 때문인데요, 실제로 토스뱅크가 지난해 10월 내놓은 '중저신용자' 대상 우대 조건의 대출은 열흘도 안 돼서 마감되기도 했다는 점 참고하시면 좋을 거 같습니다.◀ 앵커 ▶오늘은 공격적인 영업을 하고 있는 '인터넷 은행'의 대출, 그 배경과 특징 알아봤고요.내일은 최근 주식시장에서 뜨거운 논란이 이어지고 있는 '공매도'에 대해서 살펴보겠습니다.오늘 말씀 감사합니다.◀ 김현우 / 행복자산관리연구소장 ▶수고하셨습니다.◀ 앵커 ▶지금까지 재택플러스였습니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>인터넷뱅킹-시중은행 간 모바일 이용자 격차 지속 증가…플랫폼 생존경쟁 시작</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003836696?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>은행권 사이에서 모바일 앱 방문자를 끌어모으기 위한 다툼이 점차 치열해지고 있다.금융의 디지털 전환 가속화로 시중은행 최고경영자(CEO)들도 이젠 자산 규모 확대보다 모바일 고객 확대를 최우선 경영목표로 내세우는 모습이다.27일 빅데이터 플랫폼 아이지에이웍스의 모바일인덱스에 따르면 지난해 12월 기준 카카오뱅크의 월간활성이용자(MAU)는 1년 전보다 21% 늘어난 1317만154명으로, 은행·뱅킹서비스 부문 앱 중 가장 많았다.뒤를 이은 앱은 KB국민은행 스타뱅킹으로 1036만2569명이었다. 다음으로 '신한 쏠'의 MAU는 948만8829명이었다.토스까지 은행 앱 범주에 포함하면 기존 은행권 모바일 앱은 사용자 순위 경쟁에서 더 뒤로 밀린다. 작년 12월 기준 토스 MAU는 1년 전보다 33% 증가한 1397만4762명으로 카카오뱅크를 앞섰다.대형 은행들은 MAU 확보 경쟁에서 살아남기 위해 고객들이 모바일 앱 체류 시간을 늘리고자 안간힘을 쓰고 있다. 각종 헬스케어, 반려동물 돌보기 등 생활편의 서비스까지 제공하는 데 주안점을 뒀다.KB국민은행은 지난해 10월 새 KB스타뱅킹 앱을 출시, 자산관리와 주식매매, 간편결제, 보장보험분석, 중고차 팔기 등 계열사 서비스를 앱 하나에서 이용할 수 있게 했다. 신한은행은 지난해 배달 서비스 '땡겨요'를 출시했다.모바일 고객 확대를 통한 금융 플랫폼 선점은 은행권의 생존권 싸움이 됐다. 은행장들은 너도나도 빅테크 시장에서 우위 선점을 목표로 내세우고 있다. '자산규모 확대'를 강조해왔던 수년 전과 비교하면 분위기가 크게 달라진 것.김정태 하나금융그룹 회장은 올해 신년사에서 "시장은 우리를 '덩치만 큰 공룡'으로 보고 있다. 공룡은 결국 멸종했다"고 말했다. 이재근 KB국민은행장은 지난 1월 취임사에서 "'넘버원 금융플랫폼 기업'을 향한 확고한 목표를 가슴 깊이 새기고 난관을 돌파해 나간다면 빅테크와의 플랫폼 경쟁에서도 확실히 승기를 잡을 것"이라고 말했다. 이원덕 우리은행장도 이달 초 행장 내정 후 첫 출근길에서 기자들과 만나 "플랫폼 경쟁력에 중점을 두겠다"고 했다.▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>전병국 센터장 "지식재산권·암호화폐 시장 급속 성장…제2 네이버·카카오도 이 분야서 나올 것"</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004665956?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>비상장사에 2조 대규모 투자전병국 하나금융 클럽원 센터장지난해 59곳 5900억원 베팅수익률 260%…모두 수익 내크래프톤 구주매각 딜 통해1년 여만에 400% 수익 거둬지난 14일 서울 삼성동 하나금융 클럽원PB센터를 들어가자 전병국 클럽원 센터장(사진)이 ‘리그오브킹덤즈(LOKA)’를 하고 있었다. 블록체인을 기반으로 한 다중접속온라인(MMO) 게임이다. 옆 직원은 가상현실(VR) 기기를 착용한 채 두 팔을 허우적댔다. 클럽원은 예탁자산 30억원 이상 초고액 자산가(VVIP)만 가입할 수 있는 PB센터다.전 센터장은 “지난해 이 게임을 만든 회사를 탐방하고 와서 플레이투언(P2E·게임하면서 돈벌기)을 경험하고 싶어 직원들과 연맹을 만들었다”며 “여기가 제 왕국인데 오늘 NFT(대체불가능토큰)로 1000만원어치 땅을 질렀다(샀다)”고 했다. 직접 경험해보고 투자를 결정하는 것이 그의 원칙이다.전 센터장이 이끄는 클럽원은 2017년 출범 이후 비상장사에 2조원을 투자했다. 지난해 59곳에 투자한 금액은 5900억여원. 국내 웬만한 벤처캐피털(VC)과 사모펀드(PE)를 뛰어넘는다. 이 중 26곳을 엑시트(자금회수)했는데, 손실을 낸 딜은 한 건도 없었다. 수익률은 260%였다.▷비상장사 투자 분야에서 두각을 나타내는 비결이 무엇인가.“첫 번째는 정보, 두 번째는 네트워크, 세 번째는 바게닝 파워(교섭력)다. 하루에 보통 4개 딜을 살펴본다. 1주일이면 20개, 1년이면 1000개 이상의 딜을 분석하는 셈이다. 최고경영자(CEO)를 만나고, 본사를 방문하고, VC와 미팅도 한다. 검토한 1000여 개 딜 중 작년에 투자로 성사된 것이 57개니까 채택률이 6% 정도다. 채택되지 않은 나머지 94%도 계속 지켜보면서 업데이트한다. 비상장 투자를 한 6년간 5000~6000개 회사를 들여다봤다. 결국은 양이 질을 만든다.”▷작년 가장 높은 수익을 낸 딜은.“엑시트 모델인 △상장 △인수합병(M&amp;A) △구주매각 중 성공 확률이 가장 높은 것은 상장이다. 작년 8월 유가증권시장에 상장한 크래프톤이 그렇게 수익을 냈다. 2020년 5월 170억원을 투자해 1년여 만에 400% 이상을 벌었다.”▷처음엔 선뜻 투자금을 모으기 쉽지 않았을 것 같다.“2015년엔 다들 비상장사는 리스크가 높다고 투자를 꺼렸다. 데스밸리(외부 자금을 유치하지 못해 시행착오를 겪는 상황)도 있었다. 20년 이상 브로커리지(주식위탁매매)를 하면서 깨달은 점은 주식은 개인투자자들이 질 수밖에 없는 게임이라는 거다. 2018년 공모주펀드는 1600개 중 12개만 수익률이 플러스였지만, 사모펀드는 1800여 개 중 81%가 수익을 냈다. 비상장 투자의 역설은 가장 안전할 수 있다는 것이다. 리스크가 높은 초기 단계 기업부터 상장이 임박한 프리 IPO(상장 전 투자유치) 단계 기업까지 포트폴리오를 만들어 쌓아가는 ‘신생-발전-완성 피라미드’라는 단계적 투자 방식을 제안하고 있다.”▷개인투자자들이 직접 비상장기업에 투자하는 건 어떤가.“잘못되면 상장사 주식은 하한가에 팔 수 있지만 비상장사 주식은 휴지 조각이 된다. 비상장사 1~2곳에 투자해 승부를 보려면 아예 접근하지 말아야 한다. 일부 성공 사례만 좇으며 대박을 꿈꾸다간 필패한다. 우리도 30여 명이 달라붙어 꼼꼼하게 살피며 네트워크를 구축하며 버틴다. 2조원의 바게닝파워도 있다.”▷올해 투자 시장은.“작지만 강한 기업들이 성공적으로 안착하느냐에 달렸다. 카카오와 네이버에서 시작해 쿠팡 마켓컬리 무신사 토스 등 유니콘 기업(기업가치 1조원 이상 스타트업)이 나오고 있다. 비전펀드를 포함해 세쿼이아 등 세계적인 펀드들이 국내 벤처기업에 투자하고 있는 것도 좋은 현상이다.”▷유망 투자처는.“올해 투자 방향은 △의식주 영역의 버티컬 커머스 △지식재산권(IP) △크립토파이낸스(암호화폐금융) 등 세 가지로 잡고 있다. 버티컬 커머스의 사례는 직방이 대표적이다. 가상 오피스인 ‘메타폴리스’도 운영하고 있다. 넷플릭스, 디즈니플러스, 한국의 왓차 등 온라인동영상서비스(OTT) 플랫폼이 많아지면서 IP 비즈니스가 급부상 중이다. 디지털화 비율이 미국은 10%, 일본은 20%밖에 안 된다. 대개 웹툰이 배경이어서 이쪽을 들여다보고 있다. 크립토파이낸스는 메타버스 시대가 오고 탈중앙화된 시장(디센트럴랜드)가 보편화됐을 때를 대비한 투자다. 이때 거래할 화폐가 있어야 한다. 근간은 NFT(대체불가능토큰)다.”▷암호화폐의 가치를 높게 평가하는 건가.“코인에 투자하라는 얘기가 아니다. 가상자산 거래소와 코인은 크립토파이낸스에서 가장 작은 시장이다. 코인을 보관하는 개인 지갑이 있다면 금융행위를 해야 하는 여신과 수신, 비트코인을 기반으로 한 담보대출이 필요하다. 지난해 캐나다와 미국에 비트코인 상장지수펀드(ETF)가 상장됐는데, 암호화폐를 활용한 금융상품이 출시되면서 관련된 상품을 거래하는 자산운용시장도 확대될 거다. 굉장히 빠르고 급진적으로 올 건데, 크립토파이낸스를 선점하느냐에 따라 극명하게 성패가 갈릴 것이고 완전히 다른 세계가 올 것이다. 세쿼이아가 투자한 NFT의 가치평가 모델을 만든 NFT뱅크가 대표적이다. 앞으로 제2의 네이버와 카카오가 크립토파이낸스 분야에서 반드시 나올 거다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>네이버가 인수한 왓패드, 웹소설 영화로 넷플릭스 1위</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000795027?sid=105</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>‘스루 마이 윈도’, 넷플릭스 영화 1위드라마 ‘지금 우리 학교는’ 흥행 이어가네이버, 왓패드 인수 후 영상화 첫 성과 “글로벌 겨냥, 왓패드 100여편 영상 제작”지난 7~13일 넷플릭스 시청시간 자체 집계 기준, 각각 비(非)영어 영화와 TV쇼(드라마) 1위에 오른 '스루 마이 윈도'(위)와 '지금 우리 학교는'(아래). 두 작품의 원작은 네이버 웹소설과 웹툰이다. /넷플릭스 제공        네이버의 글로벌 웹소설 플랫폼 ‘왓패드’를 원작으로 한 영화 ‘스루 마이 윈도’가 넷플릭스 공개 후 전 세계 1위에 올랐다. 네이버가 왓패드를 인수하고 추진한 영상화 프로젝트의 첫 성과다. 이를 시작으로 네이버는 올해부터 왓패드 작품 100여편을 영상화하고 해외 각국에서 팬층(fan層)을 확보, 콘텐츠 사업의 글로벌 확장에 속도를 낸다.21일 넷플릭스에 따르면 ‘스루 마이 윈도’는 개봉 직후인 지난 7~13일 주간 시청시간 기준 비(非)영어 영화 부문 전 세계 1위를 차지했다. 2016년 왓패드에서 연재를 시작, 누적 3억4000만 조회수를 올린 동명의 10대 로맨스 장르 웹소설을 영화화한 작품이다. 이로써 비영어 TV쇼(드라마) 부문 1위 ‘지금 우리 학교는’과 함께 넷플릭스 양대 장르의 정상을 네이버 원작 두 편이 나란히 차지하게 됐다.스루 마이 윈도는 22개국에서 1위, 85개국에서 10위권에 들었다. 스페인어 작품인 만큼 해당 언어권인 스페인과 남미에서 특히 인기를 얻었다. 네이버 관계자에 따르면 이 영화의 흥행으로 후속작 2편 ‘대로(Boulevard)’와 ‘퍼펙토스 멘티로소스(Perfectos Mentirosos·스페인어로 ‘완벽한 거짓말쟁이들’)’도 최근 넷플릭스 개봉이 확정돼 각각 스페인과 멕시코에서 영화·드라마 제작에 들어간다.이를 포함해 네이버가 왓패드를 통해 제작 중인 웹소설 원작 영화·드라마는 100여편이다. 네이버 관계자는 “‘지금 우리 학교는’ ‘스루 마이 윈도’ 등이 최근에 보여준 성과는 더 많은 글로벌 팬들에게 원작에 대한 관심을 환기해 웹툰·웹소설의 매출을 올리고, 할리우드를 필두로 하는 엔터테인먼트 업계에서 네이버가 글로벌 지식재산권(IP) 비즈니스를 펼칠 기회를 늘려준다”라며 “영상화를 통한 킬러(인기) IP 발굴을 통해 글로벌 시장 공략을 강화할 것”이라고 말했다.왓패드 PC 웹과 모바일 애플리케이션(앱). /왓패드 제공        왓패드는 전 세계 이용자 9000만명, 작품 10억개를 확보한 북미 최대 규모의 웹소설 플랫폼이다. 작품의 80% 이상이 영어와 스페인어로 쓰였다. 네이버는 전 세계 인구 대다수를 차지하는 이 언어권 독자에게 친숙한 작품을 확보, 한국 콘텐츠 위주인 자회사 네이버웹툰의 약점을 보완하고자 지난해 5월 왓패드를 인수했다.네이버는 특히 왓패드 작품의 영상화에 집중하고 있다. 이를 위해 인수 직후인 지난해 6월 ‘왓패드 웹툰 스튜디오’를 설립했다. 국내에서 네이버웹툰의 자회사 ‘스튜디오N’을 통해 ‘지옥’ ‘지금 우리 학교는’ 등 인기 드라마를 배출하고 원작의 실적 성장까지 이끌고 있는 전략을 왓패드에도 대입했다.업계 관계자는 “통상 원작이 영상화되면 판권 판매로 끝나지 않고, 원작에 대한 대중의 관심이 높아져 원작의 인기와 유료 결제액도 늘어난다”라며 “해외 이용자들이 플랫폼으로 신규 유입되는 효과도 기대할 수 있다”라고 말했다. ‘지금 우리 학교는’의 경우 넷플릭스 공개 후 원작의 주간 평균 조회수와 거래액이 각각 70배, 59배 늘었다고 네이버는 밝혔다.지난해 12월엔 미국 3대 지상파 중 하나인 CBS와 영화제작사 ‘파라마운트 픽처스’를 소유한 글로벌 미디어 기업 ‘바이아콤CBS 인터내셔널 스튜디오’와 콘텐츠 제작 파트너십을 체결, 왓패드 작품의 영상화에 함께 나서기로 했다.다음 달 최수연 차기 대표 체제로 바뀌는 네이버는 올해 글로벌 진출에 집중할 예정으로 알려졌다. 네이버의 5개 사업 중 콘텐츠 사업은 네이버웹툰과 왓패드를 합쳐 전 세계 1억7000만 이용자를 바탕으로 글로벌 진출의 핵심 역할을 할 것으로 평가받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>월·화·수·목·일일일… 피할 수 없는 대세 vs 아직은 시기상조</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001507287?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[스토리텔링 경제] 주4일제 실험, 어디까지 왔나이한결 기자“‘삶의 질’ 높이려다 ‘삶의 터전’ 잃습니다.” 주5일 근무제 도입을 한창 논의하던 2002년에 전국경제인연합회 등 경제단체들은 이런 광고를 냈다. 경영계 등의 거센 반대에 부딪혀 법안이 통과하고도, 주5일제가 완전 정착하는 데 약 8년이 걸렸다.그리고, 이제 주4일제가 떠오르고 있다. 이재명 더불어민주당 대선후보는 지난달 26일 경기 부천시 근로자종합복지관에서 노동공약을 발표하고 주4.5일제 단계적 도입을 위한 시범사업을 추진하겠다고 밝혔다. 심상정 정의당 대선후보도 “대한민국은 시간 빈곤사회”라면서 주4일제 도입 공약을 공식화했다. 이미 주4일제를 도입한 기업도 제법 있다.주4일제를 찬성하는 쪽에선 노동자의 삶의 질 향상, 노동생산성 향상 등을 거론한다. 장시간 노동에 기반을 두는 노동시장을 개혁해 ‘시간 빈곤’을 해결할 수 있다고 말한다. 반대편에선 기업 비용 증가, 생산성 하락을 지적한다. 근로시간 축소가 영세업체와 비정규직에 악영향을 미친다는 우려도 제기된다. 주4일제 실험은 어디까지 왔고, 어디로 가야 할까.앞다퉈 주4일제 시행하는 기업들프랑스 영국 아이슬란드 스페인 뉴질랜드 등에선 여러 기업이 주4일제를 이미 실시하거나 시범 도입 후 확대 계획을 갖고 있다. 미국인사관리협회 2019년 통계를 보면 미국의 전체기업 중 주4일제를 도입한 곳은 27%에 이른다. 일본 정부도 주4일제 도입을 추진하는 것으로 알려졌다.한국에서도 주4일제 기업이 등장하고 있다. 에듀윌은 2019년 6월 ‘드림데이’라는 제도를 시작했다. 주말을 제외하고 하루 더 쉬는 주4일 근무체계로 직원들은 하루 8시간씩 주32시간을 일한다. 에듀윌에 따르면 초기에 업무 강도가 높았으나, 내부 시스템 개편과 일자리 나누기로 보완했다. 제도 시행 전 470명이었던 직원은 750명으로 늘었고, 매출은 연간 800억원대에서 1100억원대로 올랐다. 우려했던 부작용(생산성 하락, 일자리 축소 등)은 없는 셈이다.SK그룹의 SK수펙스추구협의회와 지주사는 2019년부터 격주로 주4일제를 시행 중이다. 우아한형제들은 2017년부터 월요일 오후 1시에 출근하는 4.5일제를 실시하고 있다. 핀테크 플랫폼 토스를 운영하는 비바리퍼블리카도 지난해 11월부터 금요일에 오전까지만 일하는 주4.5일제를 도입했다. 카카오게임즈는 매월 1회 실시하던 금요일 휴무제를 지난해 4월부터 격주로 늘렸다. 한 달로 치면 ‘주4.5일 근무’다. 금융권도 주4.5일제 카드를 만지작거리고 있다. 신한은행은 주40시간을 맞추되 유연근로제를 혼합해 1일 4시간 근로를 하고 다른 요일에 근로시간을 더해 운영하는 주 4.5일 근무제 실험을 예고했다.“노동자 삶의 질 향상”게티이미지주4일제를 찬성하는 가장 큰 근거는 노동자의 삶의 질 향상이다. 구인·구직 플랫폼 사람인이 지난해 8월 성인 4155명을 대상으로 주4일제에 대한 인식조사를 한 결과, 83.6%가 긍정적이라고 답했다. 이유로는 휴식권 보장과 워라밸 정착(72.4%), 충분한 재충전을 통한 업무 효율 향상(51.7%), 건강 관리(32.1%), 휴일 증가로 내수 진작(21.2%), 자녀 돌봄(20.1%) 등을 꼽았다(복수응답).시간의 양보다 질을 높여 업무에 집중하는 환경을 만들 수 있다는 주장도 제기된다. 경제협력개발기구(OECD)에 따르면 2020년 기준으로 한국의 연평균 노동시간은 1908시간이다. OECD 회원국 가운데 3번째로 많이 일하는 나라다. OECD 38개 회원국 평균 노동시간은 1687시간이다. 이와 달리 한국의 시간당 노동생산성은 41.7달러로 27위다.해외에선 주4일제 실시로 생산성이 높아졌다는 보고도 있다. 영국 레딩대학의 2019년 연구를 보면, 주4일제를 도입한 영국 기업의 64%가 “생산성이 높아졌다”고 응답했다. 마이크로소프트 일본지사는 주4일제 실시 후 생산성이 40%가량 향상됐다고 발표했다.“생산성 향상, 일자리 창출 어렵다”그러나, 찬성만큼 반대 논리도 선명하다. 기업 비용·부담 증가, 노동생산성 하락 등을 들며 우려하는 목소리가 만만찮다. 사람인의 같은 설문조사에서 주4일제에 부정적 답변을 한 이들은 임금삭감 가능성(60.4%), 업무강도 상승(45.3%), 생산성 하락(19.6%), 상대적 박탈감(15.4%), 기업 경쟁력 약화(15.1%) 등을 이유로 제시했다(복수응답).근로시간 축소를 두고 업종 간, 정규·비정규직 간 격차가 불가피하다는 관측도 있다. 최영기 한림대 경영학부 객원교수(전 한국노동연구원장)는 “IT, 금융 업종이나 공공기관, 전문직 등 근로시간에 구애되지 않는 업무나 직종에서는 자연스럽게 근로시간 단축이 이뤄질 수 있지만, 양극화가 더 커질 수 있다”고 말했다.주4일제가 일자리 창출이나 기업의 생산성 향상으로 이어지기 어렵다는 비판도 제기된다. 장정우 한국경영자총협회 노동정책본부장은 “최근 우리나라 노동자들의 실근로시간이 많이 줄고 있는데 동시에 고용률도 감소하는 추세”라면서 “주4일제 도입 시 일자리 창출이 기대된다고 하지만, 최근 추세를 보면 근로시간을 줄였을 때 실제로 일자리가 늘어날지 예단하기 어렵다”고 했다.전문가들은 노동자와 기업 모두에 지속가능한 형태를 고민해야 한다고 진단한다. 최 교수는 “코로나19 이후 노동시장의 세계적 트렌드에 걸맞게 기업 주도로 주4일제 확산이 빠르게 자리 잡을 수도 있을 것으로 본다”면서 “기업 주도로 주4일제를 정착시키되, 노동시장 변화에 따른 양극화나 불평등 등의 문제를 정부가 차분하게 분석하고 정책 우선순위를 가려야 할 것”이라고 말했다. 장 본부장은 “유연근무제 확대, 전문직 근로시간 면제제도 등으로 노동시장 유연성을 높인 뒤에야 근로시간 축소를 논의할 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>박재민 대표 "400만 개미 마음 훔쳤다… 압도적 모바일 1위 목표"</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000785654?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[CEO초대석] 토스증권, 출범 1년만에 증권업계 '돌풍' 주역박재민 토스증권 대표는 최근 머니S와의 인터뷰에서 “압도적인 1등이 돼 더 많은 사용자들이 토스증권을 통해 투자를 하고 정보를 얻고 투자자로 성장할 수 있도록 도와주는 플랫폼이 되는 것을 목표로 하고 있다”고 밝혔다./사진=장동규 기자“지금까지 입문자들에게 포커스를 맞춘 서비스를 만들어왔다면 앞으로는 주식 고수들까지 커버할 수 있도록 기능을 확장하고 고객분들이 유용하게 이용할 수 있는 투자수단을 늘려가는 것을 목표로 하고 있습니다. 그 첫 번째 스텝으로 로보어드바이저 기반의 자산 관리 서비스를 개발하고 있습니다.”박재민 토스증권 대표는 최근 머니S와의 인터뷰에서 올해 경영전략에 대해 이같이 밝혔다. 지난해 2월 출범한 토스증권은 1년 동안 개인투자자들과 증권사들의 뜨거운 관심을 받았다. 국내 주식시장에 12년 만에 등장한 증권사인데다 1800만명이 넘는 가입자를 보유한 ‘핀테크 공룡’ 토스의 증권업 진출은 업계를 긴장시키기에 충분했다.━대형 증권사 10년간의 성과 1년 만에 달성… “기록적인 성장세”━박 대표는 지난 1년 동안의 성과에 대해 묻자 “이제 출범한 지 만 1년이 되어가고 있는 회사이기 때문에 아직 성과라고 말씀드리기에는 조금 이른 시점이라는 생각은 든다”며 겸손한 모습을 보였다. 그는 “그래도 소기의 성과가 있었다고 생각하는 부분은 일단 빠른 속도로 성장했다는 점을 첫 번째로 말씀드릴 수 있을 것 같다”고 말문을 열었다. 실제로 MZ세대를 등에 업은 토스증권 가입자수는 출범 1개월 만에 가입자 수 200만명을 돌파했고 3개월 만에 300만명을 달성하는 기염을 토했다. 지난해 말 기준 405만명을 넘어섰다. 활성 사용자 수는 230만명에 달한다. 국내 전체 주식거래 활동계좌수가 5900만여개 라는 점을 고려하면 출시 1년도 안 돼 약 4%에 해당하는 점유율을 차지한 셈이다. 박 대표는 “400만 계좌 개설은 사실 대형 증권사들도 거의 10년 가까이 걸려서 달성했던 숫자인데 저희 같은 경우는 1년도 안 되는 짧은 시간 동안 달성을 했다”며 “단순히 그냥 계좌만 개설된 게 아니라 이 고객들의 60%가 토스 증권을 매달 방문하고 있다”고 설명했다. 그는 “매달 방문하는 고객이 현재 230만명 정도가 되는데 실제로 서비스를 되게 활발하게 사용하고 있다”며 “빠른 시간에 압축적으로, 어떻게 보면 금융 역사에 나올 만한 성장을 했다”고 덧붙였다. 토스증권이 불러온 메기 효과는 증권업계에도 강력한 변화의 바람을 불러일으켰다. 지난해 증권가에서는 MTS(모바일거래시스템) 신규 출시와 업데이트 소식이 쉴 새 없이 들려왔다. 토스 특유의 직관적인 사용자 경험을 최대 무기로 내세운 토스증권 MTS가 MZ세대를 급속도로 빨아들이자 다른 증권사들도 미래 고객 확보를 위해 너도나도 MTS에 힘을 쏟았기 때문이다. 박 대표는 “토스증권 서비스가 출시된 이후 다른 증권사들도 간편 거래 서비스들을 많이 만들고 있는 것 같다”며 “이전까지는 HTS(홈트레이딩시스템)에서 구현해 왔던 것들을 거의 그대로 MTS에 가져와 만드는 서비스들이 많았던 반면 이제는 증권업계에서도 어떻게 하면 모바일에서 좀 더 최적화해서 고객 경험을 만들 수 있을까, 더 좋은 서비스를 만들 수 있을까 이런 부분에서 고민을 시작한 것 같다”고 말했다. 그는 “저희가 업계에서 새로운 화두를 제시를 했던 것 같고 업계 자체가 변화하는 모습도 보이는 것 같다”며 “저희가 작은 공을 쏘아 올렸다는 부분에서도 어느 정도 성과가 있었다고 생각한다”고 덧붙였다. ━새 목표는 ‘모바일 1등 증권사’… 로보어드바이저 서비스 출시 준비중━하지만 아직도 갈 길은 멀다는 것이 그의 생각이다. 출범 당시 목표로 내세운 활성사용자 100만명 확보를 이미 훌쩍 뛰어넘은 토스증권의 새로운 목표는 한국에서 가장 많은 투자자들에게 사랑을 받는 ‘모바일 1등 증권사’가 되는 것이다. 야심찬 포부를 담아 올해 시작과 동시에 대규모 업데이트를 단행했다. 이번에 새로 적용되는 내용은 크게 ▲국내외 투자종목 확대 ▲매매 기능 추가 ▲알림 기능 세분화 등으로 볼 수 있다. 박 대표가 특히 신경을 쓴 부분은 투자할 수 있는 대상과 방법을 확대한 것이다. 박 대표는 “고객들의 피드백을 들으면서 이번에 크게 두 가지 방향을 좀 신경을 많이 썼는데 첫 번째는 투자할 수 있는 대상을 확대를 하는 부분이었다”며 “국내 ETF 같은 경우 종목수를 많이 늘려 2000개가 넘는 종목을 제공을 해드리고 있다”고 설명했다. 이어 “투자를 할 수 있는 방법도 조금 더 다양하게 만들었다”며 “해외 시장 같은 경우는 프리마켓이랑 에프터마켓을 이번에 출시했고 국내 시간외 거래도 곧 출시할 예정이며 1분기 내 해외주식 소수점 거래 서비스도 출시 준비 중”이라고 덧붙였다. 박 대표의 요즘 고민은 입문 고객들에게 쉬운 서비스를 유지하면서 투자자들의 성장 속도에 맞춰 다양한 기능을 선보이는 것이다. 실력을 쌓은 투자자들에게 필요한 기능들을 추가로 도입하면서도 입문자들의 눈에는 밟히지 않도록 직관적인 디자인으로 풀어야 하는 것이 숙제다. 그는 “고객들이 원하는 기능들은 다 서비스를 구현할 예정이고 좀 더 특별히 좀 신경 쓰는 부분은 그럼에도 불구하고 저희가 입문 고객에게 어려워지면 안된다는 것”이라며 “쉬운 서비스의 결은 유지를 하면서도 좀 더 기능을 다양화해 나가기 위해 디자인과 UX 부분에 조금 더 신경을 많이 쓰고 있다”고 말했다. 올해 집중하고 있는 부분은 로봇 어드바이저 기반의 자산 관리 서비스다. 좋은 포트폴리오를 구성해 고객들이 최대한 신경을 안쓰면서 우수한 수익률을 가져가도록 만드는데 중점을 두고 있다. 그는 “최대한 고민 없이 투자를 시작할 수 있고 좋은 상품을 제안해 드릴 수 있는 방향으로 만들려고 한다”며 “어떤 투자 성향을 갖고 있는지 어떤 투자 상품이 좀 더 적합할지를 파악하고 제안해 돈 관리를 편하게 맡기고 본업에 집중할 수 있는 고객 경험을 만들려고 하고 있다”고 말했다.━컨설팅·IT 거친 ‘문제해결 전문가’… “증권도 새로운 시각으로 접근”━증권 경험이 없는 81년생 업계 최연소 최고경영자(CEO). 박 대표도 출범 당시 토스증권 만큼이나 주목을 받았다. 박 대표의 경력을 보면 삼일 PwC 컨설팅, 보스턴컨설팅그룹(BCG), 쿠팡 마켓플레이스 등 다양한 분야를 거쳤다. 증권사 경력은 없지만 오히려 그 점이 새로운 시각으로 증권업계의 문제를 바라보고 접근하는 데 도움이 됐다는 설명이다. 박 대표는 “저의 경력을 크게 보면 두 가지 맥락으로 설명드릴 수 있는데 하나는 문제 해결의 전문가, 또 하나는 IT 서비스에 대한 전문가라고 말씀드릴 수가 있다”며 “컨설팅은 주로 프로젝트 단위로 돌아가는데 몇 달짜리 짧은 프로젝트들을 하면서 새로운 업계를 빠르게 습득하고 그 안에서 문제를 찾고 해결을 하고 제안을 하고 전략을 만든다. 이런 부분들이 학습이 돼 있기 때문에 문제 해결 능력과 전략가로서의 능력이 있다고 생각한다”고 말했다. 박재민 토스증권 대표는 최근 머니S와의 인터뷰에서 “압도적인 1등이 돼 더 많은 사용자들이 토스증권을 통해 투자를 하고 정보를 얻고 투자자로 성장할 수 있도록 도와주는 플랫폼이 되는 것을 목표로 하고 있다”고 밝혔다./사진=장동규 기자쿠팡에서 경험한 IT 서비스도 토스증권 만의 새로운 증권 서비스를 만드는데 긍정적인 영향을 미쳤다. 그는 “결국 쿠팡도 커머스를 앱으로 잘 구현을 했고 토스증권도 모바일 전문 증권사로서 투자의 경험을 앱으로 새롭게 정의하고 구현하는데 집중하고 있기 때문에 IT 서비스 전문가로서의 시각을 갖고 있다는 부분도 도움이 많이 됐다”고 설명했다. 박 대표가 그동안 쌓아온 커리어를 통해 갖춘 장점과 전통 증권사 출신 직원들의 시너지 효과가 지금의 토스증권을 성장시키는 원동력이 되고 있다. 그는 “경영은 혼자 하는 건 아니기 때문에 증권사로서 필요한 전문성 같은 경우는 증권사 출신 직원들로부터 보충을 받고 있고 같이 논의를 하면서 만들고 있다”고 말했다. 박 대표는 “압도적인 1등이 돼 더 많은 사용자들이 토스증권을 통해 투자를 하고 정보를 얻고 투자자로 성장할 수 있도록 도와주는 플랫폼이 되는 것을 목표로 하고 있다”며 “고객들이 원하는 서비스를 출시하면서 더 좋은 반응을 얻고 더 성장해 나가고 싶다”고 포부를 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1년 임직원 17명에 '스톡옵션' 34만주 부여</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001015536?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>토스뱅크가 입사 1주년을 맞이한 사내 임직원을 대상으로 ‘주식매수선택권(스톡옵션)’을 부여한다.토스뱅크는 18일 임시주주총회를 열고 임직원 17명에게 스톡옥션 총 34만 주를 부여하기로 결정했다고 밝혔다.주식의 종류는 기명식 보통주다. 신주발행의 형태로 부여되며, 행사가는 액면가 기준 주당 5천원이다.부여 기준일은 오는 28일이다. 대상 임직원은 부여일로부터 2년 뒤인 2024년 2월 28일부터 5년간 이를 행사할 수 있다.앞서 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입했다.전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다.지난해 7월과 11월, 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>中 핀테크 규제에 인도·싱가포르 수혜… 한국, 지난해만 30억달러 투자</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000786580?sid=104</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>글로벌 회계·컨설팅 그룹 KPMG가 17일 발간한 보고서 ‘2021 핀테크 동향'에 따르면 한국 핀테크 투자액이 30억달러인 가운데 케이뱅크가 11억달러를 차지한 것으로 조사됐다./사진=뉴스1지난해 전세계에서 거래된 핀테크 투자 건수가 사상 최대치를 기록한 가운데 지급결제 분야에 가장 많은 투자액이 집중된 것으로 조사됐다. 글로벌 회계·컨설팅 그룹 KPMG가 지난 17일 발간한 보고서 ‘2021 핀테크 동향’에 따르면 지난해 글로벌 핀테크 투자 건수는 5684건으로 사상 최대치를 기록했다. 2020년(3764건)과 비교하면 51% 증가한 수치다. 지난해 투자액은 2101억달러로 전년(1249억달러) 대비 68% 늘었다. 특히 투자액이 가장 많이 집중된 분야는 지급결제로 517억달러에 달했다. B2B 후불결제, 임베디드 뱅킹, 오픈 뱅킹 제휴 솔루션 등에 대한 관심이 전세계적으로 증대됐기 때문으로 보인다. 블록체인 및 가상자산(302억달러) 사이버보안(48억달러) 자산관리(16억달러) 분야는 사상 최대 투자액을 돌파했다. 블록체인 및 가상자산의 경우 투자액은 2020년 55억달러에서 449% 급증했고 투자건수는 같은 기간 927건에서 1332건으로 43% 증가했다. KPMG는 “금융 시스템에서 가상자산의 잠재적 역할과 기술에 대한 인식이 높아지고 있음을 뜻한다”고 설명했다.지난해 전세계에서 거래된 핀테크 투자 건수가 사상 최대치를 기록한 가운데 지급결제 분야에 가장 많은 투자액이 집중된 것으로 조사됐다. /자료=KPMG지역별로는 미주 지역(1053억달러)의 투자액이 가장 많았다. 유럽(774억달러) 아시아태평양 지역(275억달러) 인도(72억달러) 싱가포르(40억달러) 등이 뒤를 이었다. 한국의 핀테크 투자액은 30억달러로 케이뱅크(11억달러)와 토스(4억1000만달러)의 영향이 큰 것으로 조사됐다. 인도와 싱가포르는 중국의 핀테크 산업 규제 정책의 수혜를 입었다. 일부 투자자들은 중국의 규제를 피해 인도와 싱가포르로 투자처를 옮겼다. 중국은 현재 가상자산 채굴과 거래를 금지하는 한편 빅테크를 규제하는 등 핀테크 산업 전반에 대한 규제를 강화하고 있다. 조재박 삼정KPMG 핀테크 리더는 “앞으로 고객 경험 및 서비스 제고를 위한 금융과 비금융의 합종연횡, 슈퍼앱으로 진화를 위한 지급결제, 플랫폼 업체 M&amp;A, 블록체인 기술 활용 및 향후 역할에 대한 재조명, 자산관리 혁신에 대한 수요 증대 등의 현상이 나타날 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>中企에 손내민 '삼성'…김기문 회장 "양극화해소, 착한대기업"</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004713732?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[[머투초대석]김기문 중소기업중앙회 회장]김기문 중소기업중앙회장. /사진=이기범 기자 leekb@김기문 중소기업중앙회(이하 중앙회) 회장은 지난달 시행된 중대재해처벌법(중대재해 처벌 등에 관한 법률, 이하 중대재해법)에 대해서도 '기울어진 운동장'이라며 반드시 보완해야 한다고 강조했다. 무엇보다 대기업과 달리 중소기업은 대표가 형사처벌을 받으면 기업차제가 휘청일 수 있기 때문이다. 그는 중대재해법과 함께 주52시간 근로제와 최저임금, 탄소중립 등 3종 세트로 인해 발생하는 문제들은 해결하고 가야 한다고 했다. 차기 대통령 선거를 앞두고 작심발언을 쏟아낸 것이다. 또 다른 핵심과제로 대·중소기업 양극화 해소를 지목하며 납품 계약상 강제력을 갖는 '원자재 가격 연동제'를 제시했다. 그는 삼성이 원자재 수급으로 어려움을 겪는 협력업체에 납품단가를 조정해줬다며 이같은 모범사례가 많이 나와야 한다고 했다. 머니투데이는 그를 지난 24일 집무실에서 만났다.-대선이 코앞이다. 양당 후보의 공약 중 중소기업에 가장 와 닿는 것은 무엇인가.▶두 후보가 우리 의견을 모두 반영한 게 대기업과 중소기업의 양극화해소다. 지난 5년간 양극화가 심화됐다. 대기업이 이익을 몽땅 가져가 버리고, 중소기업은 고생만 하고 이윤추구를 못 하고 있다. 윤석열 국민의힘 후보는 이것을 담보하기 위해 대통령직속 상생위원회를 만들겠다고 했다. 중소기업계에서 원하는 사람을 임명하겠다고 한다. 이재명 더불어민주당 후보는 디테일한 공약을 많이 냈는데 디지털 대전환이 눈에 띈다.-두 후보가 내놓은 공약이 실질적인 대안이 될 수 있는가.▶과거에 대통령 직속 중소기업 특별위원회를 장관급으로 만들었는데 전직 국회의원 등의 자리 나눠 먹기 수준에 그쳤다. 실효성이 떨어졌다. 그 역할을 중소기업계에서 직접 맡으면 달라진다. 이런 위원회를 만든다는 건 서로가 상생하기 위한 것이다. 이 후보 공약의 경우 민주당 선대위의 디지털 혁신 대전환 박영선 위원장이 전 중소벤처기업부 장관이다. 중소기업 사정을 잘 알고 있어서 기대할 수 있는 부분이 있을 것 같다.김기문 중소기업중앙회장이 머니투데이와 인터뷰를 갖고있다. /사진=이기범 기자 leekb@-문재인 정부의 정책에 대한 중소기업의 만족도가 낮았다. 왜 그렇다고 보는가.▶3종 세트라고 하는데 주52시간 근로제와 중대재해법, 최저임금 등이다. 이 때문에 중소기업이 상당히 힘들었다. 이런 점을 반영한 것이라고 본다. 물론 잘한 정책도 있다. 가장 잘한 정책이 대출금만기연장이다. IMF외환위기와 글로벌 금융위기 등을 겪으면서 가장 문제가 은행들이 무차별적으로 대출을 회수하는 것이었다. 코로나19와 같은 천재지변으로 기업이 부도나는 건 억울하다. 청와대 비상경제 대책회의에서 얘기했더니 다음날 곧바로 시행됐다. -중대재해법은 일단 시행됐다. 현재 입장은 무엇인가.▶차기 정부에서 입법보완을 해야 한다. 중소기업 단체가 같은 의견을 갖고 있다. 특히 하한규정인 '1년 이상의 징역'은 기업가에게 굉장한 불안요소로 작용한다. 현행 산업안전보건법(이하 산안법)에 1200~1500개 관련 처벌조항이 있다. 산안법으로 다 되는데 굳이 할 필요가 없다. 노동조합 의견만 너무 듣고 기업 의견을 무시한 것이다.-중대재해가 50인 미만에서 많아 확대해야 한다는 시각도 있다.▶근로자 50인 미만 사업장에서 많다고 해서 원인을 조사해봤는데 근로자 과실이 75.6%가 넘는다. 그럼 대표는 잘못을 안 해도 처벌을 받아야 한다. 사실 50인 미만 기업은 사장과 직원이 현장에서 함께 일하는 곳이다. 오너가  곧 대표다. 사고가 나면 수습을 하고 보상을 해야 하는데 대표가 처벌을 받으면 그럴 수 없다. 기업도 망한다. 어느 쪽도 득이 되는 게 없다. 기업과 근로자를 위한 법이 맞는지 따져봐야 한다.-주52시간 근로제에 대해서는 어떤 의견을 갖고 있다.▶(연장근로가)주간 12시간, 4주면 48시간이다. 이걸 한 달로 따져보면 52시간이다. 주간 초과 근로시간의 경우 지나간 건 못쓴다. 예를 들어 월·화요일엔 일이 없어서 놀고 수·목요일에 쓰고 싶어도 못 쓴다. 노동 유연성이 없다. 일본에선 노사가 합의하면 월 100시간, 연간 720시간을 쓸 수 있다. 몰아 쓸 수 있게 해야 한다. 날마다 부품이 공급되는 것도 아니고 한달이나 두달에 한번 이렇게 들어온다. 탄력근로제도 기간을 넘기면 안 된다. 이런 부분이 답답하다.-최저임금제도에 대해서도 할 말이 많을 것 같다.▶미국 캘리포니아에 가보니까 최저임금을 정하면 중소기업은 1년 유예해서 적용한다. 한국은 일률적으로 한다. 중소기업이 규모, 지역, 업종별로 구분해달라고 말해 왔다. 노조는 52시간 넘어가면 건강권 문제를 제기하는데, 근로자들이 더 일을 하겠다고 해도 막는다. 70% 넘는 근로자들이 월급이 깎여서 생활이 안된다고 한다. 재작년에 319만명이 최저임금을 못 받았다. 매우 안타깝다.김기문 중소기업중앙회장이 머니투데이와 인터뷰에서 미소를 짓고있다. /사진=이기범 기자 leekb@-탄소중립도 중소기업이 감당하기 어려운 부분이다.▶정부 보조에 맞추기 위해서는 3가지를 먼저 들어달라고 주문했다. 첫번째로 중소기업 전용 전기요금을 만들어 달라는 것. 두번째는 탐소저감장치를 정부가 지원해달라는 것, 그리고 세번째가 납품단가 연동제다.  이 정도만 받아준다면 중소기업들도 감내하겠다는 것이다. 다음 정부에서 수용해 주는 게 관건이다. -납품단가의 경우 원자재 가격이 급등하면서 중소기업이 더 힘들어졌다.▶납품단가 문제가 더욱 이슈가 되고 있다. 코로나19 이후 세계 경제가 꿈틀거리는데 글로벌 공급망이 무너지면서 공급이 수요를 못 따라가고 원자재값이 천정부지로 올랐다. 포스코가 철강 가격을 5번 올렸다고 하는데 꼭 그렇게 해야 했는지 의구심이 든다. 포스코가 사상 최대 이익을 냈기 때문이다. 어떤 곳은  5~6개월 뭉개다가 올려주거나 소급적용을 안 해주기도 한다. 원자재 값이 조금 뛰었다면 모를까 급격히 오르니 나중에 따져보면 손해다. 정부 조달이나 대기업 납품 할 것 없이 모두 그렇다. 일부지만 원자재 가격이 오르니까 그 금액을 반영해주는 착한 곳도 있다. 그야말로 착한 대기업이다. 대표적으로 삼성이 그렇다.-임기가 1년 남았는데, 앞으로 어디에 중점을 둘 것인가.▶마지막까지 협동조합 활성화에 초점을 맞추려고 한다. 17개 광역지자체에서 관련 조례가 다 통과됐다. 기초 지자체로 확대하고 있다. 협동조합에 이미 중소기업 지위를 줬기 때문에 551개 중기 지원정책을 똑같이 받을 수 있다. 공동판매를 담합이라고 보는 문제를 해결하면 협동조합이 마음껏 일을 할 수 있다. 분업화해서 여러 분야의 협동조합이 나타나야 한다. 상당부분 시간이 필요하다. 다음 타자가 받아서 해야하는 부분이다.-임기 중 가장 기억에 남는 일이 있다면▶코로나19 위기 이후 도산하는 기업을 최소화했다는 게 가장 보람된 일이다. 두번째는 토스뱅크가 인터넷뱅킹 사업권을 따는 데 일조를 했다는 것이다. 토스가 기업공개를 하게 되면 중앙회 자체적으로 금융지원을 할 수 있는 종잣돈이 될 것이다. 중앙회가 자립기반을 마련한 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>K-핀테크 새사령탑에 이근주 간편결제진흥원장 "전금법 처리 시급"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004709576?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회 제4대 회장에 선출된 이근주 한국간편결제진흥원장 /사진=한국핀테크산업협회 국내 최대 규모 핀테크 네트워크 기관인 한국핀테크산업협회의 제4대 회장에 이근주 한국간편결제진흥원장이 선출됐다. 임기는 2년으로 오는 18일부터 업무를 시작한다. 17일 핀테크산업협회에 따르면 전날 오전 10시부터 이날 오후 2시까지 진행된 4대 회장 선거 온라인 전자투표에서 이근주 원장이 최다 득표를 기록하며 회장에 선출됐다. 핀테크산업협회는 이날 서울 중구 프레지던트호텔에서 정기총회를 열고 부회장, 이사, 감사 등을 포함한 제4대 이사회 임원을 구성했다. 신규 부회장사는 △뉴지스탁 △센트비 △줌인터넷 △포블게이트 등 4개사, 신규 이사사는 △페이민트 △푸시 등 2개사가 선출됐다. 핀테크산업협회는 2016년 금융위원회로부터 사단법인 인가를 받은 민간협회다. 현재 국내 핀테크 기업 344개사가 회원으로 있다. 협회는 핀테크 산업진흥과 대외협력, 정책 건의, 연구조사사업 등 핀테크산업 전반에 관한 업무를 지원하고 정부·국회 등 관(官)과의 소통 창구 역할도 하고 있다. 초대 회장은 이승건 비바리퍼블리카(토스) 대표, 2대 회장은 김대윤 피플펀드 대표, 3대 회장은 류영준 카카오페이 대표가 맡았다. 4대 회장 선거는 이근주 원장과 정인영 디셈버앤컴퍼니자산운용 대표, 이혜민 핀다 대표 간 3파전으로 진행됐다. 핀테크산업협회 창립 이래 3파전으로 진행된 선거는 이번이 처음이다. 1~2대 회장 선거는 각 후보가 단독으로 출마했고, 3대 회장 선거 때는 류영준 현 회장과 신승현 데일리금융그룹 대표가 경쟁을 벌였다. 차기 회장의 핵심 과제는 핀테크 기업의 전자금융업 진입장벽을 낮추는 전자금융거래법(전금법) 개정안 처리다. 망분리 등 핀테크 규제 완화 이슈도 있다. 오는 5월 차기정부 출범과 맞물려 있어 정부와의 가교 역할도 중요하다. 이근주 신임 회장은 IBK기업은행 스마트금융부장, 핀테크산업협회 설립준비국장, 소상공인 간편결제추진단장, 제로페이 특수목적법인(SPC) 설립 준비위원장 등을 지냈다. 동국대에서는 공학박사(핀테크) 학위를 취득했다. 그는 선거운동 기간 △전금법 개정안 처리 △마이데이터 활성화 △망분리 규제 합리적 개선 등 지속적 규제 완화 △핀테크 창업 활성화 △상생하는 핀테크 산업환경 조성 △유관기관과의 네트워킹 역량 증대 등을 공약으로 제시했다. 이 회장은 취임사에서 "규제 혁신과 이(異)업종 교류를 통해 핀테크 산업을 성장시키겠다"며 "전금법 개정안 통과, 마이데이터 서비스 영역 확대, 망 분리 규제의 합리적 완화 등이 매우 시급하다"고 했다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[임현우 기자의 키워드 시사경제] 몸값 10억달러 넘는 스타트업…매일 1개씩 탄생</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004668659?sid=102</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>유니콘한 명품 브랜드 패션쇼에 등장한 유니콘. 신화 속 동물인 유니콘은 '잘나가는 스타트업'을 상징하는 용어로도 쓰인다. /한경DB세계 유니콘(unicorn) 기업 수가 처음으로 1000개를 돌파했다고 블룸버그비즈니스위크가 지난 9일 보도했다.유니콘은 기업가치 10억달러(약 1조2000억원) 이상인 비상장 스타트업(신생 벤처기업)을 뜻하는 용어다. 2013년 미국 벤처캐피털 카우보이벤처스의 에일린 리 대표가 한 언론 기고문에서 처음 사용한 이후 널리 쓰이고 있다. 비상장 기업의 가치는 외부 투자를 유치하는 과정에서 투자자들의 평가를 거쳐 산정된다. 이게 조(兆) 단위에 진입했다는 것은 그간의 성과와 미래 가능성을 시장에서 인정받았다는 의미로 볼 수 있다. 사상 처음 1000개 돌파2013년 리 대표는 “2003년 이후 창업한 스타트업 중 기업가치 10억달러를 넘은 기업이 에어비앤비, 드롭박스, 페이스북, 링크트인, 트위터, 우버, 유튜브 등 39개가 있다”고 소개했다. 이 중 몸값이 가장 높았던 트위터는 100억달러 정도로 평가받았다. 2015년 경제지 포천이 ‘유니콘의 시대’라는 제목의 기사를 올릴 당시 유니콘 수는 80개였다.유니콘이 급증하기 시작한 것은 2020년대 들어서부터다. 시장조사업체 CB인사이트 집계에 따르면 2020년 말 569개였던 유니콘 수는 이달 초 1000개를 돌파했다. 현재 ‘몸값 1등 유니콘’은 틱톡을 운영하는 중국 바이트댄스로, 기업가치를 1400억달러(약 168조원)로 평가받고 있다.원래 유니콘은 신화 속 동물처럼 현실에서 쉽게 나타나지 않는다고 해서 붙은 이름인데, 올 들어선 하루 한 개꼴로 탄생하고 있다. 지난 1월에만 42개 스타트업이 유니콘 대열에 합류했다. 코로나19 사태 이후 저금리에 힘입어 시중에 벤처투자 자금이 풍부해졌고, 언택트(비대면) 흐름에 올라타 폭발적 성장을 달성한 스타트업이 많아진 영향이다.한국에서는 10여 개 기업이 유니콘 기업으로 인정받고 있다. 무신사, 마켓컬리, 당근마켓, 토스, 야놀자, 티몬, 직방 등 소비자에게 친숙한 이름이 여럿 포함돼 있다. 더 크면 데카콘, 또 더 크면 헥토콘기업공개(IPO)를 통해 증시에 상장하면 유니콘 명단에서 빠진다. 트위터, 페이스북, 우버 등은 더 이상 유니콘으로 분류되지 않는다. 유니콘에서 기업가치가 더 높아져 100억달러를 넘어서면 데카콘(decacorn)이라고 부른다. 유니콘의 유니가 숫자 1을 뜻하는 데서 착안해 숫자 10을 뜻하는 접두어 데카로 바꾼 것이다. 또 1000억달러를 돌파하면 헥토콘(hectocorn)이라고 한다. 숫자 100을 의미하는 헥토에서 유래했다.리 대표는 “코로나19는 많은 사람에게 고통을 안겼지만 동시에 유니콘을 만들어냈다”고 말했다. 다만 “지금도 스타트업이 유니콘에 올라서기는 매우 어렵다”며 “유니콘이 되려면 시기와 운, 뛰어난 솜씨, 지속력이 필요하다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>PER 1.7배? 증권맨들이 봐도 너무 싼 KTB투자證 주가</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004708830?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>최근 증시가 거듭 하락하며 증권주 주가도 크게 밀렸다. 밸류에이션 메리트가 있는 곳들이 하나 둘 생겨나면서 저평가를 넘어 과매도 국면에 들어선 곳도 생겼다. KTB투자증권이 대표적인데 PER(주가수익비율)이 2배 미만을 기록할 정도로 증권업계 내에서도 '지나친 저평가'라는 얘기가 나올 정도다. 올해 실적 전망도 나쁘지 않아 주목할 필요가 있다는 지적이다. 16일 증권업계에 따르면  KTB투자증권은 지난해 1741억원의 순이익(연결기준 잠정실적)을 기록했다. 전년대비 129.2% 증가한 수치다. 반면 시가총액은 3000억원에 머물러 있다. PER 기준으로 1.7배에 불과하다. 다른 지표를 봐도 도가 지나치다는 평가다. 연결기준 ROE(자기자본이익률)는 22.5%에 달하는 반면 PBR(주가순자산비율)은 0.33배에 불과하다. 연결기준 자본총계는 9658억원이니 현재 시가총액의 3배가 훌쩍 넘는다. 유안타증권이 이달 초 분석한 증권주 PER 현황(2021년 추정실적 기준)을 보면 △미래에셋증권 4.8 △NH투자증권 6.1 △한국금융지주  2.7 △삼성증권 3.8 △메리츠증권 5.2 △키움증권 2.6 등으로 평균 PER은 3.85였다. 이들의 PBR 평균은 0.60배, ROE 평균은 18.4%로 집계됐다. KTB투자증권보다 열위에 있는 한양증권(PER 2.6, PBR 0.48, ROE 20.4%)조차 상대주가가 높은 상태다. 실적 연속성을 봐도 KTB투자증권의 주가는 소외 정도가 지나치다.  KTB투자증권의 지난해 4분기 실적은 매출액 2438억원, 영업이익 456억원, 순이익(지배주주 기준) 477억원이다.  직전 분기보다 각각 40.2%, 170.5%, 122.0% 증가한 수치다. 주식시장 조정으로 대부분 증권사들이 고전했으나 KTB투자증권의 경우 IB(투자은행) 부문의 실적개선이 큰 폭으로 이뤄지면서 단연 돋보이는 성적을 낼 수 있었다. 계열사 실적도 나쁘지 않다. 지난 12월 인수를 완료한 유진저축은행은 2021년 기준 영업이익 1098억원, 당기순이익 835억원을 기록했다. 올해 연결실적에 본격적으로 기여할 전망이다. KTB투자증권KTB투자증권의 경우 다른 증권사들과 비교해 규모는 다소 작지만 사업 포트폴리오는 고르게 분산돼 있다는 평가를 받는다. 증권, 자산운용, 저축은행, 벤처캐피털, PE, 해외 증권사(태국 ST)가 있다. 유진저축은행과의 증권을 비롯한 금융그룹 내 관련 계열사들과 여수신 연계와 관련한 다양한 시너지를 기대할 수 있다. KTB네트워크가 상장하면서 중견 금융그룹으로 위상도 올라갔다. KTB투자증권이 52% 지분을 보유한 벤처캐피털 KTB네트워크는 지난 12월 상장했다. 투자자산의 20~30%를 상장주식으로 운영하는데다 약세장에 상장한 탓에 KTB네트워크 주가는 공모가(5800원)를 밑돌고 있으나 1조1500원의 펀드 운용자산이 있고 올해도 9개 내외 기업의 IPO(기업공개)가 예정돼 있다. 견고한 실적이 나온다는 얘기다. KTB네트워크는 비상장 투자기업이 IPO 할 때 주식을 매각해 성과보수를 인식하는 구조다.  펀드에서 투자한 비바리퍼블리카(토스)의 경우 올해 상반기 프리 IPO가 진행되면서 가치가 재평가될 여지가 높아 보인다. 이 외에도 인도를 비롯한 해외시장에서 우량 투자자산을 보유하고 있음. 현재 KTB네트워크의 시가총액은 4300억원 수준인데 지난해 당기순이익 640억원 기준으로 PER 6.7배를 기록하고 있다. 이 역시 저평가 상태다. 관건은 올해 실적이다. 올 들어 주식시장 약세와 금리상승, 지정학적 위기 등으로 시장 전반이 압박을 받고 있는 터라 증권업계 실적도 둔화될 가능성이 높다. 금융투자업계 관계자는 "KTB투자증권은 주식시장 영향은 받지만 리테일부문 규모가 작아 시장 변동성이나 개인투자자 투자위축 같은 변화에는 실적 민감도가 매우 낮다"며 "주식영업부문의 이익기여도가 낮고 IB에 특화된 본업의 특성, 유진저축은행 인수 효과가 시너지를 내면 올해도 지난해 당기순이익 이상의 견고한 실적이 가능하다고 보고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>'디지털' 주목한 한화투자증권, 토스뱅크 지분 확대로 시너지 꾀할까</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000655703?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>토스뱅크 주식 600만주 추가 취득…2019년부터 3차례 걸쳐 지분 확대한화투자증권의 디지털 전략이 사업시너지로 발휘될 수 있을지 관심이 쏠리고 있다. 한화투자증권은 지난 2019년 토스뱅크 출범 준비 당시부터 주주로 참여해 긴밀한 협력 관계를 구축하고 있다. 한화투자증권이 작년 10월에 이어 토스뱅크 지분을 추가 취득하며 디지털 투자를 확대하고 있다. 사진은 한화투자증권 본사. [사진=한화투자증권]23일 금융투자업계에 따르면 한화투자증권은 토스뱅크의 주주배정 유상증자에 참여해 600만주를 취득하기로 했다고 전일 공시를 통해 밝혔다. 취득주식은 보통주 450만주와 보통주 전환권이 부여된 전환주 150만주다. 한화투자증권은 300억원을 들여 지분을 추가 취득할 예정이다. 토스증권에 대한 지분율은 8.86%에서 10.0%로 확대된다.한화투자증권은 작년 10월에 이어 이번에도 토스뱅크의 유상증자에 참여하며 디지털 관련 투자를 확대하는 모습을 보이고 있다. 이를 통해 사업시너지와 투자수익 두 마리 토끼를 동시에 노리겠다는 전략이다.한화투자증권 관계자는 "금융업의 벽이 허물어지고 있는 환경에서 토스뱅크와의 제휴를 통해 상품·서비스 개발 등을 통한 동반 성장을 추진할 수 있을 것으로 기대하고 있다"며 "이와 별도로 토스뱅크의 기업가치가 가파르게 증가하고 있어 투자를 통한 재무적 이익도 함께 추구할 수 있을 것으로 보인다"고 설명했다.실제 한화투자증권의 분기보고서에 따르면 작년 9월 말 기준 토스뱅크에 대한 장부금액은 187억원으로 전분기(75억원)에 비해 두 배 이상 올랐다. 업계에선 경쟁사와 비교한 토스뱅크의 기업가치를 5조~10조원 규모로 예상하고 있어 이에 따른 지분가치도 증가했을 것으로 추정된다.앞서 한화투자증권은 2019년 3월 247억5천만원을 투자해 토스뱅크 주식 495만주를 취득했다. 이후 작년 10월에도 주주 대상 유상증자에 참여해 300억원 규모로 600만주를 매입했다.한편 토스뱅크는 이번 주 중 이사회를 열고 3천억원 규모의 유상증자를 의결할 예정이다. 두 차례에 걸친 유상증자 후 토스뱅크의 자본금은 출범 당시 2천500억원에서 8천500억원으로 증가할 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.02.19.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>‘축구 영상 AI 분석 플랫폼’ 개발, 스포츠계 구글 꿈꾼다</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/353/0000041647?sid=105</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>━   디지털 걸리버여행기      서울대 데이터사이언스 대학원에서 비프로11 창업 경험을 공유하고 있는 강현욱 대표. [사진 차상균]           오늘을 사는 우리 청년들은 불안하다. 이 청년들을 자식으로 둔 부모들도 불안하다. 디지털 대전환, 미국과 중국의 패권 대결에 팬데믹, 기후 변화 위기까지 겹쳐서 변화의 쓰나미가 몰려온다. 부모 세대가 했던 대로 학교에서 가르쳐 주는 대로 열심히 공부하고 스펙 쌓기에 정성을 들이면 이들에게 미래가 보장될까?      대전환 시대는 경계 안의 정형화된 문제를 잘 푸는 우등생보다 경계 밖의 새로운 문제를 찾아 도전하는 이들이 이끌게 된다. 교육 패러다임의 변화가 절실한 이유다.      2014년 월드컵이 끝난 후 서울대 사범대 문과에 재학 중인 3학년 학생이 찾아왔다. 비프로 컴퍼니의 강현욱 대표다. 축구광인 이 학생은 수기에 의존했던 동아리 축구 경기 데이터를 관리하고 분석하는 앱을 만드는 중이었다. 창업하기 위해 대학을 중퇴하겠다고 했다. 사업 계획도 없이 열정만 가지고 창업해 실패한 학생들의 사례를 봤던 나는 걱정이 돼서 말했다.    독일, 훈련 실시간 분석해 월드컵 우승     “학생, 고작 동아리 축구 데이터 회사 만들려고 대학을 그만두나요? 우리나라에서 돈 내고 쓸 축구팀이 몇 개나 되겠어요? 매출은 얼마나 될 것 같아요?”      그리고 한 마디 덧붙였다. “독일에서라면 몰라도.”      학업을 마친 후 창업하라는 충고에 실망한 학생은 다시 찾아오지 않았다. 시간이 흘러 이 학생은 기억에서 사라졌다. 어느 날 알토스 벤처의 김한준 대표와 점심을 했다. 그는 쿠팡·배달의민족·토스 등 많은 스타트업 초기에 투자한 벤처 투자자다. 2000년대 초 실리콘밸리에서 창업했을 때부터 알고 지내던 사이다. 김 대표가 말했다.      “교수님이 창업을 코치한 학생의 스포츠 분석 회사에 투자했습니다. 회사가 한국에서 독일 함부르크로 옮겨 갔습니다.”      잊고 있던 강현욱 학생이 생각났다.      “아, 그 학생, 학교 그만두지 말라고 야단쳤는데요. 축구 분석 플랫폼을 제대로 만들려면 독일 가서 하라고 했지요.”      사실 이 학생은 독일의 2014년 월드컵 우승의 기반이 된 SAP HANA 기반의 실시간 축구 경기 분석 소프트웨어에 관심이 있어서 찾아왔다. SAP HANA는 빠르게 움직이는 물체의 위치를 추적해 다양한 시공간 분석을 실시간으로 할 수 있는 기능이 구현되어 있었다. 제조나 물류, 유통에 필수적인 기능이다. 국가 지리정보시스템 과제를 하면서 쌓은 경험을 새롭게 구현했다.      SAP는 2011년 HANA 플랫폼의 시장 출시에 맞춰 대중들에게 ‘와우’ 효과를 낼 수 있는 새로운 실시간 킬러 애플리케이션을 찾는 중이었다. 스포츠, 특히 유년부터 노인까지 독일 국민의 사랑을 받는 축구가 내부 토론 과정에서 부상했다.      TSG 1899 호펜하임의 구단주인 SAP 공동창업자 디트마어 호프(Dietmar Hopp)의 영향도 컸다. 호펜하임의 유소년팀 선수였던 그는 1989년부터 독일 8부 리그의 아마추어팀을 지원해 2008년 독일 1부리그 분데스리가 팀으로 끌어올렸다. 호프의 SAP 창업을 통해 축적한 막대한 자본과 호펜하임의 과학적 시스템 축구 전략이 작동한 결과다.      자연스럽게 TSG 1899 호펜하임이 SAP HANA의 스포츠 과학 사업의 첫 파트너가 됐다. 훈련 중인 선수와 공에 사물인터넷(IoT) 센서를 부착해 위치와 속도 데이터를 실시간으로 수집했다. 골키퍼를 제외한 선수들은 양쪽 무릎과 어깨에 4개의 센서를 착용했고 골키퍼는 양쪽 손을 추가해 총 6개의 센서를 착용했다. 센서마다 초당 200번씩 위치 데이터를 정해진 간격으로 수집했다. 개별 선수의 움직임을 파악하기에 충분한 데이터이다.      공은 선수보다 빠르게 움직이기 때문에 10배인 초당 2000번씩 데이터를 수집했다. 패스 성공률, 공 점유 시간, 공간적 배치 등은 실시간으로 분석해 선수 개인과 팀의 퍼포먼스가 태블릿 PC를 통해 감독에게 바로 전달됐다. 이 데이터들은 상대 팀에 대한 대응 전략을 세우고 선수 각각에 대한 최적화된 훈련 과정을 짜는 데 활용됐다.      호펜하임이 SAP의 실시간 HANA 기술을 활용해 선수와 팀의 역량을 과학적으로 높이고 있는 것을 알게 된 독일 국가 대표팀은 2014년 월드컵을 앞두고 SAP의 지원을 요청했다.  SAP 매치 인사이트라는 이름이 붙여진 소프트웨어는 코치, 스태프, 선수들이 언제 어디서나 각자 편한 시간에 데이터를 스스로 활용할 수 있도록 발전했다. 감독의 주관적 판단에 데이터 기반의 과학적 훈련과 경기 전략이 더해졌다. 그 결과 독일이 2014년 FIFA 월드컵에서 우승했다.      비프로11의 트래킹 데이터 기술. [사진 비프로11]           그러나 실제 경기 중에는 이 위치 센서를 착용할 수 없다. 비프로가 창업할 무렵 인공지능(AI) 기반의 컴퓨터 비전 기술이 발전하기 시작했다. 비프로는 경기장에 설치된 세 대의 카메라가 찍은 동영상을 실시간으로 결합해 파노라마 동영상을 만들고 선수 각자의 위치를 추적하는 컴퓨터 비전 기술을 개발했다.      김한준 대표를 통해 강현욱 대표와 다시 연결됐다. 팬데믹이 시작되기 전인 2019년 9월 나는 한독 포럼의 한국 대표단 일원으로 베를린을 방문했다. 함부르크에서 기차를 타고 내려온 강 대표와 반나절 동안 이야기를 나눴다. 실시간 축구 동영상 분석 기술 개발에 상당한 진도가 있었다. 자체 파노라마 카메라도 만든다고 했다.      자율주행 자동차의 컴퓨터 비전 기술이 다양한 환경의 수없이 많은 물체를 인식해야 하는데 비해 스포츠 분석은 경기장에서 뛰고 있는 한정된 숫자의 선수와 공을 인식하고 분석하는 문제다. 현재의 AI 기술로도 잘 풀 수 있다.      비프로는 경기장에 설치된 파노라마 카메라로 수집한 영상에서 모든 선수의 움직임을 추적하며 슈팅, 패스, 태클, 인터셉트 등 30여 개의 이벤트 데이터와 선수의 뛴 거리, 최고속도, 스프린트 횟수 등을 모은다. 이 데이터들을 결합하고 영상으로 확인하면 경기 맥락과 전술 분석이 가능하다. 수비라인이 벌어진 정도, 미드필더의 압박 강도, 포지션 치우침 등이 한눈에 보인다. 앞으로 실시간 자동 경기 해설 서비스도 가능하다.      유럽 5대 리그의 주요 팀은 물론 영상 분석은 꿈도 꾸지 못했던 유소년 축구계가 열광하고 있다. 비프로는 2016년 유소년축구팀과 하부 리그팀을 대상으로 서비스를 시작해 프로 축구팀까지 지평을 넓혔다. 세계적으로 약 1500개 축구팀이 비프로 서비스를 사용 중이다.      앞으로 축구 외에도 미식축구, 농구 등 인기 스포츠 종목으로 확대가 가능하다. 축적한 데이터로 스포츠 분야의 구글을 꿈꾼다. 스포츠 경기를 개인화된 관점에서 볼 수 있는 미디어이기도 하다. 글로벌 무대에서 100조원 가치의 기업으로 성장할 가능성이 충분하다.      독일에서 만난 강현욱 대표는 영어는 물론 독일어도 유창하게 구사했다. 사업을 위해 못하던 독일어도 익힌 것이다. 기술력도 괄목할 만한 성장을 했다. 2011학번의 문과생이 친구와 함께 창업해 고도의 데이터 사이언스 실력을 독학으로 축적한 것이다. 서울대 데이터사이언스 대학원이 지향하는 바를 혼자서 보여줬다. 전공에 상관없이 누구나 열정만 있으면 데이터 사이언스의 코어 전문가, 문제 해결사가 될 수 있다.    대학생이 창업한 회사, 1억 달러 투자 받아     독일 축구 대표팀이 SAP HANA를 활용하기 위해 훈련 전 센서를 부착하고 있다. [사진 SAP]           올해 초 한국을 방문한 강 대표에게 물었다. 왜 학교를 그만두었냐고.      “소프트웨어 개발에 필요한 컴퓨터 관련 과목을 수강하다 보니 사범대 본과의 졸업 이수 요건을 맞추는 것이 요원해서 자퇴를 결정했습니다.”      강 대표는 문과생으로서 경직된 우리 고등교육 시스템의 경계를 과감하게 넘어간 젊은이다.      한편 강현욱 대표가 창업하던 해인 2015년, 나의 실험실에서 졸업논문을 쓴 학부생도 창업했다. 구글의 새로운 AI 기술에 눈을 뜬 그는 남들이 대학원에 진학할 때 고등학교 동창과 함께 수학 문제 풀이 콴다(QandA) 서비스를 만들었다. 매스프레소 이용재 대표다. 수학 문제 지문과 그림을 사진으로 찍어서 콴다에 올리면 문제를 인식해 데이터베이스에 저장돼 있는 풀이 방식을 찾아 보여준다.      스포츠와 마찬가지로 수학 교육도 글로벌 확장성이 있는 분야다. 매스프레소는 지금까지 1억 달러 이상의 투자를 받아 글로벌 에듀테크 시장을 개척하고 있다. 수학 외 다른 과목으로도 확장이 가능하다.      강현욱, 이용재 학생과 같이 경계를 넘어 현장의 새로운 문제에 도전하는 대한민국 젊은 혁신가들에게 감사한다. 새로운 2030의 모델이다. 더 많은 젊은이가 기존의 관념과 스펙에서 벗어나 더 넓은 열린 세계에서 자신들의 역량을 개발할 수 있도록 교육 시스템과 혁신 시스템을 바꾸어야 한다.                 차상균 서울대 데이터사이언스대학원장. 서울대 전기공학사, 계측제어공학석사, 스탠퍼드대 박사. 2014~19년 서울대 빅데이터연구원 초대 원장. 2002년 실리콘밸리에 실험실벤처를 창업했다. 이 회사를 인수한 독일 기업 SAP의 한국연구소를 설립해 SAP HANA가 나오기까지의 연구를 이끌고 전사적 개발을 공동 지휘했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[레버리지의 역습]벼락거지 공포에 빚투…차라리 대출 힘들었다면</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005048821?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>자산가격 하락 국면에 금리 인상기 공포 "신용불량자 증가 우려"취업준비생인 20대 A씨는 카드론을 통해 300만원을 대출받아 가상화폐 시장에 뛰어들었다 하락장을 맞아 원금 대부분을 잃었다. 이후 인터넷전문은행에서 300만원을 추가로 대출받아 주식 투자를 감행했다. 대형주 중심으로 매수를 시작했지만 시장 급락의 여파로 현재 계좌 수익률은 -30% 수준. 아르바이트를 통해 대출이자를 겨우 갚아나가는 A씨는 "시장이 무서운지도 모르고 빚을 내 주식과 코인 투자에 뛰어든 것을 후회한다"고 말했다. 벼랑 끝으로 몰리자 오히려 20·30세대에게 대출이 쉽게 이뤄진 환경 자체를 원망하게 됐다고 하소연했다. 그는 "청년세대의 대출 접근성이 상대적으로 쉬워지면서 동학개미운동을 주도한 것 아니겠냐"면서 쓴웃음을 지웠다.서울에서 직장을 다니는 30대 B씨는 1년여 전 주택담보대출, 신용대출, 사내대출까지 모두 끌어모아 경기도의 한 구축 아파트를 매입했다. 매매가격 3억4000만원 중 70%인 2억4000만원이 대출이었다. 그사이 집값은 1억원 이상 올랐지만 최근 금리인상, 집값하락을 동시에 마주하면서 갑갑한 마음을 숨기지 못하고 있다. 집값은 올해 들어 3000만원이 떨어졌는데, 신용대출 금리는 2% 초반에서 3% 중반대까지 올랐다. B씨는 "이자부담은 갈수록 늘어날텐데 집값마저 대세하락으로 이어진다면 감당하기 쉽지 않을 것 같다"고 하소연했다.◆벼락거지 공포와 쉬운 대출= 코로나19 이후 주식·가상화폐·부동산 시장에 뛰어들어 가격 상승을 이끈 주역은 2030세대다. 영끌(영혼을 끌어모음) 빚투(빚을 내서 투자)에 나선 이유는 아무것도 하지 않으면 ‘벼락거지’가 될 것이라는 공포가 밑바탕에 깔려 있다. 열심히 일해도 안정적인 미래를 보장받을 수 없는데 자산을 가진 사람은 일하지 않고도 돈을 버는 모습을 보면서 무리를 해서도 투자를 해야겠다 마음먹은 청년들이 늘어난 것이다. 코로나19 이후 주식 시장의 폭락과 반등을 눈으로 확인했고, 저금리 기조로 적금과 예금이 더이상 재테크 수단이 될 수 없다는 인식도 빚투를 부추겼다. 쉽게 대출을 받을 수 있는 환경도 아이러니하게 무리한 투자를 부추긴 꼴이 됐다. 실제 정부의 신용대출 규제는 고소득층과 고액 대출에 초점이 맞춰지면서 20·30세대의 소액대출은 상대적으로 접근이 쉽다. 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행의 등장도 이들이 대출받기 쉬운 환경을 만드는 데 일조했다.영끌을 통한 무리한 아파트 매수는 최근 5년간 크게 상승한 집값 탓이 크다. KB국민은행 리브부동산에 따르면 서울 아파트 평균 매매가격은 현 정부 출범 이후 4년8개월 동안 6억원대에서 12억원대로 올랐다. 지난해 하반기 ‘영끌’로 서울 강북구에 아파트를 산 30대 직장인 C씨는 "소득은 제자리인데 집값은 감당하기 어려운 수준까지 오르는 것을 보고 집을 사야겠다고 마음을 먹었다"며 "서울에서 집을 살 수 있는 사실상 마지막 기회로 봤다"고 말했다.◆빚폭탄 '신용불량자 경고음'= 문제는 무리한 빚투로 인해 신용불량자 증가에 대한 경고음이 커지고 있다는 점이다. 통계청에 따르면 지난해 30대 가구주의 부채는 11% 증가한 평균 1억1190만원으로 조사됐다. 30대만 두자릿수 증가율을 보였다. 20대 가구주의 평균 부채도 3550만원에 달했다. 대학 등록금과 주거 등 생활비 등의 명목으로 빌린 자금까지 고려하면 이보다 더 많을 것으로 추정된다. 한국금융연구원은 "30대 이하가 가계대출 증가세를 주도했다"고 분석했다. 여러 곳에서 무리하게 대출을 받은 청년들도 많다. 한국은행에 따르면 지난해 6월 말 기준 청년층의 가계대출 중 32%, 약 150조원은 다중채무로 분석된다. 다중채무는 3개 이상의 금융기관에서 돈을 빌린 것으로, 악성 부채로 평가되고 있다.주식 빚투 열풍은 신용거래융자로 증명된다. 2020년 말 9조원대에 불과하던 신용거래융자 잔고는 지난해 1월 사상 처음으로 20조원을 돌파했다. 5월 22조원에 이어 8월에는 25조원도 돌파하는 기염을 토했다. 지난해 기준 국내 10대 증권사의 2030세대의 신용융자 이용자수는 두배 이상 증가했다.청년층이 중장년층에 비해 보유한 자산이나 소득이 낮아 시장 충격에 더 쉽게 흔들릴 수 있다. 이미 주식 수익률은 처참하다. 자본시장연구원에 따르면 신규 주식 투자자 및 20대 이하 주식 투자자의 75%는 신용융자 활용을 통해 손실을 봤다. 김민기 자본시장연구원 연구위원은 "적극적으로 신용 거래를 사용하는 20~30대 이하의 젊은 투자자들의 수익률이 낮게 나타났다"고 전했다. 가상화폐 시장 역시 급락장을 연출중이다. 시장이 두려워하는 것은 아직 바닥이 아니라는 점이다. 실물이 없기 때문에 금리 인상기에 더욱 취약할 수밖에 없다.부동산 시장도 가격이 내리면서 살얼음판이다. 한국부동산원에 따르면 2월 둘째주(14일 기준) 서울 아파트 매매가격은 전주 대비 0.02% 하락했다. 지난달 넷째주 마이너스로 처음 전환된 후 4주째 하락세를 이어갔다. 집값 변동률이 마이너스로 돌아선 것은 지난해 5월말 이후 1년7개월여만이다.전문가들은 청년들도 소득이나 상환능력에 따라 스펙트럼이 다양한 만큼 20·30 대출 현황에 대한 세부적인 진단이 선제적으로 이뤄져야 한다고 지적한다. 김덕례 주택산업연구원 연구실장은 "청년들 다수가 영끌, 빚투를 했고 경제에 영향을 미칠 가능성이 크기 때문에 대책을 마련해야 한다는 단순한 논리로는 오히려 예기치 못한 부작용을 야기할 수 있다"며 "금리인상기에 상환에 부담을 느낄 청년들은 얼마나 되는지 파악하고, 모럴 해저드를 조장하지 않는 선에서 대책을 잘 설계하는 것이 정부의 역할"이라고 말했다..</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>토스뱅크, 다음주 3000억원 유상증자 추진</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000794181?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>/토스뱅크        인터넷전문은행 토스뱅크가 다음 주 중 출범 이후 두 번째 유상증자를 추진할 것으로 알려졌다.16일 은행권에 따르면 토스뱅크는 다음 주 이사회를 열어 3000억원 규모의 유상증자 단행 안건을 논의한다. 안건이 통과되면 토스뱅크 자본금은 5500억원에서 8500억원으로 늘어난다.앞서 홍민택 토스뱅크 대표는 매년 최대 3000억원의 유상증자 계획을 공유한 바 있다. 5년 동안 총 1조원을 목표로 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>[소년중앙] 10대 때부터 사회복지 관심…AI 정책 추천 서비스로 학생 창업했죠</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003174991?sid=102</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>제20대 대통령 선거가 다가오면서 부쩍 정책에 관한 이야기가 많이 들려옵니다. 흔히 말하는 정책이란 정부 또는 각종 단체에서 취하는 방향 또는 행동방침을 뜻해요. 국가의 정책은 국책이라고도 하죠. 정치 과정에서 공공문제를 해결하고 공공목표를 달성하기 위해 만드는 정책은 매우 다양합니다. 우리나라의 경우 중앙정부·지자체 등에서 내놓은 정책을 합치면 약 10만 건에 달하죠. 정부 부처와 지자체, 여러 공공기관에서 정책을 발표하다 보니 그 채널 또한 여러 갈래로 나뉘어 어떤 정책이 있는지 파악하기 쉽지 않아요.       김유리안나 웰로 대표(CEO)는 그 부분에 주목했죠. 대학생 시절 서울시 꿈나무(아동급식) 카드 효율화 프로젝트에 참여했던 그는 정책과 관련 데이터베이스 구축 및 활용이 얼마나 중요한지 깨달았습니다. 이는 정책 추천 서비스 웰로의 탄생으로 이어졌죠. 이예음·장재인 학생기자가 김 대표를 만나 청년 창업과 데이터 비즈니스에 대한 궁금증을 풀어봤습니다.     정책 추천 서비스 스타트업 ‘웰로'를 찾은 소중 학생기자단이 김유리안나 대표를 인터뷰하며 청년 창업부터 데이터 비즈니스에 대한 궁금증을 풀어봤다. 왼쪽부터 장재인·이예음 학생기자, 김 대표(뒤), 김나연 마케터.           웰로를 찾은 소중 학생기자단을 맞이한 신지현 CSO가 먼저 정책이 왜 중요한지에 대한 이야기를 던졌어요. 재인 학생기자는 “많은 이들의 삶에 도움을 줄 수 있어서”, 예음 학생기자는 “우리가 살고 있는 이 나라 법과 규제 등에 관한 것을 알아야 한다”고 의견을 밝혔죠. 신 CSO는 복지 정책 사각지대에 놓여 범죄를 저지른 22세 청년의 사례와 정부가 한 해 민간 위탁사업에 쓰는 14조원 중 홍보비로 평균 6~15%를 사용한다는 내용을 전하며 각각의 정책이 필요한 사람에게 바로 전달되지 않는 현실을 꼬집었죠.     이어 김나연 마케터가 소중 독자들을 위해 전국에 시행 중인 청소년 정책이 몇 개나 되는지 찾아줬어요. 9만3176건 중에서 ‘청소년’ 키워드가 붙은 정책 수는 3163건, 청소년 정책을 내놓은 기관은 317곳이었죠. 전국 주요 시·도별로는 전국 공통이 128건, 서울 275건, 부산 189건, 대구 159건, 인천 123건, 광주 78건, 대전 75건, 울산 72건, 세종 14건 등이며 경기도가 456건으로 가장 많았어요. 학생기자단은 생각보다 많은 청소년 정책 수에 깜짝 놀랐죠. “교복 구입비 지원이랑 고등학교 무상급식 정도만 알고 있었어요.”(예음) “청소년증은 만들었는데, 서점이나 영화관·박물관 같은 문화시설에서 할인을 받을 수 있는 건 몰랐어요.”(재인)     전국 청소년 관련 정책 수           김 대표는 “저도 여러분 나이대엔 엄마가 뭔가 받아오면 그런가 보다 했거든요. 대학을 다니며 참여한 서울시 꿈나무 카드 효율화 프로젝트를 통해 데이터를 모아 이 정책 하나를 수정하는 데 1년이라는 시간이 걸린다는 사실, 그리고 관련 데이터를 분석해 생각보다 많은 걸 알아내고 추가 보완할 수 있다는 사실을 알았죠. 이런 정책이 전국에 9만, 10만 건이나 있다 보니 내게 맞는 정책이 뭔지 찾기 힘들잖아요. 그럼 각 정책 대상자에게 바로 안내해서 내가 받을 수 있는 혜택을 알게 되면 좋다 어떻다 목소리를 낼 수 있고 관련 데이터를 계속 수집하면 향후 정책 개선으로도 이어지지 않을까 생각했어요”라며 웰로를 만든 계기를 설명했죠.     현재 웰로는 46개 부처(712개 부서), 지방자치단체 593기관(2128개 부서)의 데이터를 매일 약 10만 건 취합해 관리하고 있어요. 예음 학생기자가 매일 이뤄지는 데이터 처리 방식을 궁금해했죠. 김 대표는 “3단계에 걸쳐 데이터를 처리한다”고 말했어요. 먼저 스크래핑·API 등을 통해 해당 웹사이트에서 필요한 정보를 가져오고, 여기서 빠진 정보는 수기로 입력해 수집합니다. 이 데이터를 알맞게 전처리(원자료를 목적에 맞게 가공)한 뒤 웰로 사용자에게 서비스하는 거죠.       웰로는 자신이 입력한 프로필 내용에 맞춰 금융·교육·문화·주거·일 등 분야별로 추천 정책을 매칭해 알려준다. 웰로 홈페이지 캡처.           “AI 기술을 기반으로 한 스타트업인데 IT 관련 전공을 하진 않으셨어요. 공부와 창업을 병행하느라 힘들진 않았나요?” 재인 학생기자의 질문에 김 대표는 “지금도 어려운 점이 있다”며 미소 지었죠. “IT 스타트업이라고 해서 꼭 관련 전공을 배워야 하는 건 아니”라고 한 그는 “중요한 건 어떤 문제를 해결할까 관심을 갖는 것”이라고 강조했습니다.     ”대학만 가면 편해진다고들 하잖아요. 실제로 초반에는 즐겼죠. 그러다 점차 내가 할 수 있는 것을 고민하게 되더라고요. 저는 10대 때부터 사회복지에 관심이 있었어요. 그래서 인간의 생애를 체계적으로 배워보고자 재수를 해서 아동가족학과가 있는 경희대에 입학했고, 경영학을 함께 전공했죠. 아동급식 정책인 꿈나무 카드에 관심을 가진 것도 그래서예요. 그런 경험을 통해 스타트업을 창업했죠. 필요한 부분은 그 분야 전문가와 협업하면 되고, 이를 통해 조직을 키워나갈 수도 있죠.”     김유리안나 대표(왼쪽에서 둘째)가 대학 시절 참여한 서울시 꿈나무카드 프로젝트 수행 후 서울시장상 표창을 받은 모습.           웰로는 현재 데이터·개발을 다루는 팀과 마케팅·CS팀이 함께해요. 프로덕트&amp;피플 중심으로 조직을 운영한다고 덧붙인 김 대표는 10대 독자들을 위해 시간 관리 팁을 귀띔했죠. “밤늦게까지 공부하는 친구들도 있는데, 저는 그러면 다음 날 힘들더라고요. 대신 일찍 일어나서 오전 시간을 활용했죠. 밤에는 음악을 들으며 30분 정도 산책하는 식으로 여유 시간도 가졌어요. 매일 조금씩 쉬는 것도 리프레시 방법이죠. 대학 때도 주중에 공부하면 주말에는 쉬었어요. 지금도 틈틈이 운동하고 있습니다.”     예음 학생기자가 “경영학을 배운 건 창업에 도움이 되었는지” 묻자 김 대표는 고개를 끄덕였죠. “아무래도 기업의 생존·경영에 필요한 다양한 학문을 사례를 기반으로 해서 배우니까요. 재무관리·회계·인사관리…어려운 말처럼 들리지만 결국 돈과 사람에 관한 이야기죠. 네이버·토스처럼 IT 관련 기업 사례를 분석하며 창업하면 어떨까 생각했던 것들이 다 도움이 됐어요.”       제9회 범정부 공공데이터 활용 창업경진대회에서 왕중왕전에 오른 김유리안나 대표가 발표하는 모습. 웰로는 제품·서비스 개발 부문에서 우수상(행정안전부 장관상)을 수상했다.           정책을 다뤄서인지 웰로는 공공성이 강한 기업으로 느껴집니다. 사용자가 직접 돈을 지불하는 식으로 소비자를 통한 이윤을 추구하기보다 큰 흐름에서 정책을 홍보하고 싶은 기관이나 기업을 통해 매출이 발생한다는 설명이죠. “지난해 12월에 예비 사회적기업 인증을 받긴 했지만 아직 사회적기업으로 만들 생각은 없다”는 그는 “장기적인 문제기도 하고, 내부 논의가 필요한 부분”이라고 덧붙였죠.       “웰로가 가장 필요한 사람은 누구인가요. 소년중앙 독자인 어린이·청소년도 정책 혜택을 받을 수 있나요.” 재인 학생기자가 이어 질문했죠. “아무래도 요즘 코로나19로 힘든 소상공인, 구인과 창업을 하려는 청년 등 정책적인 지원이 시급한 분들입니다. 최근에는 육아와 일을 병행하는 사람들도 많이 이용하셔서 이런 분들 쪽으로 마케팅하고 있죠. 아까 봤듯 청소년 대상 정책도 많아요. 다만 현재 웰로는 청소년이 직접 찾아보기보다 자녀에 대한 혜택을 중요시하는 보호자가 찾아보기 쉽게 필터링돼 가정 단위로 신청하는 경우가 많죠.”       웰로는 자신이 입력한 프로필 내용에 맞춰 금융·교육·문화·주거·일 등 분야별로 추천 정책을 매칭해 알려준다. 웰로 홈페이지 캡처.           이를테면 삶의 질 향상과 문화 격차 완화를 위해 문화체육관광부와 한국문화예술위원회를 비롯한 전국 지자체에서 시행하는 문화누리카드 사업이 있어요. 6세 이상 기초생활수급자 및 차상위계층이 대상이고, 1인당 연 10만원이 지원돼 4인 가정에서 신청한다면 총 40만원을 문화‧여행‧스포츠관람 등에 사용할 수 있습니다.       웰로 가입은 왜 카카오톡만 사용하냐는 지적에 김 대표는 “접근성이 좋기 때문”이라고 설명했어요. “처음에는 애플리케이션(앱)을 만들려고 했어요. 하지만 앱은 설치가 귀찮다는 단점이 있어서 앱 형식을 띤 웹사이트로 만들었죠. 카카오톡 역시 사용자가 많아 이용이 편리하죠. 14세 미만 청소년도 카카오톡이 있으면 법정 보호자 인증을 받아 가입할 수 있어요. 앞으로 네이버·구글 등 계정 사용 범위를 늘릴 겁니다. 나중에는 앱을 만들 계획도 있기는 해요.”     웰로가 추천하는 청소년 정책           예음 학생기자가 앞으로의 목표는 무엇인지 묻자 “더 나은 삶을 살 수 있도록 다각적으로 지원하고 싶다”는 답이 돌아왔어요. “사람들이 몰라서 놓치는 일 없도록 개인 대상으로 한 정책 추천 서비스를 만들었죠. 현재 누적 30만 명 정도가 사용하세요. 기업 역시 생존과 성장을 위해 정책 지원이 필요해요. 올해에는 기업 대상 정책 서비스를 런칭할 예정입니다. 또 정책을 내놓은 분들 역시 이게 잘되는지 어떤지 국민 목소리를 듣고 싶어 해요. 웰로에 누적된 데이터를 통해 정책에 기초가 될 수 있는 자료를 만들고, 개선점을 담아 피드백해 국민이 더 원하는 정책 서포트 역할까지 하고 싶습니다.”       마지막으로 재인 학생기자가 청년 창업을 꿈꾸는 소중 독자들을 위한 조언을 청했어요.     김유리안나(맨 왼쪽) 대표를 비롯한 웰로 운영진을 인터뷰하는 소중 학생기자단.           “저는 10대 때부터 사회복지에 관심을 갖고 ‘내가 사회에 기여할 수 있는 게 뭘까’ 고민했어요. 사회복지사는 1대 1로 만나는 일이라 범위가 좀 좁게 느껴졌고, 그럼 기업에 들어가야 할까도 생각했죠. 관련 공부를 하기 위해 대학과 학과를 선택했고, 공부도 하고 프로젝트 경험도 하면서 내가 풀고자 하는 문제를 마주했어요. 그 문제는 학교 밖에 있을 수도 있기에 지금 소년중앙 학생기자단 여러분처럼 여러 경험을 해보는 것도 중요해요. 나만의 문제가 아니고 다른 사람들도 겪는 사회적 문제에 관심을 갖고 집중하다 보면 길이 열릴 거예요. 먼저 창업하지 않고도 해결하는 방법을 실험해보고 이 과정에서 학습하고 그 경험을 토대로 긍정적인 사회적 임팩트를 발생시키는 겁니다. 유튜브 같은 데 보면 고교생 나이로 창업한 분들도 있어요. 나이에 구애받을 필요는 없어요. 본질적으로 생각했을 때 좋은 영향력을 미칠 수 있는 일이 뭘까 찾아보세요.”      소중 학생기자단 취재 후기 평소 AI도 정책에도 크게 관심이 없어서 요번 취재는 고민이 많았어요. 김유리안나 웰로 대표님을 인터뷰하기 위한 질문도 어렵게 생각하다 AI와 정책뿐 아니라 창업에 관한 질문이나 개인적인 질문 등을 넣었죠. 웰로는 우리나라 정책을 알려주는 서비스예요. 정책에 대해 궁금하고 정책을 알아야 하는 사람들이 활용하면 좋을 것 같아요. 인터뷰를 하고 나서는 AI와 정책이라는 게 그리 어렵다고 느껴지지 않았죠. 또 우리나라 정책에 좀 더 관심을 가져야 한다고 생각했어요. 어른이 되면 알아야 할 정책들이 더 많아질 텐데, 학생에 대한 정책도 꽤 많아서 지금 알아두면 생활하기 더 편할 것 같기 때문이죠. 소년중앙 친구들도 정책에 관심을 갖고 웰로를 사용해 보면 좋을 것 같습니다.   -이예음(서울 언남중 1) 학생기자    웰로 취재를 통해 스타트업의 대표님과 운영진을 만나, 회사가 어떻게 굴러가고 일을 진행하는지 배울 수 있었습니다. 사람들에게 정책 정보를 접근성 있게 전달하겠다, 라는 공공이익을 위한 일을 하는 회사라 하여 호감이 갔었는데요. 대표님께서 웰로를 시작하게 되신 계기부터 존경스럽더라고요. 멋있는 인생 선배님을 만난 것 같았습니다. 함께 인터뷰를 진행해 주신 분들 역시 마찬가지셨고요. 또, 제가 살아가는 이 나라에는 수많은 사람들을 위한 다양한 정책이 존재하지만, 정작 국민인 저희는 그것의 반의 반의 반도 이용하지 못하고 있다는 사실을 알고 정말 안타까웠어요. 앞으로는 저도 웰로를 잘 이용해서 받을 수 있는 혜택은 다 받고, 고칠 점은 정부에 알리고 싶습니다.      -장재인(경기도 보평중 2) 학생기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>대출 영토 확장하는 인터넷은행…'성장성 한계' 꼬리표 뗄까</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000133686?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>토스뱅크 개인사업자 대출·카카오뱅크 주담대 출시케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행이 최근 대출 포트폴리오 다각화에 나섰다. /더팩트 DB인터넷전문은행들이 새로운 대출 시장 개척에 본격적으로 뛰어들고 있다. 정부의 가계대출 총량 관리 강화로 기존 여신 서비스에 한계를 느낀 인터넷전문은행들이 대출 영토 확장으로 성장성 한계를 넘어설 수 있을지 업계의 관심이 모인다.21일 은행권에 따르면 최근 케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행들이 다양한 대출 상품을 내놓고 있다.가장 먼저 시장에 새 상품을 선보인 곳은 토스뱅크다.토스뱅크는 지난 14일 비대면으로 신청부터 실행까지 가능한 '개인사업자 대출'을 출시했다. 인터넷전문은행이 전면 비대면으로, 무보증·무담보 개인사업자 대출에 나선 것은 토스뱅크가 처음이다.토스뱅크의 개인사업자 대출 상품의 최저금리는 연 3% 초중반(변동금리)이며, 최대 한도는 1억 원이다. 보증기관의 보증서나, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여한다.카카오뱅크도 오는 22일부터 '카카오뱅크 주택담보대출'을 판매한다. 시가 9억 원(KB시세 기준) 이하 수도권 아파트를 대상으로 하는 신규 주택구입 자금·기존 주담대 대환·생활안정자금대출 등을 취급하며, 한도는 최대 6억3000만 원이다.카카오뱅크 주담대는 전 과정 비대면으로 이뤄지며, 서류제출 절차도 간소화된다. 부동산 매매 계약서는 사진 촬영해 제출하고, 나머지 필요한 서류는 카카오뱅크가 유관기관 연결을 통해 확인한다.또한 카카오뱅크는 하반기 중으로 '개인사업자 SOHO(소호)대출'을 출시할 계획이다. 소호대출은 소기업과 소상공인에 대한 대출을 뜻한다.인터넷전문은행들의 이같은 움직임은 최근 금융당국이 가계대출 관리를 강화하는 가운데, 시중은행에 대항해 경쟁력을 갖추기 위해 포트폴리오 다각화에 나선 것으로 풀이된다. /더팩트 DB케이뱅크도 개인사업자 대출 영역으로 영토를 확장 계획하고 있다.케이뱅크는 1분기 안으로 '개인사업자 운전자금 대출'을 출시한다는 목표를 세우고 현재 상품을 개발하고 있다.우선 신용보증재단과 협력해 보증기반 상품을 출시하고 이후 순차적으로 신용기반 상품을 내놓는다는 구상을 세웠다.이같은 인터넷전문은행들의 움직임은 최근 금융당국이 가계대출 관리를 강화하는 가운데, 시중은행에 대항해 경쟁력을 갖추기 위해 포트폴리오 다각화에 나선 것으로 풀이된다.가계대출 급증으로 인해 정부의 강력한 가계대출 총량 관리 강화로 인해 지난해 하반기 인터넷전문은행들은 일부 대출 상품을 중단하기도 했다.한 금융권 관계자는 "인터넷은행은 영업점이 없기 때문에 '한계'가 존재한다는 의견이 많았다"며 "개인 신용대출만으로는 시중은행들을 따라갈 수 없는 것은 사실"이라고 말했다.이 관계자는 "그러나 신용대출에 치우쳤던 대출 포트폴리오가 다양화된다면 이러한 한계를 넘어서게 되는 것이다. 포트폴리오 다각화를 통해 인뱅들은 올해 이자 이익 개선을 통한 실적제고도 가능할 것으로 본다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>JT저축은행, 총자산 2조원 돌파…출범 7년만에 6배 성장</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013005155?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>JT저축은행 전경[JT저축은행 제공. 재판매 및 DB금지]    (서울=연합뉴스) 김유아 기자 = JT저축은행은 출범 7년 만에 총자산 규모가 지난달 말 기준 2조1천500억원을 기록했다고 22일 밝혔다.    이는 JT저축은행이 SC저축은행을 인수해 출범했던 2015년 1월 당시 총자산(3천369억원)의 약 6배에 달한다.    JT저축은행은 "고객의 신뢰를 바탕으로 수익성과 안정성을 고루 갖춘 대형저축은행으로 성장했다"라고 평가했다.    이런 성장에는 예금 등 수신 금액이 증가한 영향이 컸다. JT저축은행의 총수신 금액은 잔액 기준으로 출범 당시 2천725억원에서 지난달 말 기준 1조9천122억원으로 7배가량 늘었다.    JT저축은행은 과거 SC저축은행 인수 당시 햇살론과 일반신용대출 등 일부 가계대출에 편중된 사업 구조를 바로 잡기 위해 다양한 노력을 했다.      가계대출 상품 경쟁력을 올리기 위해 중금리 상품을 출시했고, 2016년에는 기업금융팀을 신설하는 등 사업 구조 조정에 집중해 지난달 말 기준으로 기업과 가계대출의 비중은 5.5대 4.5로 조정됐다.     특히 JT저축은행은 법정상한금리를 인하하기 전에 업계 최초로 개인신용 신규 대출 금리를 연 20% 이하로 운용하면서 업계의 금리 인하를 유도하였으며, 1월 기준 개인신용 대출 평균 금리를 연 13%대로 운용하고 있다.    여·수신의 균형적 성장과 더불어 최근에는 조직개편을 통해 디지털 역량을 강화하고 있다.      JT저축은행은 혁신플랫폼사업팀을 신설해 토스, 카카오페이, 핀크, 시럽, 마이뱅크 등 혁신 기업들과의 제휴를 확대 중이며, 자동 심사 기능을 탑재한 모바일 즉시 대출 서비스를 제공한다.    데이터마이닝팀도 신설, 내부 고객 데이터 분석을 통해 더 많은 고객에게 더 안전한 금융 서비스를 제공하는 역량도 강화하고 있다.    최성욱 JT저축은행 대표는 "디지털 서비스의 편의성이 나날이 중요해지는 이때 서비스 개선뿐 아니라 대내외적 리스크 관리 역량을 더욱 강화해 지속 가능한 성장을 하겠다"고 말했다.     kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>한화투자증권, 토스뱅크 주식 300억 규모 추가 취득 결정</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001954661?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=증권부] 한화투자증권은 토스뱅크의 주주배정 유상증자에 참여해 주식 600만주를 취득하기로 결정했다고 22일 공시했다.취득금액은 300억원이며 이는 자기자본대비 2.4%에 해당하는 규모이다.취득 후 지분율은 10%(1700만주)이며 취득예정일자는 오는 24일이다.회사측은 “증권업 본업과의 시너지 효과 및 수익 다각화를 위한 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>스페이스X 위성 날린 '지자기 폭풍', 예측하는 방법은?</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038087?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>태양 입자로부터 지구를 보호하는 지구의 자기장을 형상화한 사진. (자료=NASA)최근 일론 머스크가 이끄는 미국 우주 탐사 기업 스페이스X가 발사한 스타링크 인터넷 위성 40개가 지자기 폭풍으로 분실됐다는 소식이 전해지며 화제가 됐다. 스타링크는 블로그를 통해 "지자기 폭풍은 위성이 배치된 저고도의 대기를 가열시키고 밀도를 높인다"고 전하며 "스타링크의 GPS에 따르면 이로 인해 이전에 이뤄진 발사에 비해  대기 항력이 50% 이상 상승했다"고 밝혔다. 스페이스X는 대기 항력을 최소화하기 위해 위성이 납작한 상태가 되는 '안전 모드'로 비행하도록 설정했지만 이와 같은 조치에도 불구하고 스타링크 위성 40개는 손실됐다. IT 전문매체 &lt;엔가젯&gt;은 스페이스X의 위성에 가해지는 위협 외에도 지자기 폭풍이 주요 전기 시설에 큰 손상을 입힐 수 있다고 전했다. 지자기 폭풍은 전 세계 방송·통신 신호와 항법 시스템을 방해하고 전력망을 손실시킬 수도 있으며 우주 비행사와 항공기 승객을 위험한 수준의 태양 복사 방사선에 노출시킨다. 미 항공우주국(NASA)의 스탠 오덴월드 박사는 "최악의 경우 태양 폭풍은 가장 강력하고 위험한 5등급 허리케인 또는 쓰나미와 비슷한 수준의 경제적 피해를 줄 수 있다"고 2017년에 발언한 바 있다. 오덴월드는 그 당시 "900개 이상의 위성이 연간 900억(약 107조5500억원) 달러 규모의 산업을 지탱하고 있으며 한 시나리오에 따르면 '태양 슈퍼 스톰'이 발생할 경우 위성, 서비스 및 이익 손실로 인해 총 700억달러(83조6500억원)의 손해가 발생할 것"으로 추산했다. 미국 미시건대학교 연구원 가보르 토스는 지난해 8월 성명을 통해 "미국 전체에 영향을 미칠 수 있는 자연 현상은 단 두 가지만 있으며 그중 하나는 극단적인 우주 기상 현상"이라고 밝혔다. 또 "현재까지 기록된 가장 강력한 지자기 폭풍은 1859년에 발생했는데 오늘날 이때와 같은 규모의 폭풍이 발생한다면 전력망, 위성, 통신시스템 등 온갖 기술 자산이 완전히 망가질 것이기 때문에 피해 규모가 훨씬 클 것"으로 예측했다. 토스와 그의 연구 팀은 최첨단 컴퓨터 학습 시스템 및 통계 분석 체계를 갖춘 '지오스페이스 모델 2.0'를 개발했다. 이 시스템은 태양풍이 지구에 도달하기 30분 전에 미리 경보를 울려서 중요한 전기 시스템을 대기모드로 전환하는 등 폭풍의 영향을 최소화하는 조치를 취할 수 있다.NASA도 태양 폭풍을 예측하기 위해 여러 노력을 해오고 있다. 2006년에는 태양에서 지구로부터의 에너지와 물질의 흐름을 관측할 수 있는 쌍둥이 위성 STEREO를 발사했다. 현재는 '멀티-슬릿 솔라 익스폴로러'(MUSE))와 '헬리오스웜'(HelioSwarm)이라는 두 임무 수행을 위해 준비 중이며, 이를 통해 태양과 지구의 관계를 연구할 계획이다. MUSE는 태양 대기인 코로나를 가열시키고 폭발을 촉진하는 에너지에 대한 연구를 진행할 예정이다. 총 9개의 소위성으로 이뤄진 집합체인 헬리오스웜은 우주대기의 난류와 태양풍의 변화를 추적하게 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>국내주식 소수점 거래 도입… 커피값으로 황제주 사볼까</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004790021?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>사실상 액면분할 효과 누리는 셈주식 소외계층 투자 유인책 역할"포트폴리오 투자 지원해야"증권사 서비스 고도화 제안도  국내 주식시장에 소수점 거래(소수 단위 거래) 도입이 확정되면서 1주당 수십만원에 달하는 우량주에 관심이 높아지고 있다. MZ세대 등 소액 투자자들에게는 부담스러웠던 고가주의 진입장벽이 낮아지면서 거래량도 늘어날 것이라는 기대감 때문이다.   17일 업계에 따르면 금융위원회는 국내 주식의 소수점 거래 서비스를 혁신금융서비스로 지정했다. 오는 9월부터 24개 증권사가 전산 구축이 되는 대로 선보일 예정이다.   ■액면분할 없어도 고가주 산다   소수점 거래는 1주 단위가 아니라 소수점 단위로 주식을 거래하는 것을 의미한다. 10만원만 투자하는 경우, 기존에는 1주당 100만원인 주식을 살 수 없었지만, 소수 단위 거래가 가능해짐에 따라 0.1주만 살 수 있다. 이 때문에 소액 투자자들도 주당 가격이 높은 주식을 살 수 있게 된다.   소수점 거래는 사실상 액면분할과 같은 효과가 있다고 평가 받는다. 삼성전자, NAVER, 카카오 등은 액면분할 이후 소액 투자자의 접근성이 높아지면서 국민주 반열에 오른 바 있다.   이날 종가 기준 주가가 40만원 이상인 종목은 14개다. 주가가 가장 비싼 종목은 태광산업으로 103만7000원에 이날 거래를 마쳤다.   소수점 거래의 가장 큰 수혜를 입을 것으로 기대되는 종목은 2차전지 관련주다. LG화학(64만원), 삼성SDI(55만7000원), LG에너지솔루션(45만4500원) 등 분야 대형주들은 투자자들의 관심을 많이 받고 있지만, 주가도 대체로 높은 편이기 때문이다.   소비재 대형주인 LG생활건강(102만8000원)과 F&amp;F(84만1000원)에 대한 기대감도 적지 않다. 두 종목은 태광산업 다음으로 주가가 비싼 종목들이다. 지난달 90만원대로 떨어졌던 LG생활건강은 40여일만에 '황제주(주당 100만원)' 자리에 복귀했다. 바이오 대장주인 삼성바이오로직스(76만원)도 소수점 거래의 수혜를 받을 것으로 기대되는 종목이다.   이진우 메리츠증권 연구원은 "종목별로 봤을 때 국내 증시에서 상대적으로 고가로 분류돼 있는 LG화학, LG생활건강, 삼성SDI 같은 종목에 대한 투자 기회가 열린다는 데 주목해야 한다"며 "소수점 거래 허용은 개인투자자들의 종목 선택권을 넓혀주는 효과가 있을 것"이라고 평가했다.   ■'동학 MZ 개미' 늘어난다… "포트폴리오 투자 도와줘야"   소수점 거래가 주식시장에 미칠 가장 큰 영향은 '저변 확대'다. 상대적으로 여윳돈이 부족해 주식시장에서 소외됐던 젊은 세대 등도 주식시장에 관심을 가질 수 있기 때문이다. 국내 증권사가 해외주식 소수점 거래 서비스를 처음 선보였던 지난 2018년 10월 이후 소수점 거래를 이용한 2030세대의 비중은 70%에 육박한다고 추정된다.   MZ세대를 주요 타깃으로 하는 카카오페이증권과 토스증권은 소수점 거래 도입을 발 빠르게 진행해 왔다. 이 때문에 자본시장법과 금융지주회사법상 금융투자업인가를 받지 않은 두 기업에 금융위도 특례를 부여해 국내주식 소수점 거래에 대한 서비스 참여를 허용했다.   황세운 자본시장연구원 연구위원은 "소규모 여윳돈으로 접근할 수 있는 종목이 많아지면 다양한 투자 경험을 쌓을 수 있는 것은 물론 MZ세대 유입 등으로 투자 인구가 늘 수 있다"며 "국내 증시 기반 강화에 도움이 될 것"이라고 전망했다.   다만 실시간 거래가 불가능하고 의결권을 받을 수 없다는 단점도 있다. 소수점 거래는 여러 명의 개인투자자가 요청한 소수 단위의 주문을 합산하는 과정을 거쳐야 해서 거래의 적시성이 떨어진다.   김민기 자본시장연구원 연구위원은 "소수점 거래는 증권사의 서비스 차원에서 이뤄지는 것이기 때문에 앞으로 개별 증권사가 어떤 거래 시스템을 제공하는지 봐야 한다"고 지적했다. 김 연구위원은 "소수점 거래가 단순히 개별 종목을 소수점으로 거래하는 방식을 넘어서서 '포트폴리오 투자'를 더 쉽게 해주는 서비스를 증권사가 개발하고 제공해야 할 것"이라고 제언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[신상품라운지]매일유업, '앱솔루트 명작 액상' 리뉴얼 출시</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004709910?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>매일유업 리뉴얼 '앱솔루트 엄마의 선물 프리미엄 명작 액상'/사진제공=매일유업매일유업 앱솔루트가 엄마의 선물 프리미엄 명작을 액상 형태로 새롭게 출시했다고 18일 밝혔다.리뉴얼 앱솔루트 명작 액상은 자기방어를 위한 핵심 성분 2FL을 비롯해 모유 올리고당의 일종인 갈락토실락토스(GL), 사이알릭락토스(SL)까지 함유하고 있다. 여기에 두뇌를 구성하는 성분 DHA와 MFGM(유지방구막), 루테인과 지아잔틴도 더했다. 원료는 뉴질랜드 자연방목으로 풀을 먹고 자란 젖소의 우유로 만든 Grass-Fed 인증 원료를 사용했다.앱솔루트 명작은 지난해 모유 올리고당 2FL(2'-O-fucosyllactose·투에프엘)을 적용해 업그레이드한 바 있다. 아기의 자기방어 체계를 형성하는 2FL은 모유에서 세 번째로 많은 영양 성분인 모유 올리고당(HMO·Human Milk Oligosaccharide) 중에서도 가장 높은 비중을 차지하는 성분이다. 이번 액상 형태에도 기존 제품과 동일하게 2FL을 적용해 리뉴얼했다. 매일유업 관계자는 "국내 처음으로 2FL을 배합한 앱솔루트 명작은 리뉴얼 후 더욱 많은 사랑을 받아왔다"며 "앱솔루트 명작 액상은 쉽고 간편한 액상 분유를 찾는 고객 여러분에게 육아의 부담은 덜고 영양은 더한 좋은 선택지가 될 것이다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>JT친애저축은행, 온라인 신용대출 '원더풀 나우론' 출시…최대한도 1억원</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005048809?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>JT친애저축은행은 온라인 다이렉트 신용대출 상품 ‘원더풀 나우론’을 출시한다고 23일 밝혔다.상품가입 대상은 4개월 이상 근무한 직장인이다. 연 소득 1800만원 이상이면서 만 20세 이상이어야 한다.최저 금리는 5.9%로 한도는 최대 1억원이다. 최장상환 기간은 10년이다. 전체 상환 기간이 84개월 이상일 경우 일정 기간 이자만 내고 이후 남은 기간 원금과 이자를 분할 상환하는 ‘거치식 원리금균등분할 상환 방식’을 이용할 수 있다.이번 상품은 기획 단계부터 신용평가전문기관인 NICE평가정보의 컨설팅을 반영해 설계했다. 변화하는 신용대출 시장에 선제 대응하면서 고객 혜택을 강화하기 위해서다.상품가입은 인터넷, 모바일 애플리케이션(앱), 전화로 가능하다. 토스나 카카오페이, 핀다 등 금융플랫폼에서도 신청할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>토스뱅크, '입사 1주년' 임직원 스톡옵션 부여</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011013135?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>기사내용 요약임직원 17명 대상 총 34만주2년 뒤부터 5년간 행사 가능[서울=뉴시스] 박은비 기자 = 토스뱅크가 입사 1주년을 맞이한 임직원을 대상으로 주식매수선택권(스톡옵션)을 부여한다. 은행 설립에 기여한 공로를 보상하는 차원이다.토스뱅크는 18일 열린 임시주주총회에서 임직원 17명에게 스톡옵션 총 34만주를 주기로 했다고 밝혔다. 주식 종류는 기명식 보통주로 신주 발행 형태로 부여된다. 행사가는 액면가 기준 주당 5000원이다. 부여기준일인 이달 28부터 2년 뒤인 2024년 2월28일부터 5년간 행사 가능하다.앞서 토스뱅크는 주식 보상 시스템을 도입해 지난해 7월과 11월 두차례에 걸쳐 임직원 60명에게 스톡옵션을 나눠줬다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.02.22.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>알체라 AI 신원확인 `에어아이디` 토스뱅크에 적용</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002721630?sid=105</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>비대면 고객신원확인 솔루션으로 계좌 개설 신속성·안전성 향상영상인식 AI(인공지능) 기업 알체라(대표 황영규)는 인터넷전문은행 토스뱅크(대표 홍민택)에 비대면 신원확인 솔루션 '에어아이디(AIIR ID)'를 공급, 대고객 서비스에 적용한다고 22일 밝혔다.에어아이디는 알체라의 AI 안면인식 기반 인증을 활용해 금융기관의 비대면 고객신원확인(eKYC)과 신분증 진위확인에 활용되는 솔루션이다. 토스뱅크에는 eKYC 솔루션이 적용돼 고객들이 토스 앱 내에서 셀프카메라를 이용해 인증, 실시간 안전한 로그인, 계좌개설 등 서비스를 이용할 수 있게 된다.이전에는 비대면으로 계좌를 개설하려면 신분증 제출, 기존계좌 활용 1원 인증 또는 영상통화 등의 절차를 거쳐야 했다. 또 영상통화를 위해 고객이 상담원의 연락을 기다리거나, 상담원이 육안으로 고객의 얼굴을 확인하는 과정을 거쳐야 해 비효율이 발생했다.황영규 알체라 대표는 "에어아이디 솔루션으로 AI를 통한 비대면 신원확인이 가능해지면서 비대면 계좌 개설의 제약이 상당 부분 해소될 것으로 기대된다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>금융당국과 약속 못 지킨 카뱅·케뱅·토뱅… 중금리대출 목표 미달</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000789419?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사가 지난해 금융당국과 약속한 중·저신용자 대상 신용대출(중금리 대출) 비중에 도달하지 못했다./사진=뉴스1인터넷전문은행 3사가 지난해 금융당국과 약속한 중·저신용자 대출(중금리 대출) 목표 비중에 달성에 실패했다.27일 은행연합회 따르면 지난해 12월말 기준 가계 신용대출에서 중·저신용자 대상 대출 비중은 토스뱅크 23.9% 카카오뱅크 17%, 케이뱅크 16.6%를 기록했다.인터넷은행 3사 모두 지난해 중·저신용자 대출 비중 목표치에 도달하지 못한 것이다. 앞서 카카오뱅크와 케이뱅크는 지난해 중·저신용자 대출 비중을 각각 20.8%, 21.5%로 잡았는데 이보다 각각 3.8%포인트, 4.9%포인트 부족한 실적을 올렸다.지난해 10월 출범하며 중·저신용자 대출을 공격적으로 확대하겠다고 공표한 토스뱅크 역시 목표치(34.9%)보다 무려 11%포인트나 낮은 중·저신용자 대출 실적을 냈다.중·저신용자는 KCB(코리아크레딧뷰로) 기준 신용점수가 820점 이하인 사람, 옛 신용등급으로는 4등급 이하에 해당하는 사람을 말한다.금융당국은 인터넷은행들은 설립 당시 취지와 달리 중·저신용자보다 고신용자 대출 비중을 늘리는데 집중하자 지난해 5월 인터넷은행권의 중·저신용자 대상 신용대출 비중을 2023년까지 30%를 넘기도록 한다는 방침을 밝혔다.인터넷은행들은 중·저신용자 대출 확대를 약속했지만 설립 취지에 부합하지 못하고 고신용자를 통한 수익성 위주의 장사를 이어가고 있다는 지적에서다.━카뱅·케뱅 25%, 토뱅 42%… 올해 올릴 수 있을까━인터넷은행들은 지난해 중·저신용 대출 비중을 목표치만큼 끌어올리지 못해 올해 더욱 늘려야하는 상황이다. 올해 말 기준 중·저신용자 대출 목표치는 카카오뱅크와 케이뱅크가 각각 25%, 토스뱅크가 42%다.카카오뱅크는 지난해 중저신용자 대출을 약 1조7166억원을 공급했다. 이는 전년(4679억원)대비 3.7배 늘어난 수준이다. 카카오뱅크 관계자는 "올해는 자산시장의 성장 둔화 등에 따른 대출 수요 감소, 연소득 수준으로 신용대출 한도 제한, 총부채원리금상환비율(DSR) 2 조기 적용 등이 중저신용대출 수요에 영향을 줄 것"이라고 예상했다.이어 "중저신용대출 공급 확대를 여신 계획의 최우선순위로 정했으며 고신용 신규 신용대출 중단은 올해도 이어가기로 결정했다"고 설명했다.케이뱅크는 지난해 중·저신용자 고객을 대상으로 7510억원의 대출을 취급했다. 이는 전년(3251억원)보다 2배 이상 증가힌 수치다.케이뱅크 관계자는 "이달 중순부터 중저신용 금융정보 부족(씬파일러) 고객 특화 신용평가모형(CSS)을 새로 개발해 적용했다"며 "신규 CSS 도입으로 중저신용 고객군의 대출 승인율이 기본 모형 대비 약 18.3% 증가하는 것으로 나타나 중저신용 고객 대출공급이 지속적으로 확대되고 씬파일러 고객군의 대출 승인율 역시 약 31.5% 상승해 대출공급 확대에 일조할 것"이라고 설명했다.지난해 10월 출범한 토스뱅크는 가계대출 총량관리로 대출총량 한도인 5000억원을 9일만에 모두 소진해 개점휴업 상태를 이어가다 올 1월부터 신용대출 판매를 재개했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.02.23.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>JT친애저축은행, 온라인 신용대출 '원더풀나우론' 출시</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000788247?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>사진=JT친애저축은행JT친애저축은행은 온라인 다이렉트 신용대출 상품 '원더풀 나우론'을 출시한다고 23일 밝혔다.'원더풀 나우론'은 현재 직장에서 4개월 이상 재직하고 있는 연 소득 1800만원 이상, 만 20세 이상의 직장인을 대상으로 한다. 최저 5.9%의 금리로 최대 1억원의 한도를 제공한다. 최장 상환 기간은 10년이며, 전체 상환 기간이 84개월 이상일 경우 일정 기간 이자만 내고 이후 남은 기간 원금과 이자를 분할 상환하는 '거치식 원리금균등분할 상환 방식'을 이용할 수 있다.인터넷, 모바일 앱, 전화는 물론 토스, 카카오페이, 핀다 등을 이용한 대출 신청도 가능하다. 이번 온라인 다이렉트 상품은 기획 단계부터 신용평가전문기관인 NICE평가정보의 컨설팅을 반영해 설계했다.JT친애저축은행 관계자는 "신종 코로나바이러스 감염증(코로나19)으로 힘든 시기를 겪고 있는 고객들에게 조금이나마 도움이 되고자 비대면 방식의 온라인 다이렉트 신용대출 상품 '원더풀 나우론'을 출시하게 됐다"며 "앞으로도 고객이 필요로 하는 상품 및 서비스를 제공하는 서민금융사가 되고자 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.02.25.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>카·케·토 인터넷銀 3사, 중저신용대출 목표미달</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004927245?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>달성률 68~82%에 그쳐각 인터넷전문은행 중·저신용자 대상 신용대출 비중 [자료 제공 = 은행연합회] 중저신용자 대출 확대를 취지로 출범한 인터넷전문은행들이 금융당국과 약조한 중저신용자 신용대출 비중 달성에 공히 실패했다. 가계대출 총량 규제 탓에 대출 규모 확대가 쉽지 않았던 여파다.25일 전국은행연합회 공시에 따르면 2021년 말 잔액 기준으로 중저신용자 대상 신용대출 비중이 카카오뱅크 17.0%, 케이뱅크 16.6%, 토스뱅크 23.9%로 나타났다. 각각 제시했던 목표치인 20.8%, 21.5%, 34.9%를 하회했다. 목표 달성률로 계산하면 카카오뱅크 81.7%, 케이뱅크 77.2%, 토스뱅크 68.4%다. 인터넷전문은행 관계자는 "중저신용자 대출 비중을 늘리고 싶어도 가계대출 규제 때문에 늘릴 수 없었다"고 말했다.액수로 보면 카카오뱅크는 지난해 1조7166억원 규모 중저신용자 신용대출을 공급했다. 2020년 4679억원 대비 3.7배 수준이다. 특히 4분기에는 고신용자의 신규 신용대출 공급을 중단하고 중저신용자 대출을 확대하는 데 집중했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크, 입사 1주년 임직원 대상 스톡옵션 부여</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000794655?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>토스뱅크가 입사 1주년을 맞이한 사내 임직원을 대상으로 ‘주식매수선택권(스톡옵션)’을 부여한다.토스뱅크는 18일 임시주주총회를 열고 임직원 17명에게 스톡옥션 총 34만주를 부여하기로 결정했다고 밝혔다. 주식의 종류는 기명식 보통주다. 신주발행의 형태로 부여되며, 행사가는 액면가 기준 주당 5000원이다.부여 기준일은 2022년 2월 28일이다. 대상 임직원은 부여일로부터 2년 뒤인 2024년 2월 28일부터 5년간 이를 행사할 수 있다.그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입해 왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다. 지난해 7월과 11월, 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여한 바 있다.홍민택 토스뱅크 대표. /토스뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>국내주식, 올해 9월부터 소수점 단위로 사고판다</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006412?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>금융위원회, 혁신금융서비스 25건 신규 지정주식 소수점 거래에 자본시장법 규제 미적용 특례오는 9월부터는 국내주식도 해외 주식처럼 소수점 단위로 사고팔 수 있게 된다. 그간 국내주식은 상법상 주식 불가분 원칙과 온주(온전한 주식) 단위로 설계된 예탁결제 인프라 탓에 소수 단위 결제가 허용되지 않았다.이에 금융당국은 증권사가 투자자의 소수단위 주식 주문을 취합한 뒤 온주를 만들어 자기 명의로 한국거래소에 호가를 제출하고 거래가 체결되면 취득 주식을 예탁원에 신탁하게 하는 방안을 앞서 내놨고, 증권사들에게 혁신금융 특례를 부여하기로 했다./그래픽=비즈니스워치금융위원회는 16일 정례회의를 열고 이같은 내용의 혁신금융서비스 25건을 신규 지정했다. 이번 건은 한국예탁결제원과 교보증권 등 증권사 24곳에 해당한다. 주식 소수점 단위 거래 서비스는 신탁제도를 활용해 1주를 여러 개의 수익증권으로 분할 발행하는 방식이다. 투자자는 적은 돈으로도 고가의 주식을 '조각투자' 할 수 있다.다만 카카오페이증권과 토스증권의 경우 금융투자인가가 없어 금융투자업을 영위할 수는 없다. 예탁결제원도 신탁업을 할 수 없어 금융위는 이번에 혁신금융 특례를 주기로 했다.이외에도 교보증권과 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, KB증권, KTB투자증권, 키움증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등에 국내주식 소수점 단위 거래시 자본시장법 관련 규제를 적용하지 않도록 특례를 부여했다.금융위 관계자는 "투자자는 종목당 최소투자금액의 인하로 주식투자 접근성이 확대되고, 소규모 투자금으로 위험관리와 수익 다변화를 위한 다양한 포트폴리오를 효율적으로 구성할 것"이라고 기대했다. 증권사들은 오는 9월부터 전산구축 일정 등에 따라 차례로 국내주식 소수점 단위 거래 서비스를 출시할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>주담대·사업자 대출… 발 넓히는 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001505730?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>카뱅·토스뱅크 등 시장 진출 선언시중은행만의 고유 영업지대로 남아있던 주택담보대출과 사업자대출 시장에 인터넷은행이 진출을 선언했다. 대출 시장 판도가 크게 흔들릴 전망이다.카카오뱅크는 15일 온라인 기자간담회를 열고 오는 22일 ‘카카오뱅크 주택담보대출’을 출시한다고 밝혔다. 이 상품은 시가 9억원(KB시세 기준) 이하 수도권 소재 아파트를 대상으로 하는 신규 주택구입 자금·기존 주담대 대환·생활안정자금대출 등을 취급한다. 한도는 최대 6억3000만원이다.카카오뱅크 주담대의 가장 큰 특징은 전 과정이 비대면으로 이뤄진다는 것이다. 상담 단계부터 AI(인공지능) 안내 시스템이 도입됐고, 복잡한 서류 제출 절차가 대폭 개선됐다. 부동산 매매 계약서는 사진으로 촬영해 제출하면 된다. 나머지 필요한 서류는 카뱅이 유관기관 연결을 통해 직접 확인한다. 등기의 경우 카카오뱅크와 계약한 법무사가 잔금 지급일에 고객을 방문해 처리한다. 시중은행에서 주담대를 받기 위해서는 필요 서류를 갖고 점포를 직접 방문해야 한다.개인사업자 대출도 더 이상 시중은행의 고유 영업 무대가 아니다. 앞서 토스뱅크는 지난 14일 개인사업자 대출상품을 전격 출시했다. 1년 이상 실사업자를 대상으로 금리 연 3% 초중반(변동금리)에 최대한도 1억원을 빌려준다. 토스뱅크도 대출 신청부터 실행까지 전 과정을 비대면으로 진행한다. 케이뱅크도 올해 1분기 중 ‘개인사업자 운전자금 대출’ 등 사업자대출을 출시할 예정이다. 카카오뱅크는 하반기 중으로 ‘개인사업자 SOHO대출’ 출시를 계획하고 있다.인터넷은행이 주담대와 개인사업자 대출 상품을 출시하는 것은 각각 카카오뱅크와 토스뱅크가 처음이다. 특히 주담대가 전면 비대면으로 판매되는 것은 은행권 전체를 통틀어 처음 있는 일이다. 윤호영 카카오뱅크 대표는 “서류 준비, 지점 방문 등에 소요되는 불필요한 시간을 줄여 금융혁신을 이루겠다”고 밝혔다. 토스뱅크 관계자도 “자체 개발한 신용평가모형을 활용해 보다 많은 사업자 고객에게 자금을 공급할 수 있도록 힘쓰겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>흑자 결실·공격영업 훈풍…인뱅 ‘IPO’ 봄바람</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001953840?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>카카오뱅크 유가증권 성공 진입 영향실적 상승 ‘케뱅’ 연내 IPO 진입 채비토뱅, 母회사 토스 입성땐 기대감 고조인터넷은행 업계에서 ‘기업공개(IPO)’ 바람이 솔솔 불고있다. 지난해 카카오뱅크가 유가증권시장에 성공적으로 상장한 데 이어 케이뱅크까지 연간 흑자를 달성하며 기업공개를 준비하고 있다. 토스뱅크 역시 모회사 토스의 장외시장 기업가치가 높아지면서, 토스 상장 이후 뱅크 상장이 거론되는 상황이다.케이뱅크는 지난 7일 상장 대표주관사로 NH투자증권·씨티증권·JP모간을 선정했다. 공동주관사로 삼성증권이 이름을 올렸다. 지난달 IB 4곳과 외국계 증권사들에게 입찰제안서(RFP)를 보내고 프레젠테이션을 진행한 이후 빠르게 주관사 선정까지 마친 것이다.케이뱅크는 지난해 흑자 달성을 바탕으로 상장까지 거침없이 진행하겠다는 계획이다. 2021년 한해 케이뱅크는 업비트 등 제휴를 통한 고객유입과 다양한 여수신 상품을 바탕으로 224억원의 순익을 기록했다.당초 케이뱅크는 2023년 상장을 목표로 했지만 실적 개선이 뚜렷해지면서 예상보다 1년정도 빠르게 기업공개를 추진하고 있는 상황으로 알려졌다.케이뱅크가 상장을 적극적으로 진행할 수 있는 이유에는 카카오뱅크의 영향도 있다. 카카오뱅크는 지난해 8월 유가증권시장에 성공적으로 상장했다. 당시 카카오뱅크 청약에는 2585조원이 넘는 기관자금이 몰려, 공모가가 밴드 최상단인 3만9000원으로 결정됐다. 현재도 카카오뱅크는 몸값 23조원대를 유지하며 대형 금융지주들과 견줘 뒤지지 않은 성과를 내고 있다. 전체 금융주 중 시가총액 3위를 기록 중이다.토스뱅크는 모회사인 비바리퍼블리카(토스)가 먼저 상장을 진행할 가능성이 높다. 최근 비바리퍼블리카는 프리IPO 후보군을 대상으로 입찰제안서를 배포한 것으로 전해지기 ��문이다. 투자 유치 규모는 최대 1조원이다. 공동 주관사로는 모건스탠리와 크레디트스위스를 선정했다.토스가 현재까지 받은 투자금은 1조원이 넘는다. 지난해 신규 투자를 유치하면서 투자자로부터 기업가치 74억달러(한화 8조8452억원)로 평가된 바 있다. 이번 투자 유치를 성공적으로 마무리하면 기업가치가 10조원 이상인 스타트업인 ‘데카콘’에 진입할 수 있을 것으로 보인다.토스가 성공적으로 상장을 하면 토스뱅크에도 기회가 올 수 있다. 다만 상장 계획을 세우기 위해서는 올해 성과가 중요하다. 토스뱅크는 지난해 10월 출범했지만 금융당국의 대출 총량규제에 막혀 이렇다할 실적을 내지 못하고 있기 때문이다.이에 따라 토스뱅크는 올해 자본금을 늘려 공격적인 영업을 할 예정이다. 토스뱅크는 다음주 이사회를 열고 3000억원 규모의 유상증자를 추진할 방침이다. 이번 유상증자는 출범 이후 두 번째이며, 안건이 통과되면 토스뱅크의 자본금은 8500억원이 된다. 앞서 토스뱅크는 향후 5년 동안 총 1조원 규모의 유상증자를 목표로 하고 있다고 밝힌 바 있다.은행권 관계자는 “카카오뱅크가 4년 만에 상장을 하고, 케이뱅크 역시 대출을 중단한 시기를 제외하면 약 3년 만에 상장을 준비하는 것”이라며 “토스뱅크 역시 3~4년을 바라보고 상장이 이뤄질 수 있다”고 내다봤다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>“합쳐야 산다”… 금융사들 ‘원앱’ 전략</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003669242?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>삼성금융계열사 통합앱 곧 출시 빅테크·핀테크업체에 반격 채비 NH농협은행 등 금융사 10여곳 데이터전문기관 지정에 적극적빅테크·핀테크 기업의 금융시장 진출이 활발해지는 가운데 기존 금융사들의 ‘원앱’ 전략이 본격화하고 있다.   21일 금융업계에 따르면 삼성생명·화재·카드·증권 등 4개 삼성 금융계열사가 다음달쯤 통합앱 ‘모니모(가칭)’를 출시할 예정이다. 앞서 지난해 4월 삼성화재가 174억원, 삼성생명이 143억원, 삼성증권이 74억원을 분담하고 삼성카드는 통합 플랫폼 시스템을 구축·운영하기로 공동협약을 체결한 바 있다. 삼성 금융계열사의 정보를 한눈에 확인할 수 있는 모니모는 보험료 결제를 비롯해 오픈뱅킹, 내 자산 시세 조회, 각종 서비스 달성에 대한 보상 및 포인트 지급 등의 서비스를 담을 예정이다.   이러한 원앱 전략은 최근 금융사별로 카드사를 중심으로 앱·서비스 통합을 추진해온 것의 연장선상으로 풀이된다. 토스와 카카오페이 등 핀테크·빅테크들이 선보인 모바일 중심의 원앱 서비스가 고객의 큰 호응을 얻자 급격히 사업 방향을 선회한 셈이다.   여기까지는 빅테크·핀테크의 행보를 따라 하는 것으로 볼 수 있지만, 본격적인 행보는 그다음이다. 금융위원회는 오는 24∼25일 데이터전문기관 예비지정에 대한 사전신청을 접수한다. 데이터전문기관은 간단히 말해 금융·비금융 분야의 비식별데이터를 결합할 수 있는 권한을 정부로부터 부여받은 전문기관이다. 앞서 지난해 9월 금융위가 실시한 사전 수요조사에서 삼성SDS와 NH농협은행, BC카드, 나이스신용평가 등 금융사 10여곳이 의향을 내비친 것으로 전해진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.02.27.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>"잠재력 큰 뉴 시니어…맞춤형 금융 서비스·적극 관리 필요"</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005050896?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>금융시장의 큰 손이면서도 앞선 세대와 달리 디지털 전환에 수용적인 '뉴 시니어(51~64세)' 세대를 공략하기 위해 은행권이 계층별 니즈(needs)에 따라 맞춤형 금융을 제공해야 한단 분석이 나왔다.22일 하나금융경영연구소에 따르면 지난해 주민등록 인구 기준 50대 인구는 859만명(16.6%)으로 전 연령대 중 가장 많은 비중을 차지했다. 인구비가 급증함에 따라 욜드(YOLD·베이비부머 주도의 젊은 노인층) 산업은 오는 2030년까지 지난 2020년 대비 2배 이상인 168조원까지 성장할 것으로 예측되고 있다.금융권에서도 뉴 시니어 층은 수익 기여도가 높은 대표적인 고객층으로 자리잡고 있다. 하나은행 기준 50대 이상 고객의 거래 금액은 총 거래 규모의 절반 이상을 차지하고, 평균 거래 금액도 40대 이하 대비 약 2배 가량 높아 수익 기여도가 매우 높다. 특히 50대 고객층이 보유한 수익증권(신탁·펀드·연금 등) 거래금액도 전 연령대 중 가장 높은 수준이어서 금융 거래에 대한 적극성과 관여도 또한 높은 편이다.이들은 앞선 세대와 달리 디지털 등 새로운 거래문화에 수용적인 태도를 보이고 있다. 실제 연구소가 뉴 시니어 1000명을 대상으로 지난해 실시한 조사에 따르면 응답자 중 금융채널로 스마트폰뱅킹을 이용하는 비중은 83.3%로 영업점(49.3%), 폰뱅킹(23.1%)에 비해 월등히 높았다.특히 해당 조사에서 최근 1년 내 신규 금융기관과 거래 한 비중은 64%에 달하는 것으로 집계됐다. 신규로 거래한 기관 비중은 증권사(9.7%), 토스(6.5%), 토스뱅크(5.8%), 저축은행(5.5%), 카카오페이(5.4%) 등 증권사와 빅테크·핀테크 기업들이 비교적 높았다. 기존 금융회사는 KB국민은행(3.2%), 신한은행(2.4%), 하나은행(2.2%) 등으로 절반 수준에 그쳤다.뉴 시니어층은 자산·소득에 따라 다른 금융니즈를 갖춘 것으로 분석됐다. 소득과 자산이 모두 높은 응답자의 경우 적극적 투자성향과 절세에 대한 요구가 크고, 자산은 적으나 월 소득이 높은 경우 노후 정기적 소득 확보가 가능한 금융 상품에 관심을 보였다. 자산이 많고 소득이 낮은 경우엔 안정적 거래를 추구하는 한편 금융기관에서 제공하는 생활 연계 서비스에 반응하는 편이었다.뉴 시니어층에서 은행권이 제공하는 시니어 특화 플랫폼을 경험한 비중은 약 20%로 많지 않은 편이었다. 다만 이같은 맞춤형 금융을 경험한 응답자의 경우 해당 금융기관과의 거래 의향이 있다고 답한 응답자는 74%로 비경험자(40.3%) 대비 1.8배 높아 금융 오퍼로서의 영향력은 적지 않은 것으로 나타났다. 보다 적극적인 소비자와의 접점 만들기가 필요한 셈이다.하나금융경영연구소는 "디지털 금융으로의 전환, 마이데이터 서비스 등 금융환경의 변화와 함게 생애 전환기를 맞는 50대 이상의 금융니즈도 달라지고 있다"면서 "이들을 위한 차별화된 맞춤 전략 및 소비자가 직접 체감할 수 있는 적극적 관리체계가 마련돼야 한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘입사 1주년’ 임직원 대상 스톡옵션 부여</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002577366?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>임직원 17명 대상, 총 34만주 규모ⓒ 토스뱅크[데일리안 = 이호연 기자] 토스뱅크는 18일 임시주주총회를 열고 임직원 17명에게 스톡옥션 총 34만 주를 부여하기로 결정했다고 밝혔다. 주식의 종류는 기명식 보통주다. 신주발행의 형태로 부여되며, 행사가는 액면가 기준 주당 5000원이다.부여 기준일은 오는 28일이다. 대상 임직원은 부여일로부터 2년 뒤인 2024년 2월 28일부터 5년간 이를 행사할 수 있다.그동안 토스뱅크는 은행 설립에 기여한 임직원을 대상으로 주식 보상 시스템을 도입해 왔다. 전문성을 갖춘 우수 인력을 확보하고, 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서다.토스뱅크는 지난해 7월과 11월, 두 차례에 걸쳐 임직원 60명에게 스톡옵션을 부여한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.02.28.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>500원만 내면 월급 가불 받을 수 있다고?…핀테크, 별별 서비스 다 있네</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004928315?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>페이워치가 하나銀 계좌 입금사업주 재정부담 없이 後정산분쟁·사고 잦은 인테리어 비용블록체인 적용해 '안심 결제'복잡한 투자·세무는 AI가 척척음악저작권에 투자 길도 열려◆ 대한민국 핀테크 대해부 ② ◆  회사에 신청해 월급을 미리 당겨 받는 '가불'을 애플리케이션(앱)에서 비대면으로 쉽게 할 수 있다. 가불 과정에서 주변이나 회사 눈치를 볼 필요가 없어 젊은 직장인들 사이에서 인기를 끌고 있다. 또 전문가를 찾아 일일이 상담해야 했던 세무회계나 투자도 클릭 몇 번이면 인공지능이 대신해준다. 현금을 선입금하고 공사가 끝날 때까지 마음을 졸여야 했던 인테리어 비용 지불은 블록체인 기술로 '안심거래'를 할 수 있게 된다. 한국 핀테크 기업들이 일상을 바꾸고 있다. 혁신적인 서비스에 사람과 투자도 몰린다. 이들은 비바리퍼블리카(토스), 두나무, 빗썸코리아 등 유니콘 기업들(기업가치 1조원 이상 스타트업) 뒤를 바짝 쫓으며 날이 갈수록 사세를 확장해나가고 있다.핀테크 기업 엠마우스의 가불 시스템 '페이워치'는 근로자가 사업주 눈치를 보지 않고 당당하게 가불받을 수 있는 길을 열었다. 노동자가 앱을 통해 가불을 요청하면 페이워치가 하나은행을 통해 가불금을 지급해주고, 나중에 사업주에게서 돌려받는다. 사업자는 추가적인 재정 부담이 전혀 없고, 근로자는 수수료 500원만 부담하면 된다.가불금은 일한 날짜만큼 받을 수 있다. 기업이 이 서비스를 도입하면 전용 QR코드가 생기는데, 근로자가 출퇴근 시 QR코드를 스캔하면서 근태를 기록한다. 일한 시간만큼 급여가 페이워치 앱 내 전자지갑에 쌓이고 이 금액의 50%까지 가불받을 수 있다. 1일 인출 한도는 10만원이며 한 달에 최대 50만원까지 가능하다.투자와 세무회계에 인공지능(AI)을 활용해 새로운 가치를 창출하는 기업도 있다. 사람을 쓰면 비용과 시간이 많이 들고 실수가 날 수 있는 부분을 인공지능을 통해 보완해준다. 디셈버앤컴퍼니자산운용은 AI 투자일임 서비스 '핀트'를 운영 중이다. 머신러닝과 인공지능 기술을 바탕으로 자체 개발한 자산배분 엔진 아이작을 활용해 고객 투자 성향에 따라 전 세계 자산에 분산투자해준다. 지난해 말 기준 회원 수만 60만명이 넘고 투자일임액은 1000억원에 육박한다. 회원 중 20대가 52%, 30대 비중이 26%로 MZ세대 사이에서 인기가 높다.선금 수령 후 잠적, 결제 지연 등 분쟁이 잦은 용역거래를 안전하게 만들어나가는 핀테크 기업 직뱅크도 있다. 용역거래 안심결제 시스템 '직페이'를 운영하고 있다. 공사 발주 등 용역거래는 통상 거래 기간이 길고 수많은 이해관계자가 얽혀 있어 분쟁이 잦았다. 시공사가 선금을 떼먹고 도망가는 경우가 있는가 하면, 발주자와 시공사 또는 시공사와 하도급업체 간 중도금 지급이 밀려 공사를 시작해놓고도 자재를 구하지 못해 지연되는 일이 비일비재했다.직페이는 블록체인 기술을 바탕으로 일종의 채권인 '토큰'을 도입해 이런 문제를 해결한다. 발주자가 NH농협은행 안심계좌에 대금을 이체하면 직페이가 이 예금을 담보로 토큰을 발행해 시공사에 지급한다. 토큰은 받은 지 15일이 지나면 시공사는 프로젝트 진행 상황을 바탕으로 발주자에게 환전을 요청할 수 있다. 현금 결제의 평균 정산 주기인 45~60일의 3분의 1 수준이다. 음악 저작권료 참여 청구권 투자 플랫폼 '뮤직카우'는 과거 투자 대상이 아니었던 음악 저작권료 시장 문호를 개인에게 활짝 열어줬다. 2018년 출범 당시 첫해 회원 수 9996명, 누적 거래액 10억여 원이었던 이 플랫폼은 이제 지난해 기준 회원 수만 80만명을 넘고 누적 거래액은 3000억원을 웃돈다.'기술'과 '금융'의 양 날개가 뮤직카우 성장을 이끌었다. 작사가, 작곡가 등 원저작권자에게서 목돈을 주고 저작권을 구매할 때 가격 산정에 기술력을 활용했다. 뮤직카우는 과거 저작권료 데이터를 바탕으로 저작권료 예측 시스템을 자체 개발했고 이를 활용해 미래 저작권료 누적 수익을 현재 적정가치로 환산했다. 그리고 이 권리를 작게 분할해 주식처럼 거래할 수 있도록 금융상품으로 만들었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.02.17.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>지난해 글로벌 핀테크 투자 ‘사상 최대’ …가상자산 기술 투자 전년비 449% 급증</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002119099?sid=105</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>지난해 아태 핀테크 투자 275억 달러… 한국 30억 달러 ‘사상 최대’ 기록[디지털데일리 이상일기자] 블록체인과 가상자산에 대한 관심 증대, 임베디드 금융 솔루션에 대한 수요 확대 등으로 작년 전세계에서 거래된 핀테크 투자 건수가 사상 최대치를 기록한 것으로 나타났다.KPMG(회장 빌 토마스)가 17일 발간한 보고서(Pulse of Fintech H2'21)에 따르면, 지난해 글로벌 핀테크 투자 건수는 5684건으로 전년 3764건 대비 51% 증가했다. 투자액은 2101억 달러로 전년(1249억 달러) 대비 68% 늘었다.지난해 핀테크 투자액이 가장 많이 쏠린 분야는 지급결제로 517억 달러가 집중됐다. B2B 후불결제(BNPL, Buy Now Pay Later), 임베디드 뱅킹 및 오픈 뱅킹 제휴 솔루션과 같은 분야에 관심이 늘면서 전세계적으로 지급결제 분야는 가장 많은 투자금을 유치했다.블록체인 및 가상자산(302억 달러), 사이버보안(48억 달러), 자산관리(16억 달러) 분야는 사상 최대 투자액을 돌파했다. 특히 블록체인 및 가상자산 기술에 대한 투자액은 2020년 55억 달러에서 무려 449% 급증했다. 같은 기간 투자 건수는 927건에서 1332건으로 43% 증가했다. 보고서는 “금융 시스템에서 가상자산의 잠재적 역할과 이를 활용한 기술에 대한 인식이 높아지고 있음을 의미한다”고 전했다.핀테크 M&amp;A 거래액은 2020년 758억 달러에서 2021년 831억 달러로 늘었고, 핀테크 분야 크로스보더 M&amp;A 거래액은 362억 달러로 전년 대비 3배 이상 증가했다. 사모펀드(PE)의 핀테크 투자액은 2018년 최고 규모였던 52억 달러에서 2021년 122억 달러로 두 배 이상 증가했다.핀테크에 대한 벤처캐피털(VC) 투자도 2020년 462억 달러에서 2021년 1149억 달러로 전년 대비 두 배 이상 증가하며 2018년 최고치(532억 달러)를 넘어섰다. 엔젤 및 시드, 초기단계, 후기단계 등 모든 거래 단계에서 VC 투자 규모가 크게 증가한 것으로 집계됐다.지역별로는 미주 지역의 총 핀테크 투자는 2020년 835억 달러에서 2021년 1053억 달러로 증가했고, 유럽 또한 2021년 774억 달러로 지속적인 증가세를 보였다. 아시아태평양 지역은 2020년 147억 달러에서 2021년 275억 달러로 큰 폭의 성장세를 기록했다. 인도(72억 달러)와 한국(30억 달러)은 지난 한 해 동안 모두 사상 최대 핀테크 투자액을 갱신했으며, 싱가포르(40억 달러)와 호주(26억 달러)에 대한 투자도 강세를 보였다.지난해 중국은 가상자산 채굴 및 거래 금지, 빅테크 규제 등 핀테크 산업 전반에 대한 규제 강화 기조로 일부 투자자들은 중국 투자를 축소하면서 인도와 싱가포르 등 아시아태평양의 다른 핀테크 허브로 눈길을 돌렸다. 지난해 아시아태평양 지역의 상위 10대 핀테크 투자 건 중 단 한 건만 중국에서 진행했고, 그 외 건들은 인도, 한국, 싱가포르, 일본, 호주에서 이루어졌다. 특히, 한국의 케이뱅크(11억 달러)와 데카콘으로 성장 가능성이 높은 토스(4.1억 달러)는 아시아태평양 상위 핀테크 투자 중 각각 2위와 5위를 기록했다.  삼정KPMG 핀테크 리더 조재박 전무는 “코로나19 팬데믹 상황속에서도 핀테크 투자 건수가 사상 최대를 기록할 만큼 열기가 뜨거웠으며, 지급결제가 여전히 투자를 주도하는 가운데, 블록체인, 자산관리, 사이버보안에 대한 관심이 급증했다”고 밝혔다. 조 전무는 “향후 고객 경험 및 서비스 제고를 위한 금융과 비금융의 합종연횡, 슈퍼앱으로 진화를 위한 지급결제 및 플랫폼 업체 M&amp;A, 블록체인 기술 활용 및 향후 역할에 대한 재조명, 자산관리 혁신에 대한 수요 증대 등에 따라 글로벌 핀테크 투자가 지속될 것”이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.02.16.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>올 9월부터 `국내주식 소수단위 거래` 가능해진다</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002720845?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>금융위 혁신금융서비스 지정…25개 증권사서 가능금융위원회는 16일 국내주식 소수단위 거래를 골자로 하는 혁심금융서비스를 지정했다. 금융위원회 제공    오는 9월부터 대부분 증권사를 통해 국내 주식을 소수점 단위로 거래할 수 있게 됐다. 신탁제도를 활용해 하나의 주식을 여러 개의 수익증권으로 분할 발행하는 방식이다. 금융위원회는 16일 이같은 내용을 담은 '혁신금융서비스 25건 지정' 자료를 발표했다.'신탁 방식'을 활용한 이번 서비스는 증권사가 투자자의 소수단위 주식 주문을 취합하고 부족분을 직접 채워 증권사 명의로 한국거래소에 호가를 제출하고 거래가 체결돼 취득한 주식을 예탁결제원에 신탁하는 절차로 이뤄진다. 한국예탁결제원, 교보증권, 대신증권, DB금융투자, 메리츠증권, 미래에셋증권, 삼성증권, 상상인증권, 신영증권, 신한금융투자, IBK투자증권, SK증권, NH투자증권, 유안타증권, 유진투자증권, 이베스트투자증권, 카카오페이증권, KB증권, KTB투자증권, 키움증권, 토스증권, 하나금융투자, 한국투자증권, 한화투자증권, 현대차증권 등 25개사가 해당 서비스를 출시한다.금융위는 서비스 가동을 위해 자본시장법 제11조, 제34조제1항·제3항·제4항, 제119조제1항, 제130조제1항, 제161조제1항제8호, 제165조의3과 금융지주회사법 제48조제1항·제5항 등 특례조항을 설정했다.내용을 살펴보면 카카오페이증권, 토스 증권과 같이 예탁결제원의 신탁업 영위, 투자매매업 인가가 없는 일부 증권사의 영업이 무인가 영업에 해당하지 않도록 했다. 예탁결제원의 신탁 수익증권 발행 등에 관한 증권신고서 제출도 면제했다.증권회사가 소수단위 거래 계약체결을 목적으로 증권회사의 대주주 및 특수관계인이 발행한 주식 취득시 관련 규제가 적용되지 않도록 특례했다. 또 증권회사가 소수단위 거래 계약체결을 목적으로 해당 증권회사가 속한 금융지주회사 및 금융지주회사의 다른 자회사등의 주식 취득시 관련 규제가 적용되지 않도록 했다.이어 주권상장법인인 증권회사가 소수단위 거래 계약체결을 목적으로 자기주식을 처분ㆍ취득하는 경우 상법상 원칙에 따라 배당가능이익 범위 내에서 이루어지도록 하되, 자본시장법 관련 규제는 적용되지 않도록 규제를 완화했다.금융위는 이를 통해 "투자자는 종목당 최소투자금액 인하로 주식투자 접근성이 확대되고, 소규모 투자금으로 위험관리와 수익다변화를 위한 다양한 포트폴리오를 효율적으로 구성 가능할 것으로 기대한다"며 "금투회사는 투자자에 대한 다양하고 혁신적인 금융서비스 제공을 위한 재료로 활용가능 하다"고 밝혔다.다만 금융위는 예탁결제원은 신탁재산과 고유재산 간 거래가 불가하도록 했다. 증권사는 투자자가 소수단위 거래의 차이점을 명확히 인지하도록 위험고지 체계를 구축해야 한다. 또 각 증권사는 소수단위 거래를 중개하는 과정에서 자기재산으로 취득하게 되는 주식을 종목별로 5주 이내로 하고, 의결권 행사도 금지된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.02.21.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>[주목받는 CFD]②증권사들이 몰려드는 까닭은</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006474?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>증권가 경쟁 과열 양상…차별성 부각에 집중고수수료·감시 무풍지대 등이 시장 진출 유인부작용 방지 차원서 세부 지침 필요성 '대두'차액결제거래(CFD) 시장이 커지면서 한 쪽에서는 우려의 시선을 던지고 있지만 증권사들은 앞다퉈 출사표를 던지고 있다. 도입 초기 중소형 증권사들의 리그였다면 최근에는 대형사들의 합류로 경쟁에 불이 붙고 있다. 증권사들 입장에서 CFD 시장은 새롭게 부상하고 있는 수익원이기 때문이다. 일반 주식 거래 수수료 대비 높은 수수료율이 적용되고 있는데다 일정 수준 이상의 자산을 갖춘 전문 투자자들만 진입할 수 있는 점이 증권사들의 눈길을 사로잡고 있는 것으로 분석된다.다만, 투자 손실 확대 우려 및 세금 회피 수단과 같은 부작용 예방 차원에서 금융 기관의 세부지침이 필요하다는 지적이다. /사진=비즈니스워치CFD 시장, 새로운 '엘도라도'21일 금융투자업계에 따르면 금융투자협회에 가입한 증권사중 CFD 상품을 출시한 회사는 총 13개사다. 2015년 교보증권을 필두로 가장 최근에는 SK증권도 뛰어들었다. 자기자본 5조원 이상의 대형 증권사 중에서는 NH투자증권, 한국투자증권, 삼성증권, KB증권, 하나금융투자, 메리츠증권이 가세했다.2019년까지만 해도 4개 증권사에서만 서비스를 제공했던 것과 비교하면 부쩍 늘어난 셈이다. CFD 시장이 증권사들의 각축장이 되면서 경쟁에 불이 붙고 있다. 차별화된 이벤트를 실시해 투자자들의 이목을 끌고 있다.작년 7월 CFD 서비스를 시작한 메리츠증권은 업계 최초로 증거금 100%의 안심 계좌를 도입했다. 지난달말 출시된 해외 상장 주식(미국·중국·일본·홍콩) CFD에도 이를 활용할 수 있다. 반대 매매 및 이자 부담이 없는 게 장점이지만 레버리지 효과는 누리지 못하는 게 단점이다.아예 현금을 지급하는 증권사도 있다. KB증권은 오는 5월 말까지 CFD를 활용한 누적매매 금액 100억원 이상인 고객 30명(선착순)에게 100만원을 지급한다. 10억원 이상의 경우 10만원을 제공한다.경쟁이 심화되면서 거래 수수료도 대폭 낮아졌다. 2019년까지만 해도 수수료율이 0.1~0.7%를 나타냈지만 현재 CFD 서비스를 출시한 회사들 가운데 0.5% 이상의 수수료를 책정하는 회사는 없는 상태다. 수수료 인하가 기본 옵션과도 같아진 셈이다.장효미 자본시장연구원 연구위원은 "국내에서는 2015년 교보증권이 처음으로 CFD를 도입한 이후 서비스 제공이 제한적이었으나, 최근 들어 주요 증권사들이 경쟁적으로 서비스를 도입하고 있다"며 "개인투자자들의 관심 증대 및 전문 투자자 자격 요건 완화 등이 국내 증권사들의 서비스 확대에 주요인으로 작용하고 있다"고 평가했다.짭짤한 수익원으로 부각이와 더불어 CFD 시장은 점차 고갈돼 가고 있는 증권사들의 국내 사업에 새로운 활기를 불어 넣을 수 있는 소득원으로서도 주목을 받고 있다.국내 증권사들의 주요 사업분야는 크게 개인 및 국내외 기관투자자를 대상으로 증권 위탁중개, 금융상품 판매 등 자산관리서비스를 제공하는 '세일즈'와 기업 자금조달, 인수·합병(M&amp;A), 프로젝트 파이낸싱(PF) 등 기업 금융과 관련된 '투자은행(IB)', 주식, 채권 등의 상품운용과 파생상품 투자를 담당하는 트레이딩으로 나눌 수 있다.이 가운데 시장 상황에 민감하게 반응할 수밖에 없는 세일즈와 트레이딩을 제외하면 IB 부문이 유일하게 성장세를 나타내고 있는 실정이다. IB도 기업공개시장(IPO)과 해외 대체투자 및 인수 금융 의존도가 큰 편이다.미래 먹거리에 대해 고민이 깊어지는 시기에 CFD시장이 증권사들의 주목을 받은 셈이다. 우선 증권사들 입장에서 투자자들로부터 높은 수수료를 챙길 수 있는 점이 가장 큰 메리트다. 현재 시중 증권사들의 일반 주식 거래 계좌 수수료는 사실상 미미한 수준이다. 카카오페이증권, 토스증권 등 후발 주자들의 시장 입성과 이에 따른 신규 고객 유치 과열 양상에 수수료를 면제해 주는 증권사들도 많다. 그러나 CFD의 경우 큰 레버리지를 일으킬 수 있는 만큼 높은 수수료율을 책정해 놓은 상태다.적게는 0.1%에서 최대 0.5%의 수수료율을 적용하고 있다. 1억원 매매에 증권사들은 10만원에서 50만원까지 얻는다. CFD는 일반 주식 거래 계좌에 비해 소위 돈이 되는 사업이라고 볼 수 있다.더불어 증권사 입장에서는 손해 볼 장사가 아니라는 점도 CFD 사업에 적극적으로 뛰어들 수 있는 유인으로 작용하고 있다. 금융 기관의 감독 강도나 세부 지침이 비교적 느슨한 상태라 영업 행위에 큰 제약이 없고, 투자자 계좌에 손실이 확대돼 미수금이 발생해도 반대매매를 통해 이를 해소할 수 있기 때문이다.장 연구원은 "증권업계에서도 CFD 서비스를 통해 일반 주식 거래 대비 상대적으로 높은 수수료 및 금융 이자 수익 등을 얻을 수 있어 새로운 수익원으로 기대하고 있다"면서도 "CFD 시장 활성화는 높은 투자 위험도, 세금 회피 수단으로의 활용 가능성 등 부작용이 우려되고 있어 구체적인 관련 제도를 만들고 영업행위, 위험관리 등에 대한 세부적 지침을 제시할 필요가 있다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.02.19.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>신파일러 1280만명, 대다수는 20대…어디서 돈 빌릴까</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011014281?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>기사내용 요약'네이버 테크핀 리포트 2021' 발간국민 4730만명 중 1/4이 신파일러미혼 54%, 1인 가구 22%…비중多연평균 가구소득 4000만원 미만인뱅, 빅테크, 온투업체 등이 관심[서울=뉴시스] 박은비 기자 = 금융 이력이 없어 은행 대출을 받기 어려운 신파일러(Thin Filer, 금융 이력 부족자)가 국내 1280만명에 이르는 것으로 집계됐다. 신용점수 700점대로 최근 중·저신용대출 확대 기조와 맞물려 주목받고 있는 고객군이다. 이들 중 상당수가 20대인 것으로 나타났다.19일 네이버가 대학 연구진과 함께 발간한 '네이버 테크핀(TechFin) 리포트 2021'에 따르면 지난해 상반기 기준 금융 이력이 부족한 신파일러는 약 1280만명으로 추산된다. 신용점수를 매길 수 있는 국민 4730만명의 4분의 1이 넘는 규모다.금융권에서는 신파일러를 신용카드가 없거나 대출 이력이 없는 사람으로 정의하고 있다. 이들 중 상당수는 금융 거래 정보가 부족하다는 이유로 신용점수 700점대에 머물러 있다. 이로 인해 시중은행에서 대출을 받기 어렵거나 높은 금리를 부담하면서 돈을 빌릴 수밖에 없는 게 현실이다.이번 리포트에서 설문조사한 대상 1063명 중에는 20대가 전체 30.8%로 가장 큰 비중을 차지하는 것으로 나타났다.신용카드 발급이 어렵지 않은 국내 상황을 고려해 가급적 대규모 신파일러 표본을 구성하기 위해 신용카드가 없거나 한도 300만원 이하인 경우로 정의해 온라인 설문조사를 실시했다. 지난해 9월 마지막주 전국에 거주하는 만 20~59세 남녀 1650명이 대상이다.신파일러들의 직업 유형을 보면 사무·기술직 비중이 38.5%로 가장 높게 나타났다. 그다음이 전업주부(10.9%), 대학생(9.1%), 취업준비생(8.2%) 순이다. 연구팀은 사무·기술직 비중이 높게 나타난 게 신파일러 정의에 신용카드 한도 300만원 미만인 사람까지 포함했기 때문으로 추정했다.또 미혼이 54%, 1인 가구가 22%를 차지했다. 신파일러가 아닌 사람들보다 미혼이고 1인 가구일 가능성이 상대적으로 더 높은 것으로 나타났다. 이들의 연평균 가구소득은 4000만원 미만인 경우가 약 절반이고, 주거비를 제외한 월평균 지출액은 100만원 이하인 경우가 전체 63% 차지한다.이들은 온라인에서 구매할 때 신용카드 사용비중(32.8%)이 신파일러가 아닌 집단보다 상대적으로 낮은 반면 체크카드(32.4%), 계좌이체(10.2%) 비중이 높았다. 이에 대해 연구팀은 신파일러일수록 일시적인 자금 부족 상황에서 현금결제를 유예해줄 수 있는 결제수단 이용이 어렵다고 평가했다.금융권에서는 대안신용평가시스템(ACSS)를 개발해 중·저신용대출 시장에 뛰어들고 있다. 가계대출 규제가 심화되는 가운데 이 시장만큼은 포용금융 차원에서 장려하고 있어 틈새시장으로 여겨지기 때문이다. 최근 신파일러가 주목받는 것도 이런 이유에서다.저축은행과 온라인투자연계(P2P)금융 등 2금융권을 비롯해 신규 취급 할당 목표가 있는 인터넷전문은행이 지난해부터 사활을 걸고 있다. 시중은행 역시 신용평가시스템 고도화와 함께 신파일러들을 눈여겨보고 있다.대안신용평가시스템을 구축해 지난 2020년 12월부터 온라인 스마트스토어 사업자 전용 대출 상품을 공급하는 네이버파이낸셜은 지난해 말 기준 누적 대출 약정액 1200억원을 기록했다. 이에 대해 연구팀은 "담보나 보증, 오프라인 매장 등이 있어야 했던 기존 사업자 대출 시장에서 소외되거나 불리한 조건으로 대출받을 수 밖에 없었던 온라인 소상공인을 포용하기 위한 노력이 결실을 맺은 것으로 평가된다"며 "금융·비금융기관들이 협업을 통해 대안신용평가시스템을 개선하고 활용해간다면 금융 서비스가 다양해질 것으로 기대된다"고 밝혔다.한편 후불결제 서비스를 제공하는 업체들도 신파일러가 잠재 고객이 될 수 있을 것으로 주목하고 있다. 국내에는 쿠팡, 네이버파이낸셜(네이버페이), 카카오페이, 비바리퍼블리카(토스) 등이 있다.연구팀은 "설문 조사 결과 신파일러는 대조군에 비해 소득 수준이 낮고 정규직 비중이 적어 근무형태가 불확실하고 노동소득의 변동성이 높을 가능성이 크다"며 "신파일러 특성을 종합적으로 고려했을 때 후불결제 서비스는 신파일러에게 실질적인 도움을 줄 수 있는 가능성이 높다"고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[박정호의 미리 가 본 미래]〈17〉진화하는 핀테크 기업의 UI/UX</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002999620?sid=102</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>한국핀테크산업협회에 따르면, 카카오페이, 네이버페이, 카카오뱅크, 토스 등 상위 핀테크 기업 8곳의 월간 활성화 이용자 수(MAU)가 8500만명이다. 지난해 말 기준 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)의 실제 활동 고객 7127만명을 훌쩍 뛰어넘었다고 한다.핀테크의 본격적인 진화·발전은 2007년 스마트폰 시대가 열리면서 본격화되기 시작했다. 스마트폰이 도입되면서, 금융회사 지점을 통해 전개되었던 다양한 금융 서비스가 온라인에서 구현되기 시작했다. 하지만, 당시 스마트폰 기술은 기존의 금융 업무를 단순히 스마트폰으로 옮겨 놓은 수준에 불과했고, 스마트폰에서 어떠한 방식으로 표출되어야만 보다 개선된 금융서비스를 달성할 수 있는지에 대한 세부적인 이해도는 부족한 상황이었다.점차 핀테크 기술이 모바일, SNS, 빅데이터, 인공지능 등 기술과 접목돼 발전하면서 모바일 내지 기타 온라인에서 어떻게 표출되느냐에 따라 차별화된 금융서비스가 구현 가능하다는 사실을 이해하기 시작했다. 이러한 단계를 이전의 전통적 핀테크와 구분하여 신흥 핀테크, 혹은 테크핀(TechFin)이라고 지칭하며 구분하기도 한다. 테크핀 기업의 핵심역량 중심에는 UX·UI가 놓여 있다. 그리고 이러한 테크핀 기업은 전통적 금융회사가 아니라 금융권 밖에서 활동하고 있는 IT 회사가 대부분이다.최근 전개되는 각종 핀테크 기업의 흐름을 보면, 각자 자신이 지향하는 UX의 내용에 따라 점차 차별화된 UI를 제공하기 시작하고 있는 듯하다. 일례로 고속도로와 해안도로는 UI와 UX의 차이를 보여준다. 고속도로는 직선도로라 운전자가 빠르고 안전하게 목적지에 도달하게 해주지만 좋은 경치를 제공하지는 않는다. 반면에 해안도로는 곡선도로라 주행하는 차량의 속도도 느리고, 게다가 운전하기에 고속도로보다 위험하지만 좋은 경치를 제공한다.이를 UI와 UX 관점으로 보자. UI 관점에서는 목적지에 빠르고 안전하게 도달하게 해주는 도로를 건설하는 것이 중요하지만, UX 관점에서는 속도·안전성과 운전자에게 즐거운 경험을 제공하는 도로를 건설하는 것도 중요하다. 결국 UX 디자인이란 사용자에게 목적 달성 절차의 효율성과 만족스러운 경험을 제공하는 UI를 디자인하는 것이다.볼펜 속에도 UI와 UX의 차별화된 지향점이 담겨 있다. 필기감이 좋고 오래 글을 써도 아프지 않게 디자인된 볼펜은 사용자에게 좋은 경험(UX)을 제공한다. 그러나 고급 볼펜은 단순히 필기감뿐만 아니라 고급스러운 디자인으로 명품 볼펜을 소유한다는 자부심까지 느낄 수 있다. 사용자가 제품에 대해 느끼는 만족감, 브랜드 등이 UX에 포함되는 것이다.금융 서비스 비대면화 추세가 공고히 되면서 UX·UI의 중요성은 지속적으로 높아질 전망이다. 이를 단적으로 설명할 수 있는 개념이 콰드로버전스(Quadrover-gence)다. 콰드로버전스는 하드웨어와 인프라 플랫폼, 소프트웨어, UI, UX의 융합을 의미한다. 그리고 그 정점에 UX가 있다.애플과 구글, 페이스북은 사용자 경험을 최우선으로 하는 콰드로버전스로 인해 지속적인 성과를 거두고 있다. 애플이 제품 대부분을 아웃소싱하는 이유도 바로 여기에 있다. 칩은 삼성전자에서 납품받고 생산은 중국 폭스콘이 담당한다. 하지만 UI·UX만은 미국 본사에서 한다.이상에서 설명한 사례에서도 드러나듯 최근 UI·UX에 대한 결정은 최고경영자가 직접 담당할 만큼 중요도가 높아지고 있는 상황이다. 이처럼 비중이 높아지고 있는 UI·UX 개념이 향후 금융소비자에게 어떠한 새로운 만족감을 제공할지 기대된다.박정호 명지대 특임교수 aijen@mju.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.02.20.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[단독] 카카오페이 직원복지 ‘파격 강화’…‘IT업계 처우경쟁’ 온다</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002579836?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>임직원 대출지원 7000만→3억 등 ‘파격 인상’ 카카오 계열사들, 연봉·근무조건·복지 잇단 개선 IT업계 전반에서 “우리도 처우 개선” 요구 커져 “격차 커지면 우수인력 뺏겨” 경쟁사들도 카카오 주시카카오페이 누리집의 회사 소개 갈무리.  카카오페이가 최대 3억원의 대출에 대해 이자비용을 지원하는 등의 ‘사내 복지 강화’ 방안을 내놓았다. 최근 카카오 본사의 임직원 총 연봉 15% 인상 방침과 카카오뱅크·카카오페이의 포괄임금제 폐지에 이어, 파격적인 복지 제도까지 나오는 등 카카오 그룹이 연일 적극적인 ‘내부 다독이기’에 나서는 모습이다. 카카오의 이런 움직임이 아이티(IT·정보기술) 업계의 처우 개선 경쟁에 불을 붙일 가능성도 제기된다. ■내부 신뢰회복 3탄, ‘복지 강화’  20일 &lt;한겨레&gt; 취재 내용을 종합하면, 지난 18일 카카오페이는 회사 내부망에 이르면 다음달부터 적용될 임직원 복지제도 개편 방안을 공지했다. 공지문에는 △대출이자 지원 △카카오페이 포인트 △식대 △연간 리조트 이용횟수 등을 확대하는 방안이 담겼다. 5월로 예정된 식대 인상을 제외한 항목들은 다음달 시행하기로 했다. 직원들의 이목이 쏠린 항목은 대출이자 지원 확대다. 기존에는 주택임대 대출은 6000만원까지, 주택담보대출 등 주택매매 대출은 7000만원까지 이자율 2% 초과분에 대한 이자 비용을 지원했지만, 주택매입·임대 무관하게 3억원까지 지원하는 것으로 바뀌었다. 최근 시중은행에서 3억원의 전세대출을 새로 받으려면 대체로 매달 70만원 이상의 이자를 내야 한다는 점을 감안하면, 사람에 따라 월 가처분소득이 수십만원 늘 수 있는 셈이다. 각종 온·오프라인 매장에서 사용 가능한 카카오페이 포인트와 식대 인상 역시 ‘임금 인상’과 비슷한 효과를 낼 것으로 보인다. 구성원 복지 명목으로 지급되는 카카오페이 포인트가 월 10만포인트에서 30만포인트로 늘어난다. 식대는 10만원에서 20만원으로 오른다. 전국의 제휴 리조트는 임직원마다 연 5회(총 약 75만원 상당) 쓸 수 있게 했다. 이 정도 현금성 복지는 아이티 회사들 사이에서 ‘드물게 후한 수준’이라는 평이 나온다. 두나무·토스 등 업계에서 처우가 가장 좋다고 알려진 핀테크 회사들이 ‘무이자’ 대출을 지원하는 경우가 있지만, 지원액 상한은 1억원으로 카카오페이보다 적다. 카카오페이가 기존에 제공해오던 ‘3년 근속 시 30일 유급휴가’ 등 휴가 관련 복지도 그대로 유지된다.  카카오의 연이은 처우 개선은 적극적인 내부 사기 진작을 위한 노력으로 풀이된다. 지난해 12월 류영준 전 카카오 대표이사 내정자 등 일부 임원들의 ‘주식 대량 매도’ 이후 카카오에서는 대내외 신뢰 회복이 큰 숙제로 떠올랐다. 특히 카카오페이의 경우 지난해 11월 상장 때부터 공모 주식 수의 20% 정도를 우리사주조합이 갖고 있어, 주가 하락 등에 따른 내부 실망을 다독이는 데 더욱 적극적인 모습이다. ■“카카오발 ‘처우개선 경쟁’ 가능성 커져”  카카오 계열사들의 공격적인 처우 개선은 아이티 업계 전반을 술렁이게 하고 있다. 다른 회사에서도 “그만큼의 인상폭을 달라”는 요구가 나온다는 얘기다. 지난해 여러 회사가 ‘역대급’ 경영 실적을 낸 점도 보상 강화에 대한 주장을 더욱 키우고 있다. 최근 카카오의 임금 예산 확충 방침이 알려진 뒤 직장인 익명 커뮤니티인 ‘블라인드’의 회사별 게시판 등에는 “카카오 수준으로 처우를 맞춰야 한다”, “우리 회사도 새 보상안을 어서 공유해야 한다”는 아이티 기업 직원들의 글이 줄을 잇고 있다. 카카오페이의 복지 강화안에 대해서도 “(개선폭이) 장난이 아니다”, “‘갓(신·god)카오’다”라는 등의 부러움이 이어진다. 업계에서는 아이티 회사들 사이에서 ‘카카오발 처우 개선 경쟁’이 본격화되리라는 예상도 나온다. 개발자·데이터 분석가 등의 인력 공급이 수요에 비해 여전히 크게 부족해, 한 기업이 처우 격차를 벌리면 다른 곳들도 ‘인재 방어’를 위해 비슷한 조처를 취할 가능성이 높기 때문이다. 앞서 지난해 초에는 게임회사들이 경쟁적으로 연봉 인상에 나서면서 일부 기업들이 신입 개발자 초임을 6500만원 등으로 올리기도 했다. 특히 올해는 네이버·스마일게이트·포스코아이씨티(ICT) 등 여러 대기업 노사가 단체협상을 벌이고 있어 이 과정에서 발빠르게 처우를 끌어올리는 곳이 나올 가능성도 있다. 판교에 본사를 둔 한 아이티회사 관계자는 “업계 특성 상 이직이 워낙 잦은 데다 직원들 간 정보 공유도 빨라, 다른 회사의 인사 제도에 신경쓰지 않을 수 없다”며 “카카오의 최근 동향도 주시하고 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.02.18.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>토스뱅크, '입사 1주년' 임직원 17명에게 스톡옵션 34만주 부여</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004665280?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>사진=뉴스1토스뱅크는 임시주주총회에서 입사 1주년을 맞은 임직원 17명에게 총 34만주의 주식매수선택권(스톡옵션)을 부여하기로 결정했다고 18일 밝혔다.이번 스톡옵션 주식의 종류는 기명식 보통주이며 신주발행 형태로 부여된다. 행사가는 액면가 기준 주당 5000원이다. 부여 기준일은 오는 28일이다. 대상 임직원은 이로부터 2년 뒤인 2024년 2월28일부터 5년간 스톡옵션을 행사할 수 있다.토스뱅크는 지난해 11월에도 임직원 30명에게 스톡옵션 60만주를 나눠줬다. 작년 7월에도 홍민택 대표에게 6만주를 준 것을 포함해 30명의 임직원에게 스톡옵션 68만주를 부여했다. 토스뱅크 관계자는 “전문성을 갖춘 우수 인력을 확보하고 주주와 임직원이 사업 성장의 과실을 함께 나누겠다는 취지에서 주식 보상 시스템을 도입했다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.02.24.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[최강시사] 김기식 “우크라이나 사태, 미·러 예상가능한 범위에서 수 두고 있어…이미 세계증시에 선반영, 불안심리 크게 가질 필요없어”</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011219015?sid=100</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>- 바이든, 시진핑, 김정은 등 향후 국내정치 위해 대립, 지정학적 리스크 커질 수도- LG전자 태양광 산업 철수, 선택과 집중 판단 높이 평가- 대한항공 아시아나항공 인수 조건부 승인..현대·기아차도 국내시장 독점률 70%이상이지만 합병 승인, 항공산업도 국내산업으로 볼 수 없어- 플랫폼 기업 독점 규제 강화해야...핀테크 등 이용률 높지만 비대칭 규제 혜택 커■ 인터뷰 자료의 저작권은 KBS 라디오에 있습니다.    인용보도 시 출처를 밝혀주시기 바랍니다.■ 프로그램명 : 최경영의 최강시사■ 방송시간 : 2월 24일 (목) 07:20-08:57 KBS1R FM 97.3 MHz■ 진행 : 최경영 기자 (KBS)■ 출연 : 김기식 소장(더미래연구소, 前 금감원장) ▷ 최경영 : 더 나은 미래를 위해서 오늘의 정책을 고민합니다. 김기식의 정치이야기 &lt;식스센스&gt; 김기식 더미래연구소 소장님 나와 계십니다. 안녕하십니까? ▶ 김기식 : 안녕하세요? ▷ 최경영 : 오늘은 경제 현안들 위주로 살펴보겠습니다. 상황이 러시아, 우크라이나 전쟁 위기 고조 때문에 글로벌 증시도 안 좋고요. 어떻게 보십니까? ▶ 김기식 : 물론 우크라이나 사태라고 하는 게 세계 경제 불안정성을 높이고 특히 이제 원자재 가격 뭐 그중에서도 지금 러시아가 천연가스 세계 최대 수출국이기 때문에 천연가스나 원유 등이 가격의 인상으로 인해서 세계 경제나 세계 증시에 부정적 영향을 크게 준 거는 맞죠. 그러나 2가지 말씀드리고 싶은 거는 이게 어떤 파국적인 수준에서의 타격은 주지 않을 거다. 지금 러시아와 미국이 크게 대립하고 있지만 서로가 예상 가능한 범위에서의 지금 수들을 두고 있는 것으로 보이고요. 그것이 지금 이번 사태가 러시아와 미국이 전면전의 형태로 충돌할 더구나 군사적으로 충돌할 만한 상황으로까지는 않을 거다 이렇게 보고요. 두 번째는 세계증시나 국내증시에도 굉장히 부정적 영향을 주지만 이미 우크라이나발 악재들은 증시에 이미. 악재라는 건 선반영 되거든요. 그래서 이미 다 반영이 되어 있기 때문에 아주 심각한 악화가 발생하지 않는 한 이게 증시에 미치는 영향도 제한적일 거라고 보기 때문에 너무 이렇게 불안심리를 크게 가질 필요는 없겠다. 단기적으로는 그렇게 보입니다. ▷ 최경영 : 서로  예상 가능한 수준에서 뭔가 합의나 협의나 아니면 휴전이나 이런 게 될 것이라고 생각하시는 거는 그 동북부 지역의 일부를 소련이. 아니, 러시아가 장악을 하고 그냥 대충 눈감아줄 것이다? ▶ 김기식 : 그렇죠. 그러니까 이게 예를 들어서 원래 독립국가였던 동유럽 국가들에 러시아가 침공한다 이러면 거의 이제 나토에 가입되어 있기 때문에 더구나 이건 전면전으로 가고 아주 심각한 상황으로 가겠지만 사실 우리가 러시아를 너무 안 좋아해서 그렇기는 합니다만 우크라이나는 원래 소련 연방의 영토였던 곳이기 때문에 그것을 가지고 EU 유럽 국가들이나 미국이 전면전에 나설 가능성은 사실상은 없어 보이고 소련도 러시아도 지난 8년 전에 우크라이나 사태 때 크림반도를 병합했던 것처럼 이른바 돈바스 지역이라고 하는 부분들에 대한 지배권을 확보하는 선에서 그다음에 우크라이나 나토 가입을 지연시키는 이런 정도 선에서 목표를 두고 있지 예를 들면 우크라이나 전체를. ▷ 최경영 : 전체는 아니다. ▶ 김기식 : 완전히 점령해서 병합하겠다까지를 생각하는 건 아니기 때문에 이게 이제 극단적인 대립으로까지 가지는 않을 거다 이렇게 보는 거죠. 다만 제가 조금 더 하나 더 말씀드리고 싶은 거는 이게 전 세계적으로도 그렇고 지금 우리 대한민국 한반도도 지정학적 리스크가 계속 점증하고 있는데 이게 국내 정치적 요인들이 있습니다. 러시아에서 푸틴 대통령이 지금 이렇게 강수를 두는 것도 굉장히 오래 장기집권 하면서 뭔가 국내 정치에 피로가 있고 바이든 대통령이 이렇게 최강수를 두면서 대응하는 이유도 지금 올 11월에 중간선거에서 민주당의 패배가 예상되는 상황이고 그렇게 되면 바이든 대통령 지금 가뜩이나 지지율이 낮은 조건에서 거의 식물 대통령이 되거든요. 그래서 지금 바이든 대통령 지지율이 워낙 낮기 때문에 뭔가 미국 국민들은 이렇게 외국과 전쟁 상태가 되면 국내 대통령을 지지하는 경향이 생깁니다. 그래서 국내 정치적 요인 때문에 바이든 대통령이 러시아에 강경대응 하면서 리더로서 국가의 리더로서의 이미지를 부각시킬 국내 정치적 필요가 있는 거고요. 지금 사실은 시진핑 중국 주석도 올해 등소평의 유훈을 깨고 3연임을 하는 해이기 때문에 중국과 미국의 대립도 또 한편에서 아마 올해 격화될 가능성이 있습니다. 아까 말씀드렸던 바이든의 국내 정치적 필요와 시진핑의 국내 정치적 필요 그래서 지금 전 세계적으로 이런 지정학적 리스크가 커지고 있고 사실은 우리 대한민국도 이번 대선 결과에 따라서는 국내 김정은은 김정은대로 우리 새로운 대통령은 새로운 대통령대로 자기 필요에 의해서 한반도의 지정학적 리스크, 군사적 긴장이 강화될 수 있는 이런 가능성이 있는 거죠. 그래서 경제나 세계증시 또 국내증시 입장에서 보면 지금 우리 대한민국 한반도를 포함해서 전 세계적으로 발생하고 있는 이 지정학적 리스크. 특히 국내 정치적 요인의 필요에 의해서 발생하는 국제 정치의 지정학적 리스크를 어떻게 잘 관리하느냐. 이게 굉장히 중요한 시기인 거죠, 지금. ▷ 최경영 : 그렇죠. 신냉전 시대가 도래하고 있다. 이런 언론의 보도가 나오고 있습니다만 우리가 생각을 해보면 90년대 이전까지는 서방은 서방끼리 무역하고 중국이 없었단 말이죠. 그런데 이제 중국에게 이렇게 많이 의존하고 상호 의존하는 상황에서 그다음에 다시 이제 신냉전 시대가 온다면 정말 골치아플 것 같은데요. 이 상황 자체가. ▶ 김기식 : 2가지 면이 있습니다. 미국과 과거 소련의 대립은 아주 극단적인 형태로 갔는데 미국과 중국 간에 대립은 그렇게 파국적 대립으로 가기는 어렵다고 이야기하는 가장 중요한 이유가 과거 미국과 소련은 경제적으로 분리되어 있는 반면에 지금 미국과 중국은 경제적으로 상호의존되어 있기 때문에 파국이 왔을 때 상대방만이 아니라 자신이 군사적 타격을 고사하고 경제가 붕괴한다는 건 서로 잘 알기 때문에 대립하지만 어느 선에서 이렇게 타협하게 되어 있다고 하는 점에서 그렇게 너무 위험하지 않다고 보지만 앞서 말씀드렸던 것처럼 대개 모든 역사적으로 보면 지정학적 리스크가 현실화 되는 과정은 국내 정치적 요인에 의해서 사실은 너무나 비상식적으로 충돌하면서 예상 밖의 상황 전면전으로 가게 되는 상황들이 있거든요. ▷ 최경영 : 국내 정치를 이용하는 거군요. 국내 정치를 위해서 이용하는 거군요. ▶ 김기식 : 그렇죠. 국내 정치를 위해서 통치자가 대통령이 시진핑이 바이든이 뭐 대한민국의 대통령과 김정은이 국내 정치를 위해서 어떤 리스크를 키울 때 서로 간에 양보할 수 없으니까 그냥 충돌해버리는 이런 양상이 발생할 수 있다. ▷ 최경영 : 그건 조심해야 한다. ▶ 김기식 : 그렇습니다. ▷ 최경영 : 국내 산업현안들 살펴보면 지금 LG전자가 태양광 패널 사업 전면 철수했는데 이거 같은 경우는 수익성 악화 뭐 중국 업체들이 거의 점유를 굉장히 많이 하고 있어서 어쩔 수 없는 측면도 있는 것 같고요. ▶ 김기식 : 불가피하죠. 왜냐하면 지금은 폴리실리콘에 기반한 태양광 셀은 중국과 가격뿐만 아니라 기술 경쟁력에 있어서도 우리가 특별히 가격 경쟁력이 낮은 부분을 상쇄할 만큼 기술력이 뛰어나지 않기 때문에 철수할 수밖에 없는 게 사실이고요. 저는 이 대목에서는 LG가 정말 체제를 바꿔가면서 구광모 회장이 지난번에 휴대폰 철수나 이번 태양광 철수처럼 이렇게 과감하게 선택과 집중을 하고 있는 거는 아주 잘하고 있는 선택이고 경영자로서의 능력을 굉장히 잘 보여주고 있지 않나. 그건 굉장히 높이 평가할만한 것 같습니다. ▷ 최경영 : 그런데 이제 LG의 밥그릇은 그러면 전장이랄지 전기차 전장이랄지 이런 것들로. ▶ 김기식 : 안 되는 사업은 버리고 되는 사업으로 집중하겠다 이런 태도를 보이는 거죠. ▷ 최경영 : 우리 산업들도 다 그쪽으로 고도화 되는 수밖에 없는 거잖아요. ▶ 김기식 : 그렇습니다. 그런데 다만 한 가지 청취자들께 그럼 우리는 태양광 이거 다 포기해야 되냐. 이렇게 보실 건 없는 거고요. 아까 말씀드렸던 것처럼 폴리실리콘 기반한 셀과 패널로는 중국에 경쟁이 안 되고요. 그런데 폴리실리콘에 기반한 태양광 패널의 효율이라는 게 거의 기술적으로는 최대치까지 왔습니다. 그래서 폴리실리콘이 아닌 다른 소재를 개발해서 그것에 기반한 태양광 사업을 하는 것은 가능하고 거기에서 승부가 날 거다. 일부 뭐 특히 야당이나 보수 언론에서 그런 지적을 한다. 우리가 태양광 발전하는데 맨날 중국 업체 배불리는 거 아니냐. 이런 소리를 합니다만 사실 우리가 원전 보수 언론이나 야당이 그렇게 좋아하는 원전 사업은 다 미국 회사들이 지어준 건데 그러면 원전 만들 때는 다 미국 회사 불려주는 건가요? 그러니까 무슨 이야기냐 하면 뭐든지 우리가 부족한 부분을 확대해서 도입할 때는 외국 업체들이 점유는 높지만 우리가 또 기술개발 하면 결과적으로는 우리가 또 그쪽 분야에 산업이 발전하는 계기가 되기 때문에 신재생에너지 차원에서 태양광 발전은 계속 확대해나가야 하고 그거에 맞춰서 우리도 폴리실리콘이 아닌 다른 소재 개발을 통해서 앞으로 전 세계적으로 확장될 수밖에 없는 태양광 분야에서의 산업적 기반을 만들어야겠죠. ▷ 최경영 : 신재생에너지도 그렇고 원전도 그렇고 서로 간에 비용을 낮추려고 하는 기술적인 경쟁 노력은 계속 끊임없이 되고 있는 것 같습니다. ▶ 김기식 : 그럼요. 이미 모든  전 세계 연구 기관에서 나온 게 지금 2020년대 후반 가면 원전의 생산 단가보다 태양광의 생산 단가가 오히려 싸져서 태양광이 원전보다 더 싸게 전기를 생산할 수 있다고 하는 거에 대해서는 이미 나와 있는 검증된 연구 결과입니다. ▷ 최경영 : 그렇죠. 그런데 이제 신재생에너지는 문제는 저장이 마땅치 않다는 것. ▶ 김기식 : 그래서 이제 ESS라고 에너지 저장장치라고 하는 게 전 세계적으로 크게 성장하는 산업 분야고요. 그 부분에 있어서는 대한민국 기업들이 굉장히 강점이 있습니다. LG나 SK나 삼성이나 이런 데들이 ESS라고 하는 에너지 저장장치에서는 전 세계적으로 강점이 있습니다. ▷ 최경영 : 이게 정말 에너지 산업은 보면 볼수록 흥미롭습니다. 앞으로 어떻게 변해갈지는 모르겠네요. 누가 더 값싸게 만들 수 있느냐가 가장 중요한 것 같습니다. 안전하게 공급을 하면서 또 저장할 수 있고 배송이 편리한가. 공정거래위원회가 대한항공과 아시아나항공의 기업 결합을 조건부로 승인했는데 이것도 뭐. ▶ 김기식 : 뭐 예측됐던 거죠. 물론 충분히 이해가 됩니다. 그러니까 예를 들어서 독점이 발생하면 그 독점을 이용해서 가격을 상승시켜서 소비자 후생에 후퇴가 발생할 수 있으니까 가격 인상 자체를 통제하면서도 근원적으로 독점 노선들을 해소하라고 하는 이런 판단을 한 건데요. 그래서 공정위 판단은 저는 충분히 이해는 되지만 한편에서 이런 고려도 해봐야 합니다. 옛날에 현대자동차하고 기아자동차 합병을 했을 때 국내 시장 독점률이 70%를 넘어갔는데도 불구하고 승인했거든요. 왜냐하면 자동차 산업은 글로벌 경쟁을 하기 때문에 국내 독점이라고 하는 기준만으로 판단할 수 없다고 하는 거였는데요. 항공도 노선이라고 하는 거는 국내는 모르지만 국제선은 우리가 노선을 얻었다는 건 우리 노선을 다른 나라에 똑같이 주는 거거든요. 다만 그 나라에서 한국에 오는 사람은 적은 반면에 미국에서 우리나라 온 사람 적은 반면에 우리나라 사람들이 미국이나 유럽에 가는 수가 훨씬 더 많기 때문에 국제 항공 노선에서의 비율이 높은 건데 이런 국내 산업에 기반하지 않고 글로벌 경쟁을 하는 기업들에 있어서 국내 독점성 문제에 대한 판단은 조금 여러 가지 측면에서 판단해볼 필요가 있지 않나 이런 생각은 듭니다. ▷ 최경영 : 이게 지금. 마지막으로 온라인 플랫폼 산업 관련해서도 여쭤봐야 되는데 대선 후보들이 이쪽은 좀 규제하겠다는 공약은 내걸었는데 물론 독점성 논란은 계속 끊임없이 나왔었고 그런데 모르겠습니다. 이게 어떤 결과로 나올지. ▶ 김기식 : 저는 플랫폼 기업에 대한 독점 규제는 강화해야 하는 게 맞다고 생각합니다. ▷ 최경영 : 강화를 해야 한다. ▶ 김기식 : 미국도 지금 우리나라 공정거래위원장에 해당하는 분이 아예 구글이나 페이스북을 아예 기업 분할해야 한다는 입장에 있고요. 우리나라도 그런 네이버나 카카오 등 이런 플랫폼 기업들의 확장에 대해서 또 쿠팡이나 이런 플랫폼 기업들이 계속 확장하는데 왜냐하면 이런 플랫폼 기업들은 순전히 국내에서의 어쨌든 경쟁을 하고 국내 시장 독점성이 문제가 되지 이 플랫폼 기업들이 해외시장에 나가서 무슨 사업을 하고 있지 않거든요. 그런데 플랫폼의 특성은 본질적으로 독점성이 강화되게 되어 있습니다. 왜냐하면 보다 많은 사람이 거래하고 보다 많은 정보가 있는 곳에 더 많은 손님들이 모이게 되고 그래서 시간이 가면 갈수록 한두 개의 독점 기업으로 몰리게 되어 있고 그렇게 독점성이 강화되면 반드시 소비자 가격을 올리는 등 횡포가 발생할 수밖에 없기 때문에 이 시장 자체가 국내에 기반할 수밖에 없는 이런 플랫폼 기업의 독점성에 대해서는 굉장히 강한 규제가 필요한 부분이 있다고 생각하고요. 지금 금융 분야에서도 전통적인 은행들이나 이런 거에 비해서 지금 네이버나 카카오가 금융 쪽에 지금 급격히 진출하고 있고 사실은 어떻게 보면 지금 청취자들께서도 은행 앱보다도 오히려 토스니 카카오니 네이버를 더 많이 쓰고 계신데 지금 비대칭 규제라고 그래서 플랫폼 기업이 진출한 핀테크 업무에 대해서는 규제를 기존 금융회사보다 훨씬 덜하고 있거든요. 그러니까 이것도 사실은 규제 제일 큰 목적이 소비자 보호인데 소비자들이 점점 많아져서 이제는 기존 은행보다도 더 많이 이용하고 있는 핀테크 영역 플랫폼 금융회사들에 대해서. ▷ 최경영 : 어떻게 할 것이냐. ▶ 김기식 : 기존 회사보다 규제를 소비자 보호장치를 덜한다. 이건 있을 수 없다라고 그렇게 보죠. ▷ 최경영 : 알겠습니다. 여기까지 해야 되겠습니다. 김기식의 &lt;식스센스&gt; 더미래연구소 김기식 소장님이었습니다. 고맙습니다. ▶ 김기식 : 고맙습니다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
